--- a/planning/TestWriteTeachingUnits.xlsx
+++ b/planning/TestWriteTeachingUnits.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="59">
   <si>
     <t>TD</t>
   </si>
@@ -32,112 +32,148 @@
     <t>CM</t>
   </si>
   <si>
-    <t>Ch. Lenté</t>
+    <t>J.C. Bourgoin</t>
+  </si>
+  <si>
+    <t>Probabilités</t>
+  </si>
+  <si>
+    <t>Ch Lenté</t>
   </si>
   <si>
     <t>TP</t>
   </si>
   <si>
-    <t>Outils mathématiques pour l'ingénieur</t>
-  </si>
-  <si>
-    <t>Outils mathematiques pour l'ingenieur</t>
+    <t>M.Slimane</t>
+  </si>
+  <si>
+    <t>Statistiques</t>
+  </si>
+  <si>
+    <t>Probabilite et statistiques</t>
+  </si>
+  <si>
+    <t>V. T'Kindt</t>
   </si>
   <si>
     <t>ATER2</t>
   </si>
   <si>
-    <t>M. Darwich</t>
-  </si>
-  <si>
-    <t>Langage C</t>
-  </si>
-  <si>
-    <t>N. Monmarché</t>
-  </si>
-  <si>
-    <t>Compilation</t>
-  </si>
-  <si>
-    <t>R. Bocquillon</t>
-  </si>
-  <si>
-    <t>H. Cherni</t>
-  </si>
-  <si>
-    <t>Projet tutoré 1</t>
-  </si>
-  <si>
-    <t>Programmation imperative et mise en œuvre</t>
-  </si>
-  <si>
-    <t>C.Tacquard</t>
-  </si>
-  <si>
-    <t>M. Martineau</t>
-  </si>
-  <si>
-    <t>Conception et utilisation de bases de donnée</t>
-  </si>
-  <si>
-    <t>Conception et utilisation de bases de donnees</t>
+    <t>Algorithmique Objet</t>
+  </si>
+  <si>
+    <t>Algorithmique Objet_mundus</t>
+  </si>
+  <si>
+    <t>Programmation orientée objet : C++</t>
+  </si>
+  <si>
+    <t>Programmation orientée objet : C++_mundus</t>
+  </si>
+  <si>
+    <t>projet tutoré C++</t>
+  </si>
+  <si>
+    <t>projet tutoré C++_mundus</t>
+  </si>
+  <si>
+    <t>Conception et programmation objet : mise en œuvre c++</t>
+  </si>
+  <si>
+    <t>H. Cardot</t>
+  </si>
+  <si>
+    <t>Transmission de l'information</t>
+  </si>
+  <si>
+    <t>R. Ravaux</t>
+  </si>
+  <si>
+    <t>Mostapha Darwich</t>
+  </si>
+  <si>
+    <t>Réseaux</t>
+  </si>
+  <si>
+    <t>Réseaux_mundus</t>
+  </si>
+  <si>
+    <t>Transmission de l'information et reseaux</t>
+  </si>
+  <si>
+    <t>J. Mendoza</t>
+  </si>
+  <si>
+    <t>Outil pour la synchronisation</t>
+  </si>
+  <si>
+    <t>Outil pour la synchronisation_mundus</t>
+  </si>
+  <si>
+    <t>P. Martineau</t>
+  </si>
+  <si>
+    <t>Programmation multi-cœur et GPU</t>
   </si>
   <si>
     <t>M. Delalandre</t>
   </si>
   <si>
-    <t>P. Makris</t>
-  </si>
-  <si>
-    <t>Architecture des ordinateurs et principes fondamentaux des SE</t>
-  </si>
-  <si>
-    <t>J Mendoza</t>
-  </si>
-  <si>
-    <t>Illustration d'un SE : Unix</t>
-  </si>
-  <si>
-    <t>Principes fondamentaux et mise en oeuvre des se</t>
-  </si>
-  <si>
-    <t>G. Venturini</t>
-  </si>
-  <si>
-    <t>Algorithmique</t>
-  </si>
-  <si>
-    <t>N. Ragot</t>
-  </si>
-  <si>
-    <t>Introduction au génie logiciel</t>
-  </si>
-  <si>
-    <t>N. Monmarché/P. Gaucher/Y. Kergosien</t>
-  </si>
-  <si>
-    <t>Projet tutoré 2</t>
-  </si>
-  <si>
-    <t>Genie logiciel et mise en œuvre</t>
-  </si>
-  <si>
-    <t>BV Langue - Mutualisé avec GAE</t>
-  </si>
-  <si>
-    <t>Anglais scientifique</t>
-  </si>
-  <si>
-    <t>S. Amary</t>
-  </si>
-  <si>
-    <t>Ingénieur dans la société : Interculturalité</t>
-  </si>
-  <si>
-    <t>I. Calmé et …  (IAE)</t>
-  </si>
-  <si>
-    <t>Environnement économique de l'entreprise : Jeux création entreprise</t>
+    <t>M. Bollaert</t>
+  </si>
+  <si>
+    <t>Systèmes répartis</t>
+  </si>
+  <si>
+    <t>Systèmes répartis_mundus</t>
+  </si>
+  <si>
+    <t>Systeme et parallelisme</t>
+  </si>
+  <si>
+    <t>Modélisation orientée objet (UML)</t>
+  </si>
+  <si>
+    <t>Modélisation orientée objet (UML)_mundus</t>
+  </si>
+  <si>
+    <t>C. Esswein</t>
+  </si>
+  <si>
+    <t>C Gatay/F.Chauveau</t>
+  </si>
+  <si>
+    <t>Programmation orientée objet : Java</t>
+  </si>
+  <si>
+    <t>projet tutoré java</t>
+  </si>
+  <si>
+    <t>Conception et programmation objet : mise en œuvre java</t>
+  </si>
+  <si>
+    <t>Anglais spécialité informatique</t>
+  </si>
+  <si>
+    <t>Gr SHEJS</t>
+  </si>
+  <si>
+    <t>Ingénieur dans la société : Epistémologie</t>
+  </si>
+  <si>
+    <t>Ingénieur dans la société : Développement durable</t>
+  </si>
+  <si>
+    <t>Carsat aract</t>
+  </si>
+  <si>
+    <t>Qualité de vie au travail - introduction</t>
+  </si>
+  <si>
+    <t>V. Leperlier Roy</t>
+  </si>
+  <si>
+    <t>Droit de l'informatique *</t>
   </si>
   <si>
     <t/>
@@ -146,7 +182,13 @@
     <t>Management de Projet et Conduite Participative</t>
   </si>
   <si>
-    <t>Shejs1 et anglais1</t>
+    <t>Shejs2 et anglais2</t>
+  </si>
+  <si>
+    <t>Stage découverte entreprise (4 semaines minimum)</t>
+  </si>
+  <si>
+    <t>Stage  annee 3</t>
   </si>
 </sst>
 </file>
@@ -154,13 +196,338 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="87">
+  <fonts count="152">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -643,7 +1010,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
@@ -675,196 +1042,196 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="51" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="56" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="60" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="62" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="71" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -873,34 +1240,229 @@
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="77" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="79" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="86" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -909,7 +1471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A18:I49"/>
+  <dimension ref="A18:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -938,11 +1500,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s" s="13">
-        <v>8</v>
+      <c r="A20" t="s" s="23">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s" s="11">
+        <v>7</v>
       </c>
       <c r="C20" t="s" s="8">
         <v>6</v>
@@ -960,309 +1522,572 @@
       </c>
     </row>
     <row r="22">
-      <c r="C22" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="H22" t="s" s="11">
-        <v>7</v>
+      <c r="B22" t="s" s="22">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s" s="13">
+        <v>8</v>
+      </c>
+      <c r="H22" t="s" s="12">
+        <v>5</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="32">
-        <v>18</v>
-      </c>
-      <c r="B23" t="s" s="19">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s" s="16">
+      <c r="C23" t="s" s="15">
+        <v>8</v>
+      </c>
+      <c r="H23" t="s" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="s" s="17">
         <v>10</v>
       </c>
-      <c r="H23" t="s" s="15">
+      <c r="H24" t="s" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="24">
-      <c r="C24" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="H24" t="s" s="17">
-        <v>7</v>
-      </c>
-    </row>
     <row r="25">
-      <c r="B25" t="s" s="26">
-        <v>14</v>
-      </c>
-      <c r="C25" t="s" s="21">
-        <v>13</v>
-      </c>
-      <c r="H25" t="s" s="20">
-        <v>5</v>
+      <c r="C25" t="s" s="19">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="C26" t="s" s="23">
-        <v>13</v>
-      </c>
-      <c r="H26" t="s" s="22">
-        <v>0</v>
+      <c r="C26" t="s" s="21">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s" s="20">
+        <v>9</v>
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="s" s="50">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s" s="30">
+        <v>15</v>
+      </c>
       <c r="C27" t="s" s="25">
         <v>13</v>
       </c>
       <c r="H27" t="s" s="24">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="31">
+      <c r="C28" t="s" s="27">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="s" s="29">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s" s="33">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s" s="32">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s" s="40">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="28">
-        <v>15</v>
-      </c>
-      <c r="H28" t="s" s="27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="C29" t="s" s="30">
-        <v>16</v>
-      </c>
-      <c r="H29" t="s" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="42">
+      <c r="C31" t="s" s="35">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="s" s="37">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s" s="36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="s" s="39">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s" s="38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s" s="43">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s" s="42">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s" s="41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s" s="46">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s" s="45">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s" s="44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s" s="49">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s" s="48">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s" s="47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="76">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s" s="55">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s" s="52">
         <v>22</v>
       </c>
-      <c r="B30" t="s" s="41">
-        <v>21</v>
-      </c>
-      <c r="C30" t="s" s="34">
-        <v>19</v>
-      </c>
-      <c r="H30" t="s" s="33">
+      <c r="H37" t="s" s="51">
         <v>5</v>
       </c>
     </row>
-    <row r="31">
-      <c r="C31" t="s" s="36">
-        <v>19</v>
-      </c>
-      <c r="H31" t="s" s="35">
+    <row r="38">
+      <c r="C38" t="s" s="54">
+        <v>22</v>
+      </c>
+      <c r="H38" t="s" s="53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s" s="68">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s" s="57">
+        <v>22</v>
+      </c>
+      <c r="H39" t="s" s="56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="s" s="59">
+        <v>22</v>
+      </c>
+      <c r="H40" t="s" s="58">
         <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" t="s" s="38">
-        <v>19</v>
-      </c>
-      <c r="H32" t="s" s="37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="C33" t="s" s="40">
-        <v>20</v>
-      </c>
-      <c r="H33" t="s" s="39">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="57">
-        <v>28</v>
-      </c>
-      <c r="B34" t="s" s="51">
-        <v>25</v>
-      </c>
-      <c r="C34" t="s" s="44">
-        <v>23</v>
-      </c>
-      <c r="H34" t="s" s="43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" t="s" s="46">
-        <v>23</v>
-      </c>
-      <c r="H35" t="s" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="C36" t="s" s="48">
-        <v>24</v>
-      </c>
-      <c r="H36" t="s" s="47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="C37" t="s" s="50">
-        <v>24</v>
-      </c>
-      <c r="H37" t="s" s="49">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" t="s" s="56">
-        <v>27</v>
-      </c>
-      <c r="C38" t="s" s="53">
-        <v>26</v>
-      </c>
-      <c r="H38" t="s" s="52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="C39" t="s" s="55">
-        <v>26</v>
-      </c>
-      <c r="H39" t="s" s="54">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="71">
-        <v>35</v>
-      </c>
-      <c r="B40" t="s" s="62">
-        <v>30</v>
-      </c>
-      <c r="C40" t="s" s="59">
-        <v>29</v>
-      </c>
-      <c r="H40" t="s" s="58">
-        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="C41" t="s" s="61">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H41" t="s" s="60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="s" s="63">
+        <v>24</v>
+      </c>
+      <c r="H42" t="s" s="62">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="s" s="65">
+        <v>25</v>
+      </c>
+      <c r="H43" t="s" s="64">
         <v>0</v>
       </c>
     </row>
-    <row r="42">
-      <c r="B42" t="s" s="67">
+    <row r="44">
+      <c r="C44" t="s" s="67">
+        <v>25</v>
+      </c>
+      <c r="H44" t="s" s="66">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s" s="75">
+        <v>27</v>
+      </c>
+      <c r="C45" t="s" s="70">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="s" s="72">
+        <v>24</v>
+      </c>
+      <c r="H46" t="s" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="s" s="74">
+        <v>24</v>
+      </c>
+      <c r="H47" t="s" s="73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="108">
+        <v>38</v>
+      </c>
+      <c r="B48" t="s" s="83">
+        <v>30</v>
+      </c>
+      <c r="C48" t="s" s="78">
+        <v>29</v>
+      </c>
+      <c r="H48" t="s" s="77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="s" s="80">
+        <v>29</v>
+      </c>
+      <c r="H49" t="s" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="s" s="82">
+        <v>29</v>
+      </c>
+      <c r="H50" t="s" s="81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s" s="88">
+        <v>31</v>
+      </c>
+      <c r="C51" t="s" s="85">
+        <v>29</v>
+      </c>
+      <c r="H51" t="s" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="s" s="87">
+        <v>29</v>
+      </c>
+      <c r="H52" t="s" s="86">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s" s="93">
+        <v>33</v>
+      </c>
+      <c r="C53" t="s" s="90">
         <v>32</v>
       </c>
-      <c r="C42" t="s" s="64">
-        <v>31</v>
-      </c>
-      <c r="H42" t="s" s="63">
+      <c r="H53" t="s" s="89">
         <v>5</v>
       </c>
     </row>
-    <row r="43">
-      <c r="C43" t="s" s="66">
-        <v>31</v>
-      </c>
-      <c r="H43" t="s" s="65">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" t="s" s="70">
+    <row r="54">
+      <c r="C54" t="s" s="92">
+        <v>32</v>
+      </c>
+      <c r="H54" t="s" s="91">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="s" s="102">
+        <v>36</v>
+      </c>
+      <c r="C55" t="s" s="95">
         <v>34</v>
       </c>
-      <c r="C44" t="s" s="69">
-        <v>33</v>
-      </c>
-      <c r="H44" t="s" s="68">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="86">
+      <c r="H55" t="s" s="94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="s" s="97">
+        <v>34</v>
+      </c>
+      <c r="H56" t="s" s="96">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="s" s="99">
+        <v>35</v>
+      </c>
+      <c r="H57" t="s" s="98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="s" s="101">
+        <v>35</v>
+      </c>
+      <c r="H58" t="s" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s" s="107">
+        <v>37</v>
+      </c>
+      <c r="C59" t="s" s="104">
+        <v>34</v>
+      </c>
+      <c r="H59" t="s" s="103">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="s" s="106">
+        <v>35</v>
+      </c>
+      <c r="H60" t="s" s="105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="127">
+        <v>45</v>
+      </c>
+      <c r="B61" t="s" s="113">
+        <v>39</v>
+      </c>
+      <c r="C61" t="s" s="110">
+        <v>13</v>
+      </c>
+      <c r="H61" t="s" s="109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="s" s="112">
+        <v>13</v>
+      </c>
+      <c r="H62" t="s" s="111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s" s="116">
+        <v>40</v>
+      </c>
+      <c r="C63" t="s" s="115">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s" s="123">
+        <v>43</v>
+      </c>
+      <c r="C64" t="s" s="118">
+        <v>41</v>
+      </c>
+      <c r="H64" t="s" s="117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="s" s="120">
+        <v>41</v>
+      </c>
+      <c r="H65" t="s" s="119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="s" s="122">
+        <v>42</v>
+      </c>
+      <c r="H66" t="s" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="s" s="126">
         <v>44</v>
       </c>
-      <c r="B45" t="s" s="76">
-        <v>37</v>
-      </c>
-      <c r="C45" t="s" s="73">
-        <v>36</v>
-      </c>
-      <c r="H45" t="s" s="72">
+      <c r="C67" t="s" s="125">
+        <v>41</v>
+      </c>
+      <c r="H67" t="s" s="124">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="148">
+        <v>56</v>
+      </c>
+      <c r="B68" t="s" s="130">
+        <v>46</v>
+      </c>
+      <c r="C68" t="s" s="129">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s" s="128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="s" s="133">
+        <v>48</v>
+      </c>
+      <c r="C69" t="s" s="132">
+        <v>47</v>
+      </c>
+      <c r="H69" t="s" s="131">
         <v>5</v>
       </c>
     </row>
-    <row r="46">
-      <c r="C46" t="s" s="75">
-        <v>36</v>
-      </c>
-      <c r="H46" t="s" s="74">
+    <row r="70">
+      <c r="B70" t="s" s="136">
+        <v>49</v>
+      </c>
+      <c r="C70" t="s" s="135">
+        <v>47</v>
+      </c>
+      <c r="H70" t="s" s="134">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="s" s="141">
+        <v>51</v>
+      </c>
+      <c r="C71" t="s" s="138">
+        <v>50</v>
+      </c>
+      <c r="H71" t="s" s="137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="s" s="140">
+        <v>50</v>
+      </c>
+      <c r="H72" t="s" s="139">
         <v>0</v>
       </c>
     </row>
-    <row r="47">
-      <c r="B47" t="s" s="79">
-        <v>39</v>
-      </c>
-      <c r="C47" t="s" s="78">
-        <v>38</v>
-      </c>
-      <c r="H47" t="s" s="77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" t="s" s="82">
-        <v>41</v>
-      </c>
-      <c r="C48" t="s" s="81">
-        <v>40</v>
-      </c>
-      <c r="H48" t="s" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" t="s" s="85">
-        <v>43</v>
-      </c>
-      <c r="C49" t="s" s="84">
-        <v>42</v>
-      </c>
-      <c r="H49" t="s" s="83">
-        <v>7</v>
+    <row r="73">
+      <c r="B73" t="s" s="144">
+        <v>53</v>
+      </c>
+      <c r="C73" t="s" s="143">
+        <v>52</v>
+      </c>
+      <c r="H73" t="s" s="142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="s" s="147">
+        <v>55</v>
+      </c>
+      <c r="C74" t="s" s="146">
+        <v>54</v>
+      </c>
+      <c r="H74" t="s" s="145">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="151">
+        <v>58</v>
+      </c>
+      <c r="B75" t="s" s="150">
+        <v>57</v>
+      </c>
+      <c r="C75" t="s" s="149">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A27:A36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A37:A47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A48:A60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="A68:A74"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/planning/TestWriteTeachingUnits.xlsx
+++ b/planning/TestWriteTeachingUnits.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Planning S5" r:id="rId3" sheetId="1"/>
+    <sheet name="Planning S6" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="98">
   <si>
     <t>TD</t>
   </si>
@@ -32,6 +33,138 @@
     <t>CM</t>
   </si>
   <si>
+    <t>Ch. Lenté</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>Outils mathématiques pour l'ingénieur</t>
+  </si>
+  <si>
+    <t>Outils mathematiques pour l'ingenieur</t>
+  </si>
+  <si>
+    <t>ATER2</t>
+  </si>
+  <si>
+    <t>M. Darwich</t>
+  </si>
+  <si>
+    <t>Langage C</t>
+  </si>
+  <si>
+    <t>N. Monmarché</t>
+  </si>
+  <si>
+    <t>Compilation</t>
+  </si>
+  <si>
+    <t>R. Bocquillon</t>
+  </si>
+  <si>
+    <t>H. Cherni</t>
+  </si>
+  <si>
+    <t>Projet tutoré 1</t>
+  </si>
+  <si>
+    <t>Projet tutoré 1_mundus</t>
+  </si>
+  <si>
+    <t>Programmation imperative et mise en œuvre</t>
+  </si>
+  <si>
+    <t>C.Tacquard</t>
+  </si>
+  <si>
+    <t>M. Martineau</t>
+  </si>
+  <si>
+    <t>Conception et utilisation de bases de donnée</t>
+  </si>
+  <si>
+    <t>Conception et utilisation de bases de donnée_mundus</t>
+  </si>
+  <si>
+    <t>Conception et utilisation de bases de donnees</t>
+  </si>
+  <si>
+    <t>M. Delalandre</t>
+  </si>
+  <si>
+    <t>P. Makris</t>
+  </si>
+  <si>
+    <t>Architecture des ordinateurs et principes fondamentaux des SE</t>
+  </si>
+  <si>
+    <t>J Mendoza</t>
+  </si>
+  <si>
+    <t>Illustration d'un SE : Unix</t>
+  </si>
+  <si>
+    <t>Illustration d'un SE : Unix_mundus</t>
+  </si>
+  <si>
+    <t>Principes fondamentaux et mise en oeuvre des se</t>
+  </si>
+  <si>
+    <t>G. Venturini</t>
+  </si>
+  <si>
+    <t>Algorithmique</t>
+  </si>
+  <si>
+    <t>Algorithmique_mundus</t>
+  </si>
+  <si>
+    <t>N. Ragot</t>
+  </si>
+  <si>
+    <t>Introduction au génie logiciel</t>
+  </si>
+  <si>
+    <t>Introduction au génie logiciel_mundus</t>
+  </si>
+  <si>
+    <t>N. Monmarché/P. Gaucher/Y. Kergosien</t>
+  </si>
+  <si>
+    <t>Projet tutoré 2</t>
+  </si>
+  <si>
+    <t>Genie logiciel et mise en œuvre</t>
+  </si>
+  <si>
+    <t>BV Langue - Mutualisé avec GAE</t>
+  </si>
+  <si>
+    <t>Anglais scientifique</t>
+  </si>
+  <si>
+    <t>S. Amary</t>
+  </si>
+  <si>
+    <t>Ingénieur dans la société : Interculturalité</t>
+  </si>
+  <si>
+    <t>I. Calmé et …  (IAE)</t>
+  </si>
+  <si>
+    <t>Environnement économique de l'entreprise : Jeux création entreprise</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Management de Projet et Conduite Participative</t>
+  </si>
+  <si>
+    <t>Shejs1 et anglais1</t>
+  </si>
+  <si>
     <t>J.C. Bourgoin</t>
   </si>
   <si>
@@ -41,9 +174,6 @@
     <t>Ch Lenté</t>
   </si>
   <si>
-    <t>TP</t>
-  </si>
-  <si>
     <t>M.Slimane</t>
   </si>
   <si>
@@ -56,9 +186,6 @@
     <t>V. T'Kindt</t>
   </si>
   <si>
-    <t>ATER2</t>
-  </si>
-  <si>
     <t>Algorithmique Objet</t>
   </si>
   <si>
@@ -116,9 +243,6 @@
     <t>Programmation multi-cœur et GPU</t>
   </si>
   <si>
-    <t>M. Delalandre</t>
-  </si>
-  <si>
     <t>M. Bollaert</t>
   </si>
   <si>
@@ -174,12 +298,6 @@
   </si>
   <si>
     <t>Droit de l'informatique *</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Management de Projet et Conduite Participative</t>
   </si>
   <si>
     <t>Shejs2 et anglais2</t>
@@ -196,13 +314,1508 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="152">
+  <fonts count="451">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1010,7 +2623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="451">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
@@ -1030,46 +2643,46 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -1081,28 +2694,28 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -1117,13 +2730,13 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -1132,16 +2745,16 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -1162,13 +2775,13 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="51" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -1177,37 +2790,37 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="62" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="66" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -1216,22 +2829,22 @@
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -1240,7 +2853,7 @@
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -1252,79 +2865,79 @@
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="83" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="93" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="105" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -1336,13 +2949,13 @@
     <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -1351,7 +2964,7 @@
     <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="114" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -1360,19 +2973,19 @@
     <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="119" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -1381,10 +2994,10 @@
     <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -1393,16 +3006,16 @@
     <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -1411,7 +3024,7 @@
     <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="134" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -1420,13 +3033,13 @@
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="139" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -1435,16 +3048,16 @@
     <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -1453,7 +3066,7 @@
     <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="148" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -1463,6 +3076,903 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1471,579 +3981,1595 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A18:I75"/>
+  <dimension ref="A18:K56"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="18">
-      <c r="A18" t="s" s="6">
+      <c r="A18" t="s" s="10">
         <v>4</v>
       </c>
-      <c r="B18" t="s" s="3">
+      <c r="B18" t="s" s="5">
         <v>2</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="H18" t="s" s="1">
+      <c r="D18" t="n" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E18" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J18" t="s" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="5">
+      <c r="B19" t="s" s="9">
         <v>3</v>
       </c>
-      <c r="C19" t="s" s="4">
+      <c r="C19" t="s" s="6">
         <v>1</v>
       </c>
+      <c r="D19" t="n" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="E19" t="n" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="23">
+      <c r="A20" t="s" s="24">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s" s="23">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="D20" t="n" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="E20" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="J20" t="s" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="s" s="16">
+        <v>6</v>
+      </c>
+      <c r="D21" t="n" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="E21" t="n" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="J21" t="s" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="s" s="20">
+        <v>6</v>
+      </c>
+      <c r="D22" t="n" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="E22" t="n" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="J22" t="s" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="61">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s" s="33">
         <v>12</v>
       </c>
-      <c r="B20" t="s" s="11">
+      <c r="C23" t="s" s="26">
+        <v>10</v>
+      </c>
+      <c r="D23" t="n" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="E23" t="n" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="J23" t="s" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="s" s="30">
+        <v>11</v>
+      </c>
+      <c r="D24" t="n" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="E24" t="n" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="J24" t="s" s="29">
         <v>7</v>
       </c>
-      <c r="C20" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="H20" t="s" s="7">
+    </row>
+    <row r="25">
+      <c r="B25" t="s" s="46">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s" s="35">
+        <v>13</v>
+      </c>
+      <c r="D25" t="n" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="E25" t="n" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="J25" t="s" s="34">
         <v>5</v>
       </c>
     </row>
+    <row r="26">
+      <c r="C26" t="s" s="39">
+        <v>13</v>
+      </c>
+      <c r="D26" t="n" s="40">
+        <v>1.0</v>
+      </c>
+      <c r="E26" t="n" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="J26" t="s" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="s" s="43">
+        <v>13</v>
+      </c>
+      <c r="D27" t="n" s="44">
+        <v>1.0</v>
+      </c>
+      <c r="E27" t="n" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="J27" t="s" s="42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s" s="55">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s" s="48">
+        <v>15</v>
+      </c>
+      <c r="D28" t="n" s="49">
+        <v>1.0</v>
+      </c>
+      <c r="E28" t="n" s="50">
+        <v>0.0</v>
+      </c>
+      <c r="J28" t="s" s="47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="s" s="52">
+        <v>16</v>
+      </c>
+      <c r="D29" t="n" s="53">
+        <v>1.0</v>
+      </c>
+      <c r="E29" t="n" s="54">
+        <v>0.0</v>
+      </c>
+      <c r="J29" t="s" s="51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s" s="60">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s" s="57">
+        <v>16</v>
+      </c>
+      <c r="D30" t="n" s="59">
+        <v>0.0</v>
+      </c>
+      <c r="E30" t="n" s="58">
+        <v>1.0</v>
+      </c>
+      <c r="J30" t="s" s="56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="92">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s" s="78">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s" s="63">
+        <v>20</v>
+      </c>
+      <c r="D31" t="n" s="64">
+        <v>1.0</v>
+      </c>
+      <c r="E31" t="n" s="65">
+        <v>0.0</v>
+      </c>
+      <c r="J31" t="s" s="62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="s" s="67">
+        <v>20</v>
+      </c>
+      <c r="D32" t="n" s="68">
+        <v>1.0</v>
+      </c>
+      <c r="E32" t="n" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="J32" t="s" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="s" s="71">
+        <v>20</v>
+      </c>
+      <c r="D33" t="n" s="72">
+        <v>1.0</v>
+      </c>
+      <c r="E33" t="n" s="73">
+        <v>0.0</v>
+      </c>
+      <c r="J33" t="s" s="70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="s" s="75">
+        <v>21</v>
+      </c>
+      <c r="D34" t="n" s="76">
+        <v>1.0</v>
+      </c>
+      <c r="E34" t="n" s="77">
+        <v>0.0</v>
+      </c>
+      <c r="J34" t="s" s="74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s" s="91">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s" s="80">
+        <v>20</v>
+      </c>
+      <c r="D35" t="n" s="82">
+        <v>0.0</v>
+      </c>
+      <c r="E35" t="n" s="81">
+        <v>1.0</v>
+      </c>
+      <c r="J35" t="s" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="s" s="84">
+        <v>20</v>
+      </c>
+      <c r="D36" t="n" s="86">
+        <v>0.0</v>
+      </c>
+      <c r="E36" t="n" s="85">
+        <v>1.0</v>
+      </c>
+      <c r="J36" t="s" s="83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="s" s="88">
+        <v>21</v>
+      </c>
+      <c r="D37" t="n" s="90">
+        <v>0.0</v>
+      </c>
+      <c r="E37" t="n" s="89">
+        <v>1.0</v>
+      </c>
+      <c r="J37" t="s" s="87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="124">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s" s="109">
+        <v>27</v>
+      </c>
+      <c r="C38" t="s" s="94">
+        <v>25</v>
+      </c>
+      <c r="D38" t="n" s="95">
+        <v>1.0</v>
+      </c>
+      <c r="E38" t="n" s="96">
+        <v>0.0</v>
+      </c>
+      <c r="J38" t="s" s="93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="s" s="98">
+        <v>25</v>
+      </c>
+      <c r="D39" t="n" s="99">
+        <v>1.0</v>
+      </c>
+      <c r="E39" t="n" s="100">
+        <v>0.0</v>
+      </c>
+      <c r="J39" t="s" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="s" s="102">
+        <v>26</v>
+      </c>
+      <c r="D40" t="n" s="103">
+        <v>1.0</v>
+      </c>
+      <c r="E40" t="n" s="104">
+        <v>0.0</v>
+      </c>
+      <c r="J40" t="s" s="101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="s" s="106">
+        <v>26</v>
+      </c>
+      <c r="D41" t="n" s="107">
+        <v>1.0</v>
+      </c>
+      <c r="E41" t="n" s="108">
+        <v>0.0</v>
+      </c>
+      <c r="J41" t="s" s="105">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s" s="118">
+        <v>29</v>
+      </c>
+      <c r="C42" t="s" s="111">
+        <v>28</v>
+      </c>
+      <c r="D42" t="n" s="112">
+        <v>1.0</v>
+      </c>
+      <c r="E42" t="n" s="113">
+        <v>0.0</v>
+      </c>
+      <c r="J42" t="s" s="110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="s" s="115">
+        <v>28</v>
+      </c>
+      <c r="D43" t="n" s="116">
+        <v>1.0</v>
+      </c>
+      <c r="E43" t="n" s="117">
+        <v>0.0</v>
+      </c>
+      <c r="J43" t="s" s="114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s" s="123">
+        <v>30</v>
+      </c>
+      <c r="C44" t="s" s="120">
+        <v>28</v>
+      </c>
+      <c r="D44" t="n" s="122">
+        <v>0.0</v>
+      </c>
+      <c r="E44" t="n" s="121">
+        <v>1.0</v>
+      </c>
+      <c r="J44" t="s" s="119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="158">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s" s="133">
+        <v>33</v>
+      </c>
+      <c r="C45" t="s" s="126">
+        <v>32</v>
+      </c>
+      <c r="D45" t="n" s="127">
+        <v>1.0</v>
+      </c>
+      <c r="E45" t="n" s="128">
+        <v>0.0</v>
+      </c>
+      <c r="J45" t="s" s="125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="s" s="130">
+        <v>16</v>
+      </c>
+      <c r="D46" t="n" s="131">
+        <v>1.0</v>
+      </c>
+      <c r="E46" t="n" s="132">
+        <v>0.0</v>
+      </c>
+      <c r="J46" t="s" s="129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s" s="138">
+        <v>34</v>
+      </c>
+      <c r="C47" t="s" s="135">
+        <v>16</v>
+      </c>
+      <c r="D47" t="n" s="137">
+        <v>0.0</v>
+      </c>
+      <c r="E47" t="n" s="136">
+        <v>1.0</v>
+      </c>
+      <c r="J47" t="s" s="134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s" s="147">
+        <v>36</v>
+      </c>
+      <c r="C48" t="s" s="140">
+        <v>35</v>
+      </c>
+      <c r="D48" t="n" s="141">
+        <v>1.0</v>
+      </c>
+      <c r="E48" t="n" s="142">
+        <v>0.0</v>
+      </c>
+      <c r="J48" t="s" s="139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="s" s="144">
+        <v>35</v>
+      </c>
+      <c r="D49" t="n" s="145">
+        <v>1.0</v>
+      </c>
+      <c r="E49" t="n" s="146">
+        <v>0.0</v>
+      </c>
+      <c r="J49" t="s" s="143">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s" s="152">
+        <v>37</v>
+      </c>
+      <c r="C50" t="s" s="149">
+        <v>35</v>
+      </c>
+      <c r="D50" t="n" s="151">
+        <v>0.0</v>
+      </c>
+      <c r="E50" t="n" s="150">
+        <v>1.0</v>
+      </c>
+      <c r="J50" t="s" s="148">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s" s="157">
+        <v>39</v>
+      </c>
+      <c r="C51" t="s" s="154">
+        <v>38</v>
+      </c>
+      <c r="D51" t="n" s="155">
+        <v>1.0</v>
+      </c>
+      <c r="E51" t="n" s="156">
+        <v>0.0</v>
+      </c>
+      <c r="J51" t="s" s="153">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="183">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s" s="167">
+        <v>42</v>
+      </c>
+      <c r="C52" t="s" s="160">
+        <v>41</v>
+      </c>
+      <c r="D52" t="n" s="161">
+        <v>1.0</v>
+      </c>
+      <c r="E52" t="n" s="162">
+        <v>0.0</v>
+      </c>
+      <c r="J52" t="s" s="159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="s" s="164">
+        <v>41</v>
+      </c>
+      <c r="D53" t="n" s="165">
+        <v>1.0</v>
+      </c>
+      <c r="E53" t="n" s="166">
+        <v>0.0</v>
+      </c>
+      <c r="J53" t="s" s="163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s" s="172">
+        <v>44</v>
+      </c>
+      <c r="C54" t="s" s="169">
+        <v>43</v>
+      </c>
+      <c r="D54" t="n" s="170">
+        <v>1.0</v>
+      </c>
+      <c r="E54" t="n" s="171">
+        <v>0.0</v>
+      </c>
+      <c r="J54" t="s" s="168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="s" s="177">
+        <v>46</v>
+      </c>
+      <c r="C55" t="s" s="174">
+        <v>45</v>
+      </c>
+      <c r="D55" t="n" s="175">
+        <v>1.0</v>
+      </c>
+      <c r="E55" t="n" s="176">
+        <v>0.0</v>
+      </c>
+      <c r="J55" t="s" s="173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="s" s="182">
+        <v>48</v>
+      </c>
+      <c r="C56" t="s" s="179">
+        <v>47</v>
+      </c>
+      <c r="D56" t="n" s="180">
+        <v>1.0</v>
+      </c>
+      <c r="E56" t="n" s="181">
+        <v>0.0</v>
+      </c>
+      <c r="J56" t="s" s="178">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A52:A56"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A18:K75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="18">
+      <c r="A18" t="s" s="193">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s" s="188">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s" s="185">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n" s="186">
+        <v>1.0</v>
+      </c>
+      <c r="E18" t="n" s="187">
+        <v>0.0</v>
+      </c>
+      <c r="J18" t="s" s="184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s" s="192">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s" s="189">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n" s="190">
+        <v>1.0</v>
+      </c>
+      <c r="E19" t="n" s="191">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="224">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s" s="202">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s" s="195">
+        <v>50</v>
+      </c>
+      <c r="D20" t="n" s="196">
+        <v>1.0</v>
+      </c>
+      <c r="E20" t="n" s="197">
+        <v>0.0</v>
+      </c>
+      <c r="J20" t="s" s="194">
+        <v>5</v>
+      </c>
+    </row>
     <row r="21">
-      <c r="C21" t="s" s="10">
-        <v>6</v>
-      </c>
-      <c r="H21" t="s" s="9">
+      <c r="C21" t="s" s="199">
+        <v>50</v>
+      </c>
+      <c r="D21" t="n" s="200">
+        <v>1.0</v>
+      </c>
+      <c r="E21" t="n" s="201">
+        <v>0.0</v>
+      </c>
+      <c r="J21" t="s" s="198">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="22">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s" s="13">
-        <v>8</v>
-      </c>
-      <c r="H22" t="s" s="12">
+      <c r="B22" t="s" s="223">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s" s="204">
+        <v>52</v>
+      </c>
+      <c r="D22" t="n" s="205">
+        <v>1.0</v>
+      </c>
+      <c r="E22" t="n" s="206">
+        <v>0.0</v>
+      </c>
+      <c r="J22" t="s" s="203">
         <v>5</v>
       </c>
     </row>
     <row r="23">
-      <c r="C23" t="s" s="15">
-        <v>8</v>
-      </c>
-      <c r="H23" t="s" s="14">
-        <v>9</v>
+      <c r="C23" t="s" s="208">
+        <v>52</v>
+      </c>
+      <c r="D23" t="n" s="209">
+        <v>1.0</v>
+      </c>
+      <c r="E23" t="n" s="210">
+        <v>0.0</v>
+      </c>
+      <c r="J23" t="s" s="207">
+        <v>7</v>
       </c>
     </row>
     <row r="24">
-      <c r="C24" t="s" s="17">
+      <c r="C24" t="s" s="212">
+        <v>53</v>
+      </c>
+      <c r="D24" t="n" s="213">
+        <v>1.0</v>
+      </c>
+      <c r="E24" t="n" s="214">
+        <v>0.0</v>
+      </c>
+      <c r="J24" t="s" s="211">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="s" s="216">
+        <v>53</v>
+      </c>
+      <c r="D25" t="n" s="217">
+        <v>1.0</v>
+      </c>
+      <c r="E25" t="n" s="218">
+        <v>0.0</v>
+      </c>
+      <c r="J25" t="s" s="215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="s" s="220">
+        <v>53</v>
+      </c>
+      <c r="D26" t="n" s="221">
+        <v>1.0</v>
+      </c>
+      <c r="E26" t="n" s="222">
+        <v>0.0</v>
+      </c>
+      <c r="J26" t="s" s="219">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="271">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s" s="237">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s" s="226">
+        <v>56</v>
+      </c>
+      <c r="D27" t="n" s="227">
+        <v>1.0</v>
+      </c>
+      <c r="E27" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="J27" t="s" s="225">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="s" s="230">
+        <v>56</v>
+      </c>
+      <c r="D28" t="n" s="231">
+        <v>1.0</v>
+      </c>
+      <c r="E28" t="n" s="232">
+        <v>0.0</v>
+      </c>
+      <c r="J28" t="s" s="229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="s" s="234">
         <v>10</v>
       </c>
-      <c r="H24" t="s" s="16">
+      <c r="D29" t="n" s="235">
+        <v>1.0</v>
+      </c>
+      <c r="E29" t="n" s="236">
+        <v>0.0</v>
+      </c>
+      <c r="J29" t="s" s="233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s" s="242">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s" s="239">
+        <v>10</v>
+      </c>
+      <c r="D30" t="n" s="241">
+        <v>0.0</v>
+      </c>
+      <c r="E30" t="n" s="240">
+        <v>1.0</v>
+      </c>
+      <c r="J30" t="s" s="238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s" s="255">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s" s="244">
+        <v>56</v>
+      </c>
+      <c r="D31" t="n" s="245">
+        <v>1.0</v>
+      </c>
+      <c r="E31" t="n" s="246">
+        <v>0.0</v>
+      </c>
+      <c r="J31" t="s" s="243">
         <v>5</v>
       </c>
     </row>
-    <row r="25">
-      <c r="C25" t="s" s="19">
+    <row r="32">
+      <c r="C32" t="s" s="248">
+        <v>56</v>
+      </c>
+      <c r="D32" t="n" s="249">
+        <v>1.0</v>
+      </c>
+      <c r="E32" t="n" s="250">
+        <v>0.0</v>
+      </c>
+      <c r="J32" t="s" s="247">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="s" s="252">
         <v>10</v>
       </c>
-      <c r="H25" t="s" s="18">
+      <c r="D33" t="n" s="253">
+        <v>1.0</v>
+      </c>
+      <c r="E33" t="n" s="254">
+        <v>0.0</v>
+      </c>
+      <c r="J33" t="s" s="251">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s" s="260">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s" s="257">
+        <v>10</v>
+      </c>
+      <c r="D34" t="n" s="259">
+        <v>0.0</v>
+      </c>
+      <c r="E34" t="n" s="258">
+        <v>1.0</v>
+      </c>
+      <c r="J34" t="s" s="256">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s" s="265">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s" s="262">
+        <v>10</v>
+      </c>
+      <c r="D35" t="n" s="263">
+        <v>1.0</v>
+      </c>
+      <c r="E35" t="n" s="264">
+        <v>0.0</v>
+      </c>
+      <c r="J35" t="s" s="261">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s" s="270">
+        <v>62</v>
+      </c>
+      <c r="C36" t="s" s="267">
+        <v>10</v>
+      </c>
+      <c r="D36" t="n" s="269">
+        <v>0.0</v>
+      </c>
+      <c r="E36" t="n" s="268">
+        <v>1.0</v>
+      </c>
+      <c r="J36" t="s" s="266">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="319">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s" s="280">
+        <v>65</v>
+      </c>
+      <c r="C37" t="s" s="273">
+        <v>64</v>
+      </c>
+      <c r="D37" t="n" s="274">
+        <v>1.0</v>
+      </c>
+      <c r="E37" t="n" s="275">
+        <v>0.0</v>
+      </c>
+      <c r="J37" t="s" s="272">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="s" s="277">
+        <v>64</v>
+      </c>
+      <c r="D38" t="n" s="278">
+        <v>1.0</v>
+      </c>
+      <c r="E38" t="n" s="279">
+        <v>0.0</v>
+      </c>
+      <c r="J38" t="s" s="276">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s" s="305">
+        <v>68</v>
+      </c>
+      <c r="C39" t="s" s="282">
+        <v>64</v>
+      </c>
+      <c r="D39" t="n" s="283">
+        <v>1.0</v>
+      </c>
+      <c r="E39" t="n" s="284">
+        <v>0.0</v>
+      </c>
+      <c r="J39" t="s" s="281">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="s" s="286">
+        <v>64</v>
+      </c>
+      <c r="D40" t="n" s="287">
+        <v>1.0</v>
+      </c>
+      <c r="E40" t="n" s="288">
+        <v>0.0</v>
+      </c>
+      <c r="J40" t="s" s="285">
         <v>0</v>
       </c>
     </row>
-    <row r="26">
-      <c r="C26" t="s" s="21">
+    <row r="41">
+      <c r="C41" t="s" s="290">
+        <v>66</v>
+      </c>
+      <c r="D41" t="n" s="291">
+        <v>1.0</v>
+      </c>
+      <c r="E41" t="n" s="292">
+        <v>0.0</v>
+      </c>
+      <c r="J41" t="s" s="289">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="s" s="294">
+        <v>66</v>
+      </c>
+      <c r="D42" t="n" s="295">
+        <v>1.0</v>
+      </c>
+      <c r="E42" t="n" s="296">
+        <v>0.0</v>
+      </c>
+      <c r="J42" t="s" s="293">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="s" s="298">
+        <v>67</v>
+      </c>
+      <c r="D43" t="n" s="299">
+        <v>1.0</v>
+      </c>
+      <c r="E43" t="n" s="300">
+        <v>0.0</v>
+      </c>
+      <c r="J43" t="s" s="297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="s" s="302">
+        <v>67</v>
+      </c>
+      <c r="D44" t="n" s="303">
+        <v>1.0</v>
+      </c>
+      <c r="E44" t="n" s="304">
+        <v>0.0</v>
+      </c>
+      <c r="J44" t="s" s="301">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s" s="318">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s" s="307">
+        <v>64</v>
+      </c>
+      <c r="D45" t="n" s="309">
+        <v>0.0</v>
+      </c>
+      <c r="E45" t="n" s="308">
+        <v>1.0</v>
+      </c>
+      <c r="J45" t="s" s="306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="s" s="311">
+        <v>66</v>
+      </c>
+      <c r="D46" t="n" s="313">
+        <v>0.0</v>
+      </c>
+      <c r="E46" t="n" s="312">
+        <v>1.0</v>
+      </c>
+      <c r="J46" t="s" s="310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="s" s="315">
+        <v>66</v>
+      </c>
+      <c r="D47" t="n" s="317">
+        <v>0.0</v>
+      </c>
+      <c r="E47" t="n" s="316">
+        <v>1.0</v>
+      </c>
+      <c r="J47" t="s" s="314">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="377">
+        <v>79</v>
+      </c>
+      <c r="B48" t="s" s="332">
+        <v>72</v>
+      </c>
+      <c r="C48" t="s" s="321">
+        <v>71</v>
+      </c>
+      <c r="D48" t="n" s="322">
+        <v>1.0</v>
+      </c>
+      <c r="E48" t="n" s="323">
+        <v>0.0</v>
+      </c>
+      <c r="J48" t="s" s="320">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="s" s="325">
+        <v>71</v>
+      </c>
+      <c r="D49" t="n" s="326">
+        <v>1.0</v>
+      </c>
+      <c r="E49" t="n" s="327">
+        <v>0.0</v>
+      </c>
+      <c r="J49" t="s" s="324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="s" s="329">
+        <v>71</v>
+      </c>
+      <c r="D50" t="n" s="330">
+        <v>1.0</v>
+      </c>
+      <c r="E50" t="n" s="331">
+        <v>0.0</v>
+      </c>
+      <c r="J50" t="s" s="328">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s" s="341">
+        <v>73</v>
+      </c>
+      <c r="C51" t="s" s="334">
+        <v>71</v>
+      </c>
+      <c r="D51" t="n" s="336">
+        <v>0.0</v>
+      </c>
+      <c r="E51" t="n" s="335">
+        <v>1.0</v>
+      </c>
+      <c r="J51" t="s" s="333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="s" s="338">
+        <v>71</v>
+      </c>
+      <c r="D52" t="n" s="340">
+        <v>0.0</v>
+      </c>
+      <c r="E52" t="n" s="339">
+        <v>1.0</v>
+      </c>
+      <c r="J52" t="s" s="337">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s" s="350">
+        <v>75</v>
+      </c>
+      <c r="C53" t="s" s="343">
+        <v>74</v>
+      </c>
+      <c r="D53" t="n" s="344">
+        <v>1.0</v>
+      </c>
+      <c r="E53" t="n" s="345">
+        <v>0.0</v>
+      </c>
+      <c r="J53" t="s" s="342">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="s" s="347">
+        <v>74</v>
+      </c>
+      <c r="D54" t="n" s="348">
+        <v>1.0</v>
+      </c>
+      <c r="E54" t="n" s="349">
+        <v>0.0</v>
+      </c>
+      <c r="J54" t="s" s="346">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="s" s="367">
+        <v>77</v>
+      </c>
+      <c r="C55" t="s" s="352">
+        <v>25</v>
+      </c>
+      <c r="D55" t="n" s="353">
+        <v>1.0</v>
+      </c>
+      <c r="E55" t="n" s="354">
+        <v>0.0</v>
+      </c>
+      <c r="J55" t="s" s="351">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="s" s="356">
+        <v>25</v>
+      </c>
+      <c r="D56" t="n" s="357">
+        <v>1.0</v>
+      </c>
+      <c r="E56" t="n" s="358">
+        <v>0.0</v>
+      </c>
+      <c r="J56" t="s" s="355">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="s" s="360">
+        <v>76</v>
+      </c>
+      <c r="D57" t="n" s="361">
+        <v>1.0</v>
+      </c>
+      <c r="E57" t="n" s="362">
+        <v>0.0</v>
+      </c>
+      <c r="J57" t="s" s="359">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="s" s="364">
+        <v>76</v>
+      </c>
+      <c r="D58" t="n" s="365">
+        <v>1.0</v>
+      </c>
+      <c r="E58" t="n" s="366">
+        <v>0.0</v>
+      </c>
+      <c r="J58" t="s" s="363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s" s="376">
+        <v>78</v>
+      </c>
+      <c r="C59" t="s" s="369">
+        <v>25</v>
+      </c>
+      <c r="D59" t="n" s="371">
+        <v>0.0</v>
+      </c>
+      <c r="E59" t="n" s="370">
+        <v>1.0</v>
+      </c>
+      <c r="J59" t="s" s="368">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="s" s="373">
+        <v>76</v>
+      </c>
+      <c r="D60" t="n" s="375">
+        <v>0.0</v>
+      </c>
+      <c r="E60" t="n" s="374">
+        <v>1.0</v>
+      </c>
+      <c r="J60" t="s" s="372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="410">
+        <v>86</v>
+      </c>
+      <c r="B61" t="s" s="386">
+        <v>80</v>
+      </c>
+      <c r="C61" t="s" s="379">
+        <v>56</v>
+      </c>
+      <c r="D61" t="n" s="380">
+        <v>1.0</v>
+      </c>
+      <c r="E61" t="n" s="381">
+        <v>0.0</v>
+      </c>
+      <c r="J61" t="s" s="378">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="s" s="383">
+        <v>56</v>
+      </c>
+      <c r="D62" t="n" s="384">
+        <v>1.0</v>
+      </c>
+      <c r="E62" t="n" s="385">
+        <v>0.0</v>
+      </c>
+      <c r="J62" t="s" s="382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s" s="391">
+        <v>81</v>
+      </c>
+      <c r="C63" t="s" s="388">
         <v>10</v>
       </c>
-      <c r="H26" t="s" s="20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="50">
-        <v>21</v>
-      </c>
-      <c r="B27" t="s" s="30">
-        <v>15</v>
-      </c>
-      <c r="C27" t="s" s="25">
-        <v>13</v>
-      </c>
-      <c r="H27" t="s" s="24">
+      <c r="D63" t="n" s="390">
+        <v>0.0</v>
+      </c>
+      <c r="E63" t="n" s="389">
+        <v>1.0</v>
+      </c>
+      <c r="J63" t="s" s="387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s" s="404">
+        <v>84</v>
+      </c>
+      <c r="C64" t="s" s="393">
+        <v>82</v>
+      </c>
+      <c r="D64" t="n" s="394">
+        <v>1.0</v>
+      </c>
+      <c r="E64" t="n" s="395">
+        <v>0.0</v>
+      </c>
+      <c r="J64" t="s" s="392">
         <v>5</v>
       </c>
     </row>
-    <row r="28">
-      <c r="C28" t="s" s="27">
-        <v>13</v>
-      </c>
-      <c r="H28" t="s" s="26">
+    <row r="65">
+      <c r="C65" t="s" s="397">
+        <v>82</v>
+      </c>
+      <c r="D65" t="n" s="398">
+        <v>1.0</v>
+      </c>
+      <c r="E65" t="n" s="399">
+        <v>0.0</v>
+      </c>
+      <c r="J65" t="s" s="396">
         <v>0</v>
       </c>
     </row>
-    <row r="29">
-      <c r="C29" t="s" s="29">
-        <v>14</v>
-      </c>
-      <c r="H29" t="s" s="28">
+    <row r="66">
+      <c r="C66" t="s" s="401">
+        <v>83</v>
+      </c>
+      <c r="D66" t="n" s="402">
+        <v>1.0</v>
+      </c>
+      <c r="E66" t="n" s="403">
+        <v>0.0</v>
+      </c>
+      <c r="J66" t="s" s="400">
         <v>0</v>
       </c>
     </row>
-    <row r="30">
-      <c r="B30" t="s" s="33">
-        <v>16</v>
-      </c>
-      <c r="C30" t="s" s="32">
-        <v>14</v>
-      </c>
-      <c r="H30" t="s" s="31">
+    <row r="67">
+      <c r="B67" t="s" s="409">
+        <v>85</v>
+      </c>
+      <c r="C67" t="s" s="406">
+        <v>82</v>
+      </c>
+      <c r="D67" t="n" s="407">
+        <v>1.0</v>
+      </c>
+      <c r="E67" t="n" s="408">
+        <v>0.0</v>
+      </c>
+      <c r="J67" t="s" s="405">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="445">
+        <v>95</v>
+      </c>
+      <c r="B68" t="s" s="415">
+        <v>87</v>
+      </c>
+      <c r="C68" t="s" s="412">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n" s="413">
+        <v>1.0</v>
+      </c>
+      <c r="E68" t="n" s="414">
+        <v>0.0</v>
+      </c>
+      <c r="J68" t="s" s="411">
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="B31" t="s" s="40">
-        <v>17</v>
-      </c>
-      <c r="C31" t="s" s="35">
-        <v>13</v>
-      </c>
-      <c r="H31" t="s" s="34">
+    <row r="69">
+      <c r="B69" t="s" s="420">
+        <v>89</v>
+      </c>
+      <c r="C69" t="s" s="417">
+        <v>88</v>
+      </c>
+      <c r="D69" t="n" s="418">
+        <v>1.0</v>
+      </c>
+      <c r="E69" t="n" s="419">
+        <v>0.0</v>
+      </c>
+      <c r="J69" t="s" s="416">
         <v>5</v>
       </c>
     </row>
-    <row r="32">
-      <c r="C32" t="s" s="37">
-        <v>13</v>
-      </c>
-      <c r="H32" t="s" s="36">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="C33" t="s" s="39">
-        <v>14</v>
-      </c>
-      <c r="H33" t="s" s="38">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" t="s" s="43">
-        <v>18</v>
-      </c>
-      <c r="C34" t="s" s="42">
-        <v>14</v>
-      </c>
-      <c r="H34" t="s" s="41">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="s" s="46">
-        <v>19</v>
-      </c>
-      <c r="C35" t="s" s="45">
-        <v>14</v>
-      </c>
-      <c r="H35" t="s" s="44">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" t="s" s="49">
-        <v>20</v>
-      </c>
-      <c r="C36" t="s" s="48">
-        <v>14</v>
-      </c>
-      <c r="H36" t="s" s="47">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="76">
-        <v>28</v>
-      </c>
-      <c r="B37" t="s" s="55">
-        <v>23</v>
-      </c>
-      <c r="C37" t="s" s="52">
-        <v>22</v>
-      </c>
-      <c r="H37" t="s" s="51">
+    <row r="70">
+      <c r="B70" t="s" s="425">
+        <v>90</v>
+      </c>
+      <c r="C70" t="s" s="422">
+        <v>88</v>
+      </c>
+      <c r="D70" t="n" s="423">
+        <v>1.0</v>
+      </c>
+      <c r="E70" t="n" s="424">
+        <v>0.0</v>
+      </c>
+      <c r="J70" t="s" s="421">
         <v>5</v>
       </c>
     </row>
-    <row r="38">
-      <c r="C38" t="s" s="54">
-        <v>22</v>
-      </c>
-      <c r="H38" t="s" s="53">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" t="s" s="68">
-        <v>26</v>
-      </c>
-      <c r="C39" t="s" s="57">
-        <v>22</v>
-      </c>
-      <c r="H39" t="s" s="56">
+    <row r="71">
+      <c r="B71" t="s" s="434">
+        <v>92</v>
+      </c>
+      <c r="C71" t="s" s="427">
+        <v>91</v>
+      </c>
+      <c r="D71" t="n" s="428">
+        <v>1.0</v>
+      </c>
+      <c r="E71" t="n" s="429">
+        <v>0.0</v>
+      </c>
+      <c r="J71" t="s" s="426">
         <v>5</v>
       </c>
     </row>
-    <row r="40">
-      <c r="C40" t="s" s="59">
-        <v>22</v>
-      </c>
-      <c r="H40" t="s" s="58">
+    <row r="72">
+      <c r="C72" t="s" s="431">
+        <v>91</v>
+      </c>
+      <c r="D72" t="n" s="432">
+        <v>1.0</v>
+      </c>
+      <c r="E72" t="n" s="433">
+        <v>0.0</v>
+      </c>
+      <c r="J72" t="s" s="430">
         <v>0</v>
       </c>
     </row>
-    <row r="41">
-      <c r="C41" t="s" s="61">
-        <v>24</v>
-      </c>
-      <c r="H41" t="s" s="60">
+    <row r="73">
+      <c r="B73" t="s" s="439">
+        <v>94</v>
+      </c>
+      <c r="C73" t="s" s="436">
+        <v>93</v>
+      </c>
+      <c r="D73" t="n" s="437">
+        <v>1.0</v>
+      </c>
+      <c r="E73" t="n" s="438">
+        <v>0.0</v>
+      </c>
+      <c r="J73" t="s" s="435">
         <v>5</v>
       </c>
     </row>
-    <row r="42">
-      <c r="C42" t="s" s="63">
-        <v>24</v>
-      </c>
-      <c r="H42" t="s" s="62">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="C43" t="s" s="65">
-        <v>25</v>
-      </c>
-      <c r="H43" t="s" s="64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="C44" t="s" s="67">
-        <v>25</v>
-      </c>
-      <c r="H44" t="s" s="66">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="s" s="75">
-        <v>27</v>
-      </c>
-      <c r="C45" t="s" s="70">
-        <v>22</v>
-      </c>
-      <c r="H45" t="s" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="C46" t="s" s="72">
-        <v>24</v>
-      </c>
-      <c r="H46" t="s" s="71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="C47" t="s" s="74">
-        <v>24</v>
-      </c>
-      <c r="H47" t="s" s="73">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="108">
-        <v>38</v>
-      </c>
-      <c r="B48" t="s" s="83">
-        <v>30</v>
-      </c>
-      <c r="C48" t="s" s="78">
-        <v>29</v>
-      </c>
-      <c r="H48" t="s" s="77">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="C49" t="s" s="80">
-        <v>29</v>
-      </c>
-      <c r="H49" t="s" s="79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="C50" t="s" s="82">
-        <v>29</v>
-      </c>
-      <c r="H50" t="s" s="81">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" t="s" s="88">
-        <v>31</v>
-      </c>
-      <c r="C51" t="s" s="85">
-        <v>29</v>
-      </c>
-      <c r="H51" t="s" s="84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="C52" t="s" s="87">
-        <v>29</v>
-      </c>
-      <c r="H52" t="s" s="86">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" t="s" s="93">
-        <v>33</v>
-      </c>
-      <c r="C53" t="s" s="90">
-        <v>32</v>
-      </c>
-      <c r="H53" t="s" s="89">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="C54" t="s" s="92">
-        <v>32</v>
-      </c>
-      <c r="H54" t="s" s="91">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="s" s="102">
-        <v>36</v>
-      </c>
-      <c r="C55" t="s" s="95">
-        <v>34</v>
-      </c>
-      <c r="H55" t="s" s="94">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="C56" t="s" s="97">
-        <v>34</v>
-      </c>
-      <c r="H56" t="s" s="96">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="C57" t="s" s="99">
-        <v>35</v>
-      </c>
-      <c r="H57" t="s" s="98">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="C58" t="s" s="101">
-        <v>35</v>
-      </c>
-      <c r="H58" t="s" s="100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" t="s" s="107">
-        <v>37</v>
-      </c>
-      <c r="C59" t="s" s="104">
-        <v>34</v>
-      </c>
-      <c r="H59" t="s" s="103">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="C60" t="s" s="106">
-        <v>35</v>
-      </c>
-      <c r="H60" t="s" s="105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="127">
-        <v>45</v>
-      </c>
-      <c r="B61" t="s" s="113">
-        <v>39</v>
-      </c>
-      <c r="C61" t="s" s="110">
-        <v>13</v>
-      </c>
-      <c r="H61" t="s" s="109">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="C62" t="s" s="112">
-        <v>13</v>
-      </c>
-      <c r="H62" t="s" s="111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" t="s" s="116">
-        <v>40</v>
-      </c>
-      <c r="C63" t="s" s="115">
-        <v>14</v>
-      </c>
-      <c r="H63" t="s" s="114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" t="s" s="123">
-        <v>43</v>
-      </c>
-      <c r="C64" t="s" s="118">
-        <v>41</v>
-      </c>
-      <c r="H64" t="s" s="117">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="C65" t="s" s="120">
-        <v>41</v>
-      </c>
-      <c r="H65" t="s" s="119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="C66" t="s" s="122">
-        <v>42</v>
-      </c>
-      <c r="H66" t="s" s="121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="B67" t="s" s="126">
-        <v>44</v>
-      </c>
-      <c r="C67" t="s" s="125">
-        <v>41</v>
-      </c>
-      <c r="H67" t="s" s="124">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="148">
-        <v>56</v>
-      </c>
-      <c r="B68" t="s" s="130">
-        <v>46</v>
-      </c>
-      <c r="C68" t="s" s="129">
-        <v>1</v>
-      </c>
-      <c r="H68" t="s" s="128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" t="s" s="133">
+    <row r="74">
+      <c r="B74" t="s" s="444">
         <v>48</v>
       </c>
-      <c r="C69" t="s" s="132">
+      <c r="C74" t="s" s="441">
         <v>47</v>
       </c>
-      <c r="H69" t="s" s="131">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="B70" t="s" s="136">
-        <v>49</v>
-      </c>
-      <c r="C70" t="s" s="135">
+      <c r="D74" t="n" s="442">
+        <v>1.0</v>
+      </c>
+      <c r="E74" t="n" s="443">
+        <v>0.0</v>
+      </c>
+      <c r="J74" t="s" s="440">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="450">
+        <v>97</v>
+      </c>
+      <c r="B75" t="s" s="449">
+        <v>96</v>
+      </c>
+      <c r="C75" t="s" s="446">
         <v>47</v>
       </c>
-      <c r="H70" t="s" s="134">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="B71" t="s" s="141">
-        <v>51</v>
-      </c>
-      <c r="C71" t="s" s="138">
-        <v>50</v>
-      </c>
-      <c r="H71" t="s" s="137">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="C72" t="s" s="140">
-        <v>50</v>
-      </c>
-      <c r="H72" t="s" s="139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" t="s" s="144">
-        <v>53</v>
-      </c>
-      <c r="C73" t="s" s="143">
-        <v>52</v>
-      </c>
-      <c r="H73" t="s" s="142">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="B74" t="s" s="147">
-        <v>55</v>
-      </c>
-      <c r="C74" t="s" s="146">
-        <v>54</v>
-      </c>
-      <c r="H74" t="s" s="145">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="151">
-        <v>58</v>
-      </c>
-      <c r="B75" t="s" s="150">
-        <v>57</v>
-      </c>
-      <c r="C75" t="s" s="149">
-        <v>54</v>
+      <c r="D75" t="n" s="447">
+        <v>1.0</v>
+      </c>
+      <c r="E75" t="n" s="448">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/planning/TestWriteTeachingUnits.xlsx
+++ b/planning/TestWriteTeachingUnits.xlsx
@@ -3985,7 +3985,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.0" customHeight="true"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="3" max="3" width="32.0" customWidth="true"/>
     <col min="2" max="2" width="32.0" customWidth="true"/>
@@ -4694,7 +4694,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.0" customHeight="true"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="3" max="3" width="32.0" customWidth="true"/>
     <col min="2" max="2" width="32.0" customWidth="true"/>

--- a/planning/TestWriteTeachingUnits.xlsx
+++ b/planning/TestWriteTeachingUnits.xlsx
@@ -13,7 +13,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="105">
+  <si>
+    <t>DI3 S5</t>
+  </si>
+  <si>
+    <t>2017/2018</t>
+  </si>
+  <si>
+    <t>Disponibilité / étudiant (h)</t>
+  </si>
+  <si>
+    <t>Créneaux disponibles</t>
+  </si>
+  <si>
+    <t>Créneaux utilisés</t>
+  </si>
+  <si>
+    <t>Synthèse volume travail / étudiant (h)</t>
+  </si>
   <si>
     <t>TD</t>
   </si>
@@ -163,6 +181,9 @@
   </si>
   <si>
     <t>Shejs1 et anglais1</t>
+  </si>
+  <si>
+    <t>DI3 S6</t>
   </si>
   <si>
     <t>J.C. Bourgoin</t>
@@ -313,14 +334,86 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="451">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/m/yyyy"/>
+  </numFmts>
+  <fonts count="465">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -2611,7 +2704,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2619,34 +2712,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="451">
+  <cellXfs count="465">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2655,7 +2766,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2667,7 +2778,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2676,10 +2787,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2688,7 +2799,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2697,10 +2808,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2709,7 +2820,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2718,25 +2829,25 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2745,10 +2856,10 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2757,25 +2868,25 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2784,19 +2895,19 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="54" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="58" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2808,10 +2919,10 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2820,7 +2931,7 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2829,10 +2940,10 @@
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="69" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2841,10 +2952,10 @@
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="73" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2853,25 +2964,25 @@
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="77" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="81" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2880,10 +2991,10 @@
     <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="86" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2892,7 +3003,7 @@
     <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="90" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2901,10 +3012,10 @@
     <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2913,7 +3024,7 @@
     <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2922,10 +3033,10 @@
     <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="100" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2934,10 +3045,10 @@
     <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="104" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2946,25 +3057,25 @@
     <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="108" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="112" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2973,19 +3084,19 @@
     <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="117" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="121" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2997,10 +3108,10 @@
     <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3009,7 +3120,7 @@
     <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3018,19 +3129,19 @@
     <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="132" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="136" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3039,19 +3150,19 @@
     <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="141" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3060,19 +3171,19 @@
     <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="146" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="150" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3081,13 +3192,13 @@
     <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="155" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3099,10 +3210,10 @@
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3111,7 +3222,7 @@
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3120,19 +3231,19 @@
     <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="166" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="170" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3141,13 +3252,13 @@
     <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="175" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3156,13 +3267,13 @@
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="180" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3174,10 +3285,10 @@
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3198,22 +3309,22 @@
     <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="164" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="198" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
@@ -3231,7 +3342,7 @@
     <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3243,10 +3354,10 @@
     <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3255,10 +3366,10 @@
     <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3267,25 +3378,25 @@
     <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="217" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="221" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3321,7 +3432,7 @@
     <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="233" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3336,10 +3447,10 @@
     <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3351,7 +3462,7 @@
     <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="243" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3363,7 +3474,7 @@
     <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="247" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3375,10 +3486,10 @@
     <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3390,10 +3501,10 @@
     <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3417,10 +3528,10 @@
     <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="266" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="265" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3432,13 +3543,13 @@
     <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="270" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3447,10 +3558,10 @@
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="276" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="275" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3462,10 +3573,10 @@
     <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="281" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="280" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3477,10 +3588,10 @@
     <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3489,10 +3600,10 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3501,37 +3612,37 @@
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="295" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="299" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="303" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3540,10 +3651,10 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3552,10 +3663,10 @@
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3564,10 +3675,10 @@
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3582,7 +3693,7 @@
     <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="320" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3621,10 +3732,10 @@
     <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3633,10 +3744,10 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3648,7 +3759,7 @@
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="342" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3660,10 +3771,10 @@
     <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3675,7 +3786,7 @@
     <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="351" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3687,10 +3798,10 @@
     <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3699,10 +3810,10 @@
     <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3711,13 +3822,13 @@
     <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="365" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3726,10 +3837,10 @@
     <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3738,10 +3849,10 @@
     <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3753,10 +3864,10 @@
     <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="378" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="377" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3768,7 +3879,7 @@
     <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="382" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3780,10 +3891,10 @@
     <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="387" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="386" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3822,10 +3933,10 @@
     <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="401" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3837,10 +3948,10 @@
     <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3852,10 +3963,10 @@
     <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="411" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="410" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3864,13 +3975,13 @@
     <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="414" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="415" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="416" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="416" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3879,13 +3990,13 @@
     <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="419" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="420" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="421" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="421" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3897,10 +4008,10 @@
     <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="426" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="425" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3912,7 +4023,7 @@
     <xf numFmtId="0" fontId="429" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="430" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="430" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3942,7 +4053,7 @@
     <xf numFmtId="0" fontId="439" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="440" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="440" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3954,7 +4065,7 @@
     <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="444" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3969,10 +4080,52 @@
     <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="449" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -3981,7 +4134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A18:K56"/>
+  <dimension ref="A3:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3992,697 +4145,730 @@
     <col min="1" max="1" width="32.0" customWidth="true"/>
   </cols>
   <sheetData>
+    <row r="3">
+      <c r="A3" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <f>TODAY()</f>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="s" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="s" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="s" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="17">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s" s="9">
+        <v>7</v>
+      </c>
+      <c r="D10" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="E10" t="n" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="J10" t="s" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s" s="16">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s" s="13">
+        <v>7</v>
+      </c>
+      <c r="D11" t="n" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="E11" t="n" s="15">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="31">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s" s="30">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s" s="19">
+        <v>12</v>
+      </c>
+      <c r="D12" t="n" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="E12" t="n" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="s" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="s" s="23">
+        <v>12</v>
+      </c>
+      <c r="D13" t="n" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="E13" t="n" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="s" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="s" s="27">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="E14" t="n" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="J14" t="s" s="26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="68">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="40">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s" s="33">
+        <v>16</v>
+      </c>
+      <c r="D15" t="n" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="E15" t="n" s="35">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="s" s="32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="s" s="37">
+        <v>17</v>
+      </c>
+      <c r="D16" t="n" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="E16" t="n" s="39">
+        <v>0.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J16" t="s" s="36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s" s="53">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s" s="42">
+        <v>19</v>
+      </c>
+      <c r="D17" t="n" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="E17" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="J17" t="s" s="41">
+        <v>11</v>
+      </c>
+    </row>
     <row r="18">
-      <c r="A18" t="s" s="10">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s" s="5">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E18" t="n" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J18" t="s" s="1">
-        <v>0</v>
+      <c r="C18" t="s" s="46">
+        <v>19</v>
+      </c>
+      <c r="D18" t="n" s="47">
+        <v>1.0</v>
+      </c>
+      <c r="E18" t="n" s="48">
+        <v>0.0</v>
+      </c>
+      <c r="J18" t="s" s="45">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s" s="6">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E19" t="n" s="8">
-        <v>0.0</v>
+      <c r="C19" t="s" s="50">
+        <v>19</v>
+      </c>
+      <c r="D19" t="n" s="51">
+        <v>1.0</v>
+      </c>
+      <c r="E19" t="n" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J19" t="s" s="49">
+        <v>13</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="24">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s" s="23">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s" s="12">
+      <c r="B20" t="s" s="62">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s" s="55">
+        <v>21</v>
+      </c>
+      <c r="D20" t="n" s="56">
+        <v>1.0</v>
+      </c>
+      <c r="E20" t="n" s="57">
+        <v>0.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="J20" t="s" s="54">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="s" s="59">
+        <v>22</v>
+      </c>
+      <c r="D21" t="n" s="60">
+        <v>1.0</v>
+      </c>
+      <c r="E21" t="n" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="J21" t="s" s="58">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s" s="67">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s" s="64">
+        <v>22</v>
+      </c>
+      <c r="D22" t="n" s="66">
+        <v>0.0</v>
+      </c>
+      <c r="E22" t="n" s="65">
+        <v>1.0</v>
+      </c>
+      <c r="J22" t="s" s="63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="99">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s" s="85">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s" s="70">
+        <v>26</v>
+      </c>
+      <c r="D23" t="n" s="71">
+        <v>1.0</v>
+      </c>
+      <c r="E23" t="n" s="72">
+        <v>0.0</v>
+      </c>
+      <c r="J23" t="s" s="69">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="s" s="74">
+        <v>26</v>
+      </c>
+      <c r="D24" t="n" s="75">
+        <v>1.0</v>
+      </c>
+      <c r="E24" t="n" s="76">
+        <v>0.0</v>
+      </c>
+      <c r="J24" t="s" s="73">
         <v>6</v>
       </c>
-      <c r="D20" t="n" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E20" t="n" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="J20" t="s" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" t="s" s="16">
+    </row>
+    <row r="25">
+      <c r="C25" t="s" s="78">
+        <v>26</v>
+      </c>
+      <c r="D25" t="n" s="79">
+        <v>1.0</v>
+      </c>
+      <c r="E25" t="n" s="80">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="J25" t="s" s="77">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="s" s="82">
+        <v>27</v>
+      </c>
+      <c r="D26" t="n" s="83">
+        <v>1.0</v>
+      </c>
+      <c r="E26" t="n" s="84">
+        <v>0.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="J26" t="s" s="81">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s" s="98">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s" s="87">
+        <v>26</v>
+      </c>
+      <c r="D27" t="n" s="89">
+        <v>0.0</v>
+      </c>
+      <c r="E27" t="n" s="88">
+        <v>1.0</v>
+      </c>
+      <c r="J27" t="s" s="86">
         <v>6</v>
       </c>
-      <c r="D21" t="n" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="E21" t="n" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="J21" t="s" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="C22" t="s" s="20">
+    </row>
+    <row r="28">
+      <c r="C28" t="s" s="91">
+        <v>26</v>
+      </c>
+      <c r="D28" t="n" s="93">
+        <v>0.0</v>
+      </c>
+      <c r="E28" t="n" s="92">
+        <v>1.0</v>
+      </c>
+      <c r="J28" t="s" s="90">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="s" s="95">
+        <v>27</v>
+      </c>
+      <c r="D29" t="n" s="97">
+        <v>0.0</v>
+      </c>
+      <c r="E29" t="n" s="96">
+        <v>1.0</v>
+      </c>
+      <c r="J29" t="s" s="94">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="131">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s" s="116">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s" s="101">
+        <v>31</v>
+      </c>
+      <c r="D30" t="n" s="102">
+        <v>1.0</v>
+      </c>
+      <c r="E30" t="n" s="103">
+        <v>0.0</v>
+      </c>
+      <c r="J30" t="s" s="100">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="s" s="105">
+        <v>31</v>
+      </c>
+      <c r="D31" t="n" s="106">
+        <v>1.0</v>
+      </c>
+      <c r="E31" t="n" s="107">
+        <v>0.0</v>
+      </c>
+      <c r="J31" t="s" s="104">
         <v>6</v>
       </c>
-      <c r="D22" t="n" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="E22" t="n" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="J22" t="s" s="19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="61">
-        <v>19</v>
-      </c>
-      <c r="B23" t="s" s="33">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s" s="26">
-        <v>10</v>
-      </c>
-      <c r="D23" t="n" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="E23" t="n" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="J23" t="s" s="25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="C24" t="s" s="30">
+    </row>
+    <row r="32">
+      <c r="C32" t="s" s="109">
+        <v>32</v>
+      </c>
+      <c r="D32" t="n" s="110">
+        <v>1.0</v>
+      </c>
+      <c r="E32" t="n" s="111">
+        <v>0.0</v>
+      </c>
+      <c r="J32" t="s" s="108">
         <v>11</v>
       </c>
-      <c r="D24" t="n" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="E24" t="n" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J24" t="s" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="s" s="46">
-        <v>14</v>
-      </c>
-      <c r="C25" t="s" s="35">
+    </row>
+    <row r="33">
+      <c r="C33" t="s" s="113">
+        <v>32</v>
+      </c>
+      <c r="D33" t="n" s="114">
+        <v>1.0</v>
+      </c>
+      <c r="E33" t="n" s="115">
+        <v>0.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J33" t="s" s="112">
         <v>13</v>
       </c>
-      <c r="D25" t="n" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="E25" t="n" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="J25" t="s" s="34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="C26" t="s" s="39">
+    </row>
+    <row r="34">
+      <c r="B34" t="s" s="125">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s" s="118">
+        <v>34</v>
+      </c>
+      <c r="D34" t="n" s="119">
+        <v>1.0</v>
+      </c>
+      <c r="E34" t="n" s="120">
+        <v>0.0</v>
+      </c>
+      <c r="J34" t="s" s="117">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="s" s="122">
+        <v>34</v>
+      </c>
+      <c r="D35" t="n" s="123">
+        <v>1.0</v>
+      </c>
+      <c r="E35" t="n" s="124">
+        <v>0.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="J35" t="s" s="121">
         <v>13</v>
       </c>
-      <c r="D26" t="n" s="40">
-        <v>1.0</v>
-      </c>
-      <c r="E26" t="n" s="41">
-        <v>0.0</v>
-      </c>
-      <c r="J26" t="s" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s" s="43">
+    </row>
+    <row r="36">
+      <c r="B36" t="s" s="130">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s" s="127">
+        <v>34</v>
+      </c>
+      <c r="D36" t="n" s="129">
+        <v>0.0</v>
+      </c>
+      <c r="E36" t="n" s="128">
+        <v>1.0</v>
+      </c>
+      <c r="J36" t="s" s="126">
         <v>13</v>
       </c>
-      <c r="D27" t="n" s="44">
-        <v>1.0</v>
-      </c>
-      <c r="E27" t="n" s="45">
-        <v>0.0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J27" t="s" s="42">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="s" s="55">
-        <v>17</v>
-      </c>
-      <c r="C28" t="s" s="48">
-        <v>15</v>
-      </c>
-      <c r="D28" t="n" s="49">
-        <v>1.0</v>
-      </c>
-      <c r="E28" t="n" s="50">
-        <v>0.0</v>
-      </c>
-      <c r="F28" t="n">
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="165">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s" s="140">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s" s="133">
+        <v>38</v>
+      </c>
+      <c r="D37" t="n" s="134">
+        <v>1.0</v>
+      </c>
+      <c r="E37" t="n" s="135">
+        <v>0.0</v>
+      </c>
+      <c r="J37" t="s" s="132">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="s" s="137">
+        <v>22</v>
+      </c>
+      <c r="D38" t="n" s="138">
+        <v>1.0</v>
+      </c>
+      <c r="E38" t="n" s="139">
+        <v>0.0</v>
+      </c>
+      <c r="J38" t="s" s="136">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s" s="145">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s" s="142">
+        <v>22</v>
+      </c>
+      <c r="D39" t="n" s="144">
+        <v>0.0</v>
+      </c>
+      <c r="E39" t="n" s="143">
+        <v>1.0</v>
+      </c>
+      <c r="J39" t="s" s="141">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s" s="154">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s" s="147">
+        <v>41</v>
+      </c>
+      <c r="D40" t="n" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="E40" t="n" s="149">
+        <v>0.0</v>
+      </c>
+      <c r="J40" t="s" s="146">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="s" s="151">
+        <v>41</v>
+      </c>
+      <c r="D41" t="n" s="152">
+        <v>1.0</v>
+      </c>
+      <c r="E41" t="n" s="153">
+        <v>0.0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J41" t="s" s="150">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s" s="159">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s" s="156">
+        <v>41</v>
+      </c>
+      <c r="D42" t="n" s="158">
+        <v>0.0</v>
+      </c>
+      <c r="E42" t="n" s="157">
+        <v>1.0</v>
+      </c>
+      <c r="J42" t="s" s="155">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s" s="164">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s" s="161">
+        <v>44</v>
+      </c>
+      <c r="D43" t="n" s="162">
+        <v>1.0</v>
+      </c>
+      <c r="E43" t="n" s="163">
+        <v>0.0</v>
+      </c>
+      <c r="F43" t="n">
         <v>25.0</v>
       </c>
-      <c r="J28" t="s" s="47">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="C29" t="s" s="52">
-        <v>16</v>
-      </c>
-      <c r="D29" t="n" s="53">
-        <v>1.0</v>
-      </c>
-      <c r="E29" t="n" s="54">
-        <v>0.0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="J29" t="s" s="51">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" t="s" s="60">
-        <v>18</v>
-      </c>
-      <c r="C30" t="s" s="57">
-        <v>16</v>
-      </c>
-      <c r="D30" t="n" s="59">
-        <v>0.0</v>
-      </c>
-      <c r="E30" t="n" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="J30" t="s" s="56">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="92">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s" s="78">
-        <v>22</v>
-      </c>
-      <c r="C31" t="s" s="63">
-        <v>20</v>
-      </c>
-      <c r="D31" t="n" s="64">
-        <v>1.0</v>
-      </c>
-      <c r="E31" t="n" s="65">
-        <v>0.0</v>
-      </c>
-      <c r="J31" t="s" s="62">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" t="s" s="67">
-        <v>20</v>
-      </c>
-      <c r="D32" t="n" s="68">
-        <v>1.0</v>
-      </c>
-      <c r="E32" t="n" s="69">
-        <v>0.0</v>
-      </c>
-      <c r="J32" t="s" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="C33" t="s" s="71">
-        <v>20</v>
-      </c>
-      <c r="D33" t="n" s="72">
-        <v>1.0</v>
-      </c>
-      <c r="E33" t="n" s="73">
-        <v>0.0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="J33" t="s" s="70">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="C34" t="s" s="75">
-        <v>21</v>
-      </c>
-      <c r="D34" t="n" s="76">
-        <v>1.0</v>
-      </c>
-      <c r="E34" t="n" s="77">
-        <v>0.0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="J34" t="s" s="74">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="s" s="91">
-        <v>23</v>
-      </c>
-      <c r="C35" t="s" s="80">
-        <v>20</v>
-      </c>
-      <c r="D35" t="n" s="82">
-        <v>0.0</v>
-      </c>
-      <c r="E35" t="n" s="81">
-        <v>1.0</v>
-      </c>
-      <c r="J35" t="s" s="79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="C36" t="s" s="84">
-        <v>20</v>
-      </c>
-      <c r="D36" t="n" s="86">
-        <v>0.0</v>
-      </c>
-      <c r="E36" t="n" s="85">
-        <v>1.0</v>
-      </c>
-      <c r="J36" t="s" s="83">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="C37" t="s" s="88">
-        <v>21</v>
-      </c>
-      <c r="D37" t="n" s="90">
-        <v>0.0</v>
-      </c>
-      <c r="E37" t="n" s="89">
-        <v>1.0</v>
-      </c>
-      <c r="J37" t="s" s="87">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="124">
-        <v>31</v>
-      </c>
-      <c r="B38" t="s" s="109">
-        <v>27</v>
-      </c>
-      <c r="C38" t="s" s="94">
-        <v>25</v>
-      </c>
-      <c r="D38" t="n" s="95">
-        <v>1.0</v>
-      </c>
-      <c r="E38" t="n" s="96">
-        <v>0.0</v>
-      </c>
-      <c r="J38" t="s" s="93">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="C39" t="s" s="98">
-        <v>25</v>
-      </c>
-      <c r="D39" t="n" s="99">
-        <v>1.0</v>
-      </c>
-      <c r="E39" t="n" s="100">
-        <v>0.0</v>
-      </c>
-      <c r="J39" t="s" s="97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="C40" t="s" s="102">
-        <v>26</v>
-      </c>
-      <c r="D40" t="n" s="103">
-        <v>1.0</v>
-      </c>
-      <c r="E40" t="n" s="104">
-        <v>0.0</v>
-      </c>
-      <c r="J40" t="s" s="101">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="C41" t="s" s="106">
-        <v>26</v>
-      </c>
-      <c r="D41" t="n" s="107">
-        <v>1.0</v>
-      </c>
-      <c r="E41" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J41" t="s" s="105">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" t="s" s="118">
-        <v>29</v>
-      </c>
-      <c r="C42" t="s" s="111">
-        <v>28</v>
-      </c>
-      <c r="D42" t="n" s="112">
-        <v>1.0</v>
-      </c>
-      <c r="E42" t="n" s="113">
-        <v>0.0</v>
-      </c>
-      <c r="J42" t="s" s="110">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="C43" t="s" s="115">
-        <v>28</v>
-      </c>
-      <c r="D43" t="n" s="116">
-        <v>1.0</v>
-      </c>
-      <c r="E43" t="n" s="117">
-        <v>0.0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="J43" t="s" s="114">
-        <v>7</v>
+      <c r="J43" t="s" s="160">
+        <v>13</v>
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="123">
-        <v>30</v>
-      </c>
-      <c r="C44" t="s" s="120">
-        <v>28</v>
-      </c>
-      <c r="D44" t="n" s="122">
-        <v>0.0</v>
-      </c>
-      <c r="E44" t="n" s="121">
-        <v>1.0</v>
-      </c>
-      <c r="J44" t="s" s="119">
-        <v>7</v>
+      <c r="A44" t="s" s="190">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s" s="174">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s" s="167">
+        <v>47</v>
+      </c>
+      <c r="D44" t="n" s="168">
+        <v>1.0</v>
+      </c>
+      <c r="E44" t="n" s="169">
+        <v>0.0</v>
+      </c>
+      <c r="J44" t="s" s="166">
+        <v>11</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="158">
-        <v>40</v>
-      </c>
-      <c r="B45" t="s" s="133">
-        <v>33</v>
-      </c>
-      <c r="C45" t="s" s="126">
-        <v>32</v>
-      </c>
-      <c r="D45" t="n" s="127">
-        <v>1.0</v>
-      </c>
-      <c r="E45" t="n" s="128">
-        <v>0.0</v>
-      </c>
-      <c r="J45" t="s" s="125">
-        <v>5</v>
+      <c r="C45" t="s" s="171">
+        <v>47</v>
+      </c>
+      <c r="D45" t="n" s="172">
+        <v>1.0</v>
+      </c>
+      <c r="E45" t="n" s="173">
+        <v>0.0</v>
+      </c>
+      <c r="J45" t="s" s="170">
+        <v>6</v>
       </c>
     </row>
     <row r="46">
-      <c r="C46" t="s" s="130">
-        <v>16</v>
-      </c>
-      <c r="D46" t="n" s="131">
-        <v>1.0</v>
-      </c>
-      <c r="E46" t="n" s="132">
-        <v>0.0</v>
-      </c>
-      <c r="J46" t="s" s="129">
-        <v>0</v>
+      <c r="B46" t="s" s="179">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s" s="176">
+        <v>49</v>
+      </c>
+      <c r="D46" t="n" s="177">
+        <v>1.0</v>
+      </c>
+      <c r="E46" t="n" s="178">
+        <v>0.0</v>
+      </c>
+      <c r="J46" t="s" s="175">
+        <v>6</v>
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="138">
-        <v>34</v>
-      </c>
-      <c r="C47" t="s" s="135">
-        <v>16</v>
-      </c>
-      <c r="D47" t="n" s="137">
-        <v>0.0</v>
-      </c>
-      <c r="E47" t="n" s="136">
-        <v>1.0</v>
-      </c>
-      <c r="J47" t="s" s="134">
-        <v>0</v>
+      <c r="B47" t="s" s="184">
+        <v>52</v>
+      </c>
+      <c r="C47" t="s" s="181">
+        <v>51</v>
+      </c>
+      <c r="D47" t="n" s="182">
+        <v>1.0</v>
+      </c>
+      <c r="E47" t="n" s="183">
+        <v>0.0</v>
+      </c>
+      <c r="J47" t="s" s="180">
+        <v>6</v>
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="147">
-        <v>36</v>
-      </c>
-      <c r="C48" t="s" s="140">
-        <v>35</v>
-      </c>
-      <c r="D48" t="n" s="141">
-        <v>1.0</v>
-      </c>
-      <c r="E48" t="n" s="142">
-        <v>0.0</v>
-      </c>
-      <c r="J48" t="s" s="139">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="C49" t="s" s="144">
-        <v>35</v>
-      </c>
-      <c r="D49" t="n" s="145">
-        <v>1.0</v>
-      </c>
-      <c r="E49" t="n" s="146">
-        <v>0.0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J49" t="s" s="143">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" t="s" s="152">
-        <v>37</v>
-      </c>
-      <c r="C50" t="s" s="149">
-        <v>35</v>
-      </c>
-      <c r="D50" t="n" s="151">
-        <v>0.0</v>
-      </c>
-      <c r="E50" t="n" s="150">
-        <v>1.0</v>
-      </c>
-      <c r="J50" t="s" s="148">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" t="s" s="157">
-        <v>39</v>
-      </c>
-      <c r="C51" t="s" s="154">
-        <v>38</v>
-      </c>
-      <c r="D51" t="n" s="155">
-        <v>1.0</v>
-      </c>
-      <c r="E51" t="n" s="156">
-        <v>0.0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="J51" t="s" s="153">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="183">
-        <v>49</v>
-      </c>
-      <c r="B52" t="s" s="167">
-        <v>42</v>
-      </c>
-      <c r="C52" t="s" s="160">
-        <v>41</v>
-      </c>
-      <c r="D52" t="n" s="161">
-        <v>1.0</v>
-      </c>
-      <c r="E52" t="n" s="162">
-        <v>0.0</v>
-      </c>
-      <c r="J52" t="s" s="159">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="C53" t="s" s="164">
-        <v>41</v>
-      </c>
-      <c r="D53" t="n" s="165">
-        <v>1.0</v>
-      </c>
-      <c r="E53" t="n" s="166">
-        <v>0.0</v>
-      </c>
-      <c r="J53" t="s" s="163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" t="s" s="172">
-        <v>44</v>
-      </c>
-      <c r="C54" t="s" s="169">
-        <v>43</v>
-      </c>
-      <c r="D54" t="n" s="170">
-        <v>1.0</v>
-      </c>
-      <c r="E54" t="n" s="171">
-        <v>0.0</v>
-      </c>
-      <c r="J54" t="s" s="168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="s" s="177">
-        <v>46</v>
-      </c>
-      <c r="C55" t="s" s="174">
-        <v>45</v>
-      </c>
-      <c r="D55" t="n" s="175">
-        <v>1.0</v>
-      </c>
-      <c r="E55" t="n" s="176">
-        <v>0.0</v>
-      </c>
-      <c r="J55" t="s" s="173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="s" s="182">
-        <v>48</v>
-      </c>
-      <c r="C56" t="s" s="179">
-        <v>47</v>
-      </c>
-      <c r="D56" t="n" s="180">
-        <v>1.0</v>
-      </c>
-      <c r="E56" t="n" s="181">
-        <v>0.0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J56" t="s" s="178">
-        <v>7</v>
+      <c r="B48" t="s" s="189">
+        <v>54</v>
+      </c>
+      <c r="C48" t="s" s="186">
+        <v>53</v>
+      </c>
+      <c r="D48" t="n" s="187">
+        <v>1.0</v>
+      </c>
+      <c r="E48" t="n" s="188">
+        <v>0.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J48" t="s" s="185">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="B37:B38"/>
     <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A44:A48"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4690,7 +4876,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A18:K75"/>
+  <dimension ref="A3:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4701,1004 +4887,1037 @@
     <col min="1" max="1" width="32.0" customWidth="true"/>
   </cols>
   <sheetData>
+    <row r="3">
+      <c r="A3" t="s" s="191">
+        <v>56</v>
+      </c>
+      <c r="B3" s="192">
+        <f>TODAY()</f>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="s" s="194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="s" s="195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="s" s="196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="s" s="197">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="207">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s" s="202">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s" s="199">
+        <v>7</v>
+      </c>
+      <c r="D10" t="n" s="200">
+        <v>1.0</v>
+      </c>
+      <c r="E10" t="n" s="201">
+        <v>0.0</v>
+      </c>
+      <c r="J10" t="s" s="198">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s" s="206">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s" s="203">
+        <v>7</v>
+      </c>
+      <c r="D11" t="n" s="204">
+        <v>1.0</v>
+      </c>
+      <c r="E11" t="n" s="205">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="238">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s" s="216">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s" s="209">
+        <v>57</v>
+      </c>
+      <c r="D12" t="n" s="210">
+        <v>1.0</v>
+      </c>
+      <c r="E12" t="n" s="211">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="s" s="208">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="s" s="213">
+        <v>57</v>
+      </c>
+      <c r="D13" t="n" s="214">
+        <v>1.0</v>
+      </c>
+      <c r="E13" t="n" s="215">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="s" s="212">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s" s="237">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s" s="218">
+        <v>59</v>
+      </c>
+      <c r="D14" t="n" s="219">
+        <v>1.0</v>
+      </c>
+      <c r="E14" t="n" s="220">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="s" s="217">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="s" s="222">
+        <v>59</v>
+      </c>
+      <c r="D15" t="n" s="223">
+        <v>1.0</v>
+      </c>
+      <c r="E15" t="n" s="224">
+        <v>0.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J15" t="s" s="221">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="s" s="226">
+        <v>60</v>
+      </c>
+      <c r="D16" t="n" s="227">
+        <v>1.0</v>
+      </c>
+      <c r="E16" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="s" s="225">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="s" s="230">
+        <v>60</v>
+      </c>
+      <c r="D17" t="n" s="231">
+        <v>1.0</v>
+      </c>
+      <c r="E17" t="n" s="232">
+        <v>0.0</v>
+      </c>
+      <c r="J17" t="s" s="229">
+        <v>6</v>
+      </c>
+    </row>
     <row r="18">
-      <c r="A18" t="s" s="193">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s" s="188">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s" s="185">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n" s="186">
-        <v>1.0</v>
-      </c>
-      <c r="E18" t="n" s="187">
-        <v>0.0</v>
-      </c>
-      <c r="J18" t="s" s="184">
-        <v>0</v>
+      <c r="C18" t="s" s="234">
+        <v>60</v>
+      </c>
+      <c r="D18" t="n" s="235">
+        <v>1.0</v>
+      </c>
+      <c r="E18" t="n" s="236">
+        <v>0.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="J18" t="s" s="233">
+        <v>13</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="192">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s" s="189">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n" s="190">
-        <v>1.0</v>
-      </c>
-      <c r="E19" t="n" s="191">
-        <v>0.0</v>
+      <c r="A19" t="s" s="285">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s" s="251">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s" s="240">
+        <v>63</v>
+      </c>
+      <c r="D19" t="n" s="241">
+        <v>1.0</v>
+      </c>
+      <c r="E19" t="n" s="242">
+        <v>0.0</v>
+      </c>
+      <c r="J19" t="s" s="239">
+        <v>11</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="224">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s" s="202">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s" s="195">
-        <v>50</v>
-      </c>
-      <c r="D20" t="n" s="196">
-        <v>1.0</v>
-      </c>
-      <c r="E20" t="n" s="197">
-        <v>0.0</v>
-      </c>
-      <c r="J20" t="s" s="194">
-        <v>5</v>
+      <c r="C20" t="s" s="244">
+        <v>63</v>
+      </c>
+      <c r="D20" t="n" s="245">
+        <v>1.0</v>
+      </c>
+      <c r="E20" t="n" s="246">
+        <v>0.0</v>
+      </c>
+      <c r="J20" t="s" s="243">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
-      <c r="C21" t="s" s="199">
-        <v>50</v>
-      </c>
-      <c r="D21" t="n" s="200">
-        <v>1.0</v>
-      </c>
-      <c r="E21" t="n" s="201">
-        <v>0.0</v>
-      </c>
-      <c r="J21" t="s" s="198">
-        <v>0</v>
+      <c r="C21" t="s" s="248">
+        <v>16</v>
+      </c>
+      <c r="D21" t="n" s="249">
+        <v>1.0</v>
+      </c>
+      <c r="E21" t="n" s="250">
+        <v>0.0</v>
+      </c>
+      <c r="J21" t="s" s="247">
+        <v>6</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="223">
+      <c r="B22" t="s" s="256">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s" s="253">
+        <v>16</v>
+      </c>
+      <c r="D22" t="n" s="255">
+        <v>0.0</v>
+      </c>
+      <c r="E22" t="n" s="254">
+        <v>1.0</v>
+      </c>
+      <c r="J22" t="s" s="252">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s" s="269">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s" s="258">
+        <v>63</v>
+      </c>
+      <c r="D23" t="n" s="259">
+        <v>1.0</v>
+      </c>
+      <c r="E23" t="n" s="260">
+        <v>0.0</v>
+      </c>
+      <c r="J23" t="s" s="257">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="s" s="262">
+        <v>63</v>
+      </c>
+      <c r="D24" t="n" s="263">
+        <v>1.0</v>
+      </c>
+      <c r="E24" t="n" s="264">
+        <v>0.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="J24" t="s" s="261">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="s" s="266">
+        <v>16</v>
+      </c>
+      <c r="D25" t="n" s="267">
+        <v>1.0</v>
+      </c>
+      <c r="E25" t="n" s="268">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="J25" t="s" s="265">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s" s="274">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s" s="271">
+        <v>16</v>
+      </c>
+      <c r="D26" t="n" s="273">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="272">
+        <v>1.0</v>
+      </c>
+      <c r="J26" t="s" s="270">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s" s="279">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s" s="276">
+        <v>16</v>
+      </c>
+      <c r="D27" t="n" s="277">
+        <v>1.0</v>
+      </c>
+      <c r="E27" t="n" s="278">
+        <v>0.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="J27" t="s" s="275">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s" s="284">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s" s="281">
+        <v>16</v>
+      </c>
+      <c r="D28" t="n" s="283">
+        <v>0.0</v>
+      </c>
+      <c r="E28" t="n" s="282">
+        <v>1.0</v>
+      </c>
+      <c r="J28" t="s" s="280">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="333">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s" s="294">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s" s="287">
+        <v>71</v>
+      </c>
+      <c r="D29" t="n" s="288">
+        <v>1.0</v>
+      </c>
+      <c r="E29" t="n" s="289">
+        <v>0.0</v>
+      </c>
+      <c r="J29" t="s" s="286">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="s" s="291">
+        <v>71</v>
+      </c>
+      <c r="D30" t="n" s="292">
+        <v>1.0</v>
+      </c>
+      <c r="E30" t="n" s="293">
+        <v>0.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J30" t="s" s="290">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s" s="319">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s" s="296">
+        <v>71</v>
+      </c>
+      <c r="D31" t="n" s="297">
+        <v>1.0</v>
+      </c>
+      <c r="E31" t="n" s="298">
+        <v>0.0</v>
+      </c>
+      <c r="J31" t="s" s="295">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="s" s="300">
+        <v>71</v>
+      </c>
+      <c r="D32" t="n" s="301">
+        <v>1.0</v>
+      </c>
+      <c r="E32" t="n" s="302">
+        <v>0.0</v>
+      </c>
+      <c r="J32" t="s" s="299">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="s" s="304">
+        <v>73</v>
+      </c>
+      <c r="D33" t="n" s="305">
+        <v>1.0</v>
+      </c>
+      <c r="E33" t="n" s="306">
+        <v>0.0</v>
+      </c>
+      <c r="J33" t="s" s="303">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="s" s="308">
+        <v>73</v>
+      </c>
+      <c r="D34" t="n" s="309">
+        <v>1.0</v>
+      </c>
+      <c r="E34" t="n" s="310">
+        <v>0.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="J34" t="s" s="307">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="s" s="312">
+        <v>74</v>
+      </c>
+      <c r="D35" t="n" s="313">
+        <v>1.0</v>
+      </c>
+      <c r="E35" t="n" s="314">
+        <v>0.0</v>
+      </c>
+      <c r="J35" t="s" s="311">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="s" s="316">
+        <v>74</v>
+      </c>
+      <c r="D36" t="n" s="317">
+        <v>1.0</v>
+      </c>
+      <c r="E36" t="n" s="318">
+        <v>0.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J36" t="s" s="315">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s" s="332">
+        <v>76</v>
+      </c>
+      <c r="C37" t="s" s="321">
+        <v>71</v>
+      </c>
+      <c r="D37" t="n" s="323">
+        <v>0.0</v>
+      </c>
+      <c r="E37" t="n" s="322">
+        <v>1.0</v>
+      </c>
+      <c r="J37" t="s" s="320">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="s" s="325">
+        <v>73</v>
+      </c>
+      <c r="D38" t="n" s="327">
+        <v>0.0</v>
+      </c>
+      <c r="E38" t="n" s="326">
+        <v>1.0</v>
+      </c>
+      <c r="J38" t="s" s="324">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="s" s="329">
+        <v>73</v>
+      </c>
+      <c r="D39" t="n" s="331">
+        <v>0.0</v>
+      </c>
+      <c r="E39" t="n" s="330">
+        <v>1.0</v>
+      </c>
+      <c r="J39" t="s" s="328">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="391">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s" s="346">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s" s="335">
+        <v>78</v>
+      </c>
+      <c r="D40" t="n" s="336">
+        <v>1.0</v>
+      </c>
+      <c r="E40" t="n" s="337">
+        <v>0.0</v>
+      </c>
+      <c r="J40" t="s" s="334">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="s" s="339">
+        <v>78</v>
+      </c>
+      <c r="D41" t="n" s="340">
+        <v>1.0</v>
+      </c>
+      <c r="E41" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="J41" t="s" s="338">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="s" s="343">
+        <v>78</v>
+      </c>
+      <c r="D42" t="n" s="344">
+        <v>1.0</v>
+      </c>
+      <c r="E42" t="n" s="345">
+        <v>0.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J42" t="s" s="342">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s" s="355">
+        <v>80</v>
+      </c>
+      <c r="C43" t="s" s="348">
+        <v>78</v>
+      </c>
+      <c r="D43" t="n" s="350">
+        <v>0.0</v>
+      </c>
+      <c r="E43" t="n" s="349">
+        <v>1.0</v>
+      </c>
+      <c r="J43" t="s" s="347">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="s" s="352">
+        <v>78</v>
+      </c>
+      <c r="D44" t="n" s="354">
+        <v>0.0</v>
+      </c>
+      <c r="E44" t="n" s="353">
+        <v>1.0</v>
+      </c>
+      <c r="J44" t="s" s="351">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s" s="364">
+        <v>82</v>
+      </c>
+      <c r="C45" t="s" s="357">
+        <v>81</v>
+      </c>
+      <c r="D45" t="n" s="358">
+        <v>1.0</v>
+      </c>
+      <c r="E45" t="n" s="359">
+        <v>0.0</v>
+      </c>
+      <c r="J45" t="s" s="356">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="s" s="361">
+        <v>81</v>
+      </c>
+      <c r="D46" t="n" s="362">
+        <v>1.0</v>
+      </c>
+      <c r="E46" t="n" s="363">
+        <v>0.0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J46" t="s" s="360">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s" s="381">
+        <v>84</v>
+      </c>
+      <c r="C47" t="s" s="366">
+        <v>31</v>
+      </c>
+      <c r="D47" t="n" s="367">
+        <v>1.0</v>
+      </c>
+      <c r="E47" t="n" s="368">
+        <v>0.0</v>
+      </c>
+      <c r="J47" t="s" s="365">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="s" s="370">
+        <v>31</v>
+      </c>
+      <c r="D48" t="n" s="371">
+        <v>1.0</v>
+      </c>
+      <c r="E48" t="n" s="372">
+        <v>0.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J48" t="s" s="369">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="s" s="374">
+        <v>83</v>
+      </c>
+      <c r="D49" t="n" s="375">
+        <v>1.0</v>
+      </c>
+      <c r="E49" t="n" s="376">
+        <v>0.0</v>
+      </c>
+      <c r="J49" t="s" s="373">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="s" s="378">
+        <v>83</v>
+      </c>
+      <c r="D50" t="n" s="379">
+        <v>1.0</v>
+      </c>
+      <c r="E50" t="n" s="380">
+        <v>0.0</v>
+      </c>
+      <c r="J50" t="s" s="377">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s" s="390">
+        <v>85</v>
+      </c>
+      <c r="C51" t="s" s="383">
+        <v>31</v>
+      </c>
+      <c r="D51" t="n" s="385">
+        <v>0.0</v>
+      </c>
+      <c r="E51" t="n" s="384">
+        <v>1.0</v>
+      </c>
+      <c r="J51" t="s" s="382">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="s" s="387">
+        <v>83</v>
+      </c>
+      <c r="D52" t="n" s="389">
+        <v>0.0</v>
+      </c>
+      <c r="E52" t="n" s="388">
+        <v>1.0</v>
+      </c>
+      <c r="J52" t="s" s="386">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="424">
+        <v>93</v>
+      </c>
+      <c r="B53" t="s" s="400">
+        <v>87</v>
+      </c>
+      <c r="C53" t="s" s="393">
+        <v>63</v>
+      </c>
+      <c r="D53" t="n" s="394">
+        <v>1.0</v>
+      </c>
+      <c r="E53" t="n" s="395">
+        <v>0.0</v>
+      </c>
+      <c r="J53" t="s" s="392">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="s" s="397">
+        <v>63</v>
+      </c>
+      <c r="D54" t="n" s="398">
+        <v>1.0</v>
+      </c>
+      <c r="E54" t="n" s="399">
+        <v>0.0</v>
+      </c>
+      <c r="J54" t="s" s="396">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="s" s="405">
+        <v>88</v>
+      </c>
+      <c r="C55" t="s" s="402">
+        <v>16</v>
+      </c>
+      <c r="D55" t="n" s="404">
+        <v>0.0</v>
+      </c>
+      <c r="E55" t="n" s="403">
+        <v>1.0</v>
+      </c>
+      <c r="J55" t="s" s="401">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="s" s="418">
+        <v>91</v>
+      </c>
+      <c r="C56" t="s" s="407">
+        <v>89</v>
+      </c>
+      <c r="D56" t="n" s="408">
+        <v>1.0</v>
+      </c>
+      <c r="E56" t="n" s="409">
+        <v>0.0</v>
+      </c>
+      <c r="J56" t="s" s="406">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="s" s="411">
+        <v>89</v>
+      </c>
+      <c r="D57" t="n" s="412">
+        <v>1.0</v>
+      </c>
+      <c r="E57" t="n" s="413">
+        <v>0.0</v>
+      </c>
+      <c r="J57" t="s" s="410">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="s" s="415">
+        <v>90</v>
+      </c>
+      <c r="D58" t="n" s="416">
+        <v>1.0</v>
+      </c>
+      <c r="E58" t="n" s="417">
+        <v>0.0</v>
+      </c>
+      <c r="J58" t="s" s="414">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s" s="423">
+        <v>92</v>
+      </c>
+      <c r="C59" t="s" s="420">
+        <v>89</v>
+      </c>
+      <c r="D59" t="n" s="421">
+        <v>1.0</v>
+      </c>
+      <c r="E59" t="n" s="422">
+        <v>0.0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="J59" t="s" s="419">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="459">
+        <v>102</v>
+      </c>
+      <c r="B60" t="s" s="429">
+        <v>94</v>
+      </c>
+      <c r="C60" t="s" s="426">
+        <v>7</v>
+      </c>
+      <c r="D60" t="n" s="427">
+        <v>1.0</v>
+      </c>
+      <c r="E60" t="n" s="428">
+        <v>0.0</v>
+      </c>
+      <c r="J60" t="s" s="425">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s" s="434">
+        <v>96</v>
+      </c>
+      <c r="C61" t="s" s="431">
+        <v>95</v>
+      </c>
+      <c r="D61" t="n" s="432">
+        <v>1.0</v>
+      </c>
+      <c r="E61" t="n" s="433">
+        <v>0.0</v>
+      </c>
+      <c r="J61" t="s" s="430">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s" s="439">
+        <v>97</v>
+      </c>
+      <c r="C62" t="s" s="436">
+        <v>95</v>
+      </c>
+      <c r="D62" t="n" s="437">
+        <v>1.0</v>
+      </c>
+      <c r="E62" t="n" s="438">
+        <v>0.0</v>
+      </c>
+      <c r="J62" t="s" s="435">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s" s="448">
+        <v>99</v>
+      </c>
+      <c r="C63" t="s" s="441">
+        <v>98</v>
+      </c>
+      <c r="D63" t="n" s="442">
+        <v>1.0</v>
+      </c>
+      <c r="E63" t="n" s="443">
+        <v>0.0</v>
+      </c>
+      <c r="J63" t="s" s="440">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="s" s="445">
+        <v>98</v>
+      </c>
+      <c r="D64" t="n" s="446">
+        <v>1.0</v>
+      </c>
+      <c r="E64" t="n" s="447">
+        <v>0.0</v>
+      </c>
+      <c r="J64" t="s" s="444">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s" s="453">
+        <v>101</v>
+      </c>
+      <c r="C65" t="s" s="450">
+        <v>100</v>
+      </c>
+      <c r="D65" t="n" s="451">
+        <v>1.0</v>
+      </c>
+      <c r="E65" t="n" s="452">
+        <v>0.0</v>
+      </c>
+      <c r="J65" t="s" s="449">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="s" s="458">
         <v>54</v>
       </c>
-      <c r="C22" t="s" s="204">
-        <v>52</v>
-      </c>
-      <c r="D22" t="n" s="205">
-        <v>1.0</v>
-      </c>
-      <c r="E22" t="n" s="206">
-        <v>0.0</v>
-      </c>
-      <c r="J22" t="s" s="203">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="C23" t="s" s="208">
-        <v>52</v>
-      </c>
-      <c r="D23" t="n" s="209">
-        <v>1.0</v>
-      </c>
-      <c r="E23" t="n" s="210">
-        <v>0.0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J23" t="s" s="207">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="C24" t="s" s="212">
+      <c r="C66" t="s" s="455">
         <v>53</v>
       </c>
-      <c r="D24" t="n" s="213">
-        <v>1.0</v>
-      </c>
-      <c r="E24" t="n" s="214">
-        <v>0.0</v>
-      </c>
-      <c r="J24" t="s" s="211">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="C25" t="s" s="216">
+      <c r="D66" t="n" s="456">
+        <v>1.0</v>
+      </c>
+      <c r="E66" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J66" t="s" s="454">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="464">
+        <v>104</v>
+      </c>
+      <c r="B67" t="s" s="463">
+        <v>103</v>
+      </c>
+      <c r="C67" t="s" s="460">
         <v>53</v>
       </c>
-      <c r="D25" t="n" s="217">
-        <v>1.0</v>
-      </c>
-      <c r="E25" t="n" s="218">
-        <v>0.0</v>
-      </c>
-      <c r="J25" t="s" s="215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="C26" t="s" s="220">
-        <v>53</v>
-      </c>
-      <c r="D26" t="n" s="221">
-        <v>1.0</v>
-      </c>
-      <c r="E26" t="n" s="222">
-        <v>0.0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J26" t="s" s="219">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="271">
-        <v>63</v>
-      </c>
-      <c r="B27" t="s" s="237">
-        <v>57</v>
-      </c>
-      <c r="C27" t="s" s="226">
-        <v>56</v>
-      </c>
-      <c r="D27" t="n" s="227">
-        <v>1.0</v>
-      </c>
-      <c r="E27" t="n" s="228">
-        <v>0.0</v>
-      </c>
-      <c r="J27" t="s" s="225">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="C28" t="s" s="230">
-        <v>56</v>
-      </c>
-      <c r="D28" t="n" s="231">
-        <v>1.0</v>
-      </c>
-      <c r="E28" t="n" s="232">
-        <v>0.0</v>
-      </c>
-      <c r="J28" t="s" s="229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="C29" t="s" s="234">
-        <v>10</v>
-      </c>
-      <c r="D29" t="n" s="235">
-        <v>1.0</v>
-      </c>
-      <c r="E29" t="n" s="236">
-        <v>0.0</v>
-      </c>
-      <c r="J29" t="s" s="233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" t="s" s="242">
-        <v>58</v>
-      </c>
-      <c r="C30" t="s" s="239">
-        <v>10</v>
-      </c>
-      <c r="D30" t="n" s="241">
-        <v>0.0</v>
-      </c>
-      <c r="E30" t="n" s="240">
-        <v>1.0</v>
-      </c>
-      <c r="J30" t="s" s="238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" t="s" s="255">
-        <v>59</v>
-      </c>
-      <c r="C31" t="s" s="244">
-        <v>56</v>
-      </c>
-      <c r="D31" t="n" s="245">
-        <v>1.0</v>
-      </c>
-      <c r="E31" t="n" s="246">
-        <v>0.0</v>
-      </c>
-      <c r="J31" t="s" s="243">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" t="s" s="248">
-        <v>56</v>
-      </c>
-      <c r="D32" t="n" s="249">
-        <v>1.0</v>
-      </c>
-      <c r="E32" t="n" s="250">
-        <v>0.0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J32" t="s" s="247">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="C33" t="s" s="252">
-        <v>10</v>
-      </c>
-      <c r="D33" t="n" s="253">
-        <v>1.0</v>
-      </c>
-      <c r="E33" t="n" s="254">
-        <v>0.0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J33" t="s" s="251">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" t="s" s="260">
-        <v>60</v>
-      </c>
-      <c r="C34" t="s" s="257">
-        <v>10</v>
-      </c>
-      <c r="D34" t="n" s="259">
-        <v>0.0</v>
-      </c>
-      <c r="E34" t="n" s="258">
-        <v>1.0</v>
-      </c>
-      <c r="J34" t="s" s="256">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="s" s="265">
-        <v>61</v>
-      </c>
-      <c r="C35" t="s" s="262">
-        <v>10</v>
-      </c>
-      <c r="D35" t="n" s="263">
-        <v>1.0</v>
-      </c>
-      <c r="E35" t="n" s="264">
-        <v>0.0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="J35" t="s" s="261">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" t="s" s="270">
-        <v>62</v>
-      </c>
-      <c r="C36" t="s" s="267">
-        <v>10</v>
-      </c>
-      <c r="D36" t="n" s="269">
-        <v>0.0</v>
-      </c>
-      <c r="E36" t="n" s="268">
-        <v>1.0</v>
-      </c>
-      <c r="J36" t="s" s="266">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="319">
-        <v>70</v>
-      </c>
-      <c r="B37" t="s" s="280">
-        <v>65</v>
-      </c>
-      <c r="C37" t="s" s="273">
-        <v>64</v>
-      </c>
-      <c r="D37" t="n" s="274">
-        <v>1.0</v>
-      </c>
-      <c r="E37" t="n" s="275">
-        <v>0.0</v>
-      </c>
-      <c r="J37" t="s" s="272">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="C38" t="s" s="277">
-        <v>64</v>
-      </c>
-      <c r="D38" t="n" s="278">
-        <v>1.0</v>
-      </c>
-      <c r="E38" t="n" s="279">
-        <v>0.0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J38" t="s" s="276">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" t="s" s="305">
-        <v>68</v>
-      </c>
-      <c r="C39" t="s" s="282">
-        <v>64</v>
-      </c>
-      <c r="D39" t="n" s="283">
-        <v>1.0</v>
-      </c>
-      <c r="E39" t="n" s="284">
-        <v>0.0</v>
-      </c>
-      <c r="J39" t="s" s="281">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="C40" t="s" s="286">
-        <v>64</v>
-      </c>
-      <c r="D40" t="n" s="287">
-        <v>1.0</v>
-      </c>
-      <c r="E40" t="n" s="288">
-        <v>0.0</v>
-      </c>
-      <c r="J40" t="s" s="285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="C41" t="s" s="290">
-        <v>66</v>
-      </c>
-      <c r="D41" t="n" s="291">
-        <v>1.0</v>
-      </c>
-      <c r="E41" t="n" s="292">
-        <v>0.0</v>
-      </c>
-      <c r="J41" t="s" s="289">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="C42" t="s" s="294">
-        <v>66</v>
-      </c>
-      <c r="D42" t="n" s="295">
-        <v>1.0</v>
-      </c>
-      <c r="E42" t="n" s="296">
-        <v>0.0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="J42" t="s" s="293">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="C43" t="s" s="298">
-        <v>67</v>
-      </c>
-      <c r="D43" t="n" s="299">
-        <v>1.0</v>
-      </c>
-      <c r="E43" t="n" s="300">
-        <v>0.0</v>
-      </c>
-      <c r="J43" t="s" s="297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="C44" t="s" s="302">
-        <v>67</v>
-      </c>
-      <c r="D44" t="n" s="303">
-        <v>1.0</v>
-      </c>
-      <c r="E44" t="n" s="304">
-        <v>0.0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J44" t="s" s="301">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="s" s="318">
-        <v>69</v>
-      </c>
-      <c r="C45" t="s" s="307">
-        <v>64</v>
-      </c>
-      <c r="D45" t="n" s="309">
-        <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="308">
-        <v>1.0</v>
-      </c>
-      <c r="J45" t="s" s="306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="C46" t="s" s="311">
-        <v>66</v>
-      </c>
-      <c r="D46" t="n" s="313">
-        <v>0.0</v>
-      </c>
-      <c r="E46" t="n" s="312">
-        <v>1.0</v>
-      </c>
-      <c r="J46" t="s" s="310">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="C47" t="s" s="315">
-        <v>66</v>
-      </c>
-      <c r="D47" t="n" s="317">
-        <v>0.0</v>
-      </c>
-      <c r="E47" t="n" s="316">
-        <v>1.0</v>
-      </c>
-      <c r="J47" t="s" s="314">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="377">
-        <v>79</v>
-      </c>
-      <c r="B48" t="s" s="332">
-        <v>72</v>
-      </c>
-      <c r="C48" t="s" s="321">
-        <v>71</v>
-      </c>
-      <c r="D48" t="n" s="322">
-        <v>1.0</v>
-      </c>
-      <c r="E48" t="n" s="323">
-        <v>0.0</v>
-      </c>
-      <c r="J48" t="s" s="320">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="C49" t="s" s="325">
-        <v>71</v>
-      </c>
-      <c r="D49" t="n" s="326">
-        <v>1.0</v>
-      </c>
-      <c r="E49" t="n" s="327">
-        <v>0.0</v>
-      </c>
-      <c r="J49" t="s" s="324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="C50" t="s" s="329">
-        <v>71</v>
-      </c>
-      <c r="D50" t="n" s="330">
-        <v>1.0</v>
-      </c>
-      <c r="E50" t="n" s="331">
-        <v>0.0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="J50" t="s" s="328">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" t="s" s="341">
-        <v>73</v>
-      </c>
-      <c r="C51" t="s" s="334">
-        <v>71</v>
-      </c>
-      <c r="D51" t="n" s="336">
-        <v>0.0</v>
-      </c>
-      <c r="E51" t="n" s="335">
-        <v>1.0</v>
-      </c>
-      <c r="J51" t="s" s="333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="C52" t="s" s="338">
-        <v>71</v>
-      </c>
-      <c r="D52" t="n" s="340">
-        <v>0.0</v>
-      </c>
-      <c r="E52" t="n" s="339">
-        <v>1.0</v>
-      </c>
-      <c r="J52" t="s" s="337">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" t="s" s="350">
-        <v>75</v>
-      </c>
-      <c r="C53" t="s" s="343">
-        <v>74</v>
-      </c>
-      <c r="D53" t="n" s="344">
-        <v>1.0</v>
-      </c>
-      <c r="E53" t="n" s="345">
-        <v>0.0</v>
-      </c>
-      <c r="J53" t="s" s="342">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="C54" t="s" s="347">
-        <v>74</v>
-      </c>
-      <c r="D54" t="n" s="348">
-        <v>1.0</v>
-      </c>
-      <c r="E54" t="n" s="349">
-        <v>0.0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="J54" t="s" s="346">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="s" s="367">
-        <v>77</v>
-      </c>
-      <c r="C55" t="s" s="352">
-        <v>25</v>
-      </c>
-      <c r="D55" t="n" s="353">
-        <v>1.0</v>
-      </c>
-      <c r="E55" t="n" s="354">
-        <v>0.0</v>
-      </c>
-      <c r="J55" t="s" s="351">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="C56" t="s" s="356">
-        <v>25</v>
-      </c>
-      <c r="D56" t="n" s="357">
-        <v>1.0</v>
-      </c>
-      <c r="E56" t="n" s="358">
-        <v>0.0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="J56" t="s" s="355">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="C57" t="s" s="360">
-        <v>76</v>
-      </c>
-      <c r="D57" t="n" s="361">
-        <v>1.0</v>
-      </c>
-      <c r="E57" t="n" s="362">
-        <v>0.0</v>
-      </c>
-      <c r="J57" t="s" s="359">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="C58" t="s" s="364">
-        <v>76</v>
-      </c>
-      <c r="D58" t="n" s="365">
-        <v>1.0</v>
-      </c>
-      <c r="E58" t="n" s="366">
-        <v>0.0</v>
-      </c>
-      <c r="J58" t="s" s="363">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" t="s" s="376">
-        <v>78</v>
-      </c>
-      <c r="C59" t="s" s="369">
-        <v>25</v>
-      </c>
-      <c r="D59" t="n" s="371">
-        <v>0.0</v>
-      </c>
-      <c r="E59" t="n" s="370">
-        <v>1.0</v>
-      </c>
-      <c r="J59" t="s" s="368">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="C60" t="s" s="373">
-        <v>76</v>
-      </c>
-      <c r="D60" t="n" s="375">
-        <v>0.0</v>
-      </c>
-      <c r="E60" t="n" s="374">
-        <v>1.0</v>
-      </c>
-      <c r="J60" t="s" s="372">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="410">
-        <v>86</v>
-      </c>
-      <c r="B61" t="s" s="386">
-        <v>80</v>
-      </c>
-      <c r="C61" t="s" s="379">
-        <v>56</v>
-      </c>
-      <c r="D61" t="n" s="380">
-        <v>1.0</v>
-      </c>
-      <c r="E61" t="n" s="381">
-        <v>0.0</v>
-      </c>
-      <c r="J61" t="s" s="378">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="C62" t="s" s="383">
-        <v>56</v>
-      </c>
-      <c r="D62" t="n" s="384">
-        <v>1.0</v>
-      </c>
-      <c r="E62" t="n" s="385">
-        <v>0.0</v>
-      </c>
-      <c r="J62" t="s" s="382">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" t="s" s="391">
-        <v>81</v>
-      </c>
-      <c r="C63" t="s" s="388">
-        <v>10</v>
-      </c>
-      <c r="D63" t="n" s="390">
-        <v>0.0</v>
-      </c>
-      <c r="E63" t="n" s="389">
-        <v>1.0</v>
-      </c>
-      <c r="J63" t="s" s="387">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" t="s" s="404">
-        <v>84</v>
-      </c>
-      <c r="C64" t="s" s="393">
-        <v>82</v>
-      </c>
-      <c r="D64" t="n" s="394">
-        <v>1.0</v>
-      </c>
-      <c r="E64" t="n" s="395">
-        <v>0.0</v>
-      </c>
-      <c r="J64" t="s" s="392">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="C65" t="s" s="397">
-        <v>82</v>
-      </c>
-      <c r="D65" t="n" s="398">
-        <v>1.0</v>
-      </c>
-      <c r="E65" t="n" s="399">
-        <v>0.0</v>
-      </c>
-      <c r="J65" t="s" s="396">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="C66" t="s" s="401">
-        <v>83</v>
-      </c>
-      <c r="D66" t="n" s="402">
-        <v>1.0</v>
-      </c>
-      <c r="E66" t="n" s="403">
-        <v>0.0</v>
-      </c>
-      <c r="J66" t="s" s="400">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="B67" t="s" s="409">
-        <v>85</v>
-      </c>
-      <c r="C67" t="s" s="406">
-        <v>82</v>
-      </c>
-      <c r="D67" t="n" s="407">
-        <v>1.0</v>
-      </c>
-      <c r="E67" t="n" s="408">
-        <v>0.0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="J67" t="s" s="405">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="445">
-        <v>95</v>
-      </c>
-      <c r="B68" t="s" s="415">
-        <v>87</v>
-      </c>
-      <c r="C68" t="s" s="412">
-        <v>1</v>
-      </c>
-      <c r="D68" t="n" s="413">
-        <v>1.0</v>
-      </c>
-      <c r="E68" t="n" s="414">
-        <v>0.0</v>
-      </c>
-      <c r="J68" t="s" s="411">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" t="s" s="420">
-        <v>89</v>
-      </c>
-      <c r="C69" t="s" s="417">
-        <v>88</v>
-      </c>
-      <c r="D69" t="n" s="418">
-        <v>1.0</v>
-      </c>
-      <c r="E69" t="n" s="419">
-        <v>0.0</v>
-      </c>
-      <c r="J69" t="s" s="416">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="B70" t="s" s="425">
-        <v>90</v>
-      </c>
-      <c r="C70" t="s" s="422">
-        <v>88</v>
-      </c>
-      <c r="D70" t="n" s="423">
-        <v>1.0</v>
-      </c>
-      <c r="E70" t="n" s="424">
-        <v>0.0</v>
-      </c>
-      <c r="J70" t="s" s="421">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="B71" t="s" s="434">
-        <v>92</v>
-      </c>
-      <c r="C71" t="s" s="427">
-        <v>91</v>
-      </c>
-      <c r="D71" t="n" s="428">
-        <v>1.0</v>
-      </c>
-      <c r="E71" t="n" s="429">
-        <v>0.0</v>
-      </c>
-      <c r="J71" t="s" s="426">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="C72" t="s" s="431">
-        <v>91</v>
-      </c>
-      <c r="D72" t="n" s="432">
-        <v>1.0</v>
-      </c>
-      <c r="E72" t="n" s="433">
-        <v>0.0</v>
-      </c>
-      <c r="J72" t="s" s="430">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" t="s" s="439">
-        <v>94</v>
-      </c>
-      <c r="C73" t="s" s="436">
-        <v>93</v>
-      </c>
-      <c r="D73" t="n" s="437">
-        <v>1.0</v>
-      </c>
-      <c r="E73" t="n" s="438">
-        <v>0.0</v>
-      </c>
-      <c r="J73" t="s" s="435">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="B74" t="s" s="444">
-        <v>48</v>
-      </c>
-      <c r="C74" t="s" s="441">
-        <v>47</v>
-      </c>
-      <c r="D74" t="n" s="442">
-        <v>1.0</v>
-      </c>
-      <c r="E74" t="n" s="443">
-        <v>0.0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J74" t="s" s="440">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="450">
-        <v>97</v>
-      </c>
-      <c r="B75" t="s" s="449">
-        <v>96</v>
-      </c>
-      <c r="C75" t="s" s="446">
-        <v>47</v>
-      </c>
-      <c r="D75" t="n" s="447">
-        <v>1.0</v>
-      </c>
-      <c r="E75" t="n" s="448">
+      <c r="D67" t="n" s="461">
+        <v>1.0</v>
+      </c>
+      <c r="E67" t="n" s="462">
         <v>0.0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A19:A28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A27:A36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A29:A39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="B40:B42"/>
     <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A37:A47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B47:B50"/>
     <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A40:A52"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A48:A60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="A61:A67"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A60:A66"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/planning/TestWriteTeachingUnits.xlsx
+++ b/planning/TestWriteTeachingUnits.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="108">
   <si>
     <t>DI3 S5</t>
   </si>
@@ -39,6 +39,9 @@
     <t>BV Langue</t>
   </si>
   <si>
+    <t>CC</t>
+  </si>
+  <si>
     <t>Remise à niveau en anglais (obligatoire selon test d'entrée)</t>
   </si>
   <si>
@@ -57,6 +60,9 @@
     <t>TP</t>
   </si>
   <si>
+    <t>CC/CT</t>
+  </si>
+  <si>
     <t>Outils mathématiques pour l'ingénieur</t>
   </si>
   <si>
@@ -73,6 +79,9 @@
   </si>
   <si>
     <t>N. Monmarché</t>
+  </si>
+  <si>
+    <t>CT</t>
   </si>
   <si>
     <t>Compilation</t>
@@ -337,7 +346,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/m/yyyy"/>
   </numFmts>
-  <fonts count="465">
+  <fonts count="627">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -2665,8 +2674,818 @@
       <sz val="11.0"/>
       <color indexed="8"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2681,6 +3500,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="8BC34A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F44336"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F44336"/>
       </patternFill>
     </fill>
     <fill>
@@ -2734,7 +3563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="465">
+  <cellXfs count="627">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -2772,7 +3601,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2787,7 +3616,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2796,10 +3625,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2811,7 +3640,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2826,10 +3655,10 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2841,7 +3670,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2853,10 +3682,10 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2868,7 +3697,7 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="45" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2880,10 +3709,10 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2892,10 +3721,10 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2907,7 +3736,7 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2922,7 +3751,7 @@
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2937,22 +3766,22 @@
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="68" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="71" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2961,10 +3790,10 @@
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="76" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2976,7 +3805,7 @@
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="81" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2985,13 +3814,13 @@
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="84" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3003,10 +3832,10 @@
     <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3015,13 +3844,13 @@
     <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="96" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3033,10 +3862,10 @@
     <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3045,19 +3874,19 @@
     <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="106" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3066,16 +3895,16 @@
     <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="111" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="114" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3084,19 +3913,19 @@
     <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="119" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3105,13 +3934,13 @@
     <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="124" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3126,10 +3955,10 @@
     <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="132" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="131" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3156,7 +3985,7 @@
     <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="141" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3171,7 +4000,7 @@
     <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="146" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3183,10 +4012,10 @@
     <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3195,10 +4024,10 @@
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="154" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3210,10 +4039,10 @@
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="160" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="159" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3225,16 +4054,16 @@
     <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="164" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3243,7 +4072,7 @@
     <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3255,10 +4084,10 @@
     <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="175" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="174" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3270,10 +4099,10 @@
     <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="180" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="179" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3285,16 +4114,16 @@
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="185" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="184" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="187" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3309,25 +4138,25 @@
     <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="164" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="196" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="198" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3342,7 +4171,7 @@
     <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="203" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3351,13 +4180,13 @@
     <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="206" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3369,7 +4198,7 @@
     <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="212" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3408,10 +4237,10 @@
     <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3420,22 +4249,22 @@
     <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="231" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3459,10 +4288,10 @@
     <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="243" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="242" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3474,7 +4303,7 @@
     <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="247" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3483,13 +4312,13 @@
     <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="250" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3504,31 +4333,31 @@
     <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="261" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="265" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3543,7 +4372,7 @@
     <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3573,7 +4402,7 @@
     <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="280" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="281" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3588,22 +4417,22 @@
     <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="286" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="285" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="288" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3612,13 +4441,13 @@
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="293" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3627,10 +4456,10 @@
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="299" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="298" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3642,7 +4471,7 @@
     <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="303" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3654,10 +4483,10 @@
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3666,25 +4495,25 @@
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="313" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="317" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3693,19 +4522,19 @@
     <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="322" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3714,10 +4543,10 @@
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="328" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="327" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3729,16 +4558,16 @@
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="332" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3747,7 +4576,7 @@
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3756,10 +4585,10 @@
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="342" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="341" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3771,10 +4600,10 @@
     <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="347" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="346" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3786,7 +4615,7 @@
     <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="351" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3810,10 +4639,10 @@
     <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="360" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="359" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3828,7 +4657,7 @@
     <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="365" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3840,10 +4669,10 @@
     <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3852,7 +4681,7 @@
     <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="373" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3864,7 +4693,7 @@
     <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3873,13 +4702,13 @@
     <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="380" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3888,10 +4717,10 @@
     <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="386" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="385" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3903,16 +4732,16 @@
     <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="390" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3921,13 +4750,13 @@
     <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="398" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3936,13 +4765,13 @@
     <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="401" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="403" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3951,19 +4780,19 @@
     <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="408" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3972,10 +4801,10 @@
     <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="414" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="413" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="415" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3987,10 +4816,10 @@
     <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="419" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="418" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="420" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4002,16 +4831,16 @@
     <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="423" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="425" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4023,10 +4852,10 @@
     <xf numFmtId="0" fontId="429" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="430" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="430" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4038,10 +4867,10 @@
     <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="435" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="437" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4053,7 +4882,7 @@
     <xf numFmtId="0" fontId="439" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="440" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4062,10 +4891,10 @@
     <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="444" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="443" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4077,10 +4906,10 @@
     <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="449" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="448" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4092,10 +4921,10 @@
     <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="453" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="454" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="453" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="455" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4107,7 +4936,7 @@
     <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="458" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4116,7 +4945,7 @@
     <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="461" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4126,6 +4955,492 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="555" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="564" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="565" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="566" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="567" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="568" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="569" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="570" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="571" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="572" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="573" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="574" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="575" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="576" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="577" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="578" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="579" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="580" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="581" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="582" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="583" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="584" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="585" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="586" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="587" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="588" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="589" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="590" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="592" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="597" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="598" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="600" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="601" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="602" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="603" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="604" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="605" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="606" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="607" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="610" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="611" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="613" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="614" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="615" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="616" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="623" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="624" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="625" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="626" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -4134,7 +5449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:K48"/>
+  <dimension ref="A3:K62"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4179,177 +5494,156 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="17">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s" s="12">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s" s="9">
+      <c r="A10" t="s" s="20">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s" s="15">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D10" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="E10" t="n" s="11">
-        <v>0.0</v>
+      <c r="D10" t="n" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="E10" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="F10" t="n" s="9">
+        <v>30.0</v>
       </c>
       <c r="J10" t="s" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="16">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s" s="13">
+      <c r="J11" t="s" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s" s="19">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s" s="16">
         <v>7</v>
       </c>
-      <c r="D11" t="n" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="E11" t="n" s="15">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="31">
+      <c r="D12" t="n" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="E12" t="n" s="18">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="39">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s" s="38">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s" s="23">
+        <v>13</v>
+      </c>
+      <c r="D13" t="n" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="E13" t="n" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F13" t="n" s="22">
+        <v>24.0</v>
+      </c>
+      <c r="J13" t="s" s="21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="s" s="28">
+        <v>13</v>
+      </c>
+      <c r="D14" t="n" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="E14" t="n" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="F14" t="n" s="27">
+        <v>24.0</v>
+      </c>
+      <c r="J14" t="s" s="26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="s" s="32">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="E15" t="n" s="35">
+        <v>0.0</v>
+      </c>
+      <c r="F15" t="n" s="33">
+        <v>16.0</v>
+      </c>
+      <c r="J15" t="s" s="31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="J16" t="s" s="36">
         <v>15</v>
       </c>
-      <c r="B12" t="s" s="30">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s" s="19">
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="90">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s" s="52">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s" s="42">
+        <v>18</v>
+      </c>
+      <c r="D17" t="n" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="E17" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="F17" t="n" s="41">
+        <v>12.0</v>
+      </c>
+      <c r="J17" t="s" s="40">
         <v>12</v>
-      </c>
-      <c r="D12" t="n" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="E12" t="n" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="J12" t="s" s="18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" t="s" s="23">
-        <v>12</v>
-      </c>
-      <c r="D13" t="n" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="E13" t="n" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="J13" t="s" s="22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="C14" t="s" s="27">
-        <v>12</v>
-      </c>
-      <c r="D14" t="n" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="E14" t="n" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="J14" t="s" s="26">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="68">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s" s="40">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s" s="33">
-        <v>16</v>
-      </c>
-      <c r="D15" t="n" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="E15" t="n" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="J15" t="s" s="32">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" t="s" s="37">
-        <v>17</v>
-      </c>
-      <c r="D16" t="n" s="38">
-        <v>1.0</v>
-      </c>
-      <c r="E16" t="n" s="39">
-        <v>0.0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J16" t="s" s="36">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="s" s="53">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s" s="42">
-        <v>19</v>
-      </c>
-      <c r="D17" t="n" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="E17" t="n" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="J17" t="s" s="41">
-        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" t="s" s="46">
         <v>19</v>
       </c>
-      <c r="D18" t="n" s="47">
-        <v>1.0</v>
-      </c>
-      <c r="E18" t="n" s="48">
-        <v>0.0</v>
+      <c r="D18" t="n" s="48">
+        <v>1.0</v>
+      </c>
+      <c r="E18" t="n" s="49">
+        <v>0.0</v>
+      </c>
+      <c r="F18" t="n" s="47">
+        <v>4.0</v>
       </c>
       <c r="J18" t="s" s="45">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
-      <c r="C19" t="s" s="50">
-        <v>19</v>
-      </c>
-      <c r="D19" t="n" s="51">
-        <v>1.0</v>
-      </c>
-      <c r="E19" t="n" s="52">
-        <v>0.0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J19" t="s" s="49">
-        <v>13</v>
+      <c r="J19" t="s" s="50">
+        <v>15</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="62">
+      <c r="B20" t="s" s="70">
         <v>23</v>
       </c>
       <c r="C20" t="s" s="55">
@@ -4361,514 +5655,687 @@
       <c r="E20" t="n" s="57">
         <v>0.0</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" t="n" s="54">
+        <v>8.0</v>
+      </c>
+      <c r="J20" t="s" s="53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="s" s="60">
+        <v>21</v>
+      </c>
+      <c r="D21" t="n" s="61">
+        <v>1.0</v>
+      </c>
+      <c r="E21" t="n" s="62">
+        <v>0.0</v>
+      </c>
+      <c r="F21" t="n" s="59">
+        <v>4.0</v>
+      </c>
+      <c r="J21" t="s" s="58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="s" s="64">
+        <v>21</v>
+      </c>
+      <c r="D22" t="n" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="E22" t="n" s="67">
+        <v>0.0</v>
+      </c>
+      <c r="F22" t="n" s="65">
+        <v>4.0</v>
+      </c>
+      <c r="J22" t="s" s="63">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="J23" t="s" s="68">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s" s="83">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s" s="72">
+        <v>24</v>
+      </c>
+      <c r="D24" t="n" s="74">
+        <v>1.0</v>
+      </c>
+      <c r="E24" t="n" s="75">
+        <v>0.0</v>
+      </c>
+      <c r="F24" t="n" s="73">
         <v>25.0</v>
       </c>
-      <c r="J20" t="s" s="54">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" t="s" s="59">
+      <c r="J24" t="s" s="71">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="s" s="77">
+        <v>25</v>
+      </c>
+      <c r="D25" t="n" s="79">
+        <v>1.0</v>
+      </c>
+      <c r="E25" t="n" s="80">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="78">
+        <v>25.0</v>
+      </c>
+      <c r="J25" t="s" s="76">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="J26" t="s" s="81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s" s="89">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s" s="85">
+        <v>25</v>
+      </c>
+      <c r="D27" t="n" s="88">
+        <v>0.0</v>
+      </c>
+      <c r="E27" t="n" s="87">
+        <v>1.0</v>
+      </c>
+      <c r="F27" t="n" s="86">
+        <v>25.0</v>
+      </c>
+      <c r="J27" t="s" s="84">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="130">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s" s="113">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s" s="93">
+        <v>29</v>
+      </c>
+      <c r="D28" t="n" s="94">
+        <v>1.0</v>
+      </c>
+      <c r="E28" t="n" s="95">
+        <v>0.0</v>
+      </c>
+      <c r="F28" t="n" s="92">
+        <v>16.0</v>
+      </c>
+      <c r="J28" t="s" s="91">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="s" s="98">
+        <v>29</v>
+      </c>
+      <c r="D29" t="n" s="99">
+        <v>1.0</v>
+      </c>
+      <c r="E29" t="n" s="100">
+        <v>0.0</v>
+      </c>
+      <c r="F29" t="n" s="97">
+        <v>20.0</v>
+      </c>
+      <c r="J29" t="s" s="96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="s" s="102">
+        <v>29</v>
+      </c>
+      <c r="D30" t="n" s="104">
+        <v>1.0</v>
+      </c>
+      <c r="E30" t="n" s="105">
+        <v>0.0</v>
+      </c>
+      <c r="F30" t="n" s="103">
+        <v>16.0</v>
+      </c>
+      <c r="J30" t="s" s="101">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="s" s="107">
+        <v>30</v>
+      </c>
+      <c r="D31" t="n" s="109">
+        <v>1.0</v>
+      </c>
+      <c r="E31" t="n" s="110">
+        <v>0.0</v>
+      </c>
+      <c r="F31" t="n" s="108">
+        <v>12.0</v>
+      </c>
+      <c r="J31" t="s" s="106">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="J32" t="s" s="111">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s" s="129">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s" s="115">
+        <v>29</v>
+      </c>
+      <c r="D33" t="n" s="118">
+        <v>0.0</v>
+      </c>
+      <c r="E33" t="n" s="117">
+        <v>1.0</v>
+      </c>
+      <c r="F33" t="n" s="116">
+        <v>20.0</v>
+      </c>
+      <c r="J33" t="s" s="114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="s" s="120">
+        <v>29</v>
+      </c>
+      <c r="D34" t="n" s="123">
+        <v>0.0</v>
+      </c>
+      <c r="E34" t="n" s="122">
+        <v>1.0</v>
+      </c>
+      <c r="F34" t="n" s="121">
+        <v>16.0</v>
+      </c>
+      <c r="J34" t="s" s="119">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="s" s="125">
+        <v>30</v>
+      </c>
+      <c r="D35" t="n" s="128">
+        <v>0.0</v>
+      </c>
+      <c r="E35" t="n" s="127">
+        <v>1.0</v>
+      </c>
+      <c r="F35" t="n" s="126">
+        <v>12.0</v>
+      </c>
+      <c r="J35" t="s" s="124">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="173">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s" s="153">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s" s="133">
+        <v>34</v>
+      </c>
+      <c r="D36" t="n" s="134">
+        <v>1.0</v>
+      </c>
+      <c r="E36" t="n" s="135">
+        <v>0.0</v>
+      </c>
+      <c r="F36" t="n" s="132">
+        <v>16.0</v>
+      </c>
+      <c r="J36" t="s" s="131">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="s" s="138">
+        <v>34</v>
+      </c>
+      <c r="D37" t="n" s="139">
+        <v>1.0</v>
+      </c>
+      <c r="E37" t="n" s="140">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n" s="137">
+        <v>10.0</v>
+      </c>
+      <c r="J37" t="s" s="136">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="s" s="143">
+        <v>35</v>
+      </c>
+      <c r="D38" t="n" s="144">
+        <v>1.0</v>
+      </c>
+      <c r="E38" t="n" s="145">
+        <v>0.0</v>
+      </c>
+      <c r="F38" t="n" s="142">
+        <v>4.0</v>
+      </c>
+      <c r="J38" t="s" s="141">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="s" s="147">
+        <v>35</v>
+      </c>
+      <c r="D39" t="n" s="149">
+        <v>1.0</v>
+      </c>
+      <c r="E39" t="n" s="150">
+        <v>0.0</v>
+      </c>
+      <c r="F39" t="n" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="J39" t="s" s="146">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="J40" t="s" s="151">
         <v>22</v>
       </c>
-      <c r="D21" t="n" s="60">
-        <v>1.0</v>
-      </c>
-      <c r="E21" t="n" s="61">
-        <v>0.0</v>
-      </c>
-      <c r="F21" t="n">
+    </row>
+    <row r="41">
+      <c r="B41" t="s" s="166">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s" s="156">
+        <v>37</v>
+      </c>
+      <c r="D41" t="n" s="157">
+        <v>1.0</v>
+      </c>
+      <c r="E41" t="n" s="158">
+        <v>0.0</v>
+      </c>
+      <c r="F41" t="n" s="155">
+        <v>10.0</v>
+      </c>
+      <c r="J41" t="s" s="154">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="s" s="160">
+        <v>37</v>
+      </c>
+      <c r="D42" t="n" s="162">
+        <v>1.0</v>
+      </c>
+      <c r="E42" t="n" s="163">
+        <v>0.0</v>
+      </c>
+      <c r="F42" t="n" s="161">
+        <v>22.0</v>
+      </c>
+      <c r="J42" t="s" s="159">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="J43" t="s" s="164">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s" s="172">
+        <v>39</v>
+      </c>
+      <c r="C44" t="s" s="168">
+        <v>37</v>
+      </c>
+      <c r="D44" t="n" s="171">
+        <v>0.0</v>
+      </c>
+      <c r="E44" t="n" s="170">
+        <v>1.0</v>
+      </c>
+      <c r="F44" t="n" s="169">
+        <v>22.0</v>
+      </c>
+      <c r="J44" t="s" s="167">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="220">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s" s="186">
+        <v>42</v>
+      </c>
+      <c r="C45" t="s" s="176">
+        <v>41</v>
+      </c>
+      <c r="D45" t="n" s="177">
+        <v>1.0</v>
+      </c>
+      <c r="E45" t="n" s="178">
+        <v>0.0</v>
+      </c>
+      <c r="F45" t="n" s="175">
+        <v>12.0</v>
+      </c>
+      <c r="J45" t="s" s="174">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="s" s="181">
+        <v>25</v>
+      </c>
+      <c r="D46" t="n" s="182">
+        <v>1.0</v>
+      </c>
+      <c r="E46" t="n" s="183">
+        <v>0.0</v>
+      </c>
+      <c r="F46" t="n" s="180">
+        <v>12.0</v>
+      </c>
+      <c r="J46" t="s" s="179">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="J47" t="s" s="184">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s" s="192">
+        <v>43</v>
+      </c>
+      <c r="C48" t="s" s="188">
+        <v>25</v>
+      </c>
+      <c r="D48" t="n" s="191">
+        <v>0.0</v>
+      </c>
+      <c r="E48" t="n" s="190">
+        <v>1.0</v>
+      </c>
+      <c r="F48" t="n" s="189">
+        <v>12.0</v>
+      </c>
+      <c r="J48" t="s" s="187">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s" s="205">
+        <v>45</v>
+      </c>
+      <c r="C49" t="s" s="195">
+        <v>44</v>
+      </c>
+      <c r="D49" t="n" s="196">
+        <v>1.0</v>
+      </c>
+      <c r="E49" t="n" s="197">
+        <v>0.0</v>
+      </c>
+      <c r="F49" t="n" s="194">
+        <v>2.0</v>
+      </c>
+      <c r="J49" t="s" s="193">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="s" s="199">
+        <v>44</v>
+      </c>
+      <c r="D50" t="n" s="201">
+        <v>1.0</v>
+      </c>
+      <c r="E50" t="n" s="202">
+        <v>0.0</v>
+      </c>
+      <c r="F50" t="n" s="200">
+        <v>6.0</v>
+      </c>
+      <c r="J50" t="s" s="198">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="J51" t="s" s="203">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s" s="211">
+        <v>46</v>
+      </c>
+      <c r="C52" t="s" s="207">
+        <v>44</v>
+      </c>
+      <c r="D52" t="n" s="210">
+        <v>0.0</v>
+      </c>
+      <c r="E52" t="n" s="209">
+        <v>1.0</v>
+      </c>
+      <c r="F52" t="n" s="208">
+        <v>6.0</v>
+      </c>
+      <c r="J52" t="s" s="206">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s" s="219">
+        <v>48</v>
+      </c>
+      <c r="C53" t="s" s="213">
+        <v>47</v>
+      </c>
+      <c r="D53" t="n" s="215">
+        <v>1.0</v>
+      </c>
+      <c r="E53" t="n" s="216">
+        <v>0.0</v>
+      </c>
+      <c r="F53" t="n" s="214">
         <v>25.0</v>
       </c>
-      <c r="J21" t="s" s="58">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="s" s="67">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s" s="64">
-        <v>22</v>
-      </c>
-      <c r="D22" t="n" s="66">
-        <v>0.0</v>
-      </c>
-      <c r="E22" t="n" s="65">
-        <v>1.0</v>
-      </c>
-      <c r="J22" t="s" s="63">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="99">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s" s="85">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s" s="70">
-        <v>26</v>
-      </c>
-      <c r="D23" t="n" s="71">
-        <v>1.0</v>
-      </c>
-      <c r="E23" t="n" s="72">
-        <v>0.0</v>
-      </c>
-      <c r="J23" t="s" s="69">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="C24" t="s" s="74">
-        <v>26</v>
-      </c>
-      <c r="D24" t="n" s="75">
-        <v>1.0</v>
-      </c>
-      <c r="E24" t="n" s="76">
-        <v>0.0</v>
-      </c>
-      <c r="J24" t="s" s="73">
+      <c r="J53" t="s" s="212">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="J54" t="s" s="217">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="256">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s" s="233">
+        <v>51</v>
+      </c>
+      <c r="C55" t="s" s="223">
+        <v>50</v>
+      </c>
+      <c r="D55" t="n" s="224">
+        <v>1.0</v>
+      </c>
+      <c r="E55" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="F55" t="n" s="222">
+        <v>12.0</v>
+      </c>
+      <c r="J55" t="s" s="221">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="s" s="228">
+        <v>50</v>
+      </c>
+      <c r="D56" t="n" s="229">
+        <v>1.0</v>
+      </c>
+      <c r="E56" t="n" s="230">
+        <v>0.0</v>
+      </c>
+      <c r="F56" t="n" s="227">
+        <v>40.0</v>
+      </c>
+      <c r="J56" t="s" s="226">
         <v>6</v>
       </c>
     </row>
-    <row r="25">
-      <c r="C25" t="s" s="78">
-        <v>26</v>
-      </c>
-      <c r="D25" t="n" s="79">
-        <v>1.0</v>
-      </c>
-      <c r="E25" t="n" s="80">
-        <v>0.0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="J25" t="s" s="77">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="C26" t="s" s="82">
-        <v>27</v>
-      </c>
-      <c r="D26" t="n" s="83">
-        <v>1.0</v>
-      </c>
-      <c r="E26" t="n" s="84">
-        <v>0.0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="J26" t="s" s="81">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" t="s" s="98">
-        <v>29</v>
-      </c>
-      <c r="C27" t="s" s="87">
-        <v>26</v>
-      </c>
-      <c r="D27" t="n" s="89">
-        <v>0.0</v>
-      </c>
-      <c r="E27" t="n" s="88">
-        <v>1.0</v>
-      </c>
-      <c r="J27" t="s" s="86">
+    <row r="57">
+      <c r="J57" t="s" s="231">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s" s="241">
+        <v>53</v>
+      </c>
+      <c r="C58" t="s" s="236">
+        <v>52</v>
+      </c>
+      <c r="D58" t="n" s="237">
+        <v>1.0</v>
+      </c>
+      <c r="E58" t="n" s="238">
+        <v>0.0</v>
+      </c>
+      <c r="F58" t="n" s="235">
+        <v>8.0</v>
+      </c>
+      <c r="J58" t="s" s="234">
         <v>6</v>
       </c>
     </row>
-    <row r="28">
-      <c r="C28" t="s" s="91">
-        <v>26</v>
-      </c>
-      <c r="D28" t="n" s="93">
-        <v>0.0</v>
-      </c>
-      <c r="E28" t="n" s="92">
-        <v>1.0</v>
-      </c>
-      <c r="J28" t="s" s="90">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="C29" t="s" s="95">
-        <v>27</v>
-      </c>
-      <c r="D29" t="n" s="97">
-        <v>0.0</v>
-      </c>
-      <c r="E29" t="n" s="96">
-        <v>1.0</v>
-      </c>
-      <c r="J29" t="s" s="94">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="131">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s" s="116">
-        <v>33</v>
-      </c>
-      <c r="C30" t="s" s="101">
-        <v>31</v>
-      </c>
-      <c r="D30" t="n" s="102">
-        <v>1.0</v>
-      </c>
-      <c r="E30" t="n" s="103">
-        <v>0.0</v>
-      </c>
-      <c r="J30" t="s" s="100">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="C31" t="s" s="105">
-        <v>31</v>
-      </c>
-      <c r="D31" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="E31" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="J31" t="s" s="104">
+    <row r="59">
+      <c r="J59" t="s" s="239">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s" s="249">
+        <v>55</v>
+      </c>
+      <c r="C60" t="s" s="244">
+        <v>54</v>
+      </c>
+      <c r="D60" t="n" s="245">
+        <v>1.0</v>
+      </c>
+      <c r="E60" t="n" s="246">
+        <v>0.0</v>
+      </c>
+      <c r="F60" t="n" s="243">
+        <v>14.0</v>
+      </c>
+      <c r="J60" t="s" s="242">
         <v>6</v>
       </c>
     </row>
-    <row r="32">
-      <c r="C32" t="s" s="109">
-        <v>32</v>
-      </c>
-      <c r="D32" t="n" s="110">
-        <v>1.0</v>
-      </c>
-      <c r="E32" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="J32" t="s" s="108">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="C33" t="s" s="113">
-        <v>32</v>
-      </c>
-      <c r="D33" t="n" s="114">
-        <v>1.0</v>
-      </c>
-      <c r="E33" t="n" s="115">
-        <v>0.0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J33" t="s" s="112">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" t="s" s="125">
-        <v>35</v>
-      </c>
-      <c r="C34" t="s" s="118">
-        <v>34</v>
-      </c>
-      <c r="D34" t="n" s="119">
-        <v>1.0</v>
-      </c>
-      <c r="E34" t="n" s="120">
-        <v>0.0</v>
-      </c>
-      <c r="J34" t="s" s="117">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" t="s" s="122">
-        <v>34</v>
-      </c>
-      <c r="D35" t="n" s="123">
-        <v>1.0</v>
-      </c>
-      <c r="E35" t="n" s="124">
-        <v>0.0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="J35" t="s" s="121">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" t="s" s="130">
-        <v>36</v>
-      </c>
-      <c r="C36" t="s" s="127">
-        <v>34</v>
-      </c>
-      <c r="D36" t="n" s="129">
-        <v>0.0</v>
-      </c>
-      <c r="E36" t="n" s="128">
-        <v>1.0</v>
-      </c>
-      <c r="J36" t="s" s="126">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="165">
-        <v>46</v>
-      </c>
-      <c r="B37" t="s" s="140">
-        <v>39</v>
-      </c>
-      <c r="C37" t="s" s="133">
-        <v>38</v>
-      </c>
-      <c r="D37" t="n" s="134">
-        <v>1.0</v>
-      </c>
-      <c r="E37" t="n" s="135">
-        <v>0.0</v>
-      </c>
-      <c r="J37" t="s" s="132">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="C38" t="s" s="137">
-        <v>22</v>
-      </c>
-      <c r="D38" t="n" s="138">
-        <v>1.0</v>
-      </c>
-      <c r="E38" t="n" s="139">
-        <v>0.0</v>
-      </c>
-      <c r="J38" t="s" s="136">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" t="s" s="145">
-        <v>40</v>
-      </c>
-      <c r="C39" t="s" s="142">
-        <v>22</v>
-      </c>
-      <c r="D39" t="n" s="144">
-        <v>0.0</v>
-      </c>
-      <c r="E39" t="n" s="143">
-        <v>1.0</v>
-      </c>
-      <c r="J39" t="s" s="141">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" t="s" s="154">
-        <v>42</v>
-      </c>
-      <c r="C40" t="s" s="147">
-        <v>41</v>
-      </c>
-      <c r="D40" t="n" s="148">
-        <v>1.0</v>
-      </c>
-      <c r="E40" t="n" s="149">
-        <v>0.0</v>
-      </c>
-      <c r="J40" t="s" s="146">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="C41" t="s" s="151">
-        <v>41</v>
-      </c>
-      <c r="D41" t="n" s="152">
-        <v>1.0</v>
-      </c>
-      <c r="E41" t="n" s="153">
-        <v>0.0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J41" t="s" s="150">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" t="s" s="159">
-        <v>43</v>
-      </c>
-      <c r="C42" t="s" s="156">
-        <v>41</v>
-      </c>
-      <c r="D42" t="n" s="158">
-        <v>0.0</v>
-      </c>
-      <c r="E42" t="n" s="157">
-        <v>1.0</v>
-      </c>
-      <c r="J42" t="s" s="155">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" t="s" s="164">
-        <v>45</v>
-      </c>
-      <c r="C43" t="s" s="161">
-        <v>44</v>
-      </c>
-      <c r="D43" t="n" s="162">
-        <v>1.0</v>
-      </c>
-      <c r="E43" t="n" s="163">
-        <v>0.0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="J43" t="s" s="160">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="190">
-        <v>55</v>
-      </c>
-      <c r="B44" t="s" s="174">
-        <v>48</v>
-      </c>
-      <c r="C44" t="s" s="167">
-        <v>47</v>
-      </c>
-      <c r="D44" t="n" s="168">
-        <v>1.0</v>
-      </c>
-      <c r="E44" t="n" s="169">
-        <v>0.0</v>
-      </c>
-      <c r="J44" t="s" s="166">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="C45" t="s" s="171">
-        <v>47</v>
-      </c>
-      <c r="D45" t="n" s="172">
-        <v>1.0</v>
-      </c>
-      <c r="E45" t="n" s="173">
-        <v>0.0</v>
-      </c>
-      <c r="J45" t="s" s="170">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" t="s" s="179">
-        <v>50</v>
-      </c>
-      <c r="C46" t="s" s="176">
-        <v>49</v>
-      </c>
-      <c r="D46" t="n" s="177">
-        <v>1.0</v>
-      </c>
-      <c r="E46" t="n" s="178">
-        <v>0.0</v>
-      </c>
-      <c r="J46" t="s" s="175">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" t="s" s="184">
-        <v>52</v>
-      </c>
-      <c r="C47" t="s" s="181">
-        <v>51</v>
-      </c>
-      <c r="D47" t="n" s="182">
-        <v>1.0</v>
-      </c>
-      <c r="E47" t="n" s="183">
-        <v>0.0</v>
-      </c>
-      <c r="J47" t="s" s="180">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" t="s" s="189">
-        <v>54</v>
-      </c>
-      <c r="C48" t="s" s="186">
-        <v>53</v>
-      </c>
-      <c r="D48" t="n" s="187">
-        <v>1.0</v>
-      </c>
-      <c r="E48" t="n" s="188">
-        <v>0.0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J48" t="s" s="185">
-        <v>13</v>
+    <row r="61">
+      <c r="J61" t="s" s="247">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s" s="255">
+        <v>57</v>
+      </c>
+      <c r="C62" t="s" s="251">
+        <v>56</v>
+      </c>
+      <c r="D62" t="n" s="253">
+        <v>1.0</v>
+      </c>
+      <c r="E62" t="n" s="254">
+        <v>0.0</v>
+      </c>
+      <c r="F62" t="n" s="252">
+        <v>1.0</v>
+      </c>
+      <c r="J62" t="s" s="250">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A13:A16"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A15:A22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A17:A27"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A36:A44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A45:A54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A55:A62"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4876,7 +6343,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:K67"/>
+  <dimension ref="A3:K88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4888,1036 +6355,1279 @@
   </cols>
   <sheetData>
     <row r="3">
-      <c r="A3" t="s" s="191">
+      <c r="A3" t="s" s="257">
+        <v>59</v>
+      </c>
+      <c r="B3" s="258">
+        <f>TODAY()</f>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="s" s="260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="s" s="261">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="s" s="262">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="s" s="263">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="274">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s" s="269">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s" s="266">
+        <v>7</v>
+      </c>
+      <c r="D10" t="n" s="267">
+        <v>1.0</v>
+      </c>
+      <c r="E10" t="n" s="268">
+        <v>0.0</v>
+      </c>
+      <c r="F10" t="n" s="265">
+        <v>30.0</v>
+      </c>
+      <c r="J10" t="s" s="264">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s" s="273">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s" s="270">
+        <v>7</v>
+      </c>
+      <c r="D11" t="n" s="271">
+        <v>1.0</v>
+      </c>
+      <c r="E11" t="n" s="272">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="316">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s" s="287">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s" s="277">
+        <v>60</v>
+      </c>
+      <c r="D12" t="n" s="278">
+        <v>1.0</v>
+      </c>
+      <c r="E12" t="n" s="279">
+        <v>0.0</v>
+      </c>
+      <c r="F12" t="n" s="276">
+        <v>18.0</v>
+      </c>
+      <c r="J12" t="s" s="275">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="s" s="282">
+        <v>60</v>
+      </c>
+      <c r="D13" t="n" s="283">
+        <v>1.0</v>
+      </c>
+      <c r="E13" t="n" s="284">
+        <v>0.0</v>
+      </c>
+      <c r="F13" t="n" s="281">
+        <v>8.0</v>
+      </c>
+      <c r="J13" t="s" s="280">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="J14" t="s" s="285">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s" s="315">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s" s="290">
+        <v>62</v>
+      </c>
+      <c r="D15" t="n" s="291">
+        <v>1.0</v>
+      </c>
+      <c r="E15" t="n" s="292">
+        <v>0.0</v>
+      </c>
+      <c r="F15" t="n" s="289">
+        <v>2.0</v>
+      </c>
+      <c r="J15" t="s" s="288">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="s" s="294">
+        <v>62</v>
+      </c>
+      <c r="D16" t="n" s="296">
+        <v>1.0</v>
+      </c>
+      <c r="E16" t="n" s="297">
+        <v>0.0</v>
+      </c>
+      <c r="F16" t="n" s="295">
+        <v>4.0</v>
+      </c>
+      <c r="J16" t="s" s="293">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="s" s="300">
+        <v>63</v>
+      </c>
+      <c r="D17" t="n" s="301">
+        <v>1.0</v>
+      </c>
+      <c r="E17" t="n" s="302">
+        <v>0.0</v>
+      </c>
+      <c r="F17" t="n" s="299">
+        <v>18.0</v>
+      </c>
+      <c r="J17" t="s" s="298">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="s" s="305">
+        <v>63</v>
+      </c>
+      <c r="D18" t="n" s="306">
+        <v>1.0</v>
+      </c>
+      <c r="E18" t="n" s="307">
+        <v>0.0</v>
+      </c>
+      <c r="F18" t="n" s="304">
+        <v>10.0</v>
+      </c>
+      <c r="J18" t="s" s="303">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="s" s="309">
+        <v>63</v>
+      </c>
+      <c r="D19" t="n" s="311">
+        <v>1.0</v>
+      </c>
+      <c r="E19" t="n" s="312">
+        <v>0.0</v>
+      </c>
+      <c r="F19" t="n" s="310">
+        <v>8.0</v>
+      </c>
+      <c r="J19" t="s" s="308">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="J20" t="s" s="313">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="379">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s" s="334">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s" s="319">
+        <v>66</v>
+      </c>
+      <c r="D21" t="n" s="320">
+        <v>1.0</v>
+      </c>
+      <c r="E21" t="n" s="321">
+        <v>0.0</v>
+      </c>
+      <c r="F21" t="n" s="318">
+        <v>8.0</v>
+      </c>
+      <c r="J21" t="s" s="317">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="s" s="324">
+        <v>66</v>
+      </c>
+      <c r="D22" t="n" s="325">
+        <v>1.0</v>
+      </c>
+      <c r="E22" t="n" s="326">
+        <v>0.0</v>
+      </c>
+      <c r="F22" t="n" s="323">
+        <v>8.0</v>
+      </c>
+      <c r="J22" t="s" s="322">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="s" s="329">
+        <v>18</v>
+      </c>
+      <c r="D23" t="n" s="330">
+        <v>1.0</v>
+      </c>
+      <c r="E23" t="n" s="331">
+        <v>0.0</v>
+      </c>
+      <c r="F23" t="n" s="328">
+        <v>8.0</v>
+      </c>
+      <c r="J23" t="s" s="327">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="J24" t="s" s="332">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s" s="340">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s" s="336">
+        <v>18</v>
+      </c>
+      <c r="D25" t="n" s="339">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="338">
+        <v>1.0</v>
+      </c>
+      <c r="F25" t="n" s="337">
+        <v>8.0</v>
+      </c>
+      <c r="J25" t="s" s="335">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s" s="358">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s" s="343">
+        <v>66</v>
+      </c>
+      <c r="D26" t="n" s="344">
+        <v>1.0</v>
+      </c>
+      <c r="E26" t="n" s="345">
+        <v>0.0</v>
+      </c>
+      <c r="F26" t="n" s="342">
+        <v>8.0</v>
+      </c>
+      <c r="J26" t="s" s="341">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="s" s="347">
+        <v>66</v>
+      </c>
+      <c r="D27" t="n" s="349">
+        <v>1.0</v>
+      </c>
+      <c r="E27" t="n" s="350">
+        <v>0.0</v>
+      </c>
+      <c r="F27" t="n" s="348">
+        <v>8.0</v>
+      </c>
+      <c r="J27" t="s" s="346">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="s" s="352">
+        <v>18</v>
+      </c>
+      <c r="D28" t="n" s="354">
+        <v>1.0</v>
+      </c>
+      <c r="E28" t="n" s="355">
+        <v>0.0</v>
+      </c>
+      <c r="F28" t="n" s="353">
+        <v>8.0</v>
+      </c>
+      <c r="J28" t="s" s="351">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="J29" t="s" s="356">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s" s="364">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s" s="360">
+        <v>18</v>
+      </c>
+      <c r="D30" t="n" s="363">
+        <v>0.0</v>
+      </c>
+      <c r="E30" t="n" s="362">
+        <v>1.0</v>
+      </c>
+      <c r="F30" t="n" s="361">
+        <v>8.0</v>
+      </c>
+      <c r="J30" t="s" s="359">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s" s="372">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s" s="366">
+        <v>18</v>
+      </c>
+      <c r="D31" t="n" s="368">
+        <v>1.0</v>
+      </c>
+      <c r="E31" t="n" s="369">
+        <v>0.0</v>
+      </c>
+      <c r="F31" t="n" s="367">
+        <v>25.0</v>
+      </c>
+      <c r="J31" t="s" s="365">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="J32" t="s" s="370">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s" s="378">
+        <v>72</v>
+      </c>
+      <c r="C33" t="s" s="374">
+        <v>18</v>
+      </c>
+      <c r="D33" t="n" s="377">
+        <v>0.0</v>
+      </c>
+      <c r="E33" t="n" s="376">
+        <v>1.0</v>
+      </c>
+      <c r="F33" t="n" s="375">
+        <v>25.0</v>
+      </c>
+      <c r="J33" t="s" s="373">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="442">
+        <v>80</v>
+      </c>
+      <c r="B34" t="s" s="392">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s" s="382">
+        <v>74</v>
+      </c>
+      <c r="D34" t="n" s="383">
+        <v>1.0</v>
+      </c>
+      <c r="E34" t="n" s="384">
+        <v>0.0</v>
+      </c>
+      <c r="F34" t="n" s="381">
+        <v>14.0</v>
+      </c>
+      <c r="J34" t="s" s="380">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="s" s="386">
+        <v>74</v>
+      </c>
+      <c r="D35" t="n" s="388">
+        <v>1.0</v>
+      </c>
+      <c r="E35" t="n" s="389">
+        <v>0.0</v>
+      </c>
+      <c r="F35" t="n" s="387">
+        <v>4.0</v>
+      </c>
+      <c r="J35" t="s" s="385">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="J36" t="s" s="390">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s" s="425">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s" s="395">
+        <v>74</v>
+      </c>
+      <c r="D37" t="n" s="396">
+        <v>1.0</v>
+      </c>
+      <c r="E37" t="n" s="397">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n" s="394">
+        <v>8.0</v>
+      </c>
+      <c r="J37" t="s" s="393">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="s" s="400">
+        <v>74</v>
+      </c>
+      <c r="D38" t="n" s="401">
+        <v>1.0</v>
+      </c>
+      <c r="E38" t="n" s="402">
+        <v>0.0</v>
+      </c>
+      <c r="F38" t="n" s="399">
+        <v>2.0</v>
+      </c>
+      <c r="J38" t="s" s="398">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="s" s="405">
+        <v>76</v>
+      </c>
+      <c r="D39" t="n" s="406">
+        <v>1.0</v>
+      </c>
+      <c r="E39" t="n" s="407">
+        <v>0.0</v>
+      </c>
+      <c r="F39" t="n" s="404">
+        <v>12.0</v>
+      </c>
+      <c r="J39" t="s" s="403">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="s" s="409">
+        <v>76</v>
+      </c>
+      <c r="D40" t="n" s="411">
+        <v>1.0</v>
+      </c>
+      <c r="E40" t="n" s="412">
+        <v>0.0</v>
+      </c>
+      <c r="F40" t="n" s="410">
+        <v>14.0</v>
+      </c>
+      <c r="J40" t="s" s="408">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="s" s="415">
+        <v>77</v>
+      </c>
+      <c r="D41" t="n" s="416">
+        <v>1.0</v>
+      </c>
+      <c r="E41" t="n" s="417">
+        <v>0.0</v>
+      </c>
+      <c r="F41" t="n" s="414">
+        <v>4.0</v>
+      </c>
+      <c r="J41" t="s" s="413">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="s" s="419">
+        <v>77</v>
+      </c>
+      <c r="D42" t="n" s="421">
+        <v>1.0</v>
+      </c>
+      <c r="E42" t="n" s="422">
+        <v>0.0</v>
+      </c>
+      <c r="F42" t="n" s="420">
+        <v>6.0</v>
+      </c>
+      <c r="J42" t="s" s="418">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="J43" t="s" s="423">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s" s="441">
+        <v>79</v>
+      </c>
+      <c r="C44" t="s" s="427">
+        <v>74</v>
+      </c>
+      <c r="D44" t="n" s="430">
+        <v>0.0</v>
+      </c>
+      <c r="E44" t="n" s="429">
+        <v>1.0</v>
+      </c>
+      <c r="F44" t="n" s="428">
+        <v>2.0</v>
+      </c>
+      <c r="J44" t="s" s="426">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="s" s="432">
+        <v>76</v>
+      </c>
+      <c r="D45" t="n" s="435">
+        <v>0.0</v>
+      </c>
+      <c r="E45" t="n" s="434">
+        <v>1.0</v>
+      </c>
+      <c r="F45" t="n" s="433">
+        <v>4.0</v>
+      </c>
+      <c r="J45" t="s" s="431">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="s" s="437">
+        <v>76</v>
+      </c>
+      <c r="D46" t="n" s="440">
+        <v>0.0</v>
+      </c>
+      <c r="E46" t="n" s="439">
+        <v>1.0</v>
+      </c>
+      <c r="F46" t="n" s="438">
+        <v>20.0</v>
+      </c>
+      <c r="J46" t="s" s="436">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="519">
+        <v>89</v>
+      </c>
+      <c r="B47" t="s" s="460">
+        <v>82</v>
+      </c>
+      <c r="C47" t="s" s="445">
+        <v>81</v>
+      </c>
+      <c r="D47" t="n" s="446">
+        <v>1.0</v>
+      </c>
+      <c r="E47" t="n" s="447">
+        <v>0.0</v>
+      </c>
+      <c r="F47" t="n" s="444">
+        <v>10.0</v>
+      </c>
+      <c r="J47" t="s" s="443">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="s" s="450">
+        <v>81</v>
+      </c>
+      <c r="D48" t="n" s="451">
+        <v>1.0</v>
+      </c>
+      <c r="E48" t="n" s="452">
+        <v>0.0</v>
+      </c>
+      <c r="F48" t="n" s="449">
+        <v>4.0</v>
+      </c>
+      <c r="J48" t="s" s="448">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="s" s="454">
+        <v>81</v>
+      </c>
+      <c r="D49" t="n" s="456">
+        <v>1.0</v>
+      </c>
+      <c r="E49" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F49" t="n" s="455">
+        <v>10.0</v>
+      </c>
+      <c r="J49" t="s" s="453">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="J50" t="s" s="458">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s" s="471">
+        <v>83</v>
+      </c>
+      <c r="C51" t="s" s="462">
+        <v>81</v>
+      </c>
+      <c r="D51" t="n" s="465">
+        <v>0.0</v>
+      </c>
+      <c r="E51" t="n" s="464">
+        <v>1.0</v>
+      </c>
+      <c r="F51" t="n" s="463">
+        <v>4.0</v>
+      </c>
+      <c r="J51" t="s" s="461">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="s" s="467">
+        <v>81</v>
+      </c>
+      <c r="D52" t="n" s="470">
+        <v>0.0</v>
+      </c>
+      <c r="E52" t="n" s="469">
+        <v>1.0</v>
+      </c>
+      <c r="F52" t="n" s="468">
+        <v>10.0</v>
+      </c>
+      <c r="J52" t="s" s="466">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s" s="484">
+        <v>85</v>
+      </c>
+      <c r="C53" t="s" s="474">
+        <v>84</v>
+      </c>
+      <c r="D53" t="n" s="475">
+        <v>1.0</v>
+      </c>
+      <c r="E53" t="n" s="476">
+        <v>0.0</v>
+      </c>
+      <c r="F53" t="n" s="473">
+        <v>8.0</v>
+      </c>
+      <c r="J53" t="s" s="472">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="s" s="478">
+        <v>84</v>
+      </c>
+      <c r="D54" t="n" s="480">
+        <v>1.0</v>
+      </c>
+      <c r="E54" t="n" s="481">
+        <v>0.0</v>
+      </c>
+      <c r="F54" t="n" s="479">
+        <v>10.0</v>
+      </c>
+      <c r="J54" t="s" s="477">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="J55" t="s" s="482">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="s" s="507">
+        <v>87</v>
+      </c>
+      <c r="C56" t="s" s="487">
+        <v>34</v>
+      </c>
+      <c r="D56" t="n" s="488">
+        <v>1.0</v>
+      </c>
+      <c r="E56" t="n" s="489">
+        <v>0.0</v>
+      </c>
+      <c r="F56" t="n" s="486">
+        <v>4.0</v>
+      </c>
+      <c r="J56" t="s" s="485">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="s" s="491">
+        <v>34</v>
+      </c>
+      <c r="D57" t="n" s="493">
+        <v>1.0</v>
+      </c>
+      <c r="E57" t="n" s="494">
+        <v>0.0</v>
+      </c>
+      <c r="F57" t="n" s="492">
+        <v>10.0</v>
+      </c>
+      <c r="J57" t="s" s="490">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="s" s="497">
+        <v>86</v>
+      </c>
+      <c r="D58" t="n" s="498">
+        <v>1.0</v>
+      </c>
+      <c r="E58" t="n" s="499">
+        <v>0.0</v>
+      </c>
+      <c r="F58" t="n" s="496">
+        <v>4.0</v>
+      </c>
+      <c r="J58" t="s" s="495">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="s" s="502">
+        <v>86</v>
+      </c>
+      <c r="D59" t="n" s="503">
+        <v>1.0</v>
+      </c>
+      <c r="E59" t="n" s="504">
+        <v>0.0</v>
+      </c>
+      <c r="F59" t="n" s="501">
+        <v>4.0</v>
+      </c>
+      <c r="J59" t="s" s="500">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="J60" t="s" s="505">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s" s="518">
+        <v>88</v>
+      </c>
+      <c r="C61" t="s" s="509">
+        <v>34</v>
+      </c>
+      <c r="D61" t="n" s="512">
+        <v>0.0</v>
+      </c>
+      <c r="E61" t="n" s="511">
+        <v>1.0</v>
+      </c>
+      <c r="F61" t="n" s="510">
+        <v>10.0</v>
+      </c>
+      <c r="J61" t="s" s="508">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="s" s="514">
+        <v>86</v>
+      </c>
+      <c r="D62" t="n" s="517">
+        <v>0.0</v>
+      </c>
+      <c r="E62" t="n" s="516">
+        <v>1.0</v>
+      </c>
+      <c r="F62" t="n" s="515">
+        <v>4.0</v>
+      </c>
+      <c r="J62" t="s" s="513">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="565">
+        <v>96</v>
+      </c>
+      <c r="B63" t="s" s="532">
+        <v>90</v>
+      </c>
+      <c r="C63" t="s" s="522">
+        <v>66</v>
+      </c>
+      <c r="D63" t="n" s="523">
+        <v>1.0</v>
+      </c>
+      <c r="E63" t="n" s="524">
+        <v>0.0</v>
+      </c>
+      <c r="F63" t="n" s="521">
+        <v>8.0</v>
+      </c>
+      <c r="J63" t="s" s="520">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="s" s="527">
+        <v>66</v>
+      </c>
+      <c r="D64" t="n" s="528">
+        <v>1.0</v>
+      </c>
+      <c r="E64" t="n" s="529">
+        <v>0.0</v>
+      </c>
+      <c r="F64" t="n" s="526">
+        <v>8.0</v>
+      </c>
+      <c r="J64" t="s" s="525">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="J65" t="s" s="530">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="s" s="538">
+        <v>91</v>
+      </c>
+      <c r="C66" t="s" s="534">
+        <v>18</v>
+      </c>
+      <c r="D66" t="n" s="537">
+        <v>0.0</v>
+      </c>
+      <c r="E66" t="n" s="536">
+        <v>1.0</v>
+      </c>
+      <c r="F66" t="n" s="535">
+        <v>8.0</v>
+      </c>
+      <c r="J66" t="s" s="533">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="s" s="556">
+        <v>94</v>
+      </c>
+      <c r="C67" t="s" s="541">
+        <v>92</v>
+      </c>
+      <c r="D67" t="n" s="542">
+        <v>1.0</v>
+      </c>
+      <c r="E67" t="n" s="543">
+        <v>0.0</v>
+      </c>
+      <c r="F67" t="n" s="540">
+        <v>6.0</v>
+      </c>
+      <c r="J67" t="s" s="539">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="s" s="546">
+        <v>92</v>
+      </c>
+      <c r="D68" t="n" s="547">
+        <v>1.0</v>
+      </c>
+      <c r="E68" t="n" s="548">
+        <v>0.0</v>
+      </c>
+      <c r="F68" t="n" s="545">
+        <v>6.0</v>
+      </c>
+      <c r="J68" t="s" s="544">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="s" s="551">
+        <v>93</v>
+      </c>
+      <c r="D69" t="n" s="552">
+        <v>1.0</v>
+      </c>
+      <c r="E69" t="n" s="553">
+        <v>0.0</v>
+      </c>
+      <c r="F69" t="n" s="550">
+        <v>4.0</v>
+      </c>
+      <c r="J69" t="s" s="549">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="J70" t="s" s="554">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="s" s="564">
+        <v>95</v>
+      </c>
+      <c r="C71" t="s" s="558">
+        <v>92</v>
+      </c>
+      <c r="D71" t="n" s="560">
+        <v>1.0</v>
+      </c>
+      <c r="E71" t="n" s="561">
+        <v>0.0</v>
+      </c>
+      <c r="F71" t="n" s="559">
+        <v>25.0</v>
+      </c>
+      <c r="J71" t="s" s="557">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="J72" t="s" s="562">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="619">
+        <v>105</v>
+      </c>
+      <c r="B73" t="s" s="573">
+        <v>97</v>
+      </c>
+      <c r="C73" t="s" s="568">
+        <v>7</v>
+      </c>
+      <c r="D73" t="n" s="569">
+        <v>1.0</v>
+      </c>
+      <c r="E73" t="n" s="570">
+        <v>0.0</v>
+      </c>
+      <c r="F73" t="n" s="567">
+        <v>40.0</v>
+      </c>
+      <c r="J73" t="s" s="566">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="J74" t="s" s="571">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="s" s="581">
+        <v>99</v>
+      </c>
+      <c r="C75" t="s" s="576">
+        <v>98</v>
+      </c>
+      <c r="D75" t="n" s="577">
+        <v>1.0</v>
+      </c>
+      <c r="E75" t="n" s="578">
+        <v>0.0</v>
+      </c>
+      <c r="F75" t="n" s="575">
+        <v>10.0</v>
+      </c>
+      <c r="J75" t="s" s="574">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="J76" t="s" s="579">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="s" s="589">
+        <v>100</v>
+      </c>
+      <c r="C77" t="s" s="584">
+        <v>98</v>
+      </c>
+      <c r="D77" t="n" s="585">
+        <v>1.0</v>
+      </c>
+      <c r="E77" t="n" s="586">
+        <v>0.0</v>
+      </c>
+      <c r="F77" t="n" s="583">
+        <v>10.0</v>
+      </c>
+      <c r="J77" t="s" s="582">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="J78" t="s" s="587">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="s" s="602">
+        <v>102</v>
+      </c>
+      <c r="C79" t="s" s="592">
+        <v>101</v>
+      </c>
+      <c r="D79" t="n" s="593">
+        <v>1.0</v>
+      </c>
+      <c r="E79" t="n" s="594">
+        <v>0.0</v>
+      </c>
+      <c r="F79" t="n" s="591">
+        <v>2.0</v>
+      </c>
+      <c r="J79" t="s" s="590">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="s" s="597">
+        <v>101</v>
+      </c>
+      <c r="D80" t="n" s="598">
+        <v>1.0</v>
+      </c>
+      <c r="E80" t="n" s="599">
+        <v>0.0</v>
+      </c>
+      <c r="F80" t="n" s="596">
+        <v>6.0</v>
+      </c>
+      <c r="J80" t="s" s="595">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="J81" t="s" s="600">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="s" s="610">
+        <v>104</v>
+      </c>
+      <c r="C82" t="s" s="605">
+        <v>103</v>
+      </c>
+      <c r="D82" t="n" s="606">
+        <v>1.0</v>
+      </c>
+      <c r="E82" t="n" s="607">
+        <v>0.0</v>
+      </c>
+      <c r="F82" t="n" s="604">
+        <v>12.0</v>
+      </c>
+      <c r="J82" t="s" s="603">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="J83" t="s" s="608">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="s" s="618">
+        <v>57</v>
+      </c>
+      <c r="C84" t="s" s="612">
         <v>56</v>
       </c>
-      <c r="B3" s="192">
-        <f>TODAY()</f>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" t="s" s="194">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" t="s" s="195">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="s" s="196">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" t="s" s="197">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="207">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s" s="202">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s" s="199">
-        <v>7</v>
-      </c>
-      <c r="D10" t="n" s="200">
-        <v>1.0</v>
-      </c>
-      <c r="E10" t="n" s="201">
-        <v>0.0</v>
-      </c>
-      <c r="J10" t="s" s="198">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="s" s="206">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s" s="203">
-        <v>7</v>
-      </c>
-      <c r="D11" t="n" s="204">
-        <v>1.0</v>
-      </c>
-      <c r="E11" t="n" s="205">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="238">
-        <v>62</v>
-      </c>
-      <c r="B12" t="s" s="216">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s" s="209">
-        <v>57</v>
-      </c>
-      <c r="D12" t="n" s="210">
-        <v>1.0</v>
-      </c>
-      <c r="E12" t="n" s="211">
-        <v>0.0</v>
-      </c>
-      <c r="J12" t="s" s="208">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" t="s" s="213">
-        <v>57</v>
-      </c>
-      <c r="D13" t="n" s="214">
-        <v>1.0</v>
-      </c>
-      <c r="E13" t="n" s="215">
-        <v>0.0</v>
-      </c>
-      <c r="J13" t="s" s="212">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="s" s="237">
-        <v>61</v>
-      </c>
-      <c r="C14" t="s" s="218">
-        <v>59</v>
-      </c>
-      <c r="D14" t="n" s="219">
-        <v>1.0</v>
-      </c>
-      <c r="E14" t="n" s="220">
-        <v>0.0</v>
-      </c>
-      <c r="J14" t="s" s="217">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" t="s" s="222">
-        <v>59</v>
-      </c>
-      <c r="D15" t="n" s="223">
-        <v>1.0</v>
-      </c>
-      <c r="E15" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J15" t="s" s="221">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" t="s" s="226">
-        <v>60</v>
-      </c>
-      <c r="D16" t="n" s="227">
-        <v>1.0</v>
-      </c>
-      <c r="E16" t="n" s="228">
-        <v>0.0</v>
-      </c>
-      <c r="J16" t="s" s="225">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" t="s" s="230">
-        <v>60</v>
-      </c>
-      <c r="D17" t="n" s="231">
-        <v>1.0</v>
-      </c>
-      <c r="E17" t="n" s="232">
-        <v>0.0</v>
-      </c>
-      <c r="J17" t="s" s="229">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="C18" t="s" s="234">
-        <v>60</v>
-      </c>
-      <c r="D18" t="n" s="235">
-        <v>1.0</v>
-      </c>
-      <c r="E18" t="n" s="236">
-        <v>0.0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J18" t="s" s="233">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="285">
-        <v>70</v>
-      </c>
-      <c r="B19" t="s" s="251">
-        <v>64</v>
-      </c>
-      <c r="C19" t="s" s="240">
-        <v>63</v>
-      </c>
-      <c r="D19" t="n" s="241">
-        <v>1.0</v>
-      </c>
-      <c r="E19" t="n" s="242">
-        <v>0.0</v>
-      </c>
-      <c r="J19" t="s" s="239">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" t="s" s="244">
-        <v>63</v>
-      </c>
-      <c r="D20" t="n" s="245">
-        <v>1.0</v>
-      </c>
-      <c r="E20" t="n" s="246">
-        <v>0.0</v>
-      </c>
-      <c r="J20" t="s" s="243">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" t="s" s="248">
-        <v>16</v>
-      </c>
-      <c r="D21" t="n" s="249">
-        <v>1.0</v>
-      </c>
-      <c r="E21" t="n" s="250">
-        <v>0.0</v>
-      </c>
-      <c r="J21" t="s" s="247">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="s" s="256">
-        <v>65</v>
-      </c>
-      <c r="C22" t="s" s="253">
-        <v>16</v>
-      </c>
-      <c r="D22" t="n" s="255">
-        <v>0.0</v>
-      </c>
-      <c r="E22" t="n" s="254">
-        <v>1.0</v>
-      </c>
-      <c r="J22" t="s" s="252">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="s" s="269">
-        <v>66</v>
-      </c>
-      <c r="C23" t="s" s="258">
-        <v>63</v>
-      </c>
-      <c r="D23" t="n" s="259">
-        <v>1.0</v>
-      </c>
-      <c r="E23" t="n" s="260">
-        <v>0.0</v>
-      </c>
-      <c r="J23" t="s" s="257">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="C24" t="s" s="262">
-        <v>63</v>
-      </c>
-      <c r="D24" t="n" s="263">
-        <v>1.0</v>
-      </c>
-      <c r="E24" t="n" s="264">
-        <v>0.0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J24" t="s" s="261">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="C25" t="s" s="266">
-        <v>16</v>
-      </c>
-      <c r="D25" t="n" s="267">
-        <v>1.0</v>
-      </c>
-      <c r="E25" t="n" s="268">
-        <v>0.0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J25" t="s" s="265">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="s" s="274">
-        <v>67</v>
-      </c>
-      <c r="C26" t="s" s="271">
-        <v>16</v>
-      </c>
-      <c r="D26" t="n" s="273">
-        <v>0.0</v>
-      </c>
-      <c r="E26" t="n" s="272">
-        <v>1.0</v>
-      </c>
-      <c r="J26" t="s" s="270">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" t="s" s="279">
-        <v>68</v>
-      </c>
-      <c r="C27" t="s" s="276">
-        <v>16</v>
-      </c>
-      <c r="D27" t="n" s="277">
-        <v>1.0</v>
-      </c>
-      <c r="E27" t="n" s="278">
-        <v>0.0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="J27" t="s" s="275">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="s" s="284">
-        <v>69</v>
-      </c>
-      <c r="C28" t="s" s="281">
-        <v>16</v>
-      </c>
-      <c r="D28" t="n" s="283">
-        <v>0.0</v>
-      </c>
-      <c r="E28" t="n" s="282">
-        <v>1.0</v>
-      </c>
-      <c r="J28" t="s" s="280">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="333">
-        <v>77</v>
-      </c>
-      <c r="B29" t="s" s="294">
-        <v>72</v>
-      </c>
-      <c r="C29" t="s" s="287">
-        <v>71</v>
-      </c>
-      <c r="D29" t="n" s="288">
-        <v>1.0</v>
-      </c>
-      <c r="E29" t="n" s="289">
-        <v>0.0</v>
-      </c>
-      <c r="J29" t="s" s="286">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="C30" t="s" s="291">
-        <v>71</v>
-      </c>
-      <c r="D30" t="n" s="292">
-        <v>1.0</v>
-      </c>
-      <c r="E30" t="n" s="293">
-        <v>0.0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J30" t="s" s="290">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" t="s" s="319">
-        <v>75</v>
-      </c>
-      <c r="C31" t="s" s="296">
-        <v>71</v>
-      </c>
-      <c r="D31" t="n" s="297">
-        <v>1.0</v>
-      </c>
-      <c r="E31" t="n" s="298">
-        <v>0.0</v>
-      </c>
-      <c r="J31" t="s" s="295">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" t="s" s="300">
-        <v>71</v>
-      </c>
-      <c r="D32" t="n" s="301">
-        <v>1.0</v>
-      </c>
-      <c r="E32" t="n" s="302">
-        <v>0.0</v>
-      </c>
-      <c r="J32" t="s" s="299">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="C33" t="s" s="304">
-        <v>73</v>
-      </c>
-      <c r="D33" t="n" s="305">
-        <v>1.0</v>
-      </c>
-      <c r="E33" t="n" s="306">
-        <v>0.0</v>
-      </c>
-      <c r="J33" t="s" s="303">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="C34" t="s" s="308">
-        <v>73</v>
-      </c>
-      <c r="D34" t="n" s="309">
-        <v>1.0</v>
-      </c>
-      <c r="E34" t="n" s="310">
-        <v>0.0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="J34" t="s" s="307">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" t="s" s="312">
-        <v>74</v>
-      </c>
-      <c r="D35" t="n" s="313">
-        <v>1.0</v>
-      </c>
-      <c r="E35" t="n" s="314">
-        <v>0.0</v>
-      </c>
-      <c r="J35" t="s" s="311">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="C36" t="s" s="316">
-        <v>74</v>
-      </c>
-      <c r="D36" t="n" s="317">
-        <v>1.0</v>
-      </c>
-      <c r="E36" t="n" s="318">
-        <v>0.0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J36" t="s" s="315">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" t="s" s="332">
-        <v>76</v>
-      </c>
-      <c r="C37" t="s" s="321">
-        <v>71</v>
-      </c>
-      <c r="D37" t="n" s="323">
-        <v>0.0</v>
-      </c>
-      <c r="E37" t="n" s="322">
-        <v>1.0</v>
-      </c>
-      <c r="J37" t="s" s="320">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="C38" t="s" s="325">
-        <v>73</v>
-      </c>
-      <c r="D38" t="n" s="327">
-        <v>0.0</v>
-      </c>
-      <c r="E38" t="n" s="326">
-        <v>1.0</v>
-      </c>
-      <c r="J38" t="s" s="324">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="C39" t="s" s="329">
-        <v>73</v>
-      </c>
-      <c r="D39" t="n" s="331">
-        <v>0.0</v>
-      </c>
-      <c r="E39" t="n" s="330">
-        <v>1.0</v>
-      </c>
-      <c r="J39" t="s" s="328">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="391">
-        <v>86</v>
-      </c>
-      <c r="B40" t="s" s="346">
-        <v>79</v>
-      </c>
-      <c r="C40" t="s" s="335">
-        <v>78</v>
-      </c>
-      <c r="D40" t="n" s="336">
-        <v>1.0</v>
-      </c>
-      <c r="E40" t="n" s="337">
-        <v>0.0</v>
-      </c>
-      <c r="J40" t="s" s="334">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="C41" t="s" s="339">
-        <v>78</v>
-      </c>
-      <c r="D41" t="n" s="340">
-        <v>1.0</v>
-      </c>
-      <c r="E41" t="n" s="341">
-        <v>0.0</v>
-      </c>
-      <c r="J41" t="s" s="338">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="C42" t="s" s="343">
-        <v>78</v>
-      </c>
-      <c r="D42" t="n" s="344">
-        <v>1.0</v>
-      </c>
-      <c r="E42" t="n" s="345">
-        <v>0.0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="J42" t="s" s="342">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" t="s" s="355">
-        <v>80</v>
-      </c>
-      <c r="C43" t="s" s="348">
-        <v>78</v>
-      </c>
-      <c r="D43" t="n" s="350">
-        <v>0.0</v>
-      </c>
-      <c r="E43" t="n" s="349">
-        <v>1.0</v>
-      </c>
-      <c r="J43" t="s" s="347">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="C44" t="s" s="352">
-        <v>78</v>
-      </c>
-      <c r="D44" t="n" s="354">
-        <v>0.0</v>
-      </c>
-      <c r="E44" t="n" s="353">
-        <v>1.0</v>
-      </c>
-      <c r="J44" t="s" s="351">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="s" s="364">
-        <v>82</v>
-      </c>
-      <c r="C45" t="s" s="357">
-        <v>81</v>
-      </c>
-      <c r="D45" t="n" s="358">
-        <v>1.0</v>
-      </c>
-      <c r="E45" t="n" s="359">
-        <v>0.0</v>
-      </c>
-      <c r="J45" t="s" s="356">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="C46" t="s" s="361">
-        <v>81</v>
-      </c>
-      <c r="D46" t="n" s="362">
-        <v>1.0</v>
-      </c>
-      <c r="E46" t="n" s="363">
-        <v>0.0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="J46" t="s" s="360">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" t="s" s="381">
-        <v>84</v>
-      </c>
-      <c r="C47" t="s" s="366">
-        <v>31</v>
-      </c>
-      <c r="D47" t="n" s="367">
-        <v>1.0</v>
-      </c>
-      <c r="E47" t="n" s="368">
-        <v>0.0</v>
-      </c>
-      <c r="J47" t="s" s="365">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="C48" t="s" s="370">
-        <v>31</v>
-      </c>
-      <c r="D48" t="n" s="371">
-        <v>1.0</v>
-      </c>
-      <c r="E48" t="n" s="372">
-        <v>0.0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="J48" t="s" s="369">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="C49" t="s" s="374">
-        <v>83</v>
-      </c>
-      <c r="D49" t="n" s="375">
-        <v>1.0</v>
-      </c>
-      <c r="E49" t="n" s="376">
-        <v>0.0</v>
-      </c>
-      <c r="J49" t="s" s="373">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="C50" t="s" s="378">
-        <v>83</v>
-      </c>
-      <c r="D50" t="n" s="379">
-        <v>1.0</v>
-      </c>
-      <c r="E50" t="n" s="380">
-        <v>0.0</v>
-      </c>
-      <c r="J50" t="s" s="377">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" t="s" s="390">
-        <v>85</v>
-      </c>
-      <c r="C51" t="s" s="383">
-        <v>31</v>
-      </c>
-      <c r="D51" t="n" s="385">
-        <v>0.0</v>
-      </c>
-      <c r="E51" t="n" s="384">
-        <v>1.0</v>
-      </c>
-      <c r="J51" t="s" s="382">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="C52" t="s" s="387">
-        <v>83</v>
-      </c>
-      <c r="D52" t="n" s="389">
-        <v>0.0</v>
-      </c>
-      <c r="E52" t="n" s="388">
-        <v>1.0</v>
-      </c>
-      <c r="J52" t="s" s="386">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="424">
-        <v>93</v>
-      </c>
-      <c r="B53" t="s" s="400">
-        <v>87</v>
-      </c>
-      <c r="C53" t="s" s="393">
-        <v>63</v>
-      </c>
-      <c r="D53" t="n" s="394">
-        <v>1.0</v>
-      </c>
-      <c r="E53" t="n" s="395">
-        <v>0.0</v>
-      </c>
-      <c r="J53" t="s" s="392">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="C54" t="s" s="397">
-        <v>63</v>
-      </c>
-      <c r="D54" t="n" s="398">
-        <v>1.0</v>
-      </c>
-      <c r="E54" t="n" s="399">
-        <v>0.0</v>
-      </c>
-      <c r="J54" t="s" s="396">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="s" s="405">
-        <v>88</v>
-      </c>
-      <c r="C55" t="s" s="402">
-        <v>16</v>
-      </c>
-      <c r="D55" t="n" s="404">
-        <v>0.0</v>
-      </c>
-      <c r="E55" t="n" s="403">
-        <v>1.0</v>
-      </c>
-      <c r="J55" t="s" s="401">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="s" s="418">
-        <v>91</v>
-      </c>
-      <c r="C56" t="s" s="407">
-        <v>89</v>
-      </c>
-      <c r="D56" t="n" s="408">
-        <v>1.0</v>
-      </c>
-      <c r="E56" t="n" s="409">
-        <v>0.0</v>
-      </c>
-      <c r="J56" t="s" s="406">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="C57" t="s" s="411">
-        <v>89</v>
-      </c>
-      <c r="D57" t="n" s="412">
-        <v>1.0</v>
-      </c>
-      <c r="E57" t="n" s="413">
-        <v>0.0</v>
-      </c>
-      <c r="J57" t="s" s="410">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="C58" t="s" s="415">
-        <v>90</v>
-      </c>
-      <c r="D58" t="n" s="416">
-        <v>1.0</v>
-      </c>
-      <c r="E58" t="n" s="417">
-        <v>0.0</v>
-      </c>
-      <c r="J58" t="s" s="414">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" t="s" s="423">
-        <v>92</v>
-      </c>
-      <c r="C59" t="s" s="420">
-        <v>89</v>
-      </c>
-      <c r="D59" t="n" s="421">
-        <v>1.0</v>
-      </c>
-      <c r="E59" t="n" s="422">
-        <v>0.0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="J59" t="s" s="419">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="459">
-        <v>102</v>
-      </c>
-      <c r="B60" t="s" s="429">
-        <v>94</v>
-      </c>
-      <c r="C60" t="s" s="426">
-        <v>7</v>
-      </c>
-      <c r="D60" t="n" s="427">
-        <v>1.0</v>
-      </c>
-      <c r="E60" t="n" s="428">
-        <v>0.0</v>
-      </c>
-      <c r="J60" t="s" s="425">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" t="s" s="434">
-        <v>96</v>
-      </c>
-      <c r="C61" t="s" s="431">
-        <v>95</v>
-      </c>
-      <c r="D61" t="n" s="432">
-        <v>1.0</v>
-      </c>
-      <c r="E61" t="n" s="433">
-        <v>0.0</v>
-      </c>
-      <c r="J61" t="s" s="430">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" t="s" s="439">
-        <v>97</v>
-      </c>
-      <c r="C62" t="s" s="436">
-        <v>95</v>
-      </c>
-      <c r="D62" t="n" s="437">
-        <v>1.0</v>
-      </c>
-      <c r="E62" t="n" s="438">
-        <v>0.0</v>
-      </c>
-      <c r="J62" t="s" s="435">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" t="s" s="448">
-        <v>99</v>
-      </c>
-      <c r="C63" t="s" s="441">
-        <v>98</v>
-      </c>
-      <c r="D63" t="n" s="442">
-        <v>1.0</v>
-      </c>
-      <c r="E63" t="n" s="443">
-        <v>0.0</v>
-      </c>
-      <c r="J63" t="s" s="440">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="C64" t="s" s="445">
-        <v>98</v>
-      </c>
-      <c r="D64" t="n" s="446">
-        <v>1.0</v>
-      </c>
-      <c r="E64" t="n" s="447">
-        <v>0.0</v>
-      </c>
-      <c r="J64" t="s" s="444">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" t="s" s="453">
-        <v>101</v>
-      </c>
-      <c r="C65" t="s" s="450">
-        <v>100</v>
-      </c>
-      <c r="D65" t="n" s="451">
-        <v>1.0</v>
-      </c>
-      <c r="E65" t="n" s="452">
-        <v>0.0</v>
-      </c>
-      <c r="J65" t="s" s="449">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" t="s" s="458">
-        <v>54</v>
-      </c>
-      <c r="C66" t="s" s="455">
-        <v>53</v>
-      </c>
-      <c r="D66" t="n" s="456">
-        <v>1.0</v>
-      </c>
-      <c r="E66" t="n" s="457">
-        <v>0.0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J66" t="s" s="454">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="464">
-        <v>104</v>
-      </c>
-      <c r="B67" t="s" s="463">
-        <v>103</v>
-      </c>
-      <c r="C67" t="s" s="460">
-        <v>53</v>
-      </c>
-      <c r="D67" t="n" s="461">
-        <v>1.0</v>
-      </c>
-      <c r="E67" t="n" s="462">
-        <v>0.0</v>
+      <c r="D84" t="n" s="614">
+        <v>1.0</v>
+      </c>
+      <c r="E84" t="n" s="615">
+        <v>0.0</v>
+      </c>
+      <c r="F84" t="n" s="613">
+        <v>1.0</v>
+      </c>
+      <c r="J84" t="s" s="611">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="J85" t="s" s="616">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="626">
+        <v>107</v>
+      </c>
+      <c r="B86" t="s" s="625">
+        <v>106</v>
+      </c>
+      <c r="C86" t="s" s="620">
+        <v>56</v>
+      </c>
+      <c r="D86" t="n" s="621">
+        <v>1.0</v>
+      </c>
+      <c r="E86" t="n" s="622">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="J87" t="s" s="623">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="s" s="624">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A19:A28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A29:A39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A21:A33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B37:B43"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A34:A46"/>
+    <mergeCell ref="C47:C49"/>
     <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C51:C52"/>
     <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A40:A52"/>
     <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B53:B55"/>
     <mergeCell ref="C56:C57"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A47:A62"/>
     <mergeCell ref="C63:C64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="A63:A72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="A73:A85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="A86:A87"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/planning/TestWriteTeachingUnits.xlsx
+++ b/planning/TestWriteTeachingUnits.xlsx
@@ -346,13 +346,353 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/m/yyyy"/>
   </numFmts>
-  <fonts count="627">
+  <fonts count="695">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -3563,7 +3903,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="627">
+  <cellXfs count="695">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -3625,13 +3965,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3640,13 +3980,13 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3655,13 +3995,13 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3670,19 +4010,19 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3694,10 +4034,10 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3709,10 +4049,10 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3721,10 +4061,10 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3736,10 +4076,10 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3751,10 +4091,10 @@
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3766,16 +4106,16 @@
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3784,13 +4124,13 @@
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="74" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3799,13 +4139,13 @@
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="79" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3829,13 +4169,13 @@
     <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="89" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3844,13 +4184,13 @@
     <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="94" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3865,7 +4205,7 @@
     <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="101" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3880,7 +4220,7 @@
     <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="106" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3895,7 +4235,7 @@
     <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="111" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3904,13 +4244,13 @@
     <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="116" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3919,13 +4259,13 @@
     <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="121" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3934,13 +4274,13 @@
     <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="126" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3955,7 +4295,7 @@
     <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="131" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3970,7 +4310,7 @@
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="136" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -3985,13 +4325,13 @@
     <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="143" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4000,13 +4340,13 @@
     <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="148" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4015,16 +4355,16 @@
     <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="154" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="153" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4036,10 +4376,10 @@
     <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="159" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="158" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4051,10 +4391,10 @@
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="164" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="163" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4063,10 +4403,10 @@
     <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4081,10 +4421,10 @@
     <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="174" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="173" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4096,10 +4436,10 @@
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="179" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="178" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4111,10 +4451,10 @@
     <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="184" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="183" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4123,7 +4463,7 @@
     <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4132,7 +4472,7 @@
     <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="190" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4141,13 +4481,13 @@
     <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="195" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4156,13 +4496,13 @@
     <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="200" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4171,16 +4511,16 @@
     <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="206" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="205" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4195,10 +4535,10 @@
     <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="212" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="211" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4210,10 +4550,10 @@
     <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="217" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="216" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4225,7 +4565,7 @@
     <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="221" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4240,7 +4580,7 @@
     <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="226" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4255,16 +4595,16 @@
     <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4273,13 +4613,13 @@
     <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4288,10 +4628,10 @@
     <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4303,16 +4643,16 @@
     <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4321,7 +4661,7 @@
     <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4336,25 +4676,25 @@
     <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="164" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="0" fontId="258" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="261" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="262" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="263" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="264" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4366,7 +4706,7 @@
     <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4381,13 +4721,13 @@
     <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="273" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4396,13 +4736,13 @@
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="278" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="281" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4417,31 +4757,31 @@
     <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="293" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4456,7 +4796,7 @@
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4471,7 +4811,7 @@
     <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="303" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4486,7 +4826,7 @@
     <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="308" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4513,10 +4853,10 @@
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4528,10 +4868,10 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4543,10 +4883,10 @@
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4558,16 +4898,16 @@
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4576,7 +4916,7 @@
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4585,13 +4925,13 @@
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="343" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4600,7 +4940,7 @@
     <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4609,13 +4949,13 @@
     <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="349" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4624,13 +4964,13 @@
     <xf numFmtId="0" fontId="353" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="354" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4639,7 +4979,7 @@
     <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="359" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4654,10 +4994,10 @@
     <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="365" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="364" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4669,10 +5009,10 @@
     <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="370" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="369" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4681,13 +5021,13 @@
     <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="375" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4702,7 +5042,7 @@
     <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="380" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4741,13 +5081,13 @@
     <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="395" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4756,7 +5096,7 @@
     <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4765,13 +5105,13 @@
     <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="401" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4780,13 +5120,13 @@
     <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="406" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4795,13 +5135,13 @@
     <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="411" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4816,7 +5156,7 @@
     <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="418" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="418" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4831,7 +5171,7 @@
     <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="423" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="423" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4840,13 +5180,13 @@
     <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="426" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="428" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="429" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4855,13 +5195,13 @@
     <xf numFmtId="0" fontId="430" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="431" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="433" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4870,13 +5210,13 @@
     <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="436" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="437" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="438" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="438" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="439" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4906,7 +5246,7 @@
     <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="448" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="448" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4921,7 +5261,7 @@
     <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="453" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="453" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="454" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4936,7 +5276,7 @@
     <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="458" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4945,13 +5285,13 @@
     <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="461" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="463" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4960,13 +5300,13 @@
     <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="466" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="468" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="468" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="469" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4978,10 +5318,10 @@
     <xf numFmtId="0" fontId="471" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="472" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -4993,10 +5333,10 @@
     <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="477" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5008,7 +5348,7 @@
     <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="482" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="482" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5032,7 +5372,7 @@
     <xf numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="490" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="490" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="491" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5047,7 +5387,7 @@
     <xf numFmtId="0" fontId="494" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="495" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="495" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="496" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5062,7 +5402,7 @@
     <xf numFmtId="0" fontId="499" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="500" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="500" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="501" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5077,7 +5417,7 @@
     <xf numFmtId="0" fontId="504" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="505" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="505" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="506" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5086,13 +5426,13 @@
     <xf numFmtId="0" fontId="507" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="508" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="508" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="509" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="510" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="511" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5101,7 +5441,7 @@
     <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="513" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="513" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="514" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5110,7 +5450,7 @@
     <xf numFmtId="0" fontId="515" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="516" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="516" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="517" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5122,10 +5462,10 @@
     <xf numFmtId="0" fontId="519" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="520" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="521" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="520" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="522" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5137,10 +5477,10 @@
     <xf numFmtId="0" fontId="524" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="525" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="526" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="525" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="527" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5152,16 +5492,16 @@
     <xf numFmtId="0" fontId="529" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="530" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="531" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="530" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="532" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="533" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="533" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="534" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5170,7 +5510,7 @@
     <xf numFmtId="0" fontId="535" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="536" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="536" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="537" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5179,13 +5519,13 @@
     <xf numFmtId="0" fontId="538" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="539" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="539" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="540" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="541" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="541" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="542" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5194,13 +5534,13 @@
     <xf numFmtId="0" fontId="543" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="544" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="544" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="545" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="546" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="546" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="547" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5209,13 +5549,13 @@
     <xf numFmtId="0" fontId="548" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="549" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="549" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="550" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="551" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="551" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="552" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5224,16 +5564,16 @@
     <xf numFmtId="0" fontId="553" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="554" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="554" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="555" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="556" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="557" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="556" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="558" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5245,10 +5585,10 @@
     <xf numFmtId="0" fontId="560" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="561" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="562" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="561" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="563" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5260,13 +5600,13 @@
     <xf numFmtId="0" fontId="565" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="566" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="566" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="567" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="568" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="568" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="569" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5275,16 +5615,16 @@
     <xf numFmtId="0" fontId="570" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="571" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="571" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="572" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="573" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="574" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="573" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="574" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="575" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5296,10 +5636,10 @@
     <xf numFmtId="0" fontId="577" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="578" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="579" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="578" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="579" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="580" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5308,10 +5648,10 @@
     <xf numFmtId="0" fontId="581" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="582" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="583" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="582" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="583" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="584" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5323,16 +5663,16 @@
     <xf numFmtId="0" fontId="586" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="587" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="587" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="588" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="589" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="590" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="589" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="590" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="591" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5344,10 +5684,10 @@
     <xf numFmtId="0" fontId="593" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="594" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="595" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="594" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="596" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5359,10 +5699,10 @@
     <xf numFmtId="0" fontId="598" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="599" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="600" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="599" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="600" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="601" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5371,10 +5711,10 @@
     <xf numFmtId="0" fontId="602" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="603" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="604" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="603" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="604" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="605" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5386,16 +5726,16 @@
     <xf numFmtId="0" fontId="607" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="608" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="609" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="608" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="610" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="611" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="611" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="612" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5404,13 +5744,13 @@
     <xf numFmtId="0" fontId="613" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="614" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="614" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="615" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="616" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="616" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="617" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5422,7 +5762,7 @@
     <xf numFmtId="0" fontId="619" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="620" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="620" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="621" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5431,16 +5771,220 @@
     <xf numFmtId="0" fontId="622" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="623" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="623" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="624" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="625" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="625" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="626" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="627" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="628" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="629" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="630" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="631" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="632" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="633" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="634" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="635" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="636" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="637" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="638" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="639" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="640" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="641" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="642" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="643" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="644" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="645" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="646" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="647" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="649" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="652" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="653" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="654" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="655" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="656" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="657" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="658" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="659" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="660" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="661" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="662" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="663" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="664" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="665" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="666" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="667" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="668" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="669" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="670" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="671" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="672" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="673" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="674" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="675" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="676" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="677" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="678" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="679" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="680" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="681" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="682" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="683" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="684" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="685" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="686" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="687" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="688" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="689" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="690" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="691" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="692" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="693" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="694" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -5494,10 +6038,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="20">
+      <c r="A10" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="B10" t="s" s="15">
+      <c r="B10" t="s" s="17">
         <v>9</v>
       </c>
       <c r="C10" t="s" s="10">
@@ -5517,790 +6061,916 @@
       </c>
     </row>
     <row r="11">
+      <c r="C11" t="s" s="16">
+        <v>7</v>
+      </c>
+      <c r="G11" t="n" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="H11" t="n" s="15">
+        <v>0.0</v>
+      </c>
       <c r="J11" t="s" s="13">
         <v>8</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="19">
+      <c r="B12" t="s" s="21">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="16">
+      <c r="C12" t="s" s="18">
         <v>7</v>
       </c>
-      <c r="D12" t="n" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="E12" t="n" s="18">
+      <c r="D12" t="n" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E12" t="n" s="20">
         <v>0.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="39">
+      <c r="A13" t="s" s="43">
         <v>17</v>
       </c>
-      <c r="B13" t="s" s="38">
+      <c r="B13" t="s" s="42">
         <v>16</v>
       </c>
-      <c r="C13" t="s" s="23">
+      <c r="C13" t="s" s="25">
         <v>13</v>
       </c>
-      <c r="D13" t="n" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="E13" t="n" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="F13" t="n" s="22">
+      <c r="D13" t="n" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="E13" t="n" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="F13" t="n" s="24">
         <v>24.0</v>
       </c>
-      <c r="J13" t="s" s="21">
+      <c r="J13" t="s" s="23">
         <v>12</v>
       </c>
     </row>
     <row r="14">
-      <c r="C14" t="s" s="28">
+      <c r="C14" t="s" s="30">
         <v>13</v>
       </c>
-      <c r="D14" t="n" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="E14" t="n" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="F14" t="n" s="27">
+      <c r="D14" t="n" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="E14" t="n" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="F14" t="n" s="29">
         <v>24.0</v>
       </c>
-      <c r="J14" t="s" s="26">
+      <c r="J14" t="s" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="15">
-      <c r="C15" t="s" s="32">
+      <c r="C15" t="s" s="34">
         <v>13</v>
       </c>
-      <c r="D15" t="n" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="E15" t="n" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="F15" t="n" s="33">
+      <c r="D15" t="n" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="E15" t="n" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="F15" t="n" s="35">
         <v>16.0</v>
       </c>
-      <c r="J15" t="s" s="31">
+      <c r="J15" t="s" s="33">
         <v>14</v>
       </c>
     </row>
     <row r="16">
-      <c r="J16" t="s" s="36">
+      <c r="C16" t="s" s="41">
+        <v>13</v>
+      </c>
+      <c r="G16" t="n" s="40">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n" s="39">
+        <v>4.0</v>
+      </c>
+      <c r="J16" t="s" s="38">
         <v>15</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="90">
+      <c r="A17" t="s" s="100">
         <v>28</v>
       </c>
-      <c r="B17" t="s" s="52">
+      <c r="B17" t="s" s="58">
         <v>20</v>
       </c>
-      <c r="C17" t="s" s="42">
+      <c r="C17" t="s" s="46">
         <v>18</v>
       </c>
-      <c r="D17" t="n" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="E17" t="n" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="F17" t="n" s="41">
+      <c r="D17" t="n" s="47">
+        <v>1.0</v>
+      </c>
+      <c r="E17" t="n" s="48">
+        <v>0.0</v>
+      </c>
+      <c r="F17" t="n" s="45">
         <v>12.0</v>
       </c>
-      <c r="J17" t="s" s="40">
+      <c r="J17" t="s" s="44">
         <v>12</v>
       </c>
     </row>
     <row r="18">
-      <c r="C18" t="s" s="46">
+      <c r="C18" t="s" s="50">
         <v>19</v>
       </c>
-      <c r="D18" t="n" s="48">
-        <v>1.0</v>
-      </c>
-      <c r="E18" t="n" s="49">
-        <v>0.0</v>
-      </c>
-      <c r="F18" t="n" s="47">
+      <c r="D18" t="n" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="E18" t="n" s="53">
+        <v>0.0</v>
+      </c>
+      <c r="F18" t="n" s="51">
         <v>4.0</v>
       </c>
-      <c r="J18" t="s" s="45">
+      <c r="J18" t="s" s="49">
         <v>14</v>
       </c>
     </row>
     <row r="19">
-      <c r="J19" t="s" s="50">
+      <c r="C19" t="s" s="57">
+        <v>18</v>
+      </c>
+      <c r="G19" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="H19" t="n" s="55">
+        <v>4.0</v>
+      </c>
+      <c r="J19" t="s" s="54">
         <v>15</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="70">
+      <c r="B20" t="s" s="78">
         <v>23</v>
       </c>
-      <c r="C20" t="s" s="55">
+      <c r="C20" t="s" s="61">
         <v>21</v>
       </c>
-      <c r="D20" t="n" s="56">
-        <v>1.0</v>
-      </c>
-      <c r="E20" t="n" s="57">
-        <v>0.0</v>
-      </c>
-      <c r="F20" t="n" s="54">
+      <c r="D20" t="n" s="62">
+        <v>1.0</v>
+      </c>
+      <c r="E20" t="n" s="63">
+        <v>0.0</v>
+      </c>
+      <c r="F20" t="n" s="60">
         <v>8.0</v>
       </c>
-      <c r="J20" t="s" s="53">
+      <c r="J20" t="s" s="59">
         <v>12</v>
       </c>
     </row>
     <row r="21">
-      <c r="C21" t="s" s="60">
+      <c r="C21" t="s" s="66">
         <v>21</v>
       </c>
-      <c r="D21" t="n" s="61">
-        <v>1.0</v>
-      </c>
-      <c r="E21" t="n" s="62">
-        <v>0.0</v>
-      </c>
-      <c r="F21" t="n" s="59">
+      <c r="D21" t="n" s="67">
+        <v>1.0</v>
+      </c>
+      <c r="E21" t="n" s="68">
+        <v>0.0</v>
+      </c>
+      <c r="F21" t="n" s="65">
         <v>4.0</v>
       </c>
-      <c r="J21" t="s" s="58">
+      <c r="J21" t="s" s="64">
         <v>6</v>
       </c>
     </row>
     <row r="22">
-      <c r="C22" t="s" s="64">
+      <c r="C22" t="s" s="70">
         <v>21</v>
       </c>
-      <c r="D22" t="n" s="66">
-        <v>1.0</v>
-      </c>
-      <c r="E22" t="n" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="F22" t="n" s="65">
+      <c r="D22" t="n" s="72">
+        <v>1.0</v>
+      </c>
+      <c r="E22" t="n" s="73">
+        <v>0.0</v>
+      </c>
+      <c r="F22" t="n" s="71">
         <v>4.0</v>
       </c>
-      <c r="J22" t="s" s="63">
+      <c r="J22" t="s" s="69">
         <v>14</v>
       </c>
     </row>
     <row r="23">
-      <c r="J23" t="s" s="68">
+      <c r="C23" t="s" s="77">
+        <v>21</v>
+      </c>
+      <c r="G23" t="n" s="76">
+        <v>0.0</v>
+      </c>
+      <c r="H23" t="n" s="75">
+        <v>2.0</v>
+      </c>
+      <c r="J23" t="s" s="74">
         <v>22</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="83">
+      <c r="B24" t="s" s="93">
         <v>26</v>
       </c>
-      <c r="C24" t="s" s="72">
+      <c r="C24" t="s" s="80">
         <v>24</v>
       </c>
-      <c r="D24" t="n" s="74">
-        <v>1.0</v>
-      </c>
-      <c r="E24" t="n" s="75">
-        <v>0.0</v>
-      </c>
-      <c r="F24" t="n" s="73">
+      <c r="D24" t="n" s="82">
+        <v>1.0</v>
+      </c>
+      <c r="E24" t="n" s="83">
+        <v>0.0</v>
+      </c>
+      <c r="F24" t="n" s="81">
         <v>25.0</v>
       </c>
-      <c r="J24" t="s" s="71">
+      <c r="J24" t="s" s="79">
         <v>14</v>
       </c>
     </row>
     <row r="25">
-      <c r="C25" t="s" s="77">
+      <c r="C25" t="s" s="85">
         <v>25</v>
       </c>
-      <c r="D25" t="n" s="79">
-        <v>1.0</v>
-      </c>
-      <c r="E25" t="n" s="80">
-        <v>0.0</v>
-      </c>
-      <c r="F25" t="n" s="78">
+      <c r="D25" t="n" s="87">
+        <v>1.0</v>
+      </c>
+      <c r="E25" t="n" s="88">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="86">
         <v>25.0</v>
       </c>
-      <c r="J25" t="s" s="76">
+      <c r="J25" t="s" s="84">
         <v>14</v>
       </c>
     </row>
     <row r="26">
-      <c r="J26" t="s" s="81">
+      <c r="C26" t="s" s="92">
+        <v>24</v>
+      </c>
+      <c r="G26" t="n" s="90">
+        <v>2.0</v>
+      </c>
+      <c r="H26" t="n" s="91">
+        <v>0.0</v>
+      </c>
+      <c r="J26" t="s" s="89">
         <v>8</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="89">
+      <c r="B27" t="s" s="99">
         <v>27</v>
       </c>
-      <c r="C27" t="s" s="85">
+      <c r="C27" t="s" s="95">
         <v>25</v>
       </c>
-      <c r="D27" t="n" s="88">
-        <v>0.0</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>1.0</v>
-      </c>
-      <c r="F27" t="n" s="86">
+      <c r="D27" t="n" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="E27" t="n" s="97">
+        <v>1.0</v>
+      </c>
+      <c r="F27" t="n" s="96">
         <v>25.0</v>
       </c>
-      <c r="J27" t="s" s="84">
+      <c r="J27" t="s" s="94">
         <v>14</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="130">
+      <c r="A28" t="s" s="142">
         <v>33</v>
       </c>
-      <c r="B28" t="s" s="113">
+      <c r="B28" t="s" s="125">
         <v>31</v>
       </c>
-      <c r="C28" t="s" s="93">
+      <c r="C28" t="s" s="103">
         <v>29</v>
       </c>
-      <c r="D28" t="n" s="94">
-        <v>1.0</v>
-      </c>
-      <c r="E28" t="n" s="95">
-        <v>0.0</v>
-      </c>
-      <c r="F28" t="n" s="92">
+      <c r="D28" t="n" s="104">
+        <v>1.0</v>
+      </c>
+      <c r="E28" t="n" s="105">
+        <v>0.0</v>
+      </c>
+      <c r="F28" t="n" s="102">
         <v>16.0</v>
       </c>
-      <c r="J28" t="s" s="91">
+      <c r="J28" t="s" s="101">
         <v>12</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s" s="98">
+      <c r="C29" t="s" s="108">
         <v>29</v>
       </c>
-      <c r="D29" t="n" s="99">
-        <v>1.0</v>
-      </c>
-      <c r="E29" t="n" s="100">
-        <v>0.0</v>
-      </c>
-      <c r="F29" t="n" s="97">
+      <c r="D29" t="n" s="109">
+        <v>1.0</v>
+      </c>
+      <c r="E29" t="n" s="110">
+        <v>0.0</v>
+      </c>
+      <c r="F29" t="n" s="107">
         <v>20.0</v>
       </c>
-      <c r="J29" t="s" s="96">
+      <c r="J29" t="s" s="106">
         <v>6</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s" s="102">
+      <c r="C30" t="s" s="112">
         <v>29</v>
       </c>
-      <c r="D30" t="n" s="104">
-        <v>1.0</v>
-      </c>
-      <c r="E30" t="n" s="105">
-        <v>0.0</v>
-      </c>
-      <c r="F30" t="n" s="103">
+      <c r="D30" t="n" s="114">
+        <v>1.0</v>
+      </c>
+      <c r="E30" t="n" s="115">
+        <v>0.0</v>
+      </c>
+      <c r="F30" t="n" s="113">
         <v>16.0</v>
       </c>
-      <c r="J30" t="s" s="101">
+      <c r="J30" t="s" s="111">
         <v>14</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s" s="107">
+      <c r="C31" t="s" s="117">
         <v>30</v>
       </c>
-      <c r="D31" t="n" s="109">
-        <v>1.0</v>
-      </c>
-      <c r="E31" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="F31" t="n" s="108">
+      <c r="D31" t="n" s="119">
+        <v>1.0</v>
+      </c>
+      <c r="E31" t="n" s="120">
+        <v>0.0</v>
+      </c>
+      <c r="F31" t="n" s="118">
         <v>12.0</v>
       </c>
-      <c r="J31" t="s" s="106">
+      <c r="J31" t="s" s="116">
         <v>14</v>
       </c>
     </row>
     <row r="32">
-      <c r="J32" t="s" s="111">
+      <c r="C32" t="s" s="124">
+        <v>29</v>
+      </c>
+      <c r="G32" t="n" s="122">
+        <v>2.0</v>
+      </c>
+      <c r="H32" t="n" s="123">
+        <v>0.0</v>
+      </c>
+      <c r="J32" t="s" s="121">
         <v>8</v>
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="129">
+      <c r="B33" t="s" s="141">
         <v>32</v>
       </c>
-      <c r="C33" t="s" s="115">
+      <c r="C33" t="s" s="127">
         <v>29</v>
       </c>
-      <c r="D33" t="n" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="E33" t="n" s="117">
-        <v>1.0</v>
-      </c>
-      <c r="F33" t="n" s="116">
+      <c r="D33" t="n" s="130">
+        <v>0.0</v>
+      </c>
+      <c r="E33" t="n" s="129">
+        <v>1.0</v>
+      </c>
+      <c r="F33" t="n" s="128">
         <v>20.0</v>
       </c>
-      <c r="J33" t="s" s="114">
+      <c r="J33" t="s" s="126">
         <v>6</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s" s="120">
+      <c r="C34" t="s" s="132">
         <v>29</v>
       </c>
-      <c r="D34" t="n" s="123">
-        <v>0.0</v>
-      </c>
-      <c r="E34" t="n" s="122">
-        <v>1.0</v>
-      </c>
-      <c r="F34" t="n" s="121">
+      <c r="D34" t="n" s="135">
+        <v>0.0</v>
+      </c>
+      <c r="E34" t="n" s="134">
+        <v>1.0</v>
+      </c>
+      <c r="F34" t="n" s="133">
         <v>16.0</v>
       </c>
-      <c r="J34" t="s" s="119">
+      <c r="J34" t="s" s="131">
         <v>14</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s" s="125">
+      <c r="C35" t="s" s="137">
         <v>30</v>
       </c>
-      <c r="D35" t="n" s="128">
-        <v>0.0</v>
-      </c>
-      <c r="E35" t="n" s="127">
-        <v>1.0</v>
-      </c>
-      <c r="F35" t="n" s="126">
+      <c r="D35" t="n" s="140">
+        <v>0.0</v>
+      </c>
+      <c r="E35" t="n" s="139">
+        <v>1.0</v>
+      </c>
+      <c r="F35" t="n" s="138">
         <v>12.0</v>
       </c>
-      <c r="J35" t="s" s="124">
+      <c r="J35" t="s" s="136">
         <v>14</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="173">
+      <c r="A36" t="s" s="189">
         <v>40</v>
       </c>
-      <c r="B36" t="s" s="153">
+      <c r="B36" t="s" s="167">
         <v>36</v>
       </c>
-      <c r="C36" t="s" s="133">
+      <c r="C36" t="s" s="145">
         <v>34</v>
       </c>
-      <c r="D36" t="n" s="134">
-        <v>1.0</v>
-      </c>
-      <c r="E36" t="n" s="135">
-        <v>0.0</v>
-      </c>
-      <c r="F36" t="n" s="132">
+      <c r="D36" t="n" s="146">
+        <v>1.0</v>
+      </c>
+      <c r="E36" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="F36" t="n" s="144">
         <v>16.0</v>
       </c>
-      <c r="J36" t="s" s="131">
+      <c r="J36" t="s" s="143">
         <v>12</v>
       </c>
     </row>
     <row r="37">
-      <c r="C37" t="s" s="138">
+      <c r="C37" t="s" s="150">
         <v>34</v>
       </c>
-      <c r="D37" t="n" s="139">
-        <v>1.0</v>
-      </c>
-      <c r="E37" t="n" s="140">
-        <v>0.0</v>
-      </c>
-      <c r="F37" t="n" s="137">
+      <c r="D37" t="n" s="151">
+        <v>1.0</v>
+      </c>
+      <c r="E37" t="n" s="152">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n" s="149">
         <v>10.0</v>
       </c>
-      <c r="J37" t="s" s="136">
+      <c r="J37" t="s" s="148">
         <v>6</v>
       </c>
     </row>
     <row r="38">
-      <c r="C38" t="s" s="143">
+      <c r="C38" t="s" s="155">
         <v>35</v>
       </c>
-      <c r="D38" t="n" s="144">
-        <v>1.0</v>
-      </c>
-      <c r="E38" t="n" s="145">
-        <v>0.0</v>
-      </c>
-      <c r="F38" t="n" s="142">
+      <c r="D38" t="n" s="156">
+        <v>1.0</v>
+      </c>
+      <c r="E38" t="n" s="157">
+        <v>0.0</v>
+      </c>
+      <c r="F38" t="n" s="154">
         <v>4.0</v>
       </c>
-      <c r="J38" t="s" s="141">
+      <c r="J38" t="s" s="153">
         <v>12</v>
       </c>
     </row>
     <row r="39">
-      <c r="C39" t="s" s="147">
+      <c r="C39" t="s" s="159">
         <v>35</v>
       </c>
-      <c r="D39" t="n" s="149">
-        <v>1.0</v>
-      </c>
-      <c r="E39" t="n" s="150">
-        <v>0.0</v>
-      </c>
-      <c r="F39" t="n" s="148">
+      <c r="D39" t="n" s="161">
+        <v>1.0</v>
+      </c>
+      <c r="E39" t="n" s="162">
+        <v>0.0</v>
+      </c>
+      <c r="F39" t="n" s="160">
         <v>2.0</v>
       </c>
-      <c r="J39" t="s" s="146">
+      <c r="J39" t="s" s="158">
         <v>14</v>
       </c>
     </row>
     <row r="40">
-      <c r="J40" t="s" s="151">
+      <c r="C40" t="s" s="166">
+        <v>34</v>
+      </c>
+      <c r="G40" t="n" s="165">
+        <v>0.0</v>
+      </c>
+      <c r="H40" t="n" s="164">
+        <v>2.0</v>
+      </c>
+      <c r="J40" t="s" s="163">
         <v>22</v>
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="166">
+      <c r="B41" t="s" s="182">
         <v>38</v>
       </c>
-      <c r="C41" t="s" s="156">
+      <c r="C41" t="s" s="170">
         <v>37</v>
       </c>
-      <c r="D41" t="n" s="157">
-        <v>1.0</v>
-      </c>
-      <c r="E41" t="n" s="158">
-        <v>0.0</v>
-      </c>
-      <c r="F41" t="n" s="155">
+      <c r="D41" t="n" s="171">
+        <v>1.0</v>
+      </c>
+      <c r="E41" t="n" s="172">
+        <v>0.0</v>
+      </c>
+      <c r="F41" t="n" s="169">
         <v>10.0</v>
       </c>
-      <c r="J41" t="s" s="154">
+      <c r="J41" t="s" s="168">
         <v>12</v>
       </c>
     </row>
     <row r="42">
-      <c r="C42" t="s" s="160">
+      <c r="C42" t="s" s="174">
         <v>37</v>
       </c>
-      <c r="D42" t="n" s="162">
-        <v>1.0</v>
-      </c>
-      <c r="E42" t="n" s="163">
-        <v>0.0</v>
-      </c>
-      <c r="F42" t="n" s="161">
+      <c r="D42" t="n" s="176">
+        <v>1.0</v>
+      </c>
+      <c r="E42" t="n" s="177">
+        <v>0.0</v>
+      </c>
+      <c r="F42" t="n" s="175">
         <v>22.0</v>
       </c>
-      <c r="J42" t="s" s="159">
+      <c r="J42" t="s" s="173">
         <v>14</v>
       </c>
     </row>
     <row r="43">
-      <c r="J43" t="s" s="164">
+      <c r="C43" t="s" s="181">
+        <v>37</v>
+      </c>
+      <c r="G43" t="n" s="179">
+        <v>2.0</v>
+      </c>
+      <c r="H43" t="n" s="180">
+        <v>0.0</v>
+      </c>
+      <c r="J43" t="s" s="178">
         <v>8</v>
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="172">
+      <c r="B44" t="s" s="188">
         <v>39</v>
       </c>
-      <c r="C44" t="s" s="168">
+      <c r="C44" t="s" s="184">
         <v>37</v>
       </c>
-      <c r="D44" t="n" s="171">
-        <v>0.0</v>
-      </c>
-      <c r="E44" t="n" s="170">
-        <v>1.0</v>
-      </c>
-      <c r="F44" t="n" s="169">
+      <c r="D44" t="n" s="187">
+        <v>0.0</v>
+      </c>
+      <c r="E44" t="n" s="186">
+        <v>1.0</v>
+      </c>
+      <c r="F44" t="n" s="185">
         <v>22.0</v>
       </c>
-      <c r="J44" t="s" s="167">
+      <c r="J44" t="s" s="183">
         <v>14</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="220">
+      <c r="A45" t="s" s="242">
         <v>49</v>
       </c>
-      <c r="B45" t="s" s="186">
+      <c r="B45" t="s" s="204">
         <v>42</v>
       </c>
-      <c r="C45" t="s" s="176">
+      <c r="C45" t="s" s="192">
         <v>41</v>
       </c>
-      <c r="D45" t="n" s="177">
-        <v>1.0</v>
-      </c>
-      <c r="E45" t="n" s="178">
-        <v>0.0</v>
-      </c>
-      <c r="F45" t="n" s="175">
+      <c r="D45" t="n" s="193">
+        <v>1.0</v>
+      </c>
+      <c r="E45" t="n" s="194">
+        <v>0.0</v>
+      </c>
+      <c r="F45" t="n" s="191">
         <v>12.0</v>
       </c>
-      <c r="J45" t="s" s="174">
+      <c r="J45" t="s" s="190">
         <v>12</v>
       </c>
     </row>
     <row r="46">
-      <c r="C46" t="s" s="181">
+      <c r="C46" t="s" s="197">
         <v>25</v>
       </c>
-      <c r="D46" t="n" s="182">
-        <v>1.0</v>
-      </c>
-      <c r="E46" t="n" s="183">
-        <v>0.0</v>
-      </c>
-      <c r="F46" t="n" s="180">
+      <c r="D46" t="n" s="198">
+        <v>1.0</v>
+      </c>
+      <c r="E46" t="n" s="199">
+        <v>0.0</v>
+      </c>
+      <c r="F46" t="n" s="196">
         <v>12.0</v>
       </c>
-      <c r="J46" t="s" s="179">
+      <c r="J46" t="s" s="195">
         <v>6</v>
       </c>
     </row>
     <row r="47">
-      <c r="J47" t="s" s="184">
+      <c r="C47" t="s" s="203">
+        <v>41</v>
+      </c>
+      <c r="G47" t="n" s="201">
+        <v>2.0</v>
+      </c>
+      <c r="H47" t="n" s="202">
+        <v>0.0</v>
+      </c>
+      <c r="J47" t="s" s="200">
         <v>8</v>
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="192">
+      <c r="B48" t="s" s="210">
         <v>43</v>
       </c>
-      <c r="C48" t="s" s="188">
+      <c r="C48" t="s" s="206">
         <v>25</v>
       </c>
-      <c r="D48" t="n" s="191">
-        <v>0.0</v>
-      </c>
-      <c r="E48" t="n" s="190">
-        <v>1.0</v>
-      </c>
-      <c r="F48" t="n" s="189">
+      <c r="D48" t="n" s="209">
+        <v>0.0</v>
+      </c>
+      <c r="E48" t="n" s="208">
+        <v>1.0</v>
+      </c>
+      <c r="F48" t="n" s="207">
         <v>12.0</v>
       </c>
-      <c r="J48" t="s" s="187">
+      <c r="J48" t="s" s="205">
         <v>6</v>
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="205">
+      <c r="B49" t="s" s="225">
         <v>45</v>
       </c>
-      <c r="C49" t="s" s="195">
+      <c r="C49" t="s" s="213">
         <v>44</v>
       </c>
-      <c r="D49" t="n" s="196">
-        <v>1.0</v>
-      </c>
-      <c r="E49" t="n" s="197">
-        <v>0.0</v>
-      </c>
-      <c r="F49" t="n" s="194">
+      <c r="D49" t="n" s="214">
+        <v>1.0</v>
+      </c>
+      <c r="E49" t="n" s="215">
+        <v>0.0</v>
+      </c>
+      <c r="F49" t="n" s="212">
         <v>2.0</v>
       </c>
-      <c r="J49" t="s" s="193">
+      <c r="J49" t="s" s="211">
         <v>12</v>
       </c>
     </row>
     <row r="50">
-      <c r="C50" t="s" s="199">
+      <c r="C50" t="s" s="217">
         <v>44</v>
       </c>
-      <c r="D50" t="n" s="201">
-        <v>1.0</v>
-      </c>
-      <c r="E50" t="n" s="202">
-        <v>0.0</v>
-      </c>
-      <c r="F50" t="n" s="200">
+      <c r="D50" t="n" s="219">
+        <v>1.0</v>
+      </c>
+      <c r="E50" t="n" s="220">
+        <v>0.0</v>
+      </c>
+      <c r="F50" t="n" s="218">
         <v>6.0</v>
       </c>
-      <c r="J50" t="s" s="198">
+      <c r="J50" t="s" s="216">
         <v>14</v>
       </c>
     </row>
     <row r="51">
-      <c r="J51" t="s" s="203">
+      <c r="C51" t="s" s="224">
+        <v>44</v>
+      </c>
+      <c r="G51" t="n" s="222">
+        <v>2.0</v>
+      </c>
+      <c r="H51" t="n" s="223">
+        <v>0.0</v>
+      </c>
+      <c r="J51" t="s" s="221">
         <v>8</v>
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="211">
+      <c r="B52" t="s" s="231">
         <v>46</v>
       </c>
-      <c r="C52" t="s" s="207">
+      <c r="C52" t="s" s="227">
         <v>44</v>
       </c>
-      <c r="D52" t="n" s="210">
-        <v>0.0</v>
-      </c>
-      <c r="E52" t="n" s="209">
-        <v>1.0</v>
-      </c>
-      <c r="F52" t="n" s="208">
+      <c r="D52" t="n" s="230">
+        <v>0.0</v>
+      </c>
+      <c r="E52" t="n" s="229">
+        <v>1.0</v>
+      </c>
+      <c r="F52" t="n" s="228">
         <v>6.0</v>
       </c>
-      <c r="J52" t="s" s="206">
+      <c r="J52" t="s" s="226">
         <v>14</v>
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="219">
+      <c r="B53" t="s" s="241">
         <v>48</v>
       </c>
-      <c r="C53" t="s" s="213">
+      <c r="C53" t="s" s="233">
         <v>47</v>
       </c>
-      <c r="D53" t="n" s="215">
-        <v>1.0</v>
-      </c>
-      <c r="E53" t="n" s="216">
-        <v>0.0</v>
-      </c>
-      <c r="F53" t="n" s="214">
+      <c r="D53" t="n" s="235">
+        <v>1.0</v>
+      </c>
+      <c r="E53" t="n" s="236">
+        <v>0.0</v>
+      </c>
+      <c r="F53" t="n" s="234">
         <v>25.0</v>
       </c>
-      <c r="J53" t="s" s="212">
+      <c r="J53" t="s" s="232">
         <v>14</v>
       </c>
     </row>
     <row r="54">
-      <c r="J54" t="s" s="217">
+      <c r="C54" t="s" s="240">
+        <v>47</v>
+      </c>
+      <c r="G54" t="n" s="238">
+        <v>2.0</v>
+      </c>
+      <c r="H54" t="n" s="239">
+        <v>0.0</v>
+      </c>
+      <c r="J54" t="s" s="237">
         <v>8</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="256">
+      <c r="A55" t="s" s="284">
         <v>58</v>
       </c>
-      <c r="B55" t="s" s="233">
+      <c r="B55" t="s" s="257">
         <v>51</v>
       </c>
-      <c r="C55" t="s" s="223">
+      <c r="C55" t="s" s="245">
         <v>50</v>
       </c>
-      <c r="D55" t="n" s="224">
-        <v>1.0</v>
-      </c>
-      <c r="E55" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="F55" t="n" s="222">
+      <c r="D55" t="n" s="246">
+        <v>1.0</v>
+      </c>
+      <c r="E55" t="n" s="247">
+        <v>0.0</v>
+      </c>
+      <c r="F55" t="n" s="244">
         <v>12.0</v>
       </c>
-      <c r="J55" t="s" s="221">
+      <c r="J55" t="s" s="243">
         <v>12</v>
       </c>
     </row>
     <row r="56">
-      <c r="C56" t="s" s="228">
+      <c r="C56" t="s" s="250">
         <v>50</v>
       </c>
-      <c r="D56" t="n" s="229">
-        <v>1.0</v>
-      </c>
-      <c r="E56" t="n" s="230">
-        <v>0.0</v>
-      </c>
-      <c r="F56" t="n" s="227">
+      <c r="D56" t="n" s="251">
+        <v>1.0</v>
+      </c>
+      <c r="E56" t="n" s="252">
+        <v>0.0</v>
+      </c>
+      <c r="F56" t="n" s="249">
         <v>40.0</v>
       </c>
-      <c r="J56" t="s" s="226">
+      <c r="J56" t="s" s="248">
         <v>6</v>
       </c>
     </row>
     <row r="57">
-      <c r="J57" t="s" s="231">
+      <c r="C57" t="s" s="256">
+        <v>50</v>
+      </c>
+      <c r="G57" t="n" s="255">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="254">
+        <v>4.0</v>
+      </c>
+      <c r="J57" t="s" s="253">
         <v>15</v>
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="241">
+      <c r="B58" t="s" s="267">
         <v>53</v>
       </c>
-      <c r="C58" t="s" s="236">
+      <c r="C58" t="s" s="260">
         <v>52</v>
       </c>
-      <c r="D58" t="n" s="237">
-        <v>1.0</v>
-      </c>
-      <c r="E58" t="n" s="238">
-        <v>0.0</v>
-      </c>
-      <c r="F58" t="n" s="235">
+      <c r="D58" t="n" s="261">
+        <v>1.0</v>
+      </c>
+      <c r="E58" t="n" s="262">
+        <v>0.0</v>
+      </c>
+      <c r="F58" t="n" s="259">
         <v>8.0</v>
       </c>
-      <c r="J58" t="s" s="234">
+      <c r="J58" t="s" s="258">
         <v>6</v>
       </c>
     </row>
     <row r="59">
-      <c r="J59" t="s" s="239">
+      <c r="C59" t="s" s="266">
+        <v>52</v>
+      </c>
+      <c r="G59" t="n" s="264">
+        <v>2.0</v>
+      </c>
+      <c r="H59" t="n" s="265">
+        <v>0.0</v>
+      </c>
+      <c r="J59" t="s" s="263">
         <v>8</v>
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="249">
+      <c r="B60" t="s" s="277">
         <v>55</v>
       </c>
-      <c r="C60" t="s" s="244">
+      <c r="C60" t="s" s="270">
         <v>54</v>
       </c>
-      <c r="D60" t="n" s="245">
-        <v>1.0</v>
-      </c>
-      <c r="E60" t="n" s="246">
-        <v>0.0</v>
-      </c>
-      <c r="F60" t="n" s="243">
+      <c r="D60" t="n" s="271">
+        <v>1.0</v>
+      </c>
+      <c r="E60" t="n" s="272">
+        <v>0.0</v>
+      </c>
+      <c r="F60" t="n" s="269">
         <v>14.0</v>
       </c>
-      <c r="J60" t="s" s="242">
+      <c r="J60" t="s" s="268">
         <v>6</v>
       </c>
     </row>
     <row r="61">
-      <c r="J61" t="s" s="247">
+      <c r="C61" t="s" s="276">
+        <v>54</v>
+      </c>
+      <c r="G61" t="n" s="274">
+        <v>2.0</v>
+      </c>
+      <c r="H61" t="n" s="275">
+        <v>0.0</v>
+      </c>
+      <c r="J61" t="s" s="273">
         <v>8</v>
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="255">
+      <c r="B62" t="s" s="283">
         <v>57</v>
       </c>
-      <c r="C62" t="s" s="251">
+      <c r="C62" t="s" s="279">
         <v>56</v>
       </c>
-      <c r="D62" t="n" s="253">
-        <v>1.0</v>
-      </c>
-      <c r="E62" t="n" s="254">
-        <v>0.0</v>
-      </c>
-      <c r="F62" t="n" s="252">
-        <v>1.0</v>
-      </c>
-      <c r="J62" t="s" s="250">
+      <c r="D62" t="n" s="281">
+        <v>1.0</v>
+      </c>
+      <c r="E62" t="n" s="282">
+        <v>0.0</v>
+      </c>
+      <c r="F62" t="n" s="280">
+        <v>1.0</v>
+      </c>
+      <c r="J62" t="s" s="278">
         <v>14</v>
       </c>
     </row>
@@ -6343,7 +7013,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:K88"/>
+  <dimension ref="A3:K87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6355,1226 +7025,1401 @@
   </cols>
   <sheetData>
     <row r="3">
-      <c r="A3" t="s" s="257">
+      <c r="A3" t="s" s="285">
         <v>59</v>
       </c>
-      <c r="B3" s="258">
+      <c r="B3" s="286">
         <f>TODAY()</f>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="259">
+      <c r="A4" t="s" s="287">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="C5" t="s" s="260">
+      <c r="C5" t="s" s="288">
         <v>2</v>
       </c>
     </row>
     <row r="6">
-      <c r="C6" t="s" s="261">
+      <c r="C6" t="s" s="289">
         <v>3</v>
       </c>
     </row>
     <row r="7">
-      <c r="C7" t="s" s="262">
+      <c r="C7" t="s" s="290">
         <v>4</v>
       </c>
     </row>
     <row r="9">
-      <c r="C9" t="s" s="263">
+      <c r="C9" t="s" s="291">
         <v>5</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="274">
+      <c r="A10" t="s" s="302">
         <v>11</v>
       </c>
-      <c r="B10" t="s" s="269">
+      <c r="B10" t="s" s="297">
         <v>9</v>
       </c>
-      <c r="C10" t="s" s="266">
+      <c r="C10" t="s" s="294">
         <v>7</v>
       </c>
-      <c r="D10" t="n" s="267">
-        <v>1.0</v>
-      </c>
-      <c r="E10" t="n" s="268">
-        <v>0.0</v>
-      </c>
-      <c r="F10" t="n" s="265">
+      <c r="D10" t="n" s="295">
+        <v>1.0</v>
+      </c>
+      <c r="E10" t="n" s="296">
+        <v>0.0</v>
+      </c>
+      <c r="F10" t="n" s="293">
         <v>30.0</v>
       </c>
-      <c r="J10" t="s" s="264">
+      <c r="J10" t="s" s="292">
         <v>6</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="273">
+      <c r="B11" t="s" s="301">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="270">
+      <c r="C11" t="s" s="298">
         <v>7</v>
       </c>
-      <c r="D11" t="n" s="271">
-        <v>1.0</v>
-      </c>
-      <c r="E11" t="n" s="272">
+      <c r="D11" t="n" s="299">
+        <v>1.0</v>
+      </c>
+      <c r="E11" t="n" s="300">
         <v>0.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="316">
+      <c r="A12" t="s" s="348">
         <v>65</v>
       </c>
-      <c r="B12" t="s" s="287">
+      <c r="B12" t="s" s="317">
         <v>61</v>
       </c>
-      <c r="C12" t="s" s="277">
+      <c r="C12" t="s" s="305">
         <v>60</v>
       </c>
-      <c r="D12" t="n" s="278">
-        <v>1.0</v>
-      </c>
-      <c r="E12" t="n" s="279">
-        <v>0.0</v>
-      </c>
-      <c r="F12" t="n" s="276">
+      <c r="D12" t="n" s="306">
+        <v>1.0</v>
+      </c>
+      <c r="E12" t="n" s="307">
+        <v>0.0</v>
+      </c>
+      <c r="F12" t="n" s="304">
         <v>18.0</v>
       </c>
-      <c r="J12" t="s" s="275">
+      <c r="J12" t="s" s="303">
         <v>12</v>
       </c>
     </row>
     <row r="13">
-      <c r="C13" t="s" s="282">
+      <c r="C13" t="s" s="310">
         <v>60</v>
       </c>
-      <c r="D13" t="n" s="283">
-        <v>1.0</v>
-      </c>
-      <c r="E13" t="n" s="284">
-        <v>0.0</v>
-      </c>
-      <c r="F13" t="n" s="281">
+      <c r="D13" t="n" s="311">
+        <v>1.0</v>
+      </c>
+      <c r="E13" t="n" s="312">
+        <v>0.0</v>
+      </c>
+      <c r="F13" t="n" s="309">
         <v>8.0</v>
       </c>
-      <c r="J13" t="s" s="280">
+      <c r="J13" t="s" s="308">
         <v>6</v>
       </c>
     </row>
     <row r="14">
-      <c r="J14" t="s" s="285">
+      <c r="C14" t="s" s="316">
+        <v>60</v>
+      </c>
+      <c r="G14" t="n" s="314">
+        <v>2.0</v>
+      </c>
+      <c r="H14" t="n" s="315">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="s" s="313">
         <v>8</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="315">
+      <c r="B15" t="s" s="347">
         <v>64</v>
       </c>
-      <c r="C15" t="s" s="290">
+      <c r="C15" t="s" s="320">
         <v>62</v>
       </c>
-      <c r="D15" t="n" s="291">
-        <v>1.0</v>
-      </c>
-      <c r="E15" t="n" s="292">
-        <v>0.0</v>
-      </c>
-      <c r="F15" t="n" s="289">
+      <c r="D15" t="n" s="321">
+        <v>1.0</v>
+      </c>
+      <c r="E15" t="n" s="322">
+        <v>0.0</v>
+      </c>
+      <c r="F15" t="n" s="319">
         <v>2.0</v>
       </c>
-      <c r="J15" t="s" s="288">
+      <c r="J15" t="s" s="318">
         <v>12</v>
       </c>
     </row>
     <row r="16">
-      <c r="C16" t="s" s="294">
+      <c r="C16" t="s" s="324">
         <v>62</v>
       </c>
-      <c r="D16" t="n" s="296">
-        <v>1.0</v>
-      </c>
-      <c r="E16" t="n" s="297">
-        <v>0.0</v>
-      </c>
-      <c r="F16" t="n" s="295">
+      <c r="D16" t="n" s="326">
+        <v>1.0</v>
+      </c>
+      <c r="E16" t="n" s="327">
+        <v>0.0</v>
+      </c>
+      <c r="F16" t="n" s="325">
         <v>4.0</v>
       </c>
-      <c r="J16" t="s" s="293">
+      <c r="J16" t="s" s="323">
         <v>14</v>
       </c>
     </row>
     <row r="17">
-      <c r="C17" t="s" s="300">
+      <c r="C17" t="s" s="330">
         <v>63</v>
       </c>
-      <c r="D17" t="n" s="301">
-        <v>1.0</v>
-      </c>
-      <c r="E17" t="n" s="302">
-        <v>0.0</v>
-      </c>
-      <c r="F17" t="n" s="299">
+      <c r="D17" t="n" s="331">
+        <v>1.0</v>
+      </c>
+      <c r="E17" t="n" s="332">
+        <v>0.0</v>
+      </c>
+      <c r="F17" t="n" s="329">
         <v>18.0</v>
       </c>
-      <c r="J17" t="s" s="298">
+      <c r="J17" t="s" s="328">
         <v>12</v>
       </c>
     </row>
     <row r="18">
-      <c r="C18" t="s" s="305">
+      <c r="C18" t="s" s="335">
         <v>63</v>
       </c>
-      <c r="D18" t="n" s="306">
-        <v>1.0</v>
-      </c>
-      <c r="E18" t="n" s="307">
-        <v>0.0</v>
-      </c>
-      <c r="F18" t="n" s="304">
+      <c r="D18" t="n" s="336">
+        <v>1.0</v>
+      </c>
+      <c r="E18" t="n" s="337">
+        <v>0.0</v>
+      </c>
+      <c r="F18" t="n" s="334">
         <v>10.0</v>
       </c>
-      <c r="J18" t="s" s="303">
+      <c r="J18" t="s" s="333">
         <v>6</v>
       </c>
     </row>
     <row r="19">
-      <c r="C19" t="s" s="309">
+      <c r="C19" t="s" s="339">
         <v>63</v>
       </c>
-      <c r="D19" t="n" s="311">
-        <v>1.0</v>
-      </c>
-      <c r="E19" t="n" s="312">
-        <v>0.0</v>
-      </c>
-      <c r="F19" t="n" s="310">
+      <c r="D19" t="n" s="341">
+        <v>1.0</v>
+      </c>
+      <c r="E19" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F19" t="n" s="340">
         <v>8.0</v>
       </c>
-      <c r="J19" t="s" s="308">
+      <c r="J19" t="s" s="338">
         <v>14</v>
       </c>
     </row>
     <row r="20">
-      <c r="J20" t="s" s="313">
+      <c r="C20" t="s" s="346">
+        <v>62</v>
+      </c>
+      <c r="G20" t="n" s="345">
+        <v>0.0</v>
+      </c>
+      <c r="H20" t="n" s="344">
+        <v>4.0</v>
+      </c>
+      <c r="J20" t="s" s="343">
         <v>15</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="379">
+      <c r="A21" t="s" s="417">
         <v>73</v>
       </c>
-      <c r="B21" t="s" s="334">
+      <c r="B21" t="s" s="368">
         <v>67</v>
       </c>
-      <c r="C21" t="s" s="319">
+      <c r="C21" t="s" s="351">
         <v>66</v>
       </c>
-      <c r="D21" t="n" s="320">
-        <v>1.0</v>
-      </c>
-      <c r="E21" t="n" s="321">
-        <v>0.0</v>
-      </c>
-      <c r="F21" t="n" s="318">
+      <c r="D21" t="n" s="352">
+        <v>1.0</v>
+      </c>
+      <c r="E21" t="n" s="353">
+        <v>0.0</v>
+      </c>
+      <c r="F21" t="n" s="350">
         <v>8.0</v>
       </c>
-      <c r="J21" t="s" s="317">
+      <c r="J21" t="s" s="349">
         <v>12</v>
       </c>
     </row>
     <row r="22">
-      <c r="C22" t="s" s="324">
+      <c r="C22" t="s" s="356">
         <v>66</v>
       </c>
-      <c r="D22" t="n" s="325">
-        <v>1.0</v>
-      </c>
-      <c r="E22" t="n" s="326">
-        <v>0.0</v>
-      </c>
-      <c r="F22" t="n" s="323">
+      <c r="D22" t="n" s="357">
+        <v>1.0</v>
+      </c>
+      <c r="E22" t="n" s="358">
+        <v>0.0</v>
+      </c>
+      <c r="F22" t="n" s="355">
         <v>8.0</v>
       </c>
-      <c r="J22" t="s" s="322">
+      <c r="J22" t="s" s="354">
         <v>6</v>
       </c>
     </row>
     <row r="23">
-      <c r="C23" t="s" s="329">
+      <c r="C23" t="s" s="361">
         <v>18</v>
       </c>
-      <c r="D23" t="n" s="330">
-        <v>1.0</v>
-      </c>
-      <c r="E23" t="n" s="331">
-        <v>0.0</v>
-      </c>
-      <c r="F23" t="n" s="328">
+      <c r="D23" t="n" s="362">
+        <v>1.0</v>
+      </c>
+      <c r="E23" t="n" s="363">
+        <v>0.0</v>
+      </c>
+      <c r="F23" t="n" s="360">
         <v>8.0</v>
       </c>
-      <c r="J23" t="s" s="327">
+      <c r="J23" t="s" s="359">
         <v>6</v>
       </c>
     </row>
     <row r="24">
-      <c r="J24" t="s" s="332">
+      <c r="C24" t="s" s="367">
+        <v>66</v>
+      </c>
+      <c r="G24" t="n" s="366">
+        <v>0.0</v>
+      </c>
+      <c r="H24" t="n" s="365">
+        <v>2.0</v>
+      </c>
+      <c r="J24" t="s" s="364">
         <v>22</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="340">
+      <c r="B25" t="s" s="374">
         <v>68</v>
       </c>
-      <c r="C25" t="s" s="336">
+      <c r="C25" t="s" s="370">
         <v>18</v>
       </c>
-      <c r="D25" t="n" s="339">
-        <v>0.0</v>
-      </c>
-      <c r="E25" t="n" s="338">
-        <v>1.0</v>
-      </c>
-      <c r="F25" t="n" s="337">
+      <c r="D25" t="n" s="373">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="372">
+        <v>1.0</v>
+      </c>
+      <c r="F25" t="n" s="371">
         <v>8.0</v>
       </c>
-      <c r="J25" t="s" s="335">
+      <c r="J25" t="s" s="369">
         <v>6</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="358">
+      <c r="B26" t="s" s="394">
         <v>69</v>
       </c>
-      <c r="C26" t="s" s="343">
+      <c r="C26" t="s" s="377">
         <v>66</v>
       </c>
-      <c r="D26" t="n" s="344">
-        <v>1.0</v>
-      </c>
-      <c r="E26" t="n" s="345">
-        <v>0.0</v>
-      </c>
-      <c r="F26" t="n" s="342">
+      <c r="D26" t="n" s="378">
+        <v>1.0</v>
+      </c>
+      <c r="E26" t="n" s="379">
+        <v>0.0</v>
+      </c>
+      <c r="F26" t="n" s="376">
         <v>8.0</v>
       </c>
-      <c r="J26" t="s" s="341">
+      <c r="J26" t="s" s="375">
         <v>12</v>
       </c>
     </row>
     <row r="27">
-      <c r="C27" t="s" s="347">
+      <c r="C27" t="s" s="381">
         <v>66</v>
       </c>
-      <c r="D27" t="n" s="349">
-        <v>1.0</v>
-      </c>
-      <c r="E27" t="n" s="350">
-        <v>0.0</v>
-      </c>
-      <c r="F27" t="n" s="348">
+      <c r="D27" t="n" s="383">
+        <v>1.0</v>
+      </c>
+      <c r="E27" t="n" s="384">
+        <v>0.0</v>
+      </c>
+      <c r="F27" t="n" s="382">
         <v>8.0</v>
       </c>
-      <c r="J27" t="s" s="346">
+      <c r="J27" t="s" s="380">
         <v>14</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s" s="352">
+      <c r="C28" t="s" s="386">
         <v>18</v>
       </c>
-      <c r="D28" t="n" s="354">
-        <v>1.0</v>
-      </c>
-      <c r="E28" t="n" s="355">
-        <v>0.0</v>
-      </c>
-      <c r="F28" t="n" s="353">
+      <c r="D28" t="n" s="388">
+        <v>1.0</v>
+      </c>
+      <c r="E28" t="n" s="389">
+        <v>0.0</v>
+      </c>
+      <c r="F28" t="n" s="387">
         <v>8.0</v>
       </c>
-      <c r="J28" t="s" s="351">
+      <c r="J28" t="s" s="385">
         <v>14</v>
       </c>
     </row>
     <row r="29">
-      <c r="J29" t="s" s="356">
+      <c r="C29" t="s" s="393">
+        <v>66</v>
+      </c>
+      <c r="G29" t="n" s="392">
+        <v>0.0</v>
+      </c>
+      <c r="H29" t="n" s="391">
+        <v>2.0</v>
+      </c>
+      <c r="J29" t="s" s="390">
         <v>22</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="364">
+      <c r="B30" t="s" s="400">
         <v>70</v>
       </c>
-      <c r="C30" t="s" s="360">
+      <c r="C30" t="s" s="396">
         <v>18</v>
       </c>
-      <c r="D30" t="n" s="363">
-        <v>0.0</v>
-      </c>
-      <c r="E30" t="n" s="362">
-        <v>1.0</v>
-      </c>
-      <c r="F30" t="n" s="361">
+      <c r="D30" t="n" s="399">
+        <v>0.0</v>
+      </c>
+      <c r="E30" t="n" s="398">
+        <v>1.0</v>
+      </c>
+      <c r="F30" t="n" s="397">
         <v>8.0</v>
       </c>
-      <c r="J30" t="s" s="359">
+      <c r="J30" t="s" s="395">
         <v>14</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="372">
+      <c r="B31" t="s" s="410">
         <v>71</v>
       </c>
-      <c r="C31" t="s" s="366">
+      <c r="C31" t="s" s="402">
         <v>18</v>
       </c>
-      <c r="D31" t="n" s="368">
-        <v>1.0</v>
-      </c>
-      <c r="E31" t="n" s="369">
-        <v>0.0</v>
-      </c>
-      <c r="F31" t="n" s="367">
+      <c r="D31" t="n" s="404">
+        <v>1.0</v>
+      </c>
+      <c r="E31" t="n" s="405">
+        <v>0.0</v>
+      </c>
+      <c r="F31" t="n" s="403">
         <v>25.0</v>
       </c>
-      <c r="J31" t="s" s="365">
+      <c r="J31" t="s" s="401">
         <v>14</v>
       </c>
     </row>
     <row r="32">
-      <c r="J32" t="s" s="370">
+      <c r="C32" t="s" s="409">
+        <v>18</v>
+      </c>
+      <c r="G32" t="n" s="407">
+        <v>2.0</v>
+      </c>
+      <c r="H32" t="n" s="408">
+        <v>0.0</v>
+      </c>
+      <c r="J32" t="s" s="406">
         <v>8</v>
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="378">
+      <c r="B33" t="s" s="416">
         <v>72</v>
       </c>
-      <c r="C33" t="s" s="374">
+      <c r="C33" t="s" s="412">
         <v>18</v>
       </c>
-      <c r="D33" t="n" s="377">
-        <v>0.0</v>
-      </c>
-      <c r="E33" t="n" s="376">
-        <v>1.0</v>
-      </c>
-      <c r="F33" t="n" s="375">
+      <c r="D33" t="n" s="415">
+        <v>0.0</v>
+      </c>
+      <c r="E33" t="n" s="414">
+        <v>1.0</v>
+      </c>
+      <c r="F33" t="n" s="413">
         <v>25.0</v>
       </c>
-      <c r="J33" t="s" s="373">
+      <c r="J33" t="s" s="411">
         <v>14</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="442">
+      <c r="A34" t="s" s="484">
         <v>80</v>
       </c>
-      <c r="B34" t="s" s="392">
+      <c r="B34" t="s" s="432">
         <v>75</v>
       </c>
-      <c r="C34" t="s" s="382">
+      <c r="C34" t="s" s="420">
         <v>74</v>
       </c>
-      <c r="D34" t="n" s="383">
-        <v>1.0</v>
-      </c>
-      <c r="E34" t="n" s="384">
-        <v>0.0</v>
-      </c>
-      <c r="F34" t="n" s="381">
+      <c r="D34" t="n" s="421">
+        <v>1.0</v>
+      </c>
+      <c r="E34" t="n" s="422">
+        <v>0.0</v>
+      </c>
+      <c r="F34" t="n" s="419">
         <v>14.0</v>
       </c>
-      <c r="J34" t="s" s="380">
+      <c r="J34" t="s" s="418">
         <v>12</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s" s="386">
+      <c r="C35" t="s" s="424">
         <v>74</v>
       </c>
-      <c r="D35" t="n" s="388">
-        <v>1.0</v>
-      </c>
-      <c r="E35" t="n" s="389">
-        <v>0.0</v>
-      </c>
-      <c r="F35" t="n" s="387">
+      <c r="D35" t="n" s="426">
+        <v>1.0</v>
+      </c>
+      <c r="E35" t="n" s="427">
+        <v>0.0</v>
+      </c>
+      <c r="F35" t="n" s="425">
         <v>4.0</v>
       </c>
-      <c r="J35" t="s" s="385">
+      <c r="J35" t="s" s="423">
         <v>14</v>
       </c>
     </row>
     <row r="36">
-      <c r="J36" t="s" s="390">
+      <c r="C36" t="s" s="431">
+        <v>74</v>
+      </c>
+      <c r="G36" t="n" s="430">
+        <v>0.0</v>
+      </c>
+      <c r="H36" t="n" s="429">
+        <v>2.0</v>
+      </c>
+      <c r="J36" t="s" s="428">
         <v>22</v>
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="425">
+      <c r="B37" t="s" s="467">
         <v>78</v>
       </c>
-      <c r="C37" t="s" s="395">
+      <c r="C37" t="s" s="435">
         <v>74</v>
       </c>
-      <c r="D37" t="n" s="396">
-        <v>1.0</v>
-      </c>
-      <c r="E37" t="n" s="397">
-        <v>0.0</v>
-      </c>
-      <c r="F37" t="n" s="394">
+      <c r="D37" t="n" s="436">
+        <v>1.0</v>
+      </c>
+      <c r="E37" t="n" s="437">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n" s="434">
         <v>8.0</v>
       </c>
-      <c r="J37" t="s" s="393">
+      <c r="J37" t="s" s="433">
         <v>12</v>
       </c>
     </row>
     <row r="38">
-      <c r="C38" t="s" s="400">
+      <c r="C38" t="s" s="440">
         <v>74</v>
       </c>
-      <c r="D38" t="n" s="401">
-        <v>1.0</v>
-      </c>
-      <c r="E38" t="n" s="402">
-        <v>0.0</v>
-      </c>
-      <c r="F38" t="n" s="399">
+      <c r="D38" t="n" s="441">
+        <v>1.0</v>
+      </c>
+      <c r="E38" t="n" s="442">
+        <v>0.0</v>
+      </c>
+      <c r="F38" t="n" s="439">
         <v>2.0</v>
       </c>
-      <c r="J38" t="s" s="398">
+      <c r="J38" t="s" s="438">
         <v>6</v>
       </c>
     </row>
     <row r="39">
-      <c r="C39" t="s" s="405">
+      <c r="C39" t="s" s="445">
         <v>76</v>
       </c>
-      <c r="D39" t="n" s="406">
-        <v>1.0</v>
-      </c>
-      <c r="E39" t="n" s="407">
-        <v>0.0</v>
-      </c>
-      <c r="F39" t="n" s="404">
+      <c r="D39" t="n" s="446">
+        <v>1.0</v>
+      </c>
+      <c r="E39" t="n" s="447">
+        <v>0.0</v>
+      </c>
+      <c r="F39" t="n" s="444">
         <v>12.0</v>
       </c>
-      <c r="J39" t="s" s="403">
+      <c r="J39" t="s" s="443">
         <v>12</v>
       </c>
     </row>
     <row r="40">
-      <c r="C40" t="s" s="409">
+      <c r="C40" t="s" s="449">
         <v>76</v>
       </c>
-      <c r="D40" t="n" s="411">
-        <v>1.0</v>
-      </c>
-      <c r="E40" t="n" s="412">
-        <v>0.0</v>
-      </c>
-      <c r="F40" t="n" s="410">
+      <c r="D40" t="n" s="451">
+        <v>1.0</v>
+      </c>
+      <c r="E40" t="n" s="452">
+        <v>0.0</v>
+      </c>
+      <c r="F40" t="n" s="450">
         <v>14.0</v>
       </c>
-      <c r="J40" t="s" s="408">
+      <c r="J40" t="s" s="448">
         <v>14</v>
       </c>
     </row>
     <row r="41">
-      <c r="C41" t="s" s="415">
+      <c r="C41" t="s" s="455">
         <v>77</v>
       </c>
-      <c r="D41" t="n" s="416">
-        <v>1.0</v>
-      </c>
-      <c r="E41" t="n" s="417">
-        <v>0.0</v>
-      </c>
-      <c r="F41" t="n" s="414">
+      <c r="D41" t="n" s="456">
+        <v>1.0</v>
+      </c>
+      <c r="E41" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F41" t="n" s="454">
         <v>4.0</v>
       </c>
-      <c r="J41" t="s" s="413">
+      <c r="J41" t="s" s="453">
         <v>6</v>
       </c>
     </row>
     <row r="42">
-      <c r="C42" t="s" s="419">
+      <c r="C42" t="s" s="459">
         <v>77</v>
       </c>
-      <c r="D42" t="n" s="421">
-        <v>1.0</v>
-      </c>
-      <c r="E42" t="n" s="422">
-        <v>0.0</v>
-      </c>
-      <c r="F42" t="n" s="420">
+      <c r="D42" t="n" s="461">
+        <v>1.0</v>
+      </c>
+      <c r="E42" t="n" s="462">
+        <v>0.0</v>
+      </c>
+      <c r="F42" t="n" s="460">
         <v>6.0</v>
       </c>
-      <c r="J42" t="s" s="418">
+      <c r="J42" t="s" s="458">
         <v>14</v>
       </c>
     </row>
     <row r="43">
-      <c r="J43" t="s" s="423">
+      <c r="C43" t="s" s="466">
+        <v>74</v>
+      </c>
+      <c r="G43" t="n" s="465">
+        <v>0.0</v>
+      </c>
+      <c r="H43" t="n" s="464">
+        <v>4.0</v>
+      </c>
+      <c r="J43" t="s" s="463">
         <v>15</v>
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="441">
+      <c r="B44" t="s" s="483">
         <v>79</v>
       </c>
-      <c r="C44" t="s" s="427">
+      <c r="C44" t="s" s="469">
         <v>74</v>
       </c>
-      <c r="D44" t="n" s="430">
-        <v>0.0</v>
-      </c>
-      <c r="E44" t="n" s="429">
-        <v>1.0</v>
-      </c>
-      <c r="F44" t="n" s="428">
+      <c r="D44" t="n" s="472">
+        <v>0.0</v>
+      </c>
+      <c r="E44" t="n" s="471">
+        <v>1.0</v>
+      </c>
+      <c r="F44" t="n" s="470">
         <v>2.0</v>
       </c>
-      <c r="J44" t="s" s="426">
+      <c r="J44" t="s" s="468">
         <v>6</v>
       </c>
     </row>
     <row r="45">
-      <c r="C45" t="s" s="432">
+      <c r="C45" t="s" s="474">
         <v>76</v>
       </c>
-      <c r="D45" t="n" s="435">
-        <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="434">
-        <v>1.0</v>
-      </c>
-      <c r="F45" t="n" s="433">
+      <c r="D45" t="n" s="477">
+        <v>0.0</v>
+      </c>
+      <c r="E45" t="n" s="476">
+        <v>1.0</v>
+      </c>
+      <c r="F45" t="n" s="475">
         <v>4.0</v>
       </c>
-      <c r="J45" t="s" s="431">
+      <c r="J45" t="s" s="473">
         <v>6</v>
       </c>
     </row>
     <row r="46">
-      <c r="C46" t="s" s="437">
+      <c r="C46" t="s" s="479">
         <v>76</v>
       </c>
-      <c r="D46" t="n" s="440">
-        <v>0.0</v>
-      </c>
-      <c r="E46" t="n" s="439">
-        <v>1.0</v>
-      </c>
-      <c r="F46" t="n" s="438">
+      <c r="D46" t="n" s="482">
+        <v>0.0</v>
+      </c>
+      <c r="E46" t="n" s="481">
+        <v>1.0</v>
+      </c>
+      <c r="F46" t="n" s="480">
         <v>20.0</v>
       </c>
-      <c r="J46" t="s" s="436">
+      <c r="J46" t="s" s="478">
         <v>14</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="519">
+      <c r="A47" t="s" s="567">
         <v>89</v>
       </c>
-      <c r="B47" t="s" s="460">
+      <c r="B47" t="s" s="504">
         <v>82</v>
       </c>
-      <c r="C47" t="s" s="445">
+      <c r="C47" t="s" s="487">
         <v>81</v>
       </c>
-      <c r="D47" t="n" s="446">
-        <v>1.0</v>
-      </c>
-      <c r="E47" t="n" s="447">
-        <v>0.0</v>
-      </c>
-      <c r="F47" t="n" s="444">
+      <c r="D47" t="n" s="488">
+        <v>1.0</v>
+      </c>
+      <c r="E47" t="n" s="489">
+        <v>0.0</v>
+      </c>
+      <c r="F47" t="n" s="486">
         <v>10.0</v>
       </c>
-      <c r="J47" t="s" s="443">
+      <c r="J47" t="s" s="485">
         <v>12</v>
       </c>
     </row>
     <row r="48">
-      <c r="C48" t="s" s="450">
+      <c r="C48" t="s" s="492">
         <v>81</v>
       </c>
-      <c r="D48" t="n" s="451">
-        <v>1.0</v>
-      </c>
-      <c r="E48" t="n" s="452">
-        <v>0.0</v>
-      </c>
-      <c r="F48" t="n" s="449">
+      <c r="D48" t="n" s="493">
+        <v>1.0</v>
+      </c>
+      <c r="E48" t="n" s="494">
+        <v>0.0</v>
+      </c>
+      <c r="F48" t="n" s="491">
         <v>4.0</v>
       </c>
-      <c r="J48" t="s" s="448">
+      <c r="J48" t="s" s="490">
         <v>6</v>
       </c>
     </row>
     <row r="49">
-      <c r="C49" t="s" s="454">
+      <c r="C49" t="s" s="496">
         <v>81</v>
       </c>
-      <c r="D49" t="n" s="456">
-        <v>1.0</v>
-      </c>
-      <c r="E49" t="n" s="457">
-        <v>0.0</v>
-      </c>
-      <c r="F49" t="n" s="455">
+      <c r="D49" t="n" s="498">
+        <v>1.0</v>
+      </c>
+      <c r="E49" t="n" s="499">
+        <v>0.0</v>
+      </c>
+      <c r="F49" t="n" s="497">
         <v>10.0</v>
       </c>
-      <c r="J49" t="s" s="453">
+      <c r="J49" t="s" s="495">
         <v>14</v>
       </c>
     </row>
     <row r="50">
-      <c r="J50" t="s" s="458">
+      <c r="C50" t="s" s="503">
+        <v>81</v>
+      </c>
+      <c r="G50" t="n" s="501">
+        <v>2.0</v>
+      </c>
+      <c r="H50" t="n" s="502">
+        <v>0.0</v>
+      </c>
+      <c r="J50" t="s" s="500">
         <v>8</v>
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="471">
+      <c r="B51" t="s" s="515">
         <v>83</v>
       </c>
-      <c r="C51" t="s" s="462">
+      <c r="C51" t="s" s="506">
         <v>81</v>
       </c>
-      <c r="D51" t="n" s="465">
-        <v>0.0</v>
-      </c>
-      <c r="E51" t="n" s="464">
-        <v>1.0</v>
-      </c>
-      <c r="F51" t="n" s="463">
+      <c r="D51" t="n" s="509">
+        <v>0.0</v>
+      </c>
+      <c r="E51" t="n" s="508">
+        <v>1.0</v>
+      </c>
+      <c r="F51" t="n" s="507">
         <v>4.0</v>
       </c>
-      <c r="J51" t="s" s="461">
+      <c r="J51" t="s" s="505">
         <v>6</v>
       </c>
     </row>
     <row r="52">
-      <c r="C52" t="s" s="467">
+      <c r="C52" t="s" s="511">
         <v>81</v>
       </c>
-      <c r="D52" t="n" s="470">
-        <v>0.0</v>
-      </c>
-      <c r="E52" t="n" s="469">
-        <v>1.0</v>
-      </c>
-      <c r="F52" t="n" s="468">
+      <c r="D52" t="n" s="514">
+        <v>0.0</v>
+      </c>
+      <c r="E52" t="n" s="513">
+        <v>1.0</v>
+      </c>
+      <c r="F52" t="n" s="512">
         <v>10.0</v>
       </c>
-      <c r="J52" t="s" s="466">
+      <c r="J52" t="s" s="510">
         <v>14</v>
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="484">
+      <c r="B53" t="s" s="530">
         <v>85</v>
       </c>
-      <c r="C53" t="s" s="474">
+      <c r="C53" t="s" s="518">
         <v>84</v>
       </c>
-      <c r="D53" t="n" s="475">
-        <v>1.0</v>
-      </c>
-      <c r="E53" t="n" s="476">
-        <v>0.0</v>
-      </c>
-      <c r="F53" t="n" s="473">
+      <c r="D53" t="n" s="519">
+        <v>1.0</v>
+      </c>
+      <c r="E53" t="n" s="520">
+        <v>0.0</v>
+      </c>
+      <c r="F53" t="n" s="517">
         <v>8.0</v>
       </c>
-      <c r="J53" t="s" s="472">
+      <c r="J53" t="s" s="516">
         <v>12</v>
       </c>
     </row>
     <row r="54">
-      <c r="C54" t="s" s="478">
+      <c r="C54" t="s" s="522">
         <v>84</v>
       </c>
-      <c r="D54" t="n" s="480">
-        <v>1.0</v>
-      </c>
-      <c r="E54" t="n" s="481">
-        <v>0.0</v>
-      </c>
-      <c r="F54" t="n" s="479">
+      <c r="D54" t="n" s="524">
+        <v>1.0</v>
+      </c>
+      <c r="E54" t="n" s="525">
+        <v>0.0</v>
+      </c>
+      <c r="F54" t="n" s="523">
         <v>10.0</v>
       </c>
-      <c r="J54" t="s" s="477">
+      <c r="J54" t="s" s="521">
         <v>14</v>
       </c>
     </row>
     <row r="55">
-      <c r="J55" t="s" s="482">
+      <c r="C55" t="s" s="529">
+        <v>84</v>
+      </c>
+      <c r="G55" t="n" s="527">
+        <v>2.0</v>
+      </c>
+      <c r="H55" t="n" s="528">
+        <v>0.0</v>
+      </c>
+      <c r="J55" t="s" s="526">
         <v>8</v>
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="507">
+      <c r="B56" t="s" s="555">
         <v>87</v>
       </c>
-      <c r="C56" t="s" s="487">
+      <c r="C56" t="s" s="533">
         <v>34</v>
       </c>
-      <c r="D56" t="n" s="488">
-        <v>1.0</v>
-      </c>
-      <c r="E56" t="n" s="489">
-        <v>0.0</v>
-      </c>
-      <c r="F56" t="n" s="486">
+      <c r="D56" t="n" s="534">
+        <v>1.0</v>
+      </c>
+      <c r="E56" t="n" s="535">
+        <v>0.0</v>
+      </c>
+      <c r="F56" t="n" s="532">
         <v>4.0</v>
       </c>
-      <c r="J56" t="s" s="485">
+      <c r="J56" t="s" s="531">
         <v>12</v>
       </c>
     </row>
     <row r="57">
-      <c r="C57" t="s" s="491">
+      <c r="C57" t="s" s="537">
         <v>34</v>
       </c>
-      <c r="D57" t="n" s="493">
-        <v>1.0</v>
-      </c>
-      <c r="E57" t="n" s="494">
-        <v>0.0</v>
-      </c>
-      <c r="F57" t="n" s="492">
+      <c r="D57" t="n" s="539">
+        <v>1.0</v>
+      </c>
+      <c r="E57" t="n" s="540">
+        <v>0.0</v>
+      </c>
+      <c r="F57" t="n" s="538">
         <v>10.0</v>
       </c>
-      <c r="J57" t="s" s="490">
+      <c r="J57" t="s" s="536">
         <v>14</v>
       </c>
     </row>
     <row r="58">
-      <c r="C58" t="s" s="497">
+      <c r="C58" t="s" s="543">
         <v>86</v>
       </c>
-      <c r="D58" t="n" s="498">
-        <v>1.0</v>
-      </c>
-      <c r="E58" t="n" s="499">
-        <v>0.0</v>
-      </c>
-      <c r="F58" t="n" s="496">
+      <c r="D58" t="n" s="544">
+        <v>1.0</v>
+      </c>
+      <c r="E58" t="n" s="545">
+        <v>0.0</v>
+      </c>
+      <c r="F58" t="n" s="542">
         <v>4.0</v>
       </c>
-      <c r="J58" t="s" s="495">
+      <c r="J58" t="s" s="541">
         <v>12</v>
       </c>
     </row>
     <row r="59">
-      <c r="C59" t="s" s="502">
+      <c r="C59" t="s" s="548">
         <v>86</v>
       </c>
-      <c r="D59" t="n" s="503">
-        <v>1.0</v>
-      </c>
-      <c r="E59" t="n" s="504">
-        <v>0.0</v>
-      </c>
-      <c r="F59" t="n" s="501">
+      <c r="D59" t="n" s="549">
+        <v>1.0</v>
+      </c>
+      <c r="E59" t="n" s="550">
+        <v>0.0</v>
+      </c>
+      <c r="F59" t="n" s="547">
         <v>4.0</v>
       </c>
-      <c r="J59" t="s" s="500">
+      <c r="J59" t="s" s="546">
         <v>6</v>
       </c>
     </row>
     <row r="60">
-      <c r="J60" t="s" s="505">
+      <c r="C60" t="s" s="554">
+        <v>34</v>
+      </c>
+      <c r="G60" t="n" s="552">
+        <v>2.0</v>
+      </c>
+      <c r="H60" t="n" s="553">
+        <v>0.0</v>
+      </c>
+      <c r="J60" t="s" s="551">
         <v>8</v>
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="518">
+      <c r="B61" t="s" s="566">
         <v>88</v>
       </c>
-      <c r="C61" t="s" s="509">
+      <c r="C61" t="s" s="557">
         <v>34</v>
       </c>
-      <c r="D61" t="n" s="512">
-        <v>0.0</v>
-      </c>
-      <c r="E61" t="n" s="511">
-        <v>1.0</v>
-      </c>
-      <c r="F61" t="n" s="510">
+      <c r="D61" t="n" s="560">
+        <v>0.0</v>
+      </c>
+      <c r="E61" t="n" s="559">
+        <v>1.0</v>
+      </c>
+      <c r="F61" t="n" s="558">
         <v>10.0</v>
       </c>
-      <c r="J61" t="s" s="508">
+      <c r="J61" t="s" s="556">
         <v>14</v>
       </c>
     </row>
     <row r="62">
-      <c r="C62" t="s" s="514">
+      <c r="C62" t="s" s="562">
         <v>86</v>
       </c>
-      <c r="D62" t="n" s="517">
-        <v>0.0</v>
-      </c>
-      <c r="E62" t="n" s="516">
-        <v>1.0</v>
-      </c>
-      <c r="F62" t="n" s="515">
+      <c r="D62" t="n" s="565">
+        <v>0.0</v>
+      </c>
+      <c r="E62" t="n" s="564">
+        <v>1.0</v>
+      </c>
+      <c r="F62" t="n" s="563">
         <v>4.0</v>
       </c>
-      <c r="J62" t="s" s="513">
+      <c r="J62" t="s" s="561">
         <v>6</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="565">
+      <c r="A63" t="s" s="619">
         <v>96</v>
       </c>
-      <c r="B63" t="s" s="532">
+      <c r="B63" t="s" s="582">
         <v>90</v>
       </c>
-      <c r="C63" t="s" s="522">
+      <c r="C63" t="s" s="570">
         <v>66</v>
       </c>
-      <c r="D63" t="n" s="523">
-        <v>1.0</v>
-      </c>
-      <c r="E63" t="n" s="524">
-        <v>0.0</v>
-      </c>
-      <c r="F63" t="n" s="521">
+      <c r="D63" t="n" s="571">
+        <v>1.0</v>
+      </c>
+      <c r="E63" t="n" s="572">
+        <v>0.0</v>
+      </c>
+      <c r="F63" t="n" s="569">
         <v>8.0</v>
       </c>
-      <c r="J63" t="s" s="520">
+      <c r="J63" t="s" s="568">
         <v>12</v>
       </c>
     </row>
     <row r="64">
-      <c r="C64" t="s" s="527">
+      <c r="C64" t="s" s="575">
         <v>66</v>
       </c>
-      <c r="D64" t="n" s="528">
-        <v>1.0</v>
-      </c>
-      <c r="E64" t="n" s="529">
-        <v>0.0</v>
-      </c>
-      <c r="F64" t="n" s="526">
+      <c r="D64" t="n" s="576">
+        <v>1.0</v>
+      </c>
+      <c r="E64" t="n" s="577">
+        <v>0.0</v>
+      </c>
+      <c r="F64" t="n" s="574">
         <v>8.0</v>
       </c>
-      <c r="J64" t="s" s="525">
+      <c r="J64" t="s" s="573">
         <v>6</v>
       </c>
     </row>
     <row r="65">
-      <c r="J65" t="s" s="530">
+      <c r="C65" t="s" s="581">
+        <v>66</v>
+      </c>
+      <c r="G65" t="n" s="580">
+        <v>0.0</v>
+      </c>
+      <c r="H65" t="n" s="579">
+        <v>2.0</v>
+      </c>
+      <c r="J65" t="s" s="578">
         <v>22</v>
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="538">
+      <c r="B66" t="s" s="588">
         <v>91</v>
       </c>
-      <c r="C66" t="s" s="534">
+      <c r="C66" t="s" s="584">
         <v>18</v>
       </c>
-      <c r="D66" t="n" s="537">
-        <v>0.0</v>
-      </c>
-      <c r="E66" t="n" s="536">
-        <v>1.0</v>
-      </c>
-      <c r="F66" t="n" s="535">
+      <c r="D66" t="n" s="587">
+        <v>0.0</v>
+      </c>
+      <c r="E66" t="n" s="586">
+        <v>1.0</v>
+      </c>
+      <c r="F66" t="n" s="585">
         <v>8.0</v>
       </c>
-      <c r="J66" t="s" s="533">
+      <c r="J66" t="s" s="583">
         <v>6</v>
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="556">
+      <c r="B67" t="s" s="608">
         <v>94</v>
       </c>
-      <c r="C67" t="s" s="541">
+      <c r="C67" t="s" s="591">
         <v>92</v>
       </c>
-      <c r="D67" t="n" s="542">
-        <v>1.0</v>
-      </c>
-      <c r="E67" t="n" s="543">
-        <v>0.0</v>
-      </c>
-      <c r="F67" t="n" s="540">
+      <c r="D67" t="n" s="592">
+        <v>1.0</v>
+      </c>
+      <c r="E67" t="n" s="593">
+        <v>0.0</v>
+      </c>
+      <c r="F67" t="n" s="590">
         <v>6.0</v>
       </c>
-      <c r="J67" t="s" s="539">
+      <c r="J67" t="s" s="589">
         <v>12</v>
       </c>
     </row>
     <row r="68">
-      <c r="C68" t="s" s="546">
+      <c r="C68" t="s" s="596">
         <v>92</v>
       </c>
-      <c r="D68" t="n" s="547">
-        <v>1.0</v>
-      </c>
-      <c r="E68" t="n" s="548">
-        <v>0.0</v>
-      </c>
-      <c r="F68" t="n" s="545">
+      <c r="D68" t="n" s="597">
+        <v>1.0</v>
+      </c>
+      <c r="E68" t="n" s="598">
+        <v>0.0</v>
+      </c>
+      <c r="F68" t="n" s="595">
         <v>6.0</v>
       </c>
-      <c r="J68" t="s" s="544">
+      <c r="J68" t="s" s="594">
         <v>6</v>
       </c>
     </row>
     <row r="69">
-      <c r="C69" t="s" s="551">
+      <c r="C69" t="s" s="601">
         <v>93</v>
       </c>
-      <c r="D69" t="n" s="552">
-        <v>1.0</v>
-      </c>
-      <c r="E69" t="n" s="553">
-        <v>0.0</v>
-      </c>
-      <c r="F69" t="n" s="550">
+      <c r="D69" t="n" s="602">
+        <v>1.0</v>
+      </c>
+      <c r="E69" t="n" s="603">
+        <v>0.0</v>
+      </c>
+      <c r="F69" t="n" s="600">
         <v>4.0</v>
       </c>
-      <c r="J69" t="s" s="549">
+      <c r="J69" t="s" s="599">
         <v>6</v>
       </c>
     </row>
     <row r="70">
-      <c r="J70" t="s" s="554">
+      <c r="C70" t="s" s="607">
+        <v>92</v>
+      </c>
+      <c r="G70" t="n" s="605">
+        <v>2.0</v>
+      </c>
+      <c r="H70" t="n" s="606">
+        <v>0.0</v>
+      </c>
+      <c r="J70" t="s" s="604">
         <v>8</v>
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="564">
+      <c r="B71" t="s" s="618">
         <v>95</v>
       </c>
-      <c r="C71" t="s" s="558">
+      <c r="C71" t="s" s="610">
         <v>92</v>
       </c>
-      <c r="D71" t="n" s="560">
-        <v>1.0</v>
-      </c>
-      <c r="E71" t="n" s="561">
-        <v>0.0</v>
-      </c>
-      <c r="F71" t="n" s="559">
+      <c r="D71" t="n" s="612">
+        <v>1.0</v>
+      </c>
+      <c r="E71" t="n" s="613">
+        <v>0.0</v>
+      </c>
+      <c r="F71" t="n" s="611">
         <v>25.0</v>
       </c>
-      <c r="J71" t="s" s="557">
+      <c r="J71" t="s" s="609">
         <v>14</v>
       </c>
     </row>
     <row r="72">
-      <c r="J72" t="s" s="562">
+      <c r="C72" t="s" s="617">
+        <v>92</v>
+      </c>
+      <c r="G72" t="n" s="615">
+        <v>2.0</v>
+      </c>
+      <c r="H72" t="n" s="616">
+        <v>0.0</v>
+      </c>
+      <c r="J72" t="s" s="614">
         <v>8</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="619">
+      <c r="A73" t="s" s="685">
         <v>105</v>
       </c>
-      <c r="B73" t="s" s="573">
+      <c r="B73" t="s" s="629">
         <v>97</v>
       </c>
-      <c r="C73" t="s" s="568">
+      <c r="C73" t="s" s="622">
         <v>7</v>
       </c>
-      <c r="D73" t="n" s="569">
-        <v>1.0</v>
-      </c>
-      <c r="E73" t="n" s="570">
-        <v>0.0</v>
-      </c>
-      <c r="F73" t="n" s="567">
+      <c r="D73" t="n" s="623">
+        <v>1.0</v>
+      </c>
+      <c r="E73" t="n" s="624">
+        <v>0.0</v>
+      </c>
+      <c r="F73" t="n" s="621">
         <v>40.0</v>
       </c>
-      <c r="J73" t="s" s="566">
+      <c r="J73" t="s" s="620">
         <v>6</v>
       </c>
     </row>
     <row r="74">
-      <c r="J74" t="s" s="571">
+      <c r="C74" t="s" s="628">
+        <v>7</v>
+      </c>
+      <c r="G74" t="n" s="627">
+        <v>0.0</v>
+      </c>
+      <c r="H74" t="n" s="626">
+        <v>4.0</v>
+      </c>
+      <c r="J74" t="s" s="625">
         <v>15</v>
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="581">
+      <c r="B75" t="s" s="639">
         <v>99</v>
       </c>
-      <c r="C75" t="s" s="576">
+      <c r="C75" t="s" s="632">
         <v>98</v>
       </c>
-      <c r="D75" t="n" s="577">
-        <v>1.0</v>
-      </c>
-      <c r="E75" t="n" s="578">
-        <v>0.0</v>
-      </c>
-      <c r="F75" t="n" s="575">
+      <c r="D75" t="n" s="633">
+        <v>1.0</v>
+      </c>
+      <c r="E75" t="n" s="634">
+        <v>0.0</v>
+      </c>
+      <c r="F75" t="n" s="631">
         <v>10.0</v>
       </c>
-      <c r="J75" t="s" s="574">
+      <c r="J75" t="s" s="630">
         <v>12</v>
       </c>
     </row>
     <row r="76">
-      <c r="J76" t="s" s="579">
+      <c r="C76" t="s" s="638">
+        <v>98</v>
+      </c>
+      <c r="G76" t="n" s="637">
+        <v>0.0</v>
+      </c>
+      <c r="H76" t="n" s="636">
+        <v>2.0</v>
+      </c>
+      <c r="J76" t="s" s="635">
         <v>22</v>
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="589">
+      <c r="B77" t="s" s="649">
         <v>100</v>
       </c>
-      <c r="C77" t="s" s="584">
+      <c r="C77" t="s" s="642">
         <v>98</v>
       </c>
-      <c r="D77" t="n" s="585">
-        <v>1.0</v>
-      </c>
-      <c r="E77" t="n" s="586">
-        <v>0.0</v>
-      </c>
-      <c r="F77" t="n" s="583">
+      <c r="D77" t="n" s="643">
+        <v>1.0</v>
+      </c>
+      <c r="E77" t="n" s="644">
+        <v>0.0</v>
+      </c>
+      <c r="F77" t="n" s="641">
         <v>10.0</v>
       </c>
-      <c r="J77" t="s" s="582">
+      <c r="J77" t="s" s="640">
         <v>12</v>
       </c>
     </row>
     <row r="78">
-      <c r="J78" t="s" s="587">
+      <c r="C78" t="s" s="648">
+        <v>98</v>
+      </c>
+      <c r="G78" t="n" s="647">
+        <v>0.0</v>
+      </c>
+      <c r="H78" t="n" s="646">
+        <v>2.0</v>
+      </c>
+      <c r="J78" t="s" s="645">
         <v>22</v>
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="602">
+      <c r="B79" t="s" s="664">
         <v>102</v>
       </c>
-      <c r="C79" t="s" s="592">
+      <c r="C79" t="s" s="652">
         <v>101</v>
       </c>
-      <c r="D79" t="n" s="593">
-        <v>1.0</v>
-      </c>
-      <c r="E79" t="n" s="594">
-        <v>0.0</v>
-      </c>
-      <c r="F79" t="n" s="591">
+      <c r="D79" t="n" s="653">
+        <v>1.0</v>
+      </c>
+      <c r="E79" t="n" s="654">
+        <v>0.0</v>
+      </c>
+      <c r="F79" t="n" s="651">
         <v>2.0</v>
       </c>
-      <c r="J79" t="s" s="590">
+      <c r="J79" t="s" s="650">
         <v>12</v>
       </c>
     </row>
     <row r="80">
-      <c r="C80" t="s" s="597">
+      <c r="C80" t="s" s="657">
         <v>101</v>
       </c>
-      <c r="D80" t="n" s="598">
-        <v>1.0</v>
-      </c>
-      <c r="E80" t="n" s="599">
-        <v>0.0</v>
-      </c>
-      <c r="F80" t="n" s="596">
+      <c r="D80" t="n" s="658">
+        <v>1.0</v>
+      </c>
+      <c r="E80" t="n" s="659">
+        <v>0.0</v>
+      </c>
+      <c r="F80" t="n" s="656">
         <v>6.0</v>
       </c>
-      <c r="J80" t="s" s="595">
+      <c r="J80" t="s" s="655">
         <v>6</v>
       </c>
     </row>
     <row r="81">
-      <c r="J81" t="s" s="600">
+      <c r="C81" t="s" s="663">
+        <v>101</v>
+      </c>
+      <c r="G81" t="n" s="662">
+        <v>0.0</v>
+      </c>
+      <c r="H81" t="n" s="661">
+        <v>2.0</v>
+      </c>
+      <c r="J81" t="s" s="660">
         <v>22</v>
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="610">
+      <c r="B82" t="s" s="674">
         <v>104</v>
       </c>
-      <c r="C82" t="s" s="605">
+      <c r="C82" t="s" s="667">
         <v>103</v>
       </c>
-      <c r="D82" t="n" s="606">
-        <v>1.0</v>
-      </c>
-      <c r="E82" t="n" s="607">
-        <v>0.0</v>
-      </c>
-      <c r="F82" t="n" s="604">
+      <c r="D82" t="n" s="668">
+        <v>1.0</v>
+      </c>
+      <c r="E82" t="n" s="669">
+        <v>0.0</v>
+      </c>
+      <c r="F82" t="n" s="666">
         <v>12.0</v>
       </c>
-      <c r="J82" t="s" s="603">
+      <c r="J82" t="s" s="665">
         <v>12</v>
       </c>
     </row>
     <row r="83">
-      <c r="J83" t="s" s="608">
+      <c r="C83" t="s" s="673">
+        <v>103</v>
+      </c>
+      <c r="G83" t="n" s="671">
+        <v>2.0</v>
+      </c>
+      <c r="H83" t="n" s="672">
+        <v>0.0</v>
+      </c>
+      <c r="J83" t="s" s="670">
         <v>8</v>
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="618">
+      <c r="B84" t="s" s="684">
         <v>57</v>
       </c>
-      <c r="C84" t="s" s="612">
+      <c r="C84" t="s" s="676">
         <v>56</v>
       </c>
-      <c r="D84" t="n" s="614">
-        <v>1.0</v>
-      </c>
-      <c r="E84" t="n" s="615">
-        <v>0.0</v>
-      </c>
-      <c r="F84" t="n" s="613">
-        <v>1.0</v>
-      </c>
-      <c r="J84" t="s" s="611">
+      <c r="D84" t="n" s="678">
+        <v>1.0</v>
+      </c>
+      <c r="E84" t="n" s="679">
+        <v>0.0</v>
+      </c>
+      <c r="F84" t="n" s="677">
+        <v>1.0</v>
+      </c>
+      <c r="J84" t="s" s="675">
         <v>14</v>
       </c>
     </row>
     <row r="85">
-      <c r="J85" t="s" s="616">
+      <c r="C85" t="s" s="683">
+        <v>56</v>
+      </c>
+      <c r="G85" t="n" s="682">
+        <v>0.0</v>
+      </c>
+      <c r="H85" t="n" s="681">
+        <v>4.0</v>
+      </c>
+      <c r="J85" t="s" s="680">
         <v>15</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="626">
+      <c r="A86" t="s" s="694">
         <v>107</v>
       </c>
-      <c r="B86" t="s" s="625">
+      <c r="B86" t="s" s="693">
         <v>106</v>
       </c>
-      <c r="C86" t="s" s="620">
+      <c r="C86" t="s" s="686">
         <v>56</v>
       </c>
-      <c r="D86" t="n" s="621">
-        <v>1.0</v>
-      </c>
-      <c r="E86" t="n" s="622">
+      <c r="D86" t="n" s="687">
+        <v>1.0</v>
+      </c>
+      <c r="E86" t="n" s="688">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
-      <c r="J87" t="s" s="623">
+      <c r="C87" t="s" s="692">
+        <v>56</v>
+      </c>
+      <c r="G87" t="n" s="691">
+        <v>0.0</v>
+      </c>
+      <c r="H87" t="n" s="690">
+        <v>4.0</v>
+      </c>
+      <c r="J87" t="s" s="689">
         <v>15</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="C88" t="s" s="624">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/planning/TestWriteTeachingUnits.xlsx
+++ b/planning/TestWriteTeachingUnits.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="147">
   <si>
     <t>DI3 S5</t>
   </si>
@@ -192,6 +192,66 @@
     <t>Shejs1 et anglais1</t>
   </si>
   <si>
+    <t>11/9/17</t>
+  </si>
+  <si>
+    <t>18/9/17</t>
+  </si>
+  <si>
+    <t>25/9/17</t>
+  </si>
+  <si>
+    <t>02/10/17</t>
+  </si>
+  <si>
+    <t>09/10/17</t>
+  </si>
+  <si>
+    <t>16/10/17</t>
+  </si>
+  <si>
+    <t>23/10/17</t>
+  </si>
+  <si>
+    <t>30/10/17</t>
+  </si>
+  <si>
+    <t>06/11/17</t>
+  </si>
+  <si>
+    <t>13/11/17</t>
+  </si>
+  <si>
+    <t>20/11/17</t>
+  </si>
+  <si>
+    <t>27/11/17</t>
+  </si>
+  <si>
+    <t>04/12/17</t>
+  </si>
+  <si>
+    <t>11/12/17</t>
+  </si>
+  <si>
+    <t>18/12/17</t>
+  </si>
+  <si>
+    <t>25/12/17</t>
+  </si>
+  <si>
+    <t>01/1/18</t>
+  </si>
+  <si>
+    <t>08/1/18</t>
+  </si>
+  <si>
+    <t>15/1/18</t>
+  </si>
+  <si>
+    <t>22/1/18</t>
+  </si>
+  <si>
     <t>DI3 S6</t>
   </si>
   <si>
@@ -337,6 +397,63 @@
   </si>
   <si>
     <t>Stage  annee 3</t>
+  </si>
+  <si>
+    <t>29/1/18</t>
+  </si>
+  <si>
+    <t>05/2/18</t>
+  </si>
+  <si>
+    <t>12/2/18</t>
+  </si>
+  <si>
+    <t>19/2/18</t>
+  </si>
+  <si>
+    <t>26/2/18</t>
+  </si>
+  <si>
+    <t>05/3/18</t>
+  </si>
+  <si>
+    <t>12/3/18</t>
+  </si>
+  <si>
+    <t>19/3/18</t>
+  </si>
+  <si>
+    <t>26/3/18</t>
+  </si>
+  <si>
+    <t>02/4/18</t>
+  </si>
+  <si>
+    <t>09/4/18</t>
+  </si>
+  <si>
+    <t>16/4/18</t>
+  </si>
+  <si>
+    <t>23/4/18</t>
+  </si>
+  <si>
+    <t>30/4/18</t>
+  </si>
+  <si>
+    <t>07/5/18</t>
+  </si>
+  <si>
+    <t>14/5/18</t>
+  </si>
+  <si>
+    <t>21/5/18</t>
+  </si>
+  <si>
+    <t>28/5/18</t>
+  </si>
+  <si>
+    <t>04/6/18</t>
   </si>
 </sst>
 </file>
@@ -346,7 +463,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/m/yyyy"/>
   </numFmts>
-  <fonts count="695">
+  <fonts count="877">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -3824,8 +3941,918 @@
       <sz val="11.0"/>
       <color indexed="8"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3872,6 +4899,36 @@
         <fgColor rgb="FFC107"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="BDBDBD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="BDBDBD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF5722"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5722"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -3903,7 +4960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="695">
+  <cellXfs count="877">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -4757,307 +5814,307 @@
     <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="288" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="291" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="292" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="303" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="308" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="313" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="318" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="323" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="328" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="285" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="288" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="293" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="298" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="303" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="308" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="313" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="318" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="325" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="330" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="333" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="338" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="343" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="346" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="349" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="353" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="354" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="359" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="364" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="369" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="375" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="334" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="335" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="340" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="345" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="350" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="355" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="364" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="369" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="374" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="164" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="380" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5072,7 +6129,7 @@
     <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5084,10 +6141,10 @@
     <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="395" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="394" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5099,13 +6156,13 @@
     <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="399" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="401" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5114,13 +6171,13 @@
     <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="404" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5129,13 +6186,13 @@
     <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="409" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5144,7 +6201,7 @@
     <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="414" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="415" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5156,10 +6213,10 @@
     <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="418" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="420" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5171,10 +6228,10 @@
     <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="423" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5186,10 +6243,10 @@
     <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="428" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="429" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="430" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5201,10 +6258,10 @@
     <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="433" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5216,13 +6273,13 @@
     <xf numFmtId="0" fontId="437" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="438" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="438" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="439" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="440" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5231,13 +6288,13 @@
     <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="445" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="446" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5246,13 +6303,13 @@
     <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="448" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="450" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5261,13 +6318,13 @@
     <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="453" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="453" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="454" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="455" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="455" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5276,13 +6333,13 @@
     <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="460" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5291,7 +6348,7 @@
     <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="463" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5300,13 +6357,13 @@
     <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="466" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="468" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="468" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="469" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5315,13 +6372,13 @@
     <xf numFmtId="0" fontId="470" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="471" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="471" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="473" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5330,13 +6387,13 @@
     <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="476" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="478" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5345,7 +6402,7 @@
     <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="481" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="482" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5357,10 +6414,10 @@
     <xf numFmtId="0" fontId="484" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="485" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="486" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="485" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="487" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5372,13 +6429,13 @@
     <xf numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="490" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="490" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="491" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="492" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="492" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5387,13 +6444,13 @@
     <xf numFmtId="0" fontId="494" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="495" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="495" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="496" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="497" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="497" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="498" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5402,13 +6459,13 @@
     <xf numFmtId="0" fontId="499" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="500" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="501" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="502" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="502" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="503" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5417,7 +6474,7 @@
     <xf numFmtId="0" fontId="504" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="505" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="505" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="506" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5429,10 +6486,10 @@
     <xf numFmtId="0" fontId="508" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="509" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="510" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="509" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="511" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5444,13 +6501,13 @@
     <xf numFmtId="0" fontId="513" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="514" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="514" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="515" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="516" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="516" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="517" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5459,13 +6516,13 @@
     <xf numFmtId="0" fontId="518" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="519" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="519" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="520" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="521" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="521" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="522" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5474,13 +6531,13 @@
     <xf numFmtId="0" fontId="523" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="524" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="524" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="525" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="526" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="526" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="527" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5489,13 +6546,13 @@
     <xf numFmtId="0" fontId="528" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="529" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="529" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="530" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="531" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="531" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="532" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5504,13 +6561,13 @@
     <xf numFmtId="0" fontId="533" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="534" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="534" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="535" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="536" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="536" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="537" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5519,13 +6576,13 @@
     <xf numFmtId="0" fontId="538" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="539" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="539" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="540" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="541" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="541" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="542" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5534,13 +6591,13 @@
     <xf numFmtId="0" fontId="543" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="544" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="544" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="545" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="546" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="546" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="547" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5549,13 +6606,13 @@
     <xf numFmtId="0" fontId="548" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="549" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="549" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="550" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="551" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="551" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="552" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5564,13 +6621,13 @@
     <xf numFmtId="0" fontId="553" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="554" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="554" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="555" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="556" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="556" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="557" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5579,13 +6636,13 @@
     <xf numFmtId="0" fontId="558" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="559" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="559" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="560" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="561" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="561" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="562" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5594,7 +6651,7 @@
     <xf numFmtId="0" fontId="563" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="564" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="564" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="565" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5606,10 +6663,10 @@
     <xf numFmtId="0" fontId="567" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="568" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="569" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="568" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="569" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="570" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5621,7 +6678,7 @@
     <xf numFmtId="0" fontId="572" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="573" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="573" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="574" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5630,13 +6687,13 @@
     <xf numFmtId="0" fontId="575" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="576" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="576" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="577" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="578" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="578" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="579" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5645,13 +6702,13 @@
     <xf numFmtId="0" fontId="580" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="581" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="581" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="582" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="583" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="583" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="584" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5660,7 +6717,7 @@
     <xf numFmtId="0" fontId="585" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="586" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="586" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="587" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5669,13 +6726,13 @@
     <xf numFmtId="0" fontId="588" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="589" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="589" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="590" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="591" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="591" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="592" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5684,13 +6741,13 @@
     <xf numFmtId="0" fontId="593" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="594" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="594" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="595" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="596" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="596" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="597" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5699,13 +6756,13 @@
     <xf numFmtId="0" fontId="598" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="599" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="599" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="600" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="601" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="601" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="602" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5714,7 +6771,7 @@
     <xf numFmtId="0" fontId="603" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="604" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="604" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="605" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5723,13 +6780,13 @@
     <xf numFmtId="0" fontId="606" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="607" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="607" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="608" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="609" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="609" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="610" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5738,13 +6795,13 @@
     <xf numFmtId="0" fontId="611" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="612" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="612" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="613" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="614" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="614" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="615" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5753,7 +6810,7 @@
     <xf numFmtId="0" fontId="616" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="617" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="617" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="618" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5762,13 +6819,13 @@
     <xf numFmtId="0" fontId="619" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="620" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="620" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="621" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="622" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="622" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="623" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5777,13 +6834,13 @@
     <xf numFmtId="0" fontId="624" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="625" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="625" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="626" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="627" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="627" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="628" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5792,13 +6849,13 @@
     <xf numFmtId="0" fontId="629" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="630" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="630" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="631" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="632" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="632" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="633" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5807,13 +6864,13 @@
     <xf numFmtId="0" fontId="634" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="635" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="635" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="636" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="637" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="637" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="638" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5822,13 +6879,13 @@
     <xf numFmtId="0" fontId="639" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="640" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="640" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="641" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="642" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="642" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="643" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5837,13 +6894,13 @@
     <xf numFmtId="0" fontId="644" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="645" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="645" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="646" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="647" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="647" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="648" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5852,13 +6909,13 @@
     <xf numFmtId="0" fontId="649" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="650" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="650" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="651" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="652" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="652" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="653" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5867,7 +6924,7 @@
     <xf numFmtId="0" fontId="654" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="655" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="655" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="656" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5879,10 +6936,10 @@
     <xf numFmtId="0" fontId="658" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="659" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="660" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="659" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="660" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="661" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5894,10 +6951,10 @@
     <xf numFmtId="0" fontId="663" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="664" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="665" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="664" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="665" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="666" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5909,10 +6966,10 @@
     <xf numFmtId="0" fontId="668" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="669" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="670" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="669" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="670" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="671" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5924,10 +6981,10 @@
     <xf numFmtId="0" fontId="673" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="674" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="675" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="674" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="675" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="676" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5942,7 +6999,7 @@
     <xf numFmtId="0" fontId="679" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="680" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="680" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="681" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5957,7 +7014,7 @@
     <xf numFmtId="0" fontId="684" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="685" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="685" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="686" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5969,10 +7026,10 @@
     <xf numFmtId="0" fontId="688" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="689" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="690" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="689" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="690" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="691" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -5985,6 +7042,552 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="694" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="695" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="696" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="697" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="698" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="699" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="700" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="701" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="702" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="703" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="704" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="705" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="706" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="707" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="708" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="709" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="710" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="711" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="712" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="713" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="714" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="715" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="716" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="717" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="718" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="719" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="720" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="721" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="722" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="723" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="724" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="725" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="726" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="727" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="728" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="729" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="730" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="731" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="732" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="733" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="734" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="735" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="736" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="737" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="738" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="739" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="740" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="741" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="742" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="743" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="744" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="745" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="746" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="747" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="748" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="749" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="750" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="751" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="752" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="753" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="754" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="755" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="756" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="757" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="758" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="759" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="760" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="761" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="762" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="763" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="764" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="765" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="766" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="767" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="768" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="769" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="770" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="771" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="772" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="773" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="774" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="775" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="776" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="777" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="778" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="779" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="780" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="781" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="782" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="783" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="784" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="785" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="786" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="787" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="788" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="789" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="790" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="791" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="792" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="793" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="794" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="795" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="796" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="797" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="798" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="799" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="800" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="801" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="802" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="803" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="804" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="805" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="806" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="807" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="808" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="809" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="810" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="811" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="812" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="813" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="814" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="815" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="816" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="817" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="818" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="819" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="820" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="821" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="822" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="823" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="824" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="825" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="826" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="827" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="828" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="829" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="830" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="831" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="832" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="833" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="834" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="835" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="836" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="837" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="838" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="839" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="840" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="841" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="842" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="843" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="844" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="845" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="846" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="847" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="848" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="849" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="850" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="851" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="852" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="853" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="854" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="855" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="856" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="857" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="858" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="859" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="860" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="861" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="862" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="863" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="864" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="865" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="866" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="867" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="868" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="869" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="870" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="871" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="872" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="873" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="874" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="875" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="876" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -5993,7 +7596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:K62"/>
+  <dimension ref="A3:BT62"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6002,6 +7605,66 @@
     <col min="3" max="3" width="32.0" customWidth="true"/>
     <col min="2" max="2" width="32.0" customWidth="true"/>
     <col min="1" max="1" width="32.0" customWidth="true"/>
+    <col min="12" max="12" width="4.6875" customWidth="true"/>
+    <col min="13" max="13" width="4.6875" customWidth="true"/>
+    <col min="14" max="14" width="4.6875" customWidth="true"/>
+    <col min="15" max="15" width="4.6875" customWidth="true"/>
+    <col min="16" max="16" width="4.6875" customWidth="true"/>
+    <col min="17" max="17" width="4.6875" customWidth="true"/>
+    <col min="18" max="18" width="4.6875" customWidth="true"/>
+    <col min="19" max="19" width="4.6875" customWidth="true"/>
+    <col min="20" max="20" width="4.6875" customWidth="true"/>
+    <col min="21" max="21" width="4.6875" customWidth="true"/>
+    <col min="22" max="22" width="4.6875" customWidth="true"/>
+    <col min="23" max="23" width="4.6875" customWidth="true"/>
+    <col min="24" max="24" width="4.6875" customWidth="true"/>
+    <col min="25" max="25" width="4.6875" customWidth="true"/>
+    <col min="26" max="26" width="4.6875" customWidth="true"/>
+    <col min="27" max="27" width="4.6875" customWidth="true"/>
+    <col min="28" max="28" width="4.6875" customWidth="true"/>
+    <col min="29" max="29" width="4.6875" customWidth="true"/>
+    <col min="30" max="30" width="4.6875" customWidth="true"/>
+    <col min="31" max="31" width="4.6875" customWidth="true"/>
+    <col min="32" max="32" width="4.6875" customWidth="true"/>
+    <col min="33" max="33" width="4.6875" customWidth="true"/>
+    <col min="34" max="34" width="4.6875" customWidth="true"/>
+    <col min="35" max="35" width="4.6875" customWidth="true"/>
+    <col min="36" max="36" width="4.6875" customWidth="true"/>
+    <col min="37" max="37" width="4.6875" customWidth="true"/>
+    <col min="38" max="38" width="4.6875" customWidth="true"/>
+    <col min="39" max="39" width="4.6875" customWidth="true"/>
+    <col min="40" max="40" width="4.6875" customWidth="true"/>
+    <col min="41" max="41" width="4.6875" customWidth="true"/>
+    <col min="42" max="42" width="4.6875" customWidth="true"/>
+    <col min="43" max="43" width="4.6875" customWidth="true"/>
+    <col min="44" max="44" width="4.6875" customWidth="true"/>
+    <col min="45" max="45" width="4.6875" customWidth="true"/>
+    <col min="46" max="46" width="4.6875" customWidth="true"/>
+    <col min="47" max="47" width="4.6875" customWidth="true"/>
+    <col min="48" max="48" width="4.6875" customWidth="true"/>
+    <col min="49" max="49" width="4.6875" customWidth="true"/>
+    <col min="50" max="50" width="4.6875" customWidth="true"/>
+    <col min="51" max="51" width="4.6875" customWidth="true"/>
+    <col min="52" max="52" width="4.6875" customWidth="true"/>
+    <col min="53" max="53" width="4.6875" customWidth="true"/>
+    <col min="54" max="54" width="4.6875" customWidth="true"/>
+    <col min="55" max="55" width="4.6875" customWidth="true"/>
+    <col min="56" max="56" width="4.6875" customWidth="true"/>
+    <col min="57" max="57" width="4.6875" customWidth="true"/>
+    <col min="58" max="58" width="4.6875" customWidth="true"/>
+    <col min="59" max="59" width="4.6875" customWidth="true"/>
+    <col min="60" max="60" width="4.6875" customWidth="true"/>
+    <col min="61" max="61" width="4.6875" customWidth="true"/>
+    <col min="62" max="62" width="4.6875" customWidth="true"/>
+    <col min="63" max="63" width="4.6875" customWidth="true"/>
+    <col min="64" max="64" width="4.6875" customWidth="true"/>
+    <col min="65" max="65" width="4.6875" customWidth="true"/>
+    <col min="66" max="66" width="4.6875" customWidth="true"/>
+    <col min="67" max="67" width="4.6875" customWidth="true"/>
+    <col min="68" max="68" width="4.6875" customWidth="true"/>
+    <col min="69" max="69" width="4.6875" customWidth="true"/>
+    <col min="70" max="70" width="4.6875" customWidth="true"/>
+    <col min="71" max="71" width="4.6875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="3">
@@ -6021,15 +7684,290 @@
       <c r="C5" t="s" s="4">
         <v>2</v>
       </c>
+      <c r="L5" t="n" s="289">
+        <v>37.0</v>
+      </c>
+      <c r="O5" t="n" s="294">
+        <v>38.0</v>
+      </c>
+      <c r="R5" t="n" s="299">
+        <v>39.0</v>
+      </c>
+      <c r="U5" t="n" s="304">
+        <v>40.0</v>
+      </c>
+      <c r="X5" t="n" s="309">
+        <v>41.0</v>
+      </c>
+      <c r="AA5" t="n" s="314">
+        <v>42.0</v>
+      </c>
+      <c r="AD5" t="n" s="319">
+        <v>43.0</v>
+      </c>
+      <c r="AG5" t="n" s="321">
+        <v>44.0</v>
+      </c>
+      <c r="AJ5" t="n" s="326">
+        <v>45.0</v>
+      </c>
+      <c r="AM5" t="n" s="331">
+        <v>46.0</v>
+      </c>
+      <c r="AP5" t="n" s="336">
+        <v>47.0</v>
+      </c>
+      <c r="AS5" t="n" s="341">
+        <v>48.0</v>
+      </c>
+      <c r="AV5" t="n" s="346">
+        <v>49.0</v>
+      </c>
+      <c r="AY5" t="n" s="351">
+        <v>50.0</v>
+      </c>
+      <c r="BB5" t="n" s="356">
+        <v>51.0</v>
+      </c>
+      <c r="BE5" t="n" s="358">
+        <v>52.0</v>
+      </c>
+      <c r="BH5" t="n" s="360">
+        <v>1.0</v>
+      </c>
+      <c r="BK5" t="n" s="365">
+        <v>2.0</v>
+      </c>
+      <c r="BN5" t="n" s="370">
+        <v>3.0</v>
+      </c>
+      <c r="BQ5" t="n" s="375">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="C6" t="s" s="5">
         <v>3</v>
       </c>
+      <c r="L6" t="s" s="288">
+        <v>59</v>
+      </c>
+      <c r="O6" t="s" s="293">
+        <v>60</v>
+      </c>
+      <c r="R6" t="s" s="298">
+        <v>61</v>
+      </c>
+      <c r="U6" t="s" s="303">
+        <v>62</v>
+      </c>
+      <c r="X6" t="s" s="308">
+        <v>63</v>
+      </c>
+      <c r="AA6" t="s" s="313">
+        <v>64</v>
+      </c>
+      <c r="AD6" t="s" s="318">
+        <v>65</v>
+      </c>
+      <c r="AG6" t="s" s="320">
+        <v>66</v>
+      </c>
+      <c r="AJ6" t="s" s="325">
+        <v>67</v>
+      </c>
+      <c r="AM6" t="s" s="330">
+        <v>68</v>
+      </c>
+      <c r="AP6" t="s" s="335">
+        <v>69</v>
+      </c>
+      <c r="AS6" t="s" s="340">
+        <v>70</v>
+      </c>
+      <c r="AV6" t="s" s="345">
+        <v>71</v>
+      </c>
+      <c r="AY6" t="s" s="350">
+        <v>72</v>
+      </c>
+      <c r="BB6" t="s" s="355">
+        <v>73</v>
+      </c>
+      <c r="BE6" t="s" s="357">
+        <v>74</v>
+      </c>
+      <c r="BH6" t="s" s="359">
+        <v>75</v>
+      </c>
+      <c r="BK6" t="s" s="364">
+        <v>76</v>
+      </c>
+      <c r="BN6" t="s" s="369">
+        <v>77</v>
+      </c>
+      <c r="BQ6" t="s" s="374">
+        <v>78</v>
+      </c>
     </row>
     <row r="7">
       <c r="C7" t="s" s="6">
         <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="L8" t="s" s="285">
+        <v>12</v>
+      </c>
+      <c r="M8" t="s" s="286">
+        <v>6</v>
+      </c>
+      <c r="N8" t="s" s="287">
+        <v>14</v>
+      </c>
+      <c r="O8" t="s" s="290">
+        <v>12</v>
+      </c>
+      <c r="P8" t="s" s="291">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="s" s="292">
+        <v>14</v>
+      </c>
+      <c r="R8" t="s" s="295">
+        <v>12</v>
+      </c>
+      <c r="S8" t="s" s="296">
+        <v>6</v>
+      </c>
+      <c r="T8" t="s" s="297">
+        <v>14</v>
+      </c>
+      <c r="U8" t="s" s="300">
+        <v>12</v>
+      </c>
+      <c r="V8" t="s" s="301">
+        <v>6</v>
+      </c>
+      <c r="W8" t="s" s="302">
+        <v>14</v>
+      </c>
+      <c r="X8" t="s" s="305">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="s" s="306">
+        <v>6</v>
+      </c>
+      <c r="Z8" t="s" s="307">
+        <v>14</v>
+      </c>
+      <c r="AA8" t="s" s="310">
+        <v>12</v>
+      </c>
+      <c r="AB8" t="s" s="311">
+        <v>6</v>
+      </c>
+      <c r="AC8" t="s" s="312">
+        <v>14</v>
+      </c>
+      <c r="AD8" t="s" s="315">
+        <v>12</v>
+      </c>
+      <c r="AE8" t="s" s="316">
+        <v>6</v>
+      </c>
+      <c r="AF8" t="s" s="317">
+        <v>14</v>
+      </c>
+      <c r="AJ8" t="s" s="322">
+        <v>12</v>
+      </c>
+      <c r="AK8" t="s" s="323">
+        <v>6</v>
+      </c>
+      <c r="AL8" t="s" s="324">
+        <v>14</v>
+      </c>
+      <c r="AM8" t="s" s="327">
+        <v>12</v>
+      </c>
+      <c r="AN8" t="s" s="328">
+        <v>6</v>
+      </c>
+      <c r="AO8" t="s" s="329">
+        <v>14</v>
+      </c>
+      <c r="AP8" t="s" s="332">
+        <v>12</v>
+      </c>
+      <c r="AQ8" t="s" s="333">
+        <v>6</v>
+      </c>
+      <c r="AR8" t="s" s="334">
+        <v>14</v>
+      </c>
+      <c r="AS8" t="s" s="337">
+        <v>12</v>
+      </c>
+      <c r="AT8" t="s" s="338">
+        <v>6</v>
+      </c>
+      <c r="AU8" t="s" s="339">
+        <v>14</v>
+      </c>
+      <c r="AV8" t="s" s="342">
+        <v>12</v>
+      </c>
+      <c r="AW8" t="s" s="343">
+        <v>6</v>
+      </c>
+      <c r="AX8" t="s" s="344">
+        <v>14</v>
+      </c>
+      <c r="AY8" t="s" s="347">
+        <v>12</v>
+      </c>
+      <c r="AZ8" t="s" s="348">
+        <v>6</v>
+      </c>
+      <c r="BA8" t="s" s="349">
+        <v>14</v>
+      </c>
+      <c r="BB8" t="s" s="352">
+        <v>12</v>
+      </c>
+      <c r="BC8" t="s" s="353">
+        <v>6</v>
+      </c>
+      <c r="BD8" t="s" s="354">
+        <v>14</v>
+      </c>
+      <c r="BK8" t="s" s="361">
+        <v>12</v>
+      </c>
+      <c r="BL8" t="s" s="362">
+        <v>6</v>
+      </c>
+      <c r="BM8" t="s" s="363">
+        <v>14</v>
+      </c>
+      <c r="BN8" t="s" s="366">
+        <v>12</v>
+      </c>
+      <c r="BO8" t="s" s="367">
+        <v>6</v>
+      </c>
+      <c r="BP8" t="s" s="368">
+        <v>14</v>
+      </c>
+      <c r="BQ8" t="s" s="371">
+        <v>12</v>
+      </c>
+      <c r="BR8" t="s" s="372">
+        <v>6</v>
+      </c>
+      <c r="BS8" t="s" s="373">
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -7006,6 +8944,46 @@
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="B60:B61"/>
     <mergeCell ref="A55:A62"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AA6:AC6"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="AD6:AF6"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AG6:AI6"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="AM6:AO6"/>
+    <mergeCell ref="AP5:AR5"/>
+    <mergeCell ref="AP6:AR6"/>
+    <mergeCell ref="AS5:AU5"/>
+    <mergeCell ref="AS6:AU6"/>
+    <mergeCell ref="AV5:AX5"/>
+    <mergeCell ref="AV6:AX6"/>
+    <mergeCell ref="AY5:BA5"/>
+    <mergeCell ref="AY6:BA6"/>
+    <mergeCell ref="BB5:BD5"/>
+    <mergeCell ref="BB6:BD6"/>
+    <mergeCell ref="BE5:BG5"/>
+    <mergeCell ref="BE6:BG6"/>
+    <mergeCell ref="BH5:BJ5"/>
+    <mergeCell ref="BH6:BJ6"/>
+    <mergeCell ref="BK5:BM5"/>
+    <mergeCell ref="BK6:BM6"/>
+    <mergeCell ref="BN5:BP5"/>
+    <mergeCell ref="BN6:BP6"/>
+    <mergeCell ref="BQ5:BS5"/>
+    <mergeCell ref="BQ6:BS6"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -7013,7 +8991,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:K87"/>
+  <dimension ref="A3:BT87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7022,1403 +9000,1738 @@
     <col min="3" max="3" width="32.0" customWidth="true"/>
     <col min="2" max="2" width="32.0" customWidth="true"/>
     <col min="1" max="1" width="32.0" customWidth="true"/>
+    <col min="12" max="12" width="4.6875" customWidth="true"/>
+    <col min="13" max="13" width="4.6875" customWidth="true"/>
+    <col min="14" max="14" width="4.6875" customWidth="true"/>
+    <col min="15" max="15" width="4.6875" customWidth="true"/>
+    <col min="16" max="16" width="4.6875" customWidth="true"/>
+    <col min="17" max="17" width="4.6875" customWidth="true"/>
+    <col min="18" max="18" width="4.6875" customWidth="true"/>
+    <col min="19" max="19" width="4.6875" customWidth="true"/>
+    <col min="20" max="20" width="4.6875" customWidth="true"/>
+    <col min="21" max="21" width="4.6875" customWidth="true"/>
+    <col min="22" max="22" width="4.6875" customWidth="true"/>
+    <col min="23" max="23" width="4.6875" customWidth="true"/>
+    <col min="24" max="24" width="4.6875" customWidth="true"/>
+    <col min="25" max="25" width="4.6875" customWidth="true"/>
+    <col min="26" max="26" width="4.6875" customWidth="true"/>
+    <col min="27" max="27" width="4.6875" customWidth="true"/>
+    <col min="28" max="28" width="4.6875" customWidth="true"/>
+    <col min="29" max="29" width="4.6875" customWidth="true"/>
+    <col min="30" max="30" width="4.6875" customWidth="true"/>
+    <col min="31" max="31" width="4.6875" customWidth="true"/>
+    <col min="32" max="32" width="4.6875" customWidth="true"/>
+    <col min="33" max="33" width="4.6875" customWidth="true"/>
+    <col min="34" max="34" width="4.6875" customWidth="true"/>
+    <col min="35" max="35" width="4.6875" customWidth="true"/>
+    <col min="36" max="36" width="4.6875" customWidth="true"/>
+    <col min="37" max="37" width="4.6875" customWidth="true"/>
+    <col min="38" max="38" width="4.6875" customWidth="true"/>
+    <col min="39" max="39" width="4.6875" customWidth="true"/>
+    <col min="40" max="40" width="4.6875" customWidth="true"/>
+    <col min="41" max="41" width="4.6875" customWidth="true"/>
+    <col min="42" max="42" width="4.6875" customWidth="true"/>
+    <col min="43" max="43" width="4.6875" customWidth="true"/>
+    <col min="44" max="44" width="4.6875" customWidth="true"/>
+    <col min="45" max="45" width="4.6875" customWidth="true"/>
+    <col min="46" max="46" width="4.6875" customWidth="true"/>
+    <col min="47" max="47" width="4.6875" customWidth="true"/>
+    <col min="48" max="48" width="4.6875" customWidth="true"/>
+    <col min="49" max="49" width="4.6875" customWidth="true"/>
+    <col min="50" max="50" width="4.6875" customWidth="true"/>
+    <col min="51" max="51" width="4.6875" customWidth="true"/>
+    <col min="52" max="52" width="4.6875" customWidth="true"/>
+    <col min="53" max="53" width="4.6875" customWidth="true"/>
+    <col min="54" max="54" width="4.6875" customWidth="true"/>
+    <col min="55" max="55" width="4.6875" customWidth="true"/>
+    <col min="56" max="56" width="4.6875" customWidth="true"/>
+    <col min="57" max="57" width="4.6875" customWidth="true"/>
+    <col min="58" max="58" width="4.6875" customWidth="true"/>
+    <col min="59" max="59" width="4.6875" customWidth="true"/>
+    <col min="60" max="60" width="4.6875" customWidth="true"/>
+    <col min="61" max="61" width="4.6875" customWidth="true"/>
+    <col min="62" max="62" width="4.6875" customWidth="true"/>
+    <col min="63" max="63" width="4.6875" customWidth="true"/>
+    <col min="64" max="64" width="4.6875" customWidth="true"/>
+    <col min="65" max="65" width="4.6875" customWidth="true"/>
+    <col min="66" max="66" width="4.6875" customWidth="true"/>
+    <col min="67" max="67" width="4.6875" customWidth="true"/>
+    <col min="68" max="68" width="4.6875" customWidth="true"/>
+    <col min="69" max="69" width="4.6875" customWidth="true"/>
+    <col min="70" max="70" width="4.6875" customWidth="true"/>
+    <col min="71" max="71" width="4.6875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="3">
-      <c r="A3" t="s" s="285">
-        <v>59</v>
-      </c>
-      <c r="B3" s="286">
+      <c r="A3" t="s" s="376">
+        <v>79</v>
+      </c>
+      <c r="B3" s="377">
         <f>TODAY()</f>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="287">
+      <c r="A4" t="s" s="378">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="C5" t="s" s="288">
+      <c r="C5" t="s" s="379">
         <v>2</v>
       </c>
+      <c r="L5" t="n" s="790">
+        <v>4.0</v>
+      </c>
+      <c r="O5" t="n" s="795">
+        <v>5.0</v>
+      </c>
+      <c r="R5" t="n" s="800">
+        <v>6.0</v>
+      </c>
+      <c r="U5" t="n" s="805">
+        <v>7.0</v>
+      </c>
+      <c r="X5" t="n" s="810">
+        <v>8.0</v>
+      </c>
+      <c r="AA5" t="n" s="812">
+        <v>9.0</v>
+      </c>
+      <c r="AD5" t="n" s="817">
+        <v>10.0</v>
+      </c>
+      <c r="AG5" t="n" s="822">
+        <v>11.0</v>
+      </c>
+      <c r="AJ5" t="n" s="827">
+        <v>12.0</v>
+      </c>
+      <c r="AM5" t="n" s="832">
+        <v>13.0</v>
+      </c>
+      <c r="AP5" t="n" s="837">
+        <v>14.0</v>
+      </c>
+      <c r="AS5" t="n" s="842">
+        <v>15.0</v>
+      </c>
+      <c r="AV5" t="n" s="847">
+        <v>16.0</v>
+      </c>
+      <c r="AY5" t="n" s="849">
+        <v>17.0</v>
+      </c>
+      <c r="BB5" t="n" s="851">
+        <v>18.0</v>
+      </c>
+      <c r="BE5" t="n" s="856">
+        <v>19.0</v>
+      </c>
+      <c r="BH5" t="n" s="861">
+        <v>20.0</v>
+      </c>
+      <c r="BK5" t="n" s="866">
+        <v>21.0</v>
+      </c>
+      <c r="BN5" t="n" s="871">
+        <v>22.0</v>
+      </c>
+      <c r="BQ5" t="n" s="876">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="C6" t="s" s="289">
+      <c r="C6" t="s" s="380">
         <v>3</v>
       </c>
+      <c r="L6" t="s" s="789">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s" s="794">
+        <v>128</v>
+      </c>
+      <c r="R6" t="s" s="799">
+        <v>129</v>
+      </c>
+      <c r="U6" t="s" s="804">
+        <v>130</v>
+      </c>
+      <c r="X6" t="s" s="809">
+        <v>131</v>
+      </c>
+      <c r="AA6" t="s" s="811">
+        <v>132</v>
+      </c>
+      <c r="AD6" t="s" s="816">
+        <v>133</v>
+      </c>
+      <c r="AG6" t="s" s="821">
+        <v>134</v>
+      </c>
+      <c r="AJ6" t="s" s="826">
+        <v>135</v>
+      </c>
+      <c r="AM6" t="s" s="831">
+        <v>136</v>
+      </c>
+      <c r="AP6" t="s" s="836">
+        <v>137</v>
+      </c>
+      <c r="AS6" t="s" s="841">
+        <v>138</v>
+      </c>
+      <c r="AV6" t="s" s="846">
+        <v>139</v>
+      </c>
+      <c r="AY6" t="s" s="848">
+        <v>140</v>
+      </c>
+      <c r="BB6" t="s" s="850">
+        <v>141</v>
+      </c>
+      <c r="BE6" t="s" s="855">
+        <v>142</v>
+      </c>
+      <c r="BH6" t="s" s="860">
+        <v>143</v>
+      </c>
+      <c r="BK6" t="s" s="865">
+        <v>144</v>
+      </c>
+      <c r="BN6" t="s" s="870">
+        <v>145</v>
+      </c>
+      <c r="BQ6" t="s" s="875">
+        <v>146</v>
+      </c>
     </row>
     <row r="7">
-      <c r="C7" t="s" s="290">
+      <c r="C7" t="s" s="381">
         <v>4</v>
       </c>
     </row>
+    <row r="8">
+      <c r="L8" t="s" s="786">
+        <v>12</v>
+      </c>
+      <c r="M8" t="s" s="787">
+        <v>6</v>
+      </c>
+      <c r="N8" t="s" s="788">
+        <v>14</v>
+      </c>
+      <c r="O8" t="s" s="791">
+        <v>12</v>
+      </c>
+      <c r="P8" t="s" s="792">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="s" s="793">
+        <v>14</v>
+      </c>
+      <c r="R8" t="s" s="796">
+        <v>12</v>
+      </c>
+      <c r="S8" t="s" s="797">
+        <v>6</v>
+      </c>
+      <c r="T8" t="s" s="798">
+        <v>14</v>
+      </c>
+      <c r="U8" t="s" s="801">
+        <v>12</v>
+      </c>
+      <c r="V8" t="s" s="802">
+        <v>6</v>
+      </c>
+      <c r="W8" t="s" s="803">
+        <v>14</v>
+      </c>
+      <c r="X8" t="s" s="806">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="s" s="807">
+        <v>6</v>
+      </c>
+      <c r="Z8" t="s" s="808">
+        <v>14</v>
+      </c>
+      <c r="AD8" t="s" s="813">
+        <v>12</v>
+      </c>
+      <c r="AE8" t="s" s="814">
+        <v>6</v>
+      </c>
+      <c r="AF8" t="s" s="815">
+        <v>14</v>
+      </c>
+      <c r="AG8" t="s" s="818">
+        <v>12</v>
+      </c>
+      <c r="AH8" t="s" s="819">
+        <v>6</v>
+      </c>
+      <c r="AI8" t="s" s="820">
+        <v>14</v>
+      </c>
+      <c r="AJ8" t="s" s="823">
+        <v>12</v>
+      </c>
+      <c r="AK8" t="s" s="824">
+        <v>6</v>
+      </c>
+      <c r="AL8" t="s" s="825">
+        <v>14</v>
+      </c>
+      <c r="AM8" t="s" s="828">
+        <v>12</v>
+      </c>
+      <c r="AN8" t="s" s="829">
+        <v>6</v>
+      </c>
+      <c r="AO8" t="s" s="830">
+        <v>14</v>
+      </c>
+      <c r="AP8" t="s" s="833">
+        <v>12</v>
+      </c>
+      <c r="AQ8" t="s" s="834">
+        <v>6</v>
+      </c>
+      <c r="AR8" t="s" s="835">
+        <v>14</v>
+      </c>
+      <c r="AS8" t="s" s="838">
+        <v>12</v>
+      </c>
+      <c r="AT8" t="s" s="839">
+        <v>6</v>
+      </c>
+      <c r="AU8" t="s" s="840">
+        <v>14</v>
+      </c>
+      <c r="AV8" t="s" s="843">
+        <v>12</v>
+      </c>
+      <c r="AW8" t="s" s="844">
+        <v>6</v>
+      </c>
+      <c r="AX8" t="s" s="845">
+        <v>14</v>
+      </c>
+      <c r="BE8" t="s" s="852">
+        <v>12</v>
+      </c>
+      <c r="BF8" t="s" s="853">
+        <v>6</v>
+      </c>
+      <c r="BG8" t="s" s="854">
+        <v>14</v>
+      </c>
+      <c r="BH8" t="s" s="857">
+        <v>12</v>
+      </c>
+      <c r="BI8" t="s" s="858">
+        <v>6</v>
+      </c>
+      <c r="BJ8" t="s" s="859">
+        <v>14</v>
+      </c>
+      <c r="BK8" t="s" s="862">
+        <v>12</v>
+      </c>
+      <c r="BL8" t="s" s="863">
+        <v>6</v>
+      </c>
+      <c r="BM8" t="s" s="864">
+        <v>14</v>
+      </c>
+      <c r="BN8" t="s" s="867">
+        <v>12</v>
+      </c>
+      <c r="BO8" t="s" s="868">
+        <v>6</v>
+      </c>
+      <c r="BP8" t="s" s="869">
+        <v>14</v>
+      </c>
+      <c r="BQ8" t="s" s="872">
+        <v>12</v>
+      </c>
+      <c r="BR8" t="s" s="873">
+        <v>6</v>
+      </c>
+      <c r="BS8" t="s" s="874">
+        <v>14</v>
+      </c>
+    </row>
     <row r="9">
-      <c r="C9" t="s" s="291">
+      <c r="C9" t="s" s="382">
         <v>5</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="302">
+      <c r="A10" t="s" s="393">
         <v>11</v>
       </c>
-      <c r="B10" t="s" s="297">
+      <c r="B10" t="s" s="388">
         <v>9</v>
       </c>
-      <c r="C10" t="s" s="294">
+      <c r="C10" t="s" s="385">
         <v>7</v>
       </c>
-      <c r="D10" t="n" s="295">
+      <c r="D10" t="n" s="386">
         <v>1.0</v>
       </c>
-      <c r="E10" t="n" s="296">
-        <v>0.0</v>
-      </c>
-      <c r="F10" t="n" s="293">
+      <c r="E10" t="n" s="387">
+        <v>0.0</v>
+      </c>
+      <c r="F10" t="n" s="384">
         <v>30.0</v>
       </c>
-      <c r="J10" t="s" s="292">
+      <c r="J10" t="s" s="383">
         <v>6</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="301">
+      <c r="B11" t="s" s="392">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="298">
+      <c r="C11" t="s" s="389">
         <v>7</v>
       </c>
-      <c r="D11" t="n" s="299">
+      <c r="D11" t="n" s="390">
         <v>1.0</v>
       </c>
-      <c r="E11" t="n" s="300">
+      <c r="E11" t="n" s="391">
         <v>0.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="348">
-        <v>65</v>
-      </c>
-      <c r="B12" t="s" s="317">
-        <v>61</v>
-      </c>
-      <c r="C12" t="s" s="305">
-        <v>60</v>
-      </c>
-      <c r="D12" t="n" s="306">
+      <c r="A12" t="s" s="439">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s" s="408">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s" s="396">
+        <v>80</v>
+      </c>
+      <c r="D12" t="n" s="397">
         <v>1.0</v>
       </c>
-      <c r="E12" t="n" s="307">
-        <v>0.0</v>
-      </c>
-      <c r="F12" t="n" s="304">
+      <c r="E12" t="n" s="398">
+        <v>0.0</v>
+      </c>
+      <c r="F12" t="n" s="395">
         <v>18.0</v>
       </c>
-      <c r="J12" t="s" s="303">
+      <c r="J12" t="s" s="394">
         <v>12</v>
       </c>
     </row>
     <row r="13">
-      <c r="C13" t="s" s="310">
-        <v>60</v>
-      </c>
-      <c r="D13" t="n" s="311">
+      <c r="C13" t="s" s="401">
+        <v>80</v>
+      </c>
+      <c r="D13" t="n" s="402">
         <v>1.0</v>
       </c>
-      <c r="E13" t="n" s="312">
-        <v>0.0</v>
-      </c>
-      <c r="F13" t="n" s="309">
+      <c r="E13" t="n" s="403">
+        <v>0.0</v>
+      </c>
+      <c r="F13" t="n" s="400">
         <v>8.0</v>
       </c>
-      <c r="J13" t="s" s="308">
+      <c r="J13" t="s" s="399">
         <v>6</v>
       </c>
     </row>
     <row r="14">
-      <c r="C14" t="s" s="316">
-        <v>60</v>
-      </c>
-      <c r="G14" t="n" s="314">
+      <c r="C14" t="s" s="407">
+        <v>80</v>
+      </c>
+      <c r="G14" t="n" s="405">
         <v>2.0</v>
       </c>
-      <c r="H14" t="n" s="315">
-        <v>0.0</v>
-      </c>
-      <c r="J14" t="s" s="313">
+      <c r="H14" t="n" s="406">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="s" s="404">
         <v>8</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="347">
-        <v>64</v>
-      </c>
-      <c r="C15" t="s" s="320">
-        <v>62</v>
-      </c>
-      <c r="D15" t="n" s="321">
+      <c r="B15" t="s" s="438">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s" s="411">
+        <v>82</v>
+      </c>
+      <c r="D15" t="n" s="412">
         <v>1.0</v>
       </c>
-      <c r="E15" t="n" s="322">
-        <v>0.0</v>
-      </c>
-      <c r="F15" t="n" s="319">
+      <c r="E15" t="n" s="413">
+        <v>0.0</v>
+      </c>
+      <c r="F15" t="n" s="410">
         <v>2.0</v>
       </c>
-      <c r="J15" t="s" s="318">
+      <c r="J15" t="s" s="409">
         <v>12</v>
       </c>
     </row>
     <row r="16">
-      <c r="C16" t="s" s="324">
-        <v>62</v>
-      </c>
-      <c r="D16" t="n" s="326">
+      <c r="C16" t="s" s="415">
+        <v>82</v>
+      </c>
+      <c r="D16" t="n" s="417">
         <v>1.0</v>
       </c>
-      <c r="E16" t="n" s="327">
-        <v>0.0</v>
-      </c>
-      <c r="F16" t="n" s="325">
+      <c r="E16" t="n" s="418">
+        <v>0.0</v>
+      </c>
+      <c r="F16" t="n" s="416">
         <v>4.0</v>
       </c>
-      <c r="J16" t="s" s="323">
+      <c r="J16" t="s" s="414">
         <v>14</v>
       </c>
     </row>
     <row r="17">
-      <c r="C17" t="s" s="330">
-        <v>63</v>
-      </c>
-      <c r="D17" t="n" s="331">
+      <c r="C17" t="s" s="421">
+        <v>83</v>
+      </c>
+      <c r="D17" t="n" s="422">
         <v>1.0</v>
       </c>
-      <c r="E17" t="n" s="332">
-        <v>0.0</v>
-      </c>
-      <c r="F17" t="n" s="329">
+      <c r="E17" t="n" s="423">
+        <v>0.0</v>
+      </c>
+      <c r="F17" t="n" s="420">
         <v>18.0</v>
       </c>
-      <c r="J17" t="s" s="328">
+      <c r="J17" t="s" s="419">
         <v>12</v>
       </c>
     </row>
     <row r="18">
-      <c r="C18" t="s" s="335">
-        <v>63</v>
-      </c>
-      <c r="D18" t="n" s="336">
+      <c r="C18" t="s" s="426">
+        <v>83</v>
+      </c>
+      <c r="D18" t="n" s="427">
         <v>1.0</v>
       </c>
-      <c r="E18" t="n" s="337">
-        <v>0.0</v>
-      </c>
-      <c r="F18" t="n" s="334">
+      <c r="E18" t="n" s="428">
+        <v>0.0</v>
+      </c>
+      <c r="F18" t="n" s="425">
         <v>10.0</v>
       </c>
-      <c r="J18" t="s" s="333">
+      <c r="J18" t="s" s="424">
         <v>6</v>
       </c>
     </row>
     <row r="19">
-      <c r="C19" t="s" s="339">
-        <v>63</v>
-      </c>
-      <c r="D19" t="n" s="341">
+      <c r="C19" t="s" s="430">
+        <v>83</v>
+      </c>
+      <c r="D19" t="n" s="432">
         <v>1.0</v>
       </c>
-      <c r="E19" t="n" s="342">
-        <v>0.0</v>
-      </c>
-      <c r="F19" t="n" s="340">
+      <c r="E19" t="n" s="433">
+        <v>0.0</v>
+      </c>
+      <c r="F19" t="n" s="431">
         <v>8.0</v>
       </c>
-      <c r="J19" t="s" s="338">
+      <c r="J19" t="s" s="429">
         <v>14</v>
       </c>
     </row>
     <row r="20">
-      <c r="C20" t="s" s="346">
-        <v>62</v>
-      </c>
-      <c r="G20" t="n" s="345">
-        <v>0.0</v>
-      </c>
-      <c r="H20" t="n" s="344">
+      <c r="C20" t="s" s="437">
+        <v>82</v>
+      </c>
+      <c r="G20" t="n" s="436">
+        <v>0.0</v>
+      </c>
+      <c r="H20" t="n" s="435">
         <v>4.0</v>
       </c>
-      <c r="J20" t="s" s="343">
+      <c r="J20" t="s" s="434">
         <v>15</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="417">
-        <v>73</v>
-      </c>
-      <c r="B21" t="s" s="368">
-        <v>67</v>
-      </c>
-      <c r="C21" t="s" s="351">
-        <v>66</v>
-      </c>
-      <c r="D21" t="n" s="352">
+      <c r="A21" t="s" s="508">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s" s="459">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s" s="442">
+        <v>86</v>
+      </c>
+      <c r="D21" t="n" s="443">
         <v>1.0</v>
       </c>
-      <c r="E21" t="n" s="353">
-        <v>0.0</v>
-      </c>
-      <c r="F21" t="n" s="350">
+      <c r="E21" t="n" s="444">
+        <v>0.0</v>
+      </c>
+      <c r="F21" t="n" s="441">
         <v>8.0</v>
       </c>
-      <c r="J21" t="s" s="349">
+      <c r="J21" t="s" s="440">
         <v>12</v>
       </c>
     </row>
     <row r="22">
-      <c r="C22" t="s" s="356">
-        <v>66</v>
-      </c>
-      <c r="D22" t="n" s="357">
+      <c r="C22" t="s" s="447">
+        <v>86</v>
+      </c>
+      <c r="D22" t="n" s="448">
         <v>1.0</v>
       </c>
-      <c r="E22" t="n" s="358">
-        <v>0.0</v>
-      </c>
-      <c r="F22" t="n" s="355">
+      <c r="E22" t="n" s="449">
+        <v>0.0</v>
+      </c>
+      <c r="F22" t="n" s="446">
         <v>8.0</v>
       </c>
-      <c r="J22" t="s" s="354">
+      <c r="J22" t="s" s="445">
         <v>6</v>
       </c>
     </row>
     <row r="23">
-      <c r="C23" t="s" s="361">
+      <c r="C23" t="s" s="452">
         <v>18</v>
       </c>
-      <c r="D23" t="n" s="362">
+      <c r="D23" t="n" s="453">
         <v>1.0</v>
       </c>
-      <c r="E23" t="n" s="363">
-        <v>0.0</v>
-      </c>
-      <c r="F23" t="n" s="360">
+      <c r="E23" t="n" s="454">
+        <v>0.0</v>
+      </c>
+      <c r="F23" t="n" s="451">
         <v>8.0</v>
       </c>
-      <c r="J23" t="s" s="359">
+      <c r="J23" t="s" s="450">
         <v>6</v>
       </c>
     </row>
     <row r="24">
-      <c r="C24" t="s" s="367">
-        <v>66</v>
-      </c>
-      <c r="G24" t="n" s="366">
-        <v>0.0</v>
-      </c>
-      <c r="H24" t="n" s="365">
+      <c r="C24" t="s" s="458">
+        <v>86</v>
+      </c>
+      <c r="G24" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="H24" t="n" s="456">
         <v>2.0</v>
       </c>
-      <c r="J24" t="s" s="364">
+      <c r="J24" t="s" s="455">
         <v>22</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="374">
-        <v>68</v>
-      </c>
-      <c r="C25" t="s" s="370">
+      <c r="B25" t="s" s="465">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s" s="461">
         <v>18</v>
       </c>
-      <c r="D25" t="n" s="373">
-        <v>0.0</v>
-      </c>
-      <c r="E25" t="n" s="372">
+      <c r="D25" t="n" s="464">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="463">
         <v>1.0</v>
       </c>
-      <c r="F25" t="n" s="371">
+      <c r="F25" t="n" s="462">
         <v>8.0</v>
       </c>
-      <c r="J25" t="s" s="369">
+      <c r="J25" t="s" s="460">
         <v>6</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="394">
-        <v>69</v>
-      </c>
-      <c r="C26" t="s" s="377">
-        <v>66</v>
-      </c>
-      <c r="D26" t="n" s="378">
+      <c r="B26" t="s" s="485">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s" s="468">
+        <v>86</v>
+      </c>
+      <c r="D26" t="n" s="469">
         <v>1.0</v>
       </c>
-      <c r="E26" t="n" s="379">
-        <v>0.0</v>
-      </c>
-      <c r="F26" t="n" s="376">
+      <c r="E26" t="n" s="470">
+        <v>0.0</v>
+      </c>
+      <c r="F26" t="n" s="467">
         <v>8.0</v>
       </c>
-      <c r="J26" t="s" s="375">
+      <c r="J26" t="s" s="466">
         <v>12</v>
       </c>
     </row>
     <row r="27">
-      <c r="C27" t="s" s="381">
-        <v>66</v>
-      </c>
-      <c r="D27" t="n" s="383">
+      <c r="C27" t="s" s="472">
+        <v>86</v>
+      </c>
+      <c r="D27" t="n" s="474">
         <v>1.0</v>
       </c>
-      <c r="E27" t="n" s="384">
-        <v>0.0</v>
-      </c>
-      <c r="F27" t="n" s="382">
+      <c r="E27" t="n" s="475">
+        <v>0.0</v>
+      </c>
+      <c r="F27" t="n" s="473">
         <v>8.0</v>
       </c>
-      <c r="J27" t="s" s="380">
+      <c r="J27" t="s" s="471">
         <v>14</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s" s="386">
+      <c r="C28" t="s" s="477">
         <v>18</v>
       </c>
-      <c r="D28" t="n" s="388">
+      <c r="D28" t="n" s="479">
         <v>1.0</v>
       </c>
-      <c r="E28" t="n" s="389">
-        <v>0.0</v>
-      </c>
-      <c r="F28" t="n" s="387">
+      <c r="E28" t="n" s="480">
+        <v>0.0</v>
+      </c>
+      <c r="F28" t="n" s="478">
         <v>8.0</v>
       </c>
-      <c r="J28" t="s" s="385">
+      <c r="J28" t="s" s="476">
         <v>14</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s" s="393">
-        <v>66</v>
-      </c>
-      <c r="G29" t="n" s="392">
-        <v>0.0</v>
-      </c>
-      <c r="H29" t="n" s="391">
+      <c r="C29" t="s" s="484">
+        <v>86</v>
+      </c>
+      <c r="G29" t="n" s="483">
+        <v>0.0</v>
+      </c>
+      <c r="H29" t="n" s="482">
         <v>2.0</v>
       </c>
-      <c r="J29" t="s" s="390">
+      <c r="J29" t="s" s="481">
         <v>22</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="400">
-        <v>70</v>
-      </c>
-      <c r="C30" t="s" s="396">
+      <c r="B30" t="s" s="491">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s" s="487">
         <v>18</v>
       </c>
-      <c r="D30" t="n" s="399">
-        <v>0.0</v>
-      </c>
-      <c r="E30" t="n" s="398">
+      <c r="D30" t="n" s="490">
+        <v>0.0</v>
+      </c>
+      <c r="E30" t="n" s="489">
         <v>1.0</v>
       </c>
-      <c r="F30" t="n" s="397">
+      <c r="F30" t="n" s="488">
         <v>8.0</v>
       </c>
-      <c r="J30" t="s" s="395">
+      <c r="J30" t="s" s="486">
         <v>14</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="410">
-        <v>71</v>
-      </c>
-      <c r="C31" t="s" s="402">
+      <c r="B31" t="s" s="501">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s" s="493">
         <v>18</v>
       </c>
-      <c r="D31" t="n" s="404">
+      <c r="D31" t="n" s="495">
         <v>1.0</v>
       </c>
-      <c r="E31" t="n" s="405">
-        <v>0.0</v>
-      </c>
-      <c r="F31" t="n" s="403">
+      <c r="E31" t="n" s="496">
+        <v>0.0</v>
+      </c>
+      <c r="F31" t="n" s="494">
         <v>25.0</v>
       </c>
-      <c r="J31" t="s" s="401">
+      <c r="J31" t="s" s="492">
         <v>14</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s" s="409">
+      <c r="C32" t="s" s="500">
         <v>18</v>
       </c>
-      <c r="G32" t="n" s="407">
+      <c r="G32" t="n" s="498">
         <v>2.0</v>
       </c>
-      <c r="H32" t="n" s="408">
-        <v>0.0</v>
-      </c>
-      <c r="J32" t="s" s="406">
+      <c r="H32" t="n" s="499">
+        <v>0.0</v>
+      </c>
+      <c r="J32" t="s" s="497">
         <v>8</v>
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="416">
-        <v>72</v>
-      </c>
-      <c r="C33" t="s" s="412">
+      <c r="B33" t="s" s="507">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s" s="503">
         <v>18</v>
       </c>
-      <c r="D33" t="n" s="415">
-        <v>0.0</v>
-      </c>
-      <c r="E33" t="n" s="414">
+      <c r="D33" t="n" s="506">
+        <v>0.0</v>
+      </c>
+      <c r="E33" t="n" s="505">
         <v>1.0</v>
       </c>
-      <c r="F33" t="n" s="413">
+      <c r="F33" t="n" s="504">
         <v>25.0</v>
       </c>
-      <c r="J33" t="s" s="411">
+      <c r="J33" t="s" s="502">
         <v>14</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="484">
-        <v>80</v>
-      </c>
-      <c r="B34" t="s" s="432">
-        <v>75</v>
-      </c>
-      <c r="C34" t="s" s="420">
-        <v>74</v>
-      </c>
-      <c r="D34" t="n" s="421">
+      <c r="A34" t="s" s="575">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s" s="523">
+        <v>95</v>
+      </c>
+      <c r="C34" t="s" s="511">
+        <v>94</v>
+      </c>
+      <c r="D34" t="n" s="512">
         <v>1.0</v>
       </c>
-      <c r="E34" t="n" s="422">
-        <v>0.0</v>
-      </c>
-      <c r="F34" t="n" s="419">
+      <c r="E34" t="n" s="513">
+        <v>0.0</v>
+      </c>
+      <c r="F34" t="n" s="510">
         <v>14.0</v>
       </c>
-      <c r="J34" t="s" s="418">
+      <c r="J34" t="s" s="509">
         <v>12</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s" s="424">
-        <v>74</v>
-      </c>
-      <c r="D35" t="n" s="426">
+      <c r="C35" t="s" s="515">
+        <v>94</v>
+      </c>
+      <c r="D35" t="n" s="517">
         <v>1.0</v>
       </c>
-      <c r="E35" t="n" s="427">
-        <v>0.0</v>
-      </c>
-      <c r="F35" t="n" s="425">
+      <c r="E35" t="n" s="518">
+        <v>0.0</v>
+      </c>
+      <c r="F35" t="n" s="516">
         <v>4.0</v>
       </c>
-      <c r="J35" t="s" s="423">
+      <c r="J35" t="s" s="514">
         <v>14</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s" s="431">
-        <v>74</v>
-      </c>
-      <c r="G36" t="n" s="430">
-        <v>0.0</v>
-      </c>
-      <c r="H36" t="n" s="429">
+      <c r="C36" t="s" s="522">
+        <v>94</v>
+      </c>
+      <c r="G36" t="n" s="521">
+        <v>0.0</v>
+      </c>
+      <c r="H36" t="n" s="520">
         <v>2.0</v>
       </c>
-      <c r="J36" t="s" s="428">
+      <c r="J36" t="s" s="519">
         <v>22</v>
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="467">
-        <v>78</v>
-      </c>
-      <c r="C37" t="s" s="435">
-        <v>74</v>
-      </c>
-      <c r="D37" t="n" s="436">
+      <c r="B37" t="s" s="558">
+        <v>98</v>
+      </c>
+      <c r="C37" t="s" s="526">
+        <v>94</v>
+      </c>
+      <c r="D37" t="n" s="527">
         <v>1.0</v>
       </c>
-      <c r="E37" t="n" s="437">
-        <v>0.0</v>
-      </c>
-      <c r="F37" t="n" s="434">
+      <c r="E37" t="n" s="528">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n" s="525">
         <v>8.0</v>
       </c>
-      <c r="J37" t="s" s="433">
+      <c r="J37" t="s" s="524">
         <v>12</v>
       </c>
     </row>
     <row r="38">
-      <c r="C38" t="s" s="440">
-        <v>74</v>
-      </c>
-      <c r="D38" t="n" s="441">
+      <c r="C38" t="s" s="531">
+        <v>94</v>
+      </c>
+      <c r="D38" t="n" s="532">
         <v>1.0</v>
       </c>
-      <c r="E38" t="n" s="442">
-        <v>0.0</v>
-      </c>
-      <c r="F38" t="n" s="439">
+      <c r="E38" t="n" s="533">
+        <v>0.0</v>
+      </c>
+      <c r="F38" t="n" s="530">
         <v>2.0</v>
       </c>
-      <c r="J38" t="s" s="438">
+      <c r="J38" t="s" s="529">
         <v>6</v>
       </c>
     </row>
     <row r="39">
-      <c r="C39" t="s" s="445">
-        <v>76</v>
-      </c>
-      <c r="D39" t="n" s="446">
+      <c r="C39" t="s" s="536">
+        <v>96</v>
+      </c>
+      <c r="D39" t="n" s="537">
         <v>1.0</v>
       </c>
-      <c r="E39" t="n" s="447">
-        <v>0.0</v>
-      </c>
-      <c r="F39" t="n" s="444">
+      <c r="E39" t="n" s="538">
+        <v>0.0</v>
+      </c>
+      <c r="F39" t="n" s="535">
         <v>12.0</v>
       </c>
-      <c r="J39" t="s" s="443">
+      <c r="J39" t="s" s="534">
         <v>12</v>
       </c>
     </row>
     <row r="40">
-      <c r="C40" t="s" s="449">
-        <v>76</v>
-      </c>
-      <c r="D40" t="n" s="451">
+      <c r="C40" t="s" s="540">
+        <v>96</v>
+      </c>
+      <c r="D40" t="n" s="542">
         <v>1.0</v>
       </c>
-      <c r="E40" t="n" s="452">
-        <v>0.0</v>
-      </c>
-      <c r="F40" t="n" s="450">
+      <c r="E40" t="n" s="543">
+        <v>0.0</v>
+      </c>
+      <c r="F40" t="n" s="541">
         <v>14.0</v>
       </c>
-      <c r="J40" t="s" s="448">
+      <c r="J40" t="s" s="539">
         <v>14</v>
       </c>
     </row>
     <row r="41">
-      <c r="C41" t="s" s="455">
-        <v>77</v>
-      </c>
-      <c r="D41" t="n" s="456">
+      <c r="C41" t="s" s="546">
+        <v>97</v>
+      </c>
+      <c r="D41" t="n" s="547">
         <v>1.0</v>
       </c>
-      <c r="E41" t="n" s="457">
-        <v>0.0</v>
-      </c>
-      <c r="F41" t="n" s="454">
+      <c r="E41" t="n" s="548">
+        <v>0.0</v>
+      </c>
+      <c r="F41" t="n" s="545">
         <v>4.0</v>
       </c>
-      <c r="J41" t="s" s="453">
+      <c r="J41" t="s" s="544">
         <v>6</v>
       </c>
     </row>
     <row r="42">
-      <c r="C42" t="s" s="459">
-        <v>77</v>
-      </c>
-      <c r="D42" t="n" s="461">
+      <c r="C42" t="s" s="550">
+        <v>97</v>
+      </c>
+      <c r="D42" t="n" s="552">
         <v>1.0</v>
       </c>
-      <c r="E42" t="n" s="462">
-        <v>0.0</v>
-      </c>
-      <c r="F42" t="n" s="460">
+      <c r="E42" t="n" s="553">
+        <v>0.0</v>
+      </c>
+      <c r="F42" t="n" s="551">
         <v>6.0</v>
       </c>
-      <c r="J42" t="s" s="458">
+      <c r="J42" t="s" s="549">
         <v>14</v>
       </c>
     </row>
     <row r="43">
-      <c r="C43" t="s" s="466">
-        <v>74</v>
-      </c>
-      <c r="G43" t="n" s="465">
-        <v>0.0</v>
-      </c>
-      <c r="H43" t="n" s="464">
+      <c r="C43" t="s" s="557">
+        <v>94</v>
+      </c>
+      <c r="G43" t="n" s="556">
+        <v>0.0</v>
+      </c>
+      <c r="H43" t="n" s="555">
         <v>4.0</v>
       </c>
-      <c r="J43" t="s" s="463">
+      <c r="J43" t="s" s="554">
         <v>15</v>
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="483">
-        <v>79</v>
-      </c>
-      <c r="C44" t="s" s="469">
-        <v>74</v>
-      </c>
-      <c r="D44" t="n" s="472">
-        <v>0.0</v>
-      </c>
-      <c r="E44" t="n" s="471">
+      <c r="B44" t="s" s="574">
+        <v>99</v>
+      </c>
+      <c r="C44" t="s" s="560">
+        <v>94</v>
+      </c>
+      <c r="D44" t="n" s="563">
+        <v>0.0</v>
+      </c>
+      <c r="E44" t="n" s="562">
         <v>1.0</v>
       </c>
-      <c r="F44" t="n" s="470">
+      <c r="F44" t="n" s="561">
         <v>2.0</v>
       </c>
-      <c r="J44" t="s" s="468">
+      <c r="J44" t="s" s="559">
         <v>6</v>
       </c>
     </row>
     <row r="45">
-      <c r="C45" t="s" s="474">
-        <v>76</v>
-      </c>
-      <c r="D45" t="n" s="477">
-        <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="476">
+      <c r="C45" t="s" s="565">
+        <v>96</v>
+      </c>
+      <c r="D45" t="n" s="568">
+        <v>0.0</v>
+      </c>
+      <c r="E45" t="n" s="567">
         <v>1.0</v>
       </c>
-      <c r="F45" t="n" s="475">
+      <c r="F45" t="n" s="566">
         <v>4.0</v>
       </c>
-      <c r="J45" t="s" s="473">
+      <c r="J45" t="s" s="564">
         <v>6</v>
       </c>
     </row>
     <row r="46">
-      <c r="C46" t="s" s="479">
-        <v>76</v>
-      </c>
-      <c r="D46" t="n" s="482">
-        <v>0.0</v>
-      </c>
-      <c r="E46" t="n" s="481">
+      <c r="C46" t="s" s="570">
+        <v>96</v>
+      </c>
+      <c r="D46" t="n" s="573">
+        <v>0.0</v>
+      </c>
+      <c r="E46" t="n" s="572">
         <v>1.0</v>
       </c>
-      <c r="F46" t="n" s="480">
+      <c r="F46" t="n" s="571">
         <v>20.0</v>
       </c>
-      <c r="J46" t="s" s="478">
+      <c r="J46" t="s" s="569">
         <v>14</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="567">
-        <v>89</v>
-      </c>
-      <c r="B47" t="s" s="504">
-        <v>82</v>
-      </c>
-      <c r="C47" t="s" s="487">
-        <v>81</v>
-      </c>
-      <c r="D47" t="n" s="488">
+      <c r="A47" t="s" s="658">
+        <v>109</v>
+      </c>
+      <c r="B47" t="s" s="595">
+        <v>102</v>
+      </c>
+      <c r="C47" t="s" s="578">
+        <v>101</v>
+      </c>
+      <c r="D47" t="n" s="579">
         <v>1.0</v>
       </c>
-      <c r="E47" t="n" s="489">
-        <v>0.0</v>
-      </c>
-      <c r="F47" t="n" s="486">
+      <c r="E47" t="n" s="580">
+        <v>0.0</v>
+      </c>
+      <c r="F47" t="n" s="577">
         <v>10.0</v>
       </c>
-      <c r="J47" t="s" s="485">
+      <c r="J47" t="s" s="576">
         <v>12</v>
       </c>
     </row>
     <row r="48">
-      <c r="C48" t="s" s="492">
-        <v>81</v>
-      </c>
-      <c r="D48" t="n" s="493">
+      <c r="C48" t="s" s="583">
+        <v>101</v>
+      </c>
+      <c r="D48" t="n" s="584">
         <v>1.0</v>
       </c>
-      <c r="E48" t="n" s="494">
-        <v>0.0</v>
-      </c>
-      <c r="F48" t="n" s="491">
+      <c r="E48" t="n" s="585">
+        <v>0.0</v>
+      </c>
+      <c r="F48" t="n" s="582">
         <v>4.0</v>
       </c>
-      <c r="J48" t="s" s="490">
+      <c r="J48" t="s" s="581">
         <v>6</v>
       </c>
     </row>
     <row r="49">
-      <c r="C49" t="s" s="496">
-        <v>81</v>
-      </c>
-      <c r="D49" t="n" s="498">
+      <c r="C49" t="s" s="587">
+        <v>101</v>
+      </c>
+      <c r="D49" t="n" s="589">
         <v>1.0</v>
       </c>
-      <c r="E49" t="n" s="499">
-        <v>0.0</v>
-      </c>
-      <c r="F49" t="n" s="497">
+      <c r="E49" t="n" s="590">
+        <v>0.0</v>
+      </c>
+      <c r="F49" t="n" s="588">
         <v>10.0</v>
       </c>
-      <c r="J49" t="s" s="495">
+      <c r="J49" t="s" s="586">
         <v>14</v>
       </c>
     </row>
     <row r="50">
-      <c r="C50" t="s" s="503">
-        <v>81</v>
-      </c>
-      <c r="G50" t="n" s="501">
+      <c r="C50" t="s" s="594">
+        <v>101</v>
+      </c>
+      <c r="G50" t="n" s="592">
         <v>2.0</v>
       </c>
-      <c r="H50" t="n" s="502">
-        <v>0.0</v>
-      </c>
-      <c r="J50" t="s" s="500">
+      <c r="H50" t="n" s="593">
+        <v>0.0</v>
+      </c>
+      <c r="J50" t="s" s="591">
         <v>8</v>
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="515">
-        <v>83</v>
-      </c>
-      <c r="C51" t="s" s="506">
-        <v>81</v>
-      </c>
-      <c r="D51" t="n" s="509">
-        <v>0.0</v>
-      </c>
-      <c r="E51" t="n" s="508">
+      <c r="B51" t="s" s="606">
+        <v>103</v>
+      </c>
+      <c r="C51" t="s" s="597">
+        <v>101</v>
+      </c>
+      <c r="D51" t="n" s="600">
+        <v>0.0</v>
+      </c>
+      <c r="E51" t="n" s="599">
         <v>1.0</v>
       </c>
-      <c r="F51" t="n" s="507">
+      <c r="F51" t="n" s="598">
         <v>4.0</v>
       </c>
-      <c r="J51" t="s" s="505">
+      <c r="J51" t="s" s="596">
         <v>6</v>
       </c>
     </row>
     <row r="52">
-      <c r="C52" t="s" s="511">
-        <v>81</v>
-      </c>
-      <c r="D52" t="n" s="514">
-        <v>0.0</v>
-      </c>
-      <c r="E52" t="n" s="513">
+      <c r="C52" t="s" s="602">
+        <v>101</v>
+      </c>
+      <c r="D52" t="n" s="605">
+        <v>0.0</v>
+      </c>
+      <c r="E52" t="n" s="604">
         <v>1.0</v>
       </c>
-      <c r="F52" t="n" s="512">
+      <c r="F52" t="n" s="603">
         <v>10.0</v>
       </c>
-      <c r="J52" t="s" s="510">
+      <c r="J52" t="s" s="601">
         <v>14</v>
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="530">
-        <v>85</v>
-      </c>
-      <c r="C53" t="s" s="518">
-        <v>84</v>
-      </c>
-      <c r="D53" t="n" s="519">
+      <c r="B53" t="s" s="621">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s" s="609">
+        <v>104</v>
+      </c>
+      <c r="D53" t="n" s="610">
         <v>1.0</v>
       </c>
-      <c r="E53" t="n" s="520">
-        <v>0.0</v>
-      </c>
-      <c r="F53" t="n" s="517">
+      <c r="E53" t="n" s="611">
+        <v>0.0</v>
+      </c>
+      <c r="F53" t="n" s="608">
         <v>8.0</v>
       </c>
-      <c r="J53" t="s" s="516">
+      <c r="J53" t="s" s="607">
         <v>12</v>
       </c>
     </row>
     <row r="54">
-      <c r="C54" t="s" s="522">
-        <v>84</v>
-      </c>
-      <c r="D54" t="n" s="524">
+      <c r="C54" t="s" s="613">
+        <v>104</v>
+      </c>
+      <c r="D54" t="n" s="615">
         <v>1.0</v>
       </c>
-      <c r="E54" t="n" s="525">
-        <v>0.0</v>
-      </c>
-      <c r="F54" t="n" s="523">
+      <c r="E54" t="n" s="616">
+        <v>0.0</v>
+      </c>
+      <c r="F54" t="n" s="614">
         <v>10.0</v>
       </c>
-      <c r="J54" t="s" s="521">
+      <c r="J54" t="s" s="612">
         <v>14</v>
       </c>
     </row>
     <row r="55">
-      <c r="C55" t="s" s="529">
-        <v>84</v>
-      </c>
-      <c r="G55" t="n" s="527">
+      <c r="C55" t="s" s="620">
+        <v>104</v>
+      </c>
+      <c r="G55" t="n" s="618">
         <v>2.0</v>
       </c>
-      <c r="H55" t="n" s="528">
-        <v>0.0</v>
-      </c>
-      <c r="J55" t="s" s="526">
+      <c r="H55" t="n" s="619">
+        <v>0.0</v>
+      </c>
+      <c r="J55" t="s" s="617">
         <v>8</v>
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="555">
-        <v>87</v>
-      </c>
-      <c r="C56" t="s" s="533">
+      <c r="B56" t="s" s="646">
+        <v>107</v>
+      </c>
+      <c r="C56" t="s" s="624">
         <v>34</v>
       </c>
-      <c r="D56" t="n" s="534">
+      <c r="D56" t="n" s="625">
         <v>1.0</v>
       </c>
-      <c r="E56" t="n" s="535">
-        <v>0.0</v>
-      </c>
-      <c r="F56" t="n" s="532">
+      <c r="E56" t="n" s="626">
+        <v>0.0</v>
+      </c>
+      <c r="F56" t="n" s="623">
         <v>4.0</v>
       </c>
-      <c r="J56" t="s" s="531">
+      <c r="J56" t="s" s="622">
         <v>12</v>
       </c>
     </row>
     <row r="57">
-      <c r="C57" t="s" s="537">
+      <c r="C57" t="s" s="628">
         <v>34</v>
       </c>
-      <c r="D57" t="n" s="539">
+      <c r="D57" t="n" s="630">
         <v>1.0</v>
       </c>
-      <c r="E57" t="n" s="540">
-        <v>0.0</v>
-      </c>
-      <c r="F57" t="n" s="538">
+      <c r="E57" t="n" s="631">
+        <v>0.0</v>
+      </c>
+      <c r="F57" t="n" s="629">
         <v>10.0</v>
       </c>
-      <c r="J57" t="s" s="536">
+      <c r="J57" t="s" s="627">
         <v>14</v>
       </c>
     </row>
     <row r="58">
-      <c r="C58" t="s" s="543">
+      <c r="C58" t="s" s="634">
+        <v>106</v>
+      </c>
+      <c r="D58" t="n" s="635">
+        <v>1.0</v>
+      </c>
+      <c r="E58" t="n" s="636">
+        <v>0.0</v>
+      </c>
+      <c r="F58" t="n" s="633">
+        <v>4.0</v>
+      </c>
+      <c r="J58" t="s" s="632">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="s" s="639">
+        <v>106</v>
+      </c>
+      <c r="D59" t="n" s="640">
+        <v>1.0</v>
+      </c>
+      <c r="E59" t="n" s="641">
+        <v>0.0</v>
+      </c>
+      <c r="F59" t="n" s="638">
+        <v>4.0</v>
+      </c>
+      <c r="J59" t="s" s="637">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="s" s="645">
+        <v>34</v>
+      </c>
+      <c r="G60" t="n" s="643">
+        <v>2.0</v>
+      </c>
+      <c r="H60" t="n" s="644">
+        <v>0.0</v>
+      </c>
+      <c r="J60" t="s" s="642">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s" s="657">
+        <v>108</v>
+      </c>
+      <c r="C61" t="s" s="648">
+        <v>34</v>
+      </c>
+      <c r="D61" t="n" s="651">
+        <v>0.0</v>
+      </c>
+      <c r="E61" t="n" s="650">
+        <v>1.0</v>
+      </c>
+      <c r="F61" t="n" s="649">
+        <v>10.0</v>
+      </c>
+      <c r="J61" t="s" s="647">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="s" s="653">
+        <v>106</v>
+      </c>
+      <c r="D62" t="n" s="656">
+        <v>0.0</v>
+      </c>
+      <c r="E62" t="n" s="655">
+        <v>1.0</v>
+      </c>
+      <c r="F62" t="n" s="654">
+        <v>4.0</v>
+      </c>
+      <c r="J62" t="s" s="652">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="710">
+        <v>116</v>
+      </c>
+      <c r="B63" t="s" s="673">
+        <v>110</v>
+      </c>
+      <c r="C63" t="s" s="661">
         <v>86</v>
       </c>
-      <c r="D58" t="n" s="544">
+      <c r="D63" t="n" s="662">
         <v>1.0</v>
       </c>
-      <c r="E58" t="n" s="545">
-        <v>0.0</v>
-      </c>
-      <c r="F58" t="n" s="542">
+      <c r="E63" t="n" s="663">
+        <v>0.0</v>
+      </c>
+      <c r="F63" t="n" s="660">
+        <v>8.0</v>
+      </c>
+      <c r="J63" t="s" s="659">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="s" s="666">
+        <v>86</v>
+      </c>
+      <c r="D64" t="n" s="667">
+        <v>1.0</v>
+      </c>
+      <c r="E64" t="n" s="668">
+        <v>0.0</v>
+      </c>
+      <c r="F64" t="n" s="665">
+        <v>8.0</v>
+      </c>
+      <c r="J64" t="s" s="664">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="s" s="672">
+        <v>86</v>
+      </c>
+      <c r="G65" t="n" s="671">
+        <v>0.0</v>
+      </c>
+      <c r="H65" t="n" s="670">
+        <v>2.0</v>
+      </c>
+      <c r="J65" t="s" s="669">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="s" s="679">
+        <v>111</v>
+      </c>
+      <c r="C66" t="s" s="675">
+        <v>18</v>
+      </c>
+      <c r="D66" t="n" s="678">
+        <v>0.0</v>
+      </c>
+      <c r="E66" t="n" s="677">
+        <v>1.0</v>
+      </c>
+      <c r="F66" t="n" s="676">
+        <v>8.0</v>
+      </c>
+      <c r="J66" t="s" s="674">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="s" s="699">
+        <v>114</v>
+      </c>
+      <c r="C67" t="s" s="682">
+        <v>112</v>
+      </c>
+      <c r="D67" t="n" s="683">
+        <v>1.0</v>
+      </c>
+      <c r="E67" t="n" s="684">
+        <v>0.0</v>
+      </c>
+      <c r="F67" t="n" s="681">
+        <v>6.0</v>
+      </c>
+      <c r="J67" t="s" s="680">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="s" s="687">
+        <v>112</v>
+      </c>
+      <c r="D68" t="n" s="688">
+        <v>1.0</v>
+      </c>
+      <c r="E68" t="n" s="689">
+        <v>0.0</v>
+      </c>
+      <c r="F68" t="n" s="686">
+        <v>6.0</v>
+      </c>
+      <c r="J68" t="s" s="685">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="s" s="692">
+        <v>113</v>
+      </c>
+      <c r="D69" t="n" s="693">
+        <v>1.0</v>
+      </c>
+      <c r="E69" t="n" s="694">
+        <v>0.0</v>
+      </c>
+      <c r="F69" t="n" s="691">
         <v>4.0</v>
       </c>
-      <c r="J58" t="s" s="541">
+      <c r="J69" t="s" s="690">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="s" s="698">
+        <v>112</v>
+      </c>
+      <c r="G70" t="n" s="696">
+        <v>2.0</v>
+      </c>
+      <c r="H70" t="n" s="697">
+        <v>0.0</v>
+      </c>
+      <c r="J70" t="s" s="695">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="s" s="709">
+        <v>115</v>
+      </c>
+      <c r="C71" t="s" s="701">
+        <v>112</v>
+      </c>
+      <c r="D71" t="n" s="703">
+        <v>1.0</v>
+      </c>
+      <c r="E71" t="n" s="704">
+        <v>0.0</v>
+      </c>
+      <c r="F71" t="n" s="702">
+        <v>25.0</v>
+      </c>
+      <c r="J71" t="s" s="700">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="s" s="708">
+        <v>112</v>
+      </c>
+      <c r="G72" t="n" s="706">
+        <v>2.0</v>
+      </c>
+      <c r="H72" t="n" s="707">
+        <v>0.0</v>
+      </c>
+      <c r="J72" t="s" s="705">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="776">
+        <v>125</v>
+      </c>
+      <c r="B73" t="s" s="720">
+        <v>117</v>
+      </c>
+      <c r="C73" t="s" s="713">
+        <v>7</v>
+      </c>
+      <c r="D73" t="n" s="714">
+        <v>1.0</v>
+      </c>
+      <c r="E73" t="n" s="715">
+        <v>0.0</v>
+      </c>
+      <c r="F73" t="n" s="712">
+        <v>40.0</v>
+      </c>
+      <c r="J73" t="s" s="711">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="s" s="719">
+        <v>7</v>
+      </c>
+      <c r="G74" t="n" s="718">
+        <v>0.0</v>
+      </c>
+      <c r="H74" t="n" s="717">
+        <v>4.0</v>
+      </c>
+      <c r="J74" t="s" s="716">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="s" s="730">
+        <v>119</v>
+      </c>
+      <c r="C75" t="s" s="723">
+        <v>118</v>
+      </c>
+      <c r="D75" t="n" s="724">
+        <v>1.0</v>
+      </c>
+      <c r="E75" t="n" s="725">
+        <v>0.0</v>
+      </c>
+      <c r="F75" t="n" s="722">
+        <v>10.0</v>
+      </c>
+      <c r="J75" t="s" s="721">
         <v>12</v>
       </c>
     </row>
-    <row r="59">
-      <c r="C59" t="s" s="548">
-        <v>86</v>
-      </c>
-      <c r="D59" t="n" s="549">
+    <row r="76">
+      <c r="C76" t="s" s="729">
+        <v>118</v>
+      </c>
+      <c r="G76" t="n" s="728">
+        <v>0.0</v>
+      </c>
+      <c r="H76" t="n" s="727">
+        <v>2.0</v>
+      </c>
+      <c r="J76" t="s" s="726">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="s" s="740">
+        <v>120</v>
+      </c>
+      <c r="C77" t="s" s="733">
+        <v>118</v>
+      </c>
+      <c r="D77" t="n" s="734">
         <v>1.0</v>
       </c>
-      <c r="E59" t="n" s="550">
-        <v>0.0</v>
-      </c>
-      <c r="F59" t="n" s="547">
+      <c r="E77" t="n" s="735">
+        <v>0.0</v>
+      </c>
+      <c r="F77" t="n" s="732">
+        <v>10.0</v>
+      </c>
+      <c r="J77" t="s" s="731">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="s" s="739">
+        <v>118</v>
+      </c>
+      <c r="G78" t="n" s="738">
+        <v>0.0</v>
+      </c>
+      <c r="H78" t="n" s="737">
+        <v>2.0</v>
+      </c>
+      <c r="J78" t="s" s="736">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="s" s="755">
+        <v>122</v>
+      </c>
+      <c r="C79" t="s" s="743">
+        <v>121</v>
+      </c>
+      <c r="D79" t="n" s="744">
+        <v>1.0</v>
+      </c>
+      <c r="E79" t="n" s="745">
+        <v>0.0</v>
+      </c>
+      <c r="F79" t="n" s="742">
+        <v>2.0</v>
+      </c>
+      <c r="J79" t="s" s="741">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="s" s="748">
+        <v>121</v>
+      </c>
+      <c r="D80" t="n" s="749">
+        <v>1.0</v>
+      </c>
+      <c r="E80" t="n" s="750">
+        <v>0.0</v>
+      </c>
+      <c r="F80" t="n" s="747">
+        <v>6.0</v>
+      </c>
+      <c r="J80" t="s" s="746">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="s" s="754">
+        <v>121</v>
+      </c>
+      <c r="G81" t="n" s="753">
+        <v>0.0</v>
+      </c>
+      <c r="H81" t="n" s="752">
+        <v>2.0</v>
+      </c>
+      <c r="J81" t="s" s="751">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="s" s="765">
+        <v>124</v>
+      </c>
+      <c r="C82" t="s" s="758">
+        <v>123</v>
+      </c>
+      <c r="D82" t="n" s="759">
+        <v>1.0</v>
+      </c>
+      <c r="E82" t="n" s="760">
+        <v>0.0</v>
+      </c>
+      <c r="F82" t="n" s="757">
+        <v>12.0</v>
+      </c>
+      <c r="J82" t="s" s="756">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="s" s="764">
+        <v>123</v>
+      </c>
+      <c r="G83" t="n" s="762">
+        <v>2.0</v>
+      </c>
+      <c r="H83" t="n" s="763">
+        <v>0.0</v>
+      </c>
+      <c r="J83" t="s" s="761">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="s" s="775">
+        <v>57</v>
+      </c>
+      <c r="C84" t="s" s="767">
+        <v>56</v>
+      </c>
+      <c r="D84" t="n" s="769">
+        <v>1.0</v>
+      </c>
+      <c r="E84" t="n" s="770">
+        <v>0.0</v>
+      </c>
+      <c r="F84" t="n" s="768">
+        <v>1.0</v>
+      </c>
+      <c r="J84" t="s" s="766">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="s" s="774">
+        <v>56</v>
+      </c>
+      <c r="G85" t="n" s="773">
+        <v>0.0</v>
+      </c>
+      <c r="H85" t="n" s="772">
         <v>4.0</v>
       </c>
-      <c r="J59" t="s" s="546">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="C60" t="s" s="554">
-        <v>34</v>
-      </c>
-      <c r="G60" t="n" s="552">
-        <v>2.0</v>
-      </c>
-      <c r="H60" t="n" s="553">
-        <v>0.0</v>
-      </c>
-      <c r="J60" t="s" s="551">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" t="s" s="566">
-        <v>88</v>
-      </c>
-      <c r="C61" t="s" s="557">
-        <v>34</v>
-      </c>
-      <c r="D61" t="n" s="560">
-        <v>0.0</v>
-      </c>
-      <c r="E61" t="n" s="559">
+      <c r="J85" t="s" s="771">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="785">
+        <v>127</v>
+      </c>
+      <c r="B86" t="s" s="784">
+        <v>126</v>
+      </c>
+      <c r="C86" t="s" s="777">
+        <v>56</v>
+      </c>
+      <c r="D86" t="n" s="778">
         <v>1.0</v>
       </c>
-      <c r="F61" t="n" s="558">
-        <v>10.0</v>
-      </c>
-      <c r="J61" t="s" s="556">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="C62" t="s" s="562">
-        <v>86</v>
-      </c>
-      <c r="D62" t="n" s="565">
-        <v>0.0</v>
-      </c>
-      <c r="E62" t="n" s="564">
-        <v>1.0</v>
-      </c>
-      <c r="F62" t="n" s="563">
+      <c r="E86" t="n" s="779">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="s" s="783">
+        <v>56</v>
+      </c>
+      <c r="G87" t="n" s="782">
+        <v>0.0</v>
+      </c>
+      <c r="H87" t="n" s="781">
         <v>4.0</v>
       </c>
-      <c r="J62" t="s" s="561">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="619">
-        <v>96</v>
-      </c>
-      <c r="B63" t="s" s="582">
-        <v>90</v>
-      </c>
-      <c r="C63" t="s" s="570">
-        <v>66</v>
-      </c>
-      <c r="D63" t="n" s="571">
-        <v>1.0</v>
-      </c>
-      <c r="E63" t="n" s="572">
-        <v>0.0</v>
-      </c>
-      <c r="F63" t="n" s="569">
-        <v>8.0</v>
-      </c>
-      <c r="J63" t="s" s="568">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="C64" t="s" s="575">
-        <v>66</v>
-      </c>
-      <c r="D64" t="n" s="576">
-        <v>1.0</v>
-      </c>
-      <c r="E64" t="n" s="577">
-        <v>0.0</v>
-      </c>
-      <c r="F64" t="n" s="574">
-        <v>8.0</v>
-      </c>
-      <c r="J64" t="s" s="573">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="C65" t="s" s="581">
-        <v>66</v>
-      </c>
-      <c r="G65" t="n" s="580">
-        <v>0.0</v>
-      </c>
-      <c r="H65" t="n" s="579">
-        <v>2.0</v>
-      </c>
-      <c r="J65" t="s" s="578">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" t="s" s="588">
-        <v>91</v>
-      </c>
-      <c r="C66" t="s" s="584">
-        <v>18</v>
-      </c>
-      <c r="D66" t="n" s="587">
-        <v>0.0</v>
-      </c>
-      <c r="E66" t="n" s="586">
-        <v>1.0</v>
-      </c>
-      <c r="F66" t="n" s="585">
-        <v>8.0</v>
-      </c>
-      <c r="J66" t="s" s="583">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="B67" t="s" s="608">
-        <v>94</v>
-      </c>
-      <c r="C67" t="s" s="591">
-        <v>92</v>
-      </c>
-      <c r="D67" t="n" s="592">
-        <v>1.0</v>
-      </c>
-      <c r="E67" t="n" s="593">
-        <v>0.0</v>
-      </c>
-      <c r="F67" t="n" s="590">
-        <v>6.0</v>
-      </c>
-      <c r="J67" t="s" s="589">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="C68" t="s" s="596">
-        <v>92</v>
-      </c>
-      <c r="D68" t="n" s="597">
-        <v>1.0</v>
-      </c>
-      <c r="E68" t="n" s="598">
-        <v>0.0</v>
-      </c>
-      <c r="F68" t="n" s="595">
-        <v>6.0</v>
-      </c>
-      <c r="J68" t="s" s="594">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="C69" t="s" s="601">
-        <v>93</v>
-      </c>
-      <c r="D69" t="n" s="602">
-        <v>1.0</v>
-      </c>
-      <c r="E69" t="n" s="603">
-        <v>0.0</v>
-      </c>
-      <c r="F69" t="n" s="600">
-        <v>4.0</v>
-      </c>
-      <c r="J69" t="s" s="599">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="C70" t="s" s="607">
-        <v>92</v>
-      </c>
-      <c r="G70" t="n" s="605">
-        <v>2.0</v>
-      </c>
-      <c r="H70" t="n" s="606">
-        <v>0.0</v>
-      </c>
-      <c r="J70" t="s" s="604">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="B71" t="s" s="618">
-        <v>95</v>
-      </c>
-      <c r="C71" t="s" s="610">
-        <v>92</v>
-      </c>
-      <c r="D71" t="n" s="612">
-        <v>1.0</v>
-      </c>
-      <c r="E71" t="n" s="613">
-        <v>0.0</v>
-      </c>
-      <c r="F71" t="n" s="611">
-        <v>25.0</v>
-      </c>
-      <c r="J71" t="s" s="609">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="C72" t="s" s="617">
-        <v>92</v>
-      </c>
-      <c r="G72" t="n" s="615">
-        <v>2.0</v>
-      </c>
-      <c r="H72" t="n" s="616">
-        <v>0.0</v>
-      </c>
-      <c r="J72" t="s" s="614">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="685">
-        <v>105</v>
-      </c>
-      <c r="B73" t="s" s="629">
-        <v>97</v>
-      </c>
-      <c r="C73" t="s" s="622">
-        <v>7</v>
-      </c>
-      <c r="D73" t="n" s="623">
-        <v>1.0</v>
-      </c>
-      <c r="E73" t="n" s="624">
-        <v>0.0</v>
-      </c>
-      <c r="F73" t="n" s="621">
-        <v>40.0</v>
-      </c>
-      <c r="J73" t="s" s="620">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="C74" t="s" s="628">
-        <v>7</v>
-      </c>
-      <c r="G74" t="n" s="627">
-        <v>0.0</v>
-      </c>
-      <c r="H74" t="n" s="626">
-        <v>4.0</v>
-      </c>
-      <c r="J74" t="s" s="625">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="B75" t="s" s="639">
-        <v>99</v>
-      </c>
-      <c r="C75" t="s" s="632">
-        <v>98</v>
-      </c>
-      <c r="D75" t="n" s="633">
-        <v>1.0</v>
-      </c>
-      <c r="E75" t="n" s="634">
-        <v>0.0</v>
-      </c>
-      <c r="F75" t="n" s="631">
-        <v>10.0</v>
-      </c>
-      <c r="J75" t="s" s="630">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="C76" t="s" s="638">
-        <v>98</v>
-      </c>
-      <c r="G76" t="n" s="637">
-        <v>0.0</v>
-      </c>
-      <c r="H76" t="n" s="636">
-        <v>2.0</v>
-      </c>
-      <c r="J76" t="s" s="635">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="B77" t="s" s="649">
-        <v>100</v>
-      </c>
-      <c r="C77" t="s" s="642">
-        <v>98</v>
-      </c>
-      <c r="D77" t="n" s="643">
-        <v>1.0</v>
-      </c>
-      <c r="E77" t="n" s="644">
-        <v>0.0</v>
-      </c>
-      <c r="F77" t="n" s="641">
-        <v>10.0</v>
-      </c>
-      <c r="J77" t="s" s="640">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="C78" t="s" s="648">
-        <v>98</v>
-      </c>
-      <c r="G78" t="n" s="647">
-        <v>0.0</v>
-      </c>
-      <c r="H78" t="n" s="646">
-        <v>2.0</v>
-      </c>
-      <c r="J78" t="s" s="645">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="B79" t="s" s="664">
-        <v>102</v>
-      </c>
-      <c r="C79" t="s" s="652">
-        <v>101</v>
-      </c>
-      <c r="D79" t="n" s="653">
-        <v>1.0</v>
-      </c>
-      <c r="E79" t="n" s="654">
-        <v>0.0</v>
-      </c>
-      <c r="F79" t="n" s="651">
-        <v>2.0</v>
-      </c>
-      <c r="J79" t="s" s="650">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="C80" t="s" s="657">
-        <v>101</v>
-      </c>
-      <c r="D80" t="n" s="658">
-        <v>1.0</v>
-      </c>
-      <c r="E80" t="n" s="659">
-        <v>0.0</v>
-      </c>
-      <c r="F80" t="n" s="656">
-        <v>6.0</v>
-      </c>
-      <c r="J80" t="s" s="655">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="C81" t="s" s="663">
-        <v>101</v>
-      </c>
-      <c r="G81" t="n" s="662">
-        <v>0.0</v>
-      </c>
-      <c r="H81" t="n" s="661">
-        <v>2.0</v>
-      </c>
-      <c r="J81" t="s" s="660">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="B82" t="s" s="674">
-        <v>104</v>
-      </c>
-      <c r="C82" t="s" s="667">
-        <v>103</v>
-      </c>
-      <c r="D82" t="n" s="668">
-        <v>1.0</v>
-      </c>
-      <c r="E82" t="n" s="669">
-        <v>0.0</v>
-      </c>
-      <c r="F82" t="n" s="666">
-        <v>12.0</v>
-      </c>
-      <c r="J82" t="s" s="665">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="C83" t="s" s="673">
-        <v>103</v>
-      </c>
-      <c r="G83" t="n" s="671">
-        <v>2.0</v>
-      </c>
-      <c r="H83" t="n" s="672">
-        <v>0.0</v>
-      </c>
-      <c r="J83" t="s" s="670">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="B84" t="s" s="684">
-        <v>57</v>
-      </c>
-      <c r="C84" t="s" s="676">
-        <v>56</v>
-      </c>
-      <c r="D84" t="n" s="678">
-        <v>1.0</v>
-      </c>
-      <c r="E84" t="n" s="679">
-        <v>0.0</v>
-      </c>
-      <c r="F84" t="n" s="677">
-        <v>1.0</v>
-      </c>
-      <c r="J84" t="s" s="675">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="C85" t="s" s="683">
-        <v>56</v>
-      </c>
-      <c r="G85" t="n" s="682">
-        <v>0.0</v>
-      </c>
-      <c r="H85" t="n" s="681">
-        <v>4.0</v>
-      </c>
-      <c r="J85" t="s" s="680">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="694">
-        <v>107</v>
-      </c>
-      <c r="B86" t="s" s="693">
-        <v>106</v>
-      </c>
-      <c r="C86" t="s" s="686">
-        <v>56</v>
-      </c>
-      <c r="D86" t="n" s="687">
-        <v>1.0</v>
-      </c>
-      <c r="E86" t="n" s="688">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="C87" t="s" s="692">
-        <v>56</v>
-      </c>
-      <c r="G87" t="n" s="691">
-        <v>0.0</v>
-      </c>
-      <c r="H87" t="n" s="690">
-        <v>4.0</v>
-      </c>
-      <c r="J87" t="s" s="689">
+      <c r="J87" t="s" s="780">
         <v>15</v>
       </c>
     </row>
@@ -8473,6 +10786,46 @@
     <mergeCell ref="A73:A85"/>
     <mergeCell ref="B86:B87"/>
     <mergeCell ref="A86:A87"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AA6:AC6"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="AD6:AF6"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AG6:AI6"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="AM6:AO6"/>
+    <mergeCell ref="AP5:AR5"/>
+    <mergeCell ref="AP6:AR6"/>
+    <mergeCell ref="AS5:AU5"/>
+    <mergeCell ref="AS6:AU6"/>
+    <mergeCell ref="AV5:AX5"/>
+    <mergeCell ref="AV6:AX6"/>
+    <mergeCell ref="AY5:BA5"/>
+    <mergeCell ref="AY6:BA6"/>
+    <mergeCell ref="BB5:BD5"/>
+    <mergeCell ref="BB6:BD6"/>
+    <mergeCell ref="BE5:BG5"/>
+    <mergeCell ref="BE6:BG6"/>
+    <mergeCell ref="BH5:BJ5"/>
+    <mergeCell ref="BH6:BJ6"/>
+    <mergeCell ref="BK5:BM5"/>
+    <mergeCell ref="BK6:BM6"/>
+    <mergeCell ref="BN5:BP5"/>
+    <mergeCell ref="BN6:BP6"/>
+    <mergeCell ref="BQ5:BS5"/>
+    <mergeCell ref="BQ6:BS6"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/planning/TestWriteTeachingUnits.xlsx
+++ b/planning/TestWriteTeachingUnits.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="147">
   <si>
     <t>DI3 S5</t>
   </si>
@@ -463,13 +463,1203 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/m/yyyy"/>
   </numFmts>
-  <fonts count="877">
+  <fonts count="1115">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -4960,7 +6150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="877">
+  <cellXfs count="1115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -5823,196 +7013,196 @@
     <xf numFmtId="0" fontId="287" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="164" fontId="288" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="289" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="290" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="291" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="292" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="293" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="294" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="295" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="296" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="297" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="298" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="299" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="300" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="301" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="302" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="303" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="304" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="305" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="306" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="307" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="308" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="309" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="310" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="311" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="312" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="313" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="314" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="315" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="316" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="317" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="318" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="319" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="320" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="321" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="322" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="323" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="324" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="325" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="326" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="327" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="328" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="329" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="330" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="331" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="332" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="333" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="334" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="335" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="336" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="337" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="338" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="339" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="340" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="341" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="342" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="343" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="344" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="345" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="346" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="347" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="348" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="349" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="350" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="351" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="295" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="307" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="319" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="331" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="343" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="352" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
@@ -6030,46 +7220,46 @@
     <xf numFmtId="0" fontId="356" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="358" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="359" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="360" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="361" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="362" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="363" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="364" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="365" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="366" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="367" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="368" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="369" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="370" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="357" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="367" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="371" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
@@ -6081,40 +7271,40 @@
     <xf numFmtId="0" fontId="373" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="164" fontId="374" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="375" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="164" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="379" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="380" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="381" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="382" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="383" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="381" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6129,34 +7319,34 @@
     <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="394" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="390" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="393" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6165,28 +7355,28 @@
     <xf numFmtId="0" fontId="401" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="404" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="409" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="402" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="405" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6201,28 +7391,28 @@
     <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="415" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="416" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="414" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="417" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="419" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="420" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="421" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="420" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6231,37 +7421,37 @@
     <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="424" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="429" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="430" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="434" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="426" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="429" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6273,28 +7463,28 @@
     <xf numFmtId="0" fontId="437" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="438" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="439" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="440" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="445" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="438" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="441" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="446" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6309,40 +7499,40 @@
     <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="450" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="453" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="454" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="455" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="450" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="453" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="460" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="461" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6360,25 +7550,25 @@
     <xf numFmtId="0" fontId="466" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="468" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="469" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="470" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="471" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="467" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="469" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6387,37 +7577,37 @@
     <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="476" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="481" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="482" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="484" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="485" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="486" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="478" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="481" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="487" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6429,43 +7619,43 @@
     <xf numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="490" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="491" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="490" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="492" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="494" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="164" fontId="493" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="495" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="496" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="497" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="498" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="499" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="500" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="501" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="502" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="164" fontId="496" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="503" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6486,7 +7676,7 @@
     <xf numFmtId="0" fontId="508" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="509" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="509" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6498,10 +7688,10 @@
     <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="513" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="514" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="513" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="515" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6513,10 +7703,10 @@
     <xf numFmtId="0" fontId="517" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="518" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="519" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="518" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="520" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6528,10 +7718,10 @@
     <xf numFmtId="0" fontId="522" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="523" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="524" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="523" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="525" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6543,10 +7733,10 @@
     <xf numFmtId="0" fontId="527" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="528" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="529" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="528" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="530" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6558,10 +7748,10 @@
     <xf numFmtId="0" fontId="532" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="533" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="534" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="533" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="535" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6573,10 +7763,10 @@
     <xf numFmtId="0" fontId="537" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="538" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="539" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="538" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="540" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6588,10 +7778,10 @@
     <xf numFmtId="0" fontId="542" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="543" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="544" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="543" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="545" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6603,10 +7793,10 @@
     <xf numFmtId="0" fontId="547" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="548" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="549" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="548" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="550" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6618,10 +7808,10 @@
     <xf numFmtId="0" fontId="552" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="553" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="554" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="553" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="555" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6636,7 +7826,7 @@
     <xf numFmtId="0" fontId="558" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="559" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="559" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="560" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6666,7 +7856,7 @@
     <xf numFmtId="0" fontId="568" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="569" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="569" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="570" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6681,13 +7871,13 @@
     <xf numFmtId="0" fontId="573" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="574" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="574" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="575" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="576" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="576" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="577" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6696,13 +7886,13 @@
     <xf numFmtId="0" fontId="578" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="579" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="579" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="580" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="581" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="581" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="582" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6714,10 +7904,10 @@
     <xf numFmtId="0" fontId="584" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="585" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="586" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="585" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="586" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="587" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6729,10 +7919,10 @@
     <xf numFmtId="0" fontId="589" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="590" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="591" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="590" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="592" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6744,10 +7934,10 @@
     <xf numFmtId="0" fontId="594" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="595" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="596" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="595" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="597" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6759,10 +7949,10 @@
     <xf numFmtId="0" fontId="599" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="600" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="601" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="600" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="601" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="602" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6774,13 +7964,13 @@
     <xf numFmtId="0" fontId="604" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="605" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="605" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="606" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="607" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="607" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="608" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6792,10 +7982,10 @@
     <xf numFmtId="0" fontId="610" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="611" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="612" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="611" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="613" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6807,10 +7997,10 @@
     <xf numFmtId="0" fontId="615" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="616" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="617" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="616" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="618" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6822,10 +8012,10 @@
     <xf numFmtId="0" fontId="620" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="621" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="622" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="621" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="623" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6840,10 +8030,10 @@
     <xf numFmtId="0" fontId="626" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="627" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="628" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="627" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="628" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="629" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6855,10 +8045,10 @@
     <xf numFmtId="0" fontId="631" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="632" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="633" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="632" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="633" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="634" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6870,10 +8060,10 @@
     <xf numFmtId="0" fontId="636" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="637" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="638" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="637" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="638" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="639" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6885,10 +8075,10 @@
     <xf numFmtId="0" fontId="641" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="642" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="643" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="642" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="643" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="644" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6900,10 +8090,10 @@
     <xf numFmtId="0" fontId="646" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="647" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="648" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="647" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="649" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6915,10 +8105,10 @@
     <xf numFmtId="0" fontId="651" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="652" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="653" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="652" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="653" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="654" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6933,10 +8123,10 @@
     <xf numFmtId="0" fontId="657" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="658" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="659" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="658" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="659" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="660" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6948,10 +8138,10 @@
     <xf numFmtId="0" fontId="662" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="663" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="664" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="663" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="664" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="665" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6963,10 +8153,10 @@
     <xf numFmtId="0" fontId="667" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="668" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="669" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="668" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="669" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="670" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6978,10 +8168,10 @@
     <xf numFmtId="0" fontId="672" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="673" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="674" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="673" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="674" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="675" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -6993,13 +8183,13 @@
     <xf numFmtId="0" fontId="677" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="678" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="678" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="679" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="680" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="680" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="681" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -7008,13 +8198,13 @@
     <xf numFmtId="0" fontId="682" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="683" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="683" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="684" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="685" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="685" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="686" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -7023,13 +8213,13 @@
     <xf numFmtId="0" fontId="687" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="688" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="688" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="689" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="690" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="690" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="691" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -7044,7 +8234,7 @@
     <xf numFmtId="0" fontId="694" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="695" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="695" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="696" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -7059,7 +8249,7 @@
     <xf numFmtId="0" fontId="699" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="700" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="700" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="701" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -7074,7 +8264,7 @@
     <xf numFmtId="0" fontId="704" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="705" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="705" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="706" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -7089,10 +8279,10 @@
     <xf numFmtId="0" fontId="709" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="710" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="711" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="710" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="711" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="712" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -7104,10 +8294,10 @@
     <xf numFmtId="0" fontId="714" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="715" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="716" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="715" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="716" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="717" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -7119,10 +8309,10 @@
     <xf numFmtId="0" fontId="719" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="720" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="721" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="720" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="721" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="722" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -7137,7 +8327,7 @@
     <xf numFmtId="0" fontId="725" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="726" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="726" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="727" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -7152,7 +8342,7 @@
     <xf numFmtId="0" fontId="730" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="731" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="731" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="732" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -7197,7 +8387,7 @@
     <xf numFmtId="0" fontId="745" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="746" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="746" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="747" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -7212,7 +8402,7 @@
     <xf numFmtId="0" fontId="750" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="751" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="751" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="752" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -7227,7 +8417,7 @@
     <xf numFmtId="0" fontId="755" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="756" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="756" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="757" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -7272,7 +8462,7 @@
     <xf numFmtId="0" fontId="770" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="771" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="771" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="772" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -7293,13 +8483,13 @@
     <xf numFmtId="0" fontId="777" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="778" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="778" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="779" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="780" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="780" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="781" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -7308,7 +8498,7 @@
     <xf numFmtId="0" fontId="782" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="783" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="783" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="784" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -7317,277 +8507,991 @@
     <xf numFmtId="0" fontId="785" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="786" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="787" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="788" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="789" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="790" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="791" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="792" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="793" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="794" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="795" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="796" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="797" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="798" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="799" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="800" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="801" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="802" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="803" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="804" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="805" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="806" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="807" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="808" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="809" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="810" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="811" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="812" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="813" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="814" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="815" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="816" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="817" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="818" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="819" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="820" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="821" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="822" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="823" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="824" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="825" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="826" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="827" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="828" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="829" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="830" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="831" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="832" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="833" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="834" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="835" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="836" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="837" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="838" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="839" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="840" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="841" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="842" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="843" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="844" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="845" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="846" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="847" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="848" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="849" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="850" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="851" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="852" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="853" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="854" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="855" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="856" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="857" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="858" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="859" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="860" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="861" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="862" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="863" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="864" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="865" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="866" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="867" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="868" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="869" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="870" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="871" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="872" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="873" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="874" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="875" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="876" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="786" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="787" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="788" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="789" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="790" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="791" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="792" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="793" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="794" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="795" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="796" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="797" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="798" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="799" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="800" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="801" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="802" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="803" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="804" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="805" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="806" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="807" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="808" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="809" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="810" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="811" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="812" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="813" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="814" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="815" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="816" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="817" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="818" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="819" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="820" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="821" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="822" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="823" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="824" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="825" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="826" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="827" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="828" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="829" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="830" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="831" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="832" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="833" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="834" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="835" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="836" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="837" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="838" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="839" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="840" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="841" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="842" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="843" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="844" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="845" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="846" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="847" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="848" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="849" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="850" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="851" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="852" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="853" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="854" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="855" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="856" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="857" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="858" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="859" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="860" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="861" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="862" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="863" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="864" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="865" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="866" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="867" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="868" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="869" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="870" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="871" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="872" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="873" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="874" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="875" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="876" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="877" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="878" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="879" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="880" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="881" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="882" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="883" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="884" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="885" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="886" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="887" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="888" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="889" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="890" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="891" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="892" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="893" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="894" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="895" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="896" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="897" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="898" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="899" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="900" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="901" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="902" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="903" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="904" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="905" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="906" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="907" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="908" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="909" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="910" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="911" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="912" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="913" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="914" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="915" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="916" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="917" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="918" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="919" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="920" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="921" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="922" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="923" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="924" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="925" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="926" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="927" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="928" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="929" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="930" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="931" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="932" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="933" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="934" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="935" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="936" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="937" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="938" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="939" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="940" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="941" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="942" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="943" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="944" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="945" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="946" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="947" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="948" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="949" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="950" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="951" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="952" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="953" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="954" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="955" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="956" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="957" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="958" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="959" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="960" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="961" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="962" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="963" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="964" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="965" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="966" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="967" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="968" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="969" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="970" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="971" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="972" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="973" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="974" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="975" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="976" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="977" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="978" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="979" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="980" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="981" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="982" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="983" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="984" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="985" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="986" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="987" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="988" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="989" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="990" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="991" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="992" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="993" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="994" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="995" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="996" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="997" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="998" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="999" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1000" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="1001" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1002" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1003" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1004" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1005" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1006" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1007" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1008" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1009" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1010" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1011" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1012" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="1013" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1014" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1015" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1016" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1017" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1018" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1019" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1020" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1021" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1022" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1023" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1024" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="1025" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1026" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1027" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1028" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1029" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1030" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1031" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1032" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1033" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1034" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1035" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1036" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="1037" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1038" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1039" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1040" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1041" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1042" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1043" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1044" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1045" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1046" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1047" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1048" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="1049" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1050" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1051" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1052" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1053" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1054" fillId="15" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1055" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1056" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1057" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1058" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1059" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1060" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1061" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1062" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1063" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1064" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="1065" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1066" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1067" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1068" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1069" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1070" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1071" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1072" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1073" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1074" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1075" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1076" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="1077" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1078" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1079" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1080" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1081" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1082" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1083" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1084" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1085" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1086" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1087" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1088" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="1089" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1090" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1091" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1092" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1093" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1094" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1095" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1096" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1097" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1098" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1099" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1100" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="1101" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1102" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1103" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1104" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1105" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1106" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1107" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1109" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1110" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1111" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1112" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="1113" fillId="11" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1114" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -7596,7 +9500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:BT62"/>
+  <dimension ref="A1:BT62"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -7667,6 +9571,316 @@
     <col min="71" max="71" width="4.6875" customWidth="true"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="L1" t="s" s="285">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s" s="286">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s" s="287">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s" s="297">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s" s="298">
+        <v>6</v>
+      </c>
+      <c r="Q1" t="s" s="299">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s" s="309">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s" s="310">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s" s="311">
+        <v>14</v>
+      </c>
+      <c r="U1" t="s" s="321">
+        <v>12</v>
+      </c>
+      <c r="V1" t="s" s="322">
+        <v>6</v>
+      </c>
+      <c r="W1" t="s" s="323">
+        <v>14</v>
+      </c>
+      <c r="X1" t="s" s="333">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s" s="334">
+        <v>6</v>
+      </c>
+      <c r="Z1" t="s" s="335">
+        <v>14</v>
+      </c>
+      <c r="AA1" t="s" s="345">
+        <v>12</v>
+      </c>
+      <c r="AB1" t="s" s="346">
+        <v>6</v>
+      </c>
+      <c r="AC1" t="s" s="347">
+        <v>14</v>
+      </c>
+      <c r="AD1" t="s" s="357">
+        <v>12</v>
+      </c>
+      <c r="AE1" t="s" s="358">
+        <v>6</v>
+      </c>
+      <c r="AF1" t="s" s="359">
+        <v>14</v>
+      </c>
+      <c r="AJ1" t="s" s="371">
+        <v>12</v>
+      </c>
+      <c r="AK1" t="s" s="372">
+        <v>6</v>
+      </c>
+      <c r="AL1" t="s" s="373">
+        <v>14</v>
+      </c>
+      <c r="AM1" t="s" s="383">
+        <v>12</v>
+      </c>
+      <c r="AN1" t="s" s="384">
+        <v>6</v>
+      </c>
+      <c r="AO1" t="s" s="385">
+        <v>14</v>
+      </c>
+      <c r="AP1" t="s" s="395">
+        <v>12</v>
+      </c>
+      <c r="AQ1" t="s" s="396">
+        <v>6</v>
+      </c>
+      <c r="AR1" t="s" s="397">
+        <v>14</v>
+      </c>
+      <c r="AS1" t="s" s="407">
+        <v>12</v>
+      </c>
+      <c r="AT1" t="s" s="408">
+        <v>6</v>
+      </c>
+      <c r="AU1" t="s" s="409">
+        <v>14</v>
+      </c>
+      <c r="AV1" t="s" s="419">
+        <v>12</v>
+      </c>
+      <c r="AW1" t="s" s="420">
+        <v>6</v>
+      </c>
+      <c r="AX1" t="s" s="421">
+        <v>14</v>
+      </c>
+      <c r="AY1" t="s" s="431">
+        <v>12</v>
+      </c>
+      <c r="AZ1" t="s" s="432">
+        <v>6</v>
+      </c>
+      <c r="BA1" t="s" s="433">
+        <v>14</v>
+      </c>
+      <c r="BB1" t="s" s="443">
+        <v>12</v>
+      </c>
+      <c r="BC1" t="s" s="444">
+        <v>6</v>
+      </c>
+      <c r="BD1" t="s" s="445">
+        <v>14</v>
+      </c>
+      <c r="BK1" t="s" s="459">
+        <v>12</v>
+      </c>
+      <c r="BL1" t="s" s="460">
+        <v>6</v>
+      </c>
+      <c r="BM1" t="s" s="461">
+        <v>14</v>
+      </c>
+      <c r="BN1" t="s" s="471">
+        <v>12</v>
+      </c>
+      <c r="BO1" t="s" s="472">
+        <v>6</v>
+      </c>
+      <c r="BP1" t="s" s="473">
+        <v>14</v>
+      </c>
+      <c r="BQ1" t="s" s="483">
+        <v>12</v>
+      </c>
+      <c r="BR1" t="s" s="484">
+        <v>6</v>
+      </c>
+      <c r="BS1" t="s" s="485">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="L2" s="288">
+        <f>SUM(L10:L61)</f>
+      </c>
+      <c r="M2" s="289">
+        <f>SUM(M10:M61)</f>
+      </c>
+      <c r="N2" s="290">
+        <f>SUM(N10:N61)</f>
+      </c>
+      <c r="O2" s="300">
+        <f>SUM(O10:O61)</f>
+      </c>
+      <c r="P2" s="301">
+        <f>SUM(P10:P61)</f>
+      </c>
+      <c r="Q2" s="302">
+        <f>SUM(Q10:Q61)</f>
+      </c>
+      <c r="R2" s="312">
+        <f>SUM(R10:R61)</f>
+      </c>
+      <c r="S2" s="313">
+        <f>SUM(S10:S61)</f>
+      </c>
+      <c r="T2" s="314">
+        <f>SUM(T10:T61)</f>
+      </c>
+      <c r="U2" s="324">
+        <f>SUM(U10:U61)</f>
+      </c>
+      <c r="V2" s="325">
+        <f>SUM(V10:V61)</f>
+      </c>
+      <c r="W2" s="326">
+        <f>SUM(W10:W61)</f>
+      </c>
+      <c r="X2" s="336">
+        <f>SUM(X10:X61)</f>
+      </c>
+      <c r="Y2" s="337">
+        <f>SUM(Y10:Y61)</f>
+      </c>
+      <c r="Z2" s="338">
+        <f>SUM(Z10:Z61)</f>
+      </c>
+      <c r="AA2" s="348">
+        <f>SUM(AA10:AA61)</f>
+      </c>
+      <c r="AB2" s="349">
+        <f>SUM(AB10:AB61)</f>
+      </c>
+      <c r="AC2" s="350">
+        <f>SUM(AC10:AC61)</f>
+      </c>
+      <c r="AD2" s="360">
+        <f>SUM(AD10:AD61)</f>
+      </c>
+      <c r="AE2" s="361">
+        <f>SUM(AE10:AE61)</f>
+      </c>
+      <c r="AF2" s="362">
+        <f>SUM(AF10:AF61)</f>
+      </c>
+      <c r="AJ2" s="374">
+        <f>SUM(AJ10:AJ61)</f>
+      </c>
+      <c r="AK2" s="375">
+        <f>SUM(AK10:AK61)</f>
+      </c>
+      <c r="AL2" s="376">
+        <f>SUM(AL10:AL61)</f>
+      </c>
+      <c r="AM2" s="386">
+        <f>SUM(AM10:AM61)</f>
+      </c>
+      <c r="AN2" s="387">
+        <f>SUM(AN10:AN61)</f>
+      </c>
+      <c r="AO2" s="388">
+        <f>SUM(AO10:AO61)</f>
+      </c>
+      <c r="AP2" s="398">
+        <f>SUM(AP10:AP61)</f>
+      </c>
+      <c r="AQ2" s="399">
+        <f>SUM(AQ10:AQ61)</f>
+      </c>
+      <c r="AR2" s="400">
+        <f>SUM(AR10:AR61)</f>
+      </c>
+      <c r="AS2" s="410">
+        <f>SUM(AS10:AS61)</f>
+      </c>
+      <c r="AT2" s="411">
+        <f>SUM(AT10:AT61)</f>
+      </c>
+      <c r="AU2" s="412">
+        <f>SUM(AU10:AU61)</f>
+      </c>
+      <c r="AV2" s="422">
+        <f>SUM(AV10:AV61)</f>
+      </c>
+      <c r="AW2" s="423">
+        <f>SUM(AW10:AW61)</f>
+      </c>
+      <c r="AX2" s="424">
+        <f>SUM(AX10:AX61)</f>
+      </c>
+      <c r="AY2" s="434">
+        <f>SUM(AY10:AY61)</f>
+      </c>
+      <c r="AZ2" s="435">
+        <f>SUM(AZ10:AZ61)</f>
+      </c>
+      <c r="BA2" s="436">
+        <f>SUM(BA10:BA61)</f>
+      </c>
+      <c r="BB2" s="446">
+        <f>SUM(BB10:BB61)</f>
+      </c>
+      <c r="BC2" s="447">
+        <f>SUM(BC10:BC61)</f>
+      </c>
+      <c r="BD2" s="448">
+        <f>SUM(BD10:BD61)</f>
+      </c>
+      <c r="BK2" s="462">
+        <f>SUM(BK10:BK61)</f>
+      </c>
+      <c r="BL2" s="463">
+        <f>SUM(BL10:BL61)</f>
+      </c>
+      <c r="BM2" s="464">
+        <f>SUM(BM10:BM61)</f>
+      </c>
+      <c r="BN2" s="474">
+        <f>SUM(BN10:BN61)</f>
+      </c>
+      <c r="BO2" s="475">
+        <f>SUM(BO10:BO61)</f>
+      </c>
+      <c r="BP2" s="476">
+        <f>SUM(BP10:BP61)</f>
+      </c>
+      <c r="BQ2" s="486">
+        <f>SUM(BQ10:BQ61)</f>
+      </c>
+      <c r="BR2" s="487">
+        <f>SUM(BR10:BR61)</f>
+      </c>
+      <c r="BS2" s="488">
+        <f>SUM(BS10:BS61)</f>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" t="s" s="1">
         <v>0</v>
@@ -7674,6 +9888,57 @@
       <c r="B3" s="2">
         <f>TODAY()</f>
       </c>
+      <c r="L3" s="291">
+        <f>SUM(L2:N2)</f>
+      </c>
+      <c r="O3" s="303">
+        <f>SUM(O2:Q2)</f>
+      </c>
+      <c r="R3" s="315">
+        <f>SUM(R2:T2)</f>
+      </c>
+      <c r="U3" s="327">
+        <f>SUM(U2:W2)</f>
+      </c>
+      <c r="X3" s="339">
+        <f>SUM(X2:Z2)</f>
+      </c>
+      <c r="AA3" s="351">
+        <f>SUM(AA2:AC2)</f>
+      </c>
+      <c r="AD3" s="363">
+        <f>SUM(AD2:AF2)</f>
+      </c>
+      <c r="AJ3" s="377">
+        <f>SUM(AJ2:AL2)</f>
+      </c>
+      <c r="AM3" s="389">
+        <f>SUM(AM2:AO2)</f>
+      </c>
+      <c r="AP3" s="401">
+        <f>SUM(AP2:AR2)</f>
+      </c>
+      <c r="AS3" s="413">
+        <f>SUM(AS2:AU2)</f>
+      </c>
+      <c r="AV3" s="425">
+        <f>SUM(AV2:AX2)</f>
+      </c>
+      <c r="AY3" s="437">
+        <f>SUM(AY2:BA2)</f>
+      </c>
+      <c r="BB3" s="449">
+        <f>SUM(BB2:BD2)</f>
+      </c>
+      <c r="BK3" s="465">
+        <f>SUM(BK2:BM2)</f>
+      </c>
+      <c r="BN3" s="477">
+        <f>SUM(BN2:BP2)</f>
+      </c>
+      <c r="BQ3" s="489">
+        <f>SUM(BQ2:BS2)</f>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="3">
@@ -7684,64 +9949,64 @@
       <c r="C5" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="L5" t="n" s="289">
+      <c r="L5" t="n" s="296">
         <v>37.0</v>
       </c>
-      <c r="O5" t="n" s="294">
+      <c r="O5" t="n" s="308">
         <v>38.0</v>
       </c>
-      <c r="R5" t="n" s="299">
+      <c r="R5" t="n" s="320">
         <v>39.0</v>
       </c>
-      <c r="U5" t="n" s="304">
+      <c r="U5" t="n" s="332">
         <v>40.0</v>
       </c>
-      <c r="X5" t="n" s="309">
+      <c r="X5" t="n" s="344">
         <v>41.0</v>
       </c>
-      <c r="AA5" t="n" s="314">
+      <c r="AA5" t="n" s="356">
         <v>42.0</v>
       </c>
-      <c r="AD5" t="n" s="319">
+      <c r="AD5" t="n" s="368">
         <v>43.0</v>
       </c>
-      <c r="AG5" t="n" s="321">
+      <c r="AG5" t="n" s="370">
         <v>44.0</v>
       </c>
-      <c r="AJ5" t="n" s="326">
+      <c r="AJ5" t="n" s="382">
         <v>45.0</v>
       </c>
-      <c r="AM5" t="n" s="331">
+      <c r="AM5" t="n" s="394">
         <v>46.0</v>
       </c>
-      <c r="AP5" t="n" s="336">
+      <c r="AP5" t="n" s="406">
         <v>47.0</v>
       </c>
-      <c r="AS5" t="n" s="341">
+      <c r="AS5" t="n" s="418">
         <v>48.0</v>
       </c>
-      <c r="AV5" t="n" s="346">
+      <c r="AV5" t="n" s="430">
         <v>49.0</v>
       </c>
-      <c r="AY5" t="n" s="351">
+      <c r="AY5" t="n" s="442">
         <v>50.0</v>
       </c>
-      <c r="BB5" t="n" s="356">
+      <c r="BB5" t="n" s="454">
         <v>51.0</v>
       </c>
-      <c r="BE5" t="n" s="358">
+      <c r="BE5" t="n" s="456">
         <v>52.0</v>
       </c>
-      <c r="BH5" t="n" s="360">
+      <c r="BH5" t="n" s="458">
         <v>1.0</v>
       </c>
-      <c r="BK5" t="n" s="365">
+      <c r="BK5" t="n" s="470">
         <v>2.0</v>
       </c>
-      <c r="BN5" t="n" s="370">
+      <c r="BN5" t="n" s="482">
         <v>3.0</v>
       </c>
-      <c r="BQ5" t="n" s="375">
+      <c r="BQ5" t="n" s="494">
         <v>4.0</v>
       </c>
     </row>
@@ -7749,64 +10014,64 @@
       <c r="C6" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="L6" t="s" s="288">
+      <c r="L6" t="s" s="295">
         <v>59</v>
       </c>
-      <c r="O6" t="s" s="293">
+      <c r="O6" t="s" s="307">
         <v>60</v>
       </c>
-      <c r="R6" t="s" s="298">
+      <c r="R6" t="s" s="319">
         <v>61</v>
       </c>
-      <c r="U6" t="s" s="303">
+      <c r="U6" t="s" s="331">
         <v>62</v>
       </c>
-      <c r="X6" t="s" s="308">
+      <c r="X6" t="s" s="343">
         <v>63</v>
       </c>
-      <c r="AA6" t="s" s="313">
+      <c r="AA6" t="s" s="355">
         <v>64</v>
       </c>
-      <c r="AD6" t="s" s="318">
+      <c r="AD6" t="s" s="367">
         <v>65</v>
       </c>
-      <c r="AG6" t="s" s="320">
+      <c r="AG6" t="s" s="369">
         <v>66</v>
       </c>
-      <c r="AJ6" t="s" s="325">
+      <c r="AJ6" t="s" s="381">
         <v>67</v>
       </c>
-      <c r="AM6" t="s" s="330">
+      <c r="AM6" t="s" s="393">
         <v>68</v>
       </c>
-      <c r="AP6" t="s" s="335">
+      <c r="AP6" t="s" s="405">
         <v>69</v>
       </c>
-      <c r="AS6" t="s" s="340">
+      <c r="AS6" t="s" s="417">
         <v>70</v>
       </c>
-      <c r="AV6" t="s" s="345">
+      <c r="AV6" t="s" s="429">
         <v>71</v>
       </c>
-      <c r="AY6" t="s" s="350">
+      <c r="AY6" t="s" s="441">
         <v>72</v>
       </c>
-      <c r="BB6" t="s" s="355">
+      <c r="BB6" t="s" s="453">
         <v>73</v>
       </c>
-      <c r="BE6" t="s" s="357">
+      <c r="BE6" t="s" s="455">
         <v>74</v>
       </c>
-      <c r="BH6" t="s" s="359">
+      <c r="BH6" t="s" s="457">
         <v>75</v>
       </c>
-      <c r="BK6" t="s" s="364">
+      <c r="BK6" t="s" s="469">
         <v>76</v>
       </c>
-      <c r="BN6" t="s" s="369">
+      <c r="BN6" t="s" s="481">
         <v>77</v>
       </c>
-      <c r="BQ6" t="s" s="374">
+      <c r="BQ6" t="s" s="493">
         <v>78</v>
       </c>
     </row>
@@ -7816,157 +10081,157 @@
       </c>
     </row>
     <row r="8">
-      <c r="L8" t="s" s="285">
+      <c r="L8" t="s" s="292">
         <v>12</v>
       </c>
-      <c r="M8" t="s" s="286">
+      <c r="M8" t="s" s="293">
         <v>6</v>
       </c>
-      <c r="N8" t="s" s="287">
+      <c r="N8" t="s" s="294">
         <v>14</v>
       </c>
-      <c r="O8" t="s" s="290">
+      <c r="O8" t="s" s="304">
         <v>12</v>
       </c>
-      <c r="P8" t="s" s="291">
+      <c r="P8" t="s" s="305">
         <v>6</v>
       </c>
-      <c r="Q8" t="s" s="292">
+      <c r="Q8" t="s" s="306">
         <v>14</v>
       </c>
-      <c r="R8" t="s" s="295">
+      <c r="R8" t="s" s="316">
         <v>12</v>
       </c>
-      <c r="S8" t="s" s="296">
+      <c r="S8" t="s" s="317">
         <v>6</v>
       </c>
-      <c r="T8" t="s" s="297">
+      <c r="T8" t="s" s="318">
         <v>14</v>
       </c>
-      <c r="U8" t="s" s="300">
+      <c r="U8" t="s" s="328">
         <v>12</v>
       </c>
-      <c r="V8" t="s" s="301">
+      <c r="V8" t="s" s="329">
         <v>6</v>
       </c>
-      <c r="W8" t="s" s="302">
+      <c r="W8" t="s" s="330">
         <v>14</v>
       </c>
-      <c r="X8" t="s" s="305">
+      <c r="X8" t="s" s="340">
         <v>12</v>
       </c>
-      <c r="Y8" t="s" s="306">
+      <c r="Y8" t="s" s="341">
         <v>6</v>
       </c>
-      <c r="Z8" t="s" s="307">
+      <c r="Z8" t="s" s="342">
         <v>14</v>
       </c>
-      <c r="AA8" t="s" s="310">
+      <c r="AA8" t="s" s="352">
         <v>12</v>
       </c>
-      <c r="AB8" t="s" s="311">
+      <c r="AB8" t="s" s="353">
         <v>6</v>
       </c>
-      <c r="AC8" t="s" s="312">
+      <c r="AC8" t="s" s="354">
         <v>14</v>
       </c>
-      <c r="AD8" t="s" s="315">
+      <c r="AD8" t="s" s="364">
         <v>12</v>
       </c>
-      <c r="AE8" t="s" s="316">
+      <c r="AE8" t="s" s="365">
         <v>6</v>
       </c>
-      <c r="AF8" t="s" s="317">
+      <c r="AF8" t="s" s="366">
         <v>14</v>
       </c>
-      <c r="AJ8" t="s" s="322">
+      <c r="AJ8" t="s" s="378">
         <v>12</v>
       </c>
-      <c r="AK8" t="s" s="323">
+      <c r="AK8" t="s" s="379">
         <v>6</v>
       </c>
-      <c r="AL8" t="s" s="324">
+      <c r="AL8" t="s" s="380">
         <v>14</v>
       </c>
-      <c r="AM8" t="s" s="327">
+      <c r="AM8" t="s" s="390">
         <v>12</v>
       </c>
-      <c r="AN8" t="s" s="328">
+      <c r="AN8" t="s" s="391">
         <v>6</v>
       </c>
-      <c r="AO8" t="s" s="329">
+      <c r="AO8" t="s" s="392">
         <v>14</v>
       </c>
-      <c r="AP8" t="s" s="332">
+      <c r="AP8" t="s" s="402">
         <v>12</v>
       </c>
-      <c r="AQ8" t="s" s="333">
+      <c r="AQ8" t="s" s="403">
         <v>6</v>
       </c>
-      <c r="AR8" t="s" s="334">
+      <c r="AR8" t="s" s="404">
         <v>14</v>
       </c>
-      <c r="AS8" t="s" s="337">
+      <c r="AS8" t="s" s="414">
         <v>12</v>
       </c>
-      <c r="AT8" t="s" s="338">
+      <c r="AT8" t="s" s="415">
         <v>6</v>
       </c>
-      <c r="AU8" t="s" s="339">
+      <c r="AU8" t="s" s="416">
         <v>14</v>
       </c>
-      <c r="AV8" t="s" s="342">
+      <c r="AV8" t="s" s="426">
         <v>12</v>
       </c>
-      <c r="AW8" t="s" s="343">
+      <c r="AW8" t="s" s="427">
         <v>6</v>
       </c>
-      <c r="AX8" t="s" s="344">
+      <c r="AX8" t="s" s="428">
         <v>14</v>
       </c>
-      <c r="AY8" t="s" s="347">
+      <c r="AY8" t="s" s="438">
         <v>12</v>
       </c>
-      <c r="AZ8" t="s" s="348">
+      <c r="AZ8" t="s" s="439">
         <v>6</v>
       </c>
-      <c r="BA8" t="s" s="349">
+      <c r="BA8" t="s" s="440">
         <v>14</v>
       </c>
-      <c r="BB8" t="s" s="352">
+      <c r="BB8" t="s" s="450">
         <v>12</v>
       </c>
-      <c r="BC8" t="s" s="353">
+      <c r="BC8" t="s" s="451">
         <v>6</v>
       </c>
-      <c r="BD8" t="s" s="354">
+      <c r="BD8" t="s" s="452">
         <v>14</v>
       </c>
-      <c r="BK8" t="s" s="361">
+      <c r="BK8" t="s" s="466">
         <v>12</v>
       </c>
-      <c r="BL8" t="s" s="362">
+      <c r="BL8" t="s" s="467">
         <v>6</v>
       </c>
-      <c r="BM8" t="s" s="363">
+      <c r="BM8" t="s" s="468">
         <v>14</v>
       </c>
-      <c r="BN8" t="s" s="366">
+      <c r="BN8" t="s" s="478">
         <v>12</v>
       </c>
-      <c r="BO8" t="s" s="367">
+      <c r="BO8" t="s" s="479">
         <v>6</v>
       </c>
-      <c r="BP8" t="s" s="368">
+      <c r="BP8" t="s" s="480">
         <v>14</v>
       </c>
-      <c r="BQ8" t="s" s="371">
+      <c r="BQ8" t="s" s="490">
         <v>12</v>
       </c>
-      <c r="BR8" t="s" s="372">
+      <c r="BR8" t="s" s="491">
         <v>6</v>
       </c>
-      <c r="BS8" t="s" s="373">
+      <c r="BS8" t="s" s="492">
         <v>14</v>
       </c>
     </row>
@@ -8946,44 +11211,61 @@
     <mergeCell ref="A55:A62"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L3:N3"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="R5:T5"/>
     <mergeCell ref="R6:T6"/>
+    <mergeCell ref="R3:T3"/>
     <mergeCell ref="U5:W5"/>
     <mergeCell ref="U6:W6"/>
+    <mergeCell ref="U3:W3"/>
     <mergeCell ref="X5:Z5"/>
     <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA5:AC5"/>
     <mergeCell ref="AA6:AC6"/>
+    <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD5:AF5"/>
     <mergeCell ref="AD6:AF6"/>
+    <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="AG5:AI5"/>
     <mergeCell ref="AG6:AI6"/>
     <mergeCell ref="AJ5:AL5"/>
     <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="AM5:AO5"/>
     <mergeCell ref="AM6:AO6"/>
+    <mergeCell ref="AM3:AO3"/>
     <mergeCell ref="AP5:AR5"/>
     <mergeCell ref="AP6:AR6"/>
+    <mergeCell ref="AP3:AR3"/>
     <mergeCell ref="AS5:AU5"/>
     <mergeCell ref="AS6:AU6"/>
+    <mergeCell ref="AS3:AU3"/>
     <mergeCell ref="AV5:AX5"/>
     <mergeCell ref="AV6:AX6"/>
+    <mergeCell ref="AV3:AX3"/>
     <mergeCell ref="AY5:BA5"/>
     <mergeCell ref="AY6:BA6"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="BB5:BD5"/>
     <mergeCell ref="BB6:BD6"/>
+    <mergeCell ref="BB3:BD3"/>
     <mergeCell ref="BE5:BG5"/>
     <mergeCell ref="BE6:BG6"/>
     <mergeCell ref="BH5:BJ5"/>
     <mergeCell ref="BH6:BJ6"/>
     <mergeCell ref="BK5:BM5"/>
     <mergeCell ref="BK6:BM6"/>
+    <mergeCell ref="BK3:BM3"/>
     <mergeCell ref="BN5:BP5"/>
     <mergeCell ref="BN6:BP6"/>
+    <mergeCell ref="BN3:BP3"/>
     <mergeCell ref="BQ5:BS5"/>
     <mergeCell ref="BQ6:BS6"/>
+    <mergeCell ref="BQ3:BS3"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -8991,7 +11273,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:BT87"/>
+  <dimension ref="A1:BT87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9062,1676 +11344,2037 @@
     <col min="71" max="71" width="4.6875" customWidth="true"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="L1" t="s" s="905">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s" s="906">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s" s="907">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s" s="917">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s" s="918">
+        <v>6</v>
+      </c>
+      <c r="Q1" t="s" s="919">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s" s="929">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s" s="930">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s" s="931">
+        <v>14</v>
+      </c>
+      <c r="U1" t="s" s="941">
+        <v>12</v>
+      </c>
+      <c r="V1" t="s" s="942">
+        <v>6</v>
+      </c>
+      <c r="W1" t="s" s="943">
+        <v>14</v>
+      </c>
+      <c r="X1" t="s" s="953">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s" s="954">
+        <v>6</v>
+      </c>
+      <c r="Z1" t="s" s="955">
+        <v>14</v>
+      </c>
+      <c r="AD1" t="s" s="967">
+        <v>12</v>
+      </c>
+      <c r="AE1" t="s" s="968">
+        <v>6</v>
+      </c>
+      <c r="AF1" t="s" s="969">
+        <v>14</v>
+      </c>
+      <c r="AG1" t="s" s="979">
+        <v>12</v>
+      </c>
+      <c r="AH1" t="s" s="980">
+        <v>6</v>
+      </c>
+      <c r="AI1" t="s" s="981">
+        <v>14</v>
+      </c>
+      <c r="AJ1" t="s" s="991">
+        <v>12</v>
+      </c>
+      <c r="AK1" t="s" s="992">
+        <v>6</v>
+      </c>
+      <c r="AL1" t="s" s="993">
+        <v>14</v>
+      </c>
+      <c r="AM1" t="s" s="1003">
+        <v>12</v>
+      </c>
+      <c r="AN1" t="s" s="1004">
+        <v>6</v>
+      </c>
+      <c r="AO1" t="s" s="1005">
+        <v>14</v>
+      </c>
+      <c r="AP1" t="s" s="1015">
+        <v>12</v>
+      </c>
+      <c r="AQ1" t="s" s="1016">
+        <v>6</v>
+      </c>
+      <c r="AR1" t="s" s="1017">
+        <v>14</v>
+      </c>
+      <c r="AS1" t="s" s="1027">
+        <v>12</v>
+      </c>
+      <c r="AT1" t="s" s="1028">
+        <v>6</v>
+      </c>
+      <c r="AU1" t="s" s="1029">
+        <v>14</v>
+      </c>
+      <c r="AV1" t="s" s="1039">
+        <v>12</v>
+      </c>
+      <c r="AW1" t="s" s="1040">
+        <v>6</v>
+      </c>
+      <c r="AX1" t="s" s="1041">
+        <v>14</v>
+      </c>
+      <c r="BE1" t="s" s="1055">
+        <v>12</v>
+      </c>
+      <c r="BF1" t="s" s="1056">
+        <v>6</v>
+      </c>
+      <c r="BG1" t="s" s="1057">
+        <v>14</v>
+      </c>
+      <c r="BH1" t="s" s="1067">
+        <v>12</v>
+      </c>
+      <c r="BI1" t="s" s="1068">
+        <v>6</v>
+      </c>
+      <c r="BJ1" t="s" s="1069">
+        <v>14</v>
+      </c>
+      <c r="BK1" t="s" s="1079">
+        <v>12</v>
+      </c>
+      <c r="BL1" t="s" s="1080">
+        <v>6</v>
+      </c>
+      <c r="BM1" t="s" s="1081">
+        <v>14</v>
+      </c>
+      <c r="BN1" t="s" s="1091">
+        <v>12</v>
+      </c>
+      <c r="BO1" t="s" s="1092">
+        <v>6</v>
+      </c>
+      <c r="BP1" t="s" s="1093">
+        <v>14</v>
+      </c>
+      <c r="BQ1" t="s" s="1103">
+        <v>12</v>
+      </c>
+      <c r="BR1" t="s" s="1104">
+        <v>6</v>
+      </c>
+      <c r="BS1" t="s" s="1105">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="L2" s="908">
+        <f>SUM(L10:L86)</f>
+      </c>
+      <c r="M2" s="909">
+        <f>SUM(M10:M86)</f>
+      </c>
+      <c r="N2" s="910">
+        <f>SUM(N10:N86)</f>
+      </c>
+      <c r="O2" s="920">
+        <f>SUM(O10:O86)</f>
+      </c>
+      <c r="P2" s="921">
+        <f>SUM(P10:P86)</f>
+      </c>
+      <c r="Q2" s="922">
+        <f>SUM(Q10:Q86)</f>
+      </c>
+      <c r="R2" s="932">
+        <f>SUM(R10:R86)</f>
+      </c>
+      <c r="S2" s="933">
+        <f>SUM(S10:S86)</f>
+      </c>
+      <c r="T2" s="934">
+        <f>SUM(T10:T86)</f>
+      </c>
+      <c r="U2" s="944">
+        <f>SUM(U10:U86)</f>
+      </c>
+      <c r="V2" s="945">
+        <f>SUM(V10:V86)</f>
+      </c>
+      <c r="W2" s="946">
+        <f>SUM(W10:W86)</f>
+      </c>
+      <c r="X2" s="956">
+        <f>SUM(X10:X86)</f>
+      </c>
+      <c r="Y2" s="957">
+        <f>SUM(Y10:Y86)</f>
+      </c>
+      <c r="Z2" s="958">
+        <f>SUM(Z10:Z86)</f>
+      </c>
+      <c r="AD2" s="970">
+        <f>SUM(AD10:AD86)</f>
+      </c>
+      <c r="AE2" s="971">
+        <f>SUM(AE10:AE86)</f>
+      </c>
+      <c r="AF2" s="972">
+        <f>SUM(AF10:AF86)</f>
+      </c>
+      <c r="AG2" s="982">
+        <f>SUM(AG10:AG86)</f>
+      </c>
+      <c r="AH2" s="983">
+        <f>SUM(AH10:AH86)</f>
+      </c>
+      <c r="AI2" s="984">
+        <f>SUM(AI10:AI86)</f>
+      </c>
+      <c r="AJ2" s="994">
+        <f>SUM(AJ10:AJ86)</f>
+      </c>
+      <c r="AK2" s="995">
+        <f>SUM(AK10:AK86)</f>
+      </c>
+      <c r="AL2" s="996">
+        <f>SUM(AL10:AL86)</f>
+      </c>
+      <c r="AM2" s="1006">
+        <f>SUM(AM10:AM86)</f>
+      </c>
+      <c r="AN2" s="1007">
+        <f>SUM(AN10:AN86)</f>
+      </c>
+      <c r="AO2" s="1008">
+        <f>SUM(AO10:AO86)</f>
+      </c>
+      <c r="AP2" s="1018">
+        <f>SUM(AP10:AP86)</f>
+      </c>
+      <c r="AQ2" s="1019">
+        <f>SUM(AQ10:AQ86)</f>
+      </c>
+      <c r="AR2" s="1020">
+        <f>SUM(AR10:AR86)</f>
+      </c>
+      <c r="AS2" s="1030">
+        <f>SUM(AS10:AS86)</f>
+      </c>
+      <c r="AT2" s="1031">
+        <f>SUM(AT10:AT86)</f>
+      </c>
+      <c r="AU2" s="1032">
+        <f>SUM(AU10:AU86)</f>
+      </c>
+      <c r="AV2" s="1042">
+        <f>SUM(AV10:AV86)</f>
+      </c>
+      <c r="AW2" s="1043">
+        <f>SUM(AW10:AW86)</f>
+      </c>
+      <c r="AX2" s="1044">
+        <f>SUM(AX10:AX86)</f>
+      </c>
+      <c r="BE2" s="1058">
+        <f>SUM(BE10:BE86)</f>
+      </c>
+      <c r="BF2" s="1059">
+        <f>SUM(BF10:BF86)</f>
+      </c>
+      <c r="BG2" s="1060">
+        <f>SUM(BG10:BG86)</f>
+      </c>
+      <c r="BH2" s="1070">
+        <f>SUM(BH10:BH86)</f>
+      </c>
+      <c r="BI2" s="1071">
+        <f>SUM(BI10:BI86)</f>
+      </c>
+      <c r="BJ2" s="1072">
+        <f>SUM(BJ10:BJ86)</f>
+      </c>
+      <c r="BK2" s="1082">
+        <f>SUM(BK10:BK86)</f>
+      </c>
+      <c r="BL2" s="1083">
+        <f>SUM(BL10:BL86)</f>
+      </c>
+      <c r="BM2" s="1084">
+        <f>SUM(BM10:BM86)</f>
+      </c>
+      <c r="BN2" s="1094">
+        <f>SUM(BN10:BN86)</f>
+      </c>
+      <c r="BO2" s="1095">
+        <f>SUM(BO10:BO86)</f>
+      </c>
+      <c r="BP2" s="1096">
+        <f>SUM(BP10:BP86)</f>
+      </c>
+      <c r="BQ2" s="1106">
+        <f>SUM(BQ10:BQ86)</f>
+      </c>
+      <c r="BR2" s="1107">
+        <f>SUM(BR10:BR86)</f>
+      </c>
+      <c r="BS2" s="1108">
+        <f>SUM(BS10:BS86)</f>
+      </c>
+    </row>
     <row r="3">
-      <c r="A3" t="s" s="376">
+      <c r="A3" t="s" s="495">
         <v>79</v>
       </c>
-      <c r="B3" s="377">
+      <c r="B3" s="496">
         <f>TODAY()</f>
       </c>
+      <c r="L3" s="911">
+        <f>SUM(L2:N2)</f>
+      </c>
+      <c r="O3" s="923">
+        <f>SUM(O2:Q2)</f>
+      </c>
+      <c r="R3" s="935">
+        <f>SUM(R2:T2)</f>
+      </c>
+      <c r="U3" s="947">
+        <f>SUM(U2:W2)</f>
+      </c>
+      <c r="X3" s="959">
+        <f>SUM(X2:Z2)</f>
+      </c>
+      <c r="AD3" s="973">
+        <f>SUM(AD2:AF2)</f>
+      </c>
+      <c r="AG3" s="985">
+        <f>SUM(AG2:AI2)</f>
+      </c>
+      <c r="AJ3" s="997">
+        <f>SUM(AJ2:AL2)</f>
+      </c>
+      <c r="AM3" s="1009">
+        <f>SUM(AM2:AO2)</f>
+      </c>
+      <c r="AP3" s="1021">
+        <f>SUM(AP2:AR2)</f>
+      </c>
+      <c r="AS3" s="1033">
+        <f>SUM(AS2:AU2)</f>
+      </c>
+      <c r="AV3" s="1045">
+        <f>SUM(AV2:AX2)</f>
+      </c>
+      <c r="BE3" s="1061">
+        <f>SUM(BE2:BG2)</f>
+      </c>
+      <c r="BH3" s="1073">
+        <f>SUM(BH2:BJ2)</f>
+      </c>
+      <c r="BK3" s="1085">
+        <f>SUM(BK2:BM2)</f>
+      </c>
+      <c r="BN3" s="1097">
+        <f>SUM(BN2:BP2)</f>
+      </c>
+      <c r="BQ3" s="1109">
+        <f>SUM(BQ2:BS2)</f>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="378">
+      <c r="A4" t="s" s="497">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="C5" t="s" s="379">
+      <c r="C5" t="s" s="498">
         <v>2</v>
       </c>
-      <c r="L5" t="n" s="790">
+      <c r="L5" t="n" s="916">
         <v>4.0</v>
       </c>
-      <c r="O5" t="n" s="795">
+      <c r="O5" t="n" s="928">
         <v>5.0</v>
       </c>
-      <c r="R5" t="n" s="800">
+      <c r="R5" t="n" s="940">
         <v>6.0</v>
       </c>
-      <c r="U5" t="n" s="805">
+      <c r="U5" t="n" s="952">
         <v>7.0</v>
       </c>
-      <c r="X5" t="n" s="810">
+      <c r="X5" t="n" s="964">
         <v>8.0</v>
       </c>
-      <c r="AA5" t="n" s="812">
+      <c r="AA5" t="n" s="966">
         <v>9.0</v>
       </c>
-      <c r="AD5" t="n" s="817">
+      <c r="AD5" t="n" s="978">
         <v>10.0</v>
       </c>
-      <c r="AG5" t="n" s="822">
+      <c r="AG5" t="n" s="990">
         <v>11.0</v>
       </c>
-      <c r="AJ5" t="n" s="827">
+      <c r="AJ5" t="n" s="1002">
         <v>12.0</v>
       </c>
-      <c r="AM5" t="n" s="832">
+      <c r="AM5" t="n" s="1014">
         <v>13.0</v>
       </c>
-      <c r="AP5" t="n" s="837">
+      <c r="AP5" t="n" s="1026">
         <v>14.0</v>
       </c>
-      <c r="AS5" t="n" s="842">
+      <c r="AS5" t="n" s="1038">
         <v>15.0</v>
       </c>
-      <c r="AV5" t="n" s="847">
+      <c r="AV5" t="n" s="1050">
         <v>16.0</v>
       </c>
-      <c r="AY5" t="n" s="849">
+      <c r="AY5" t="n" s="1052">
         <v>17.0</v>
       </c>
-      <c r="BB5" t="n" s="851">
+      <c r="BB5" t="n" s="1054">
         <v>18.0</v>
       </c>
-      <c r="BE5" t="n" s="856">
+      <c r="BE5" t="n" s="1066">
         <v>19.0</v>
       </c>
-      <c r="BH5" t="n" s="861">
+      <c r="BH5" t="n" s="1078">
         <v>20.0</v>
       </c>
-      <c r="BK5" t="n" s="866">
+      <c r="BK5" t="n" s="1090">
         <v>21.0</v>
       </c>
-      <c r="BN5" t="n" s="871">
+      <c r="BN5" t="n" s="1102">
         <v>22.0</v>
       </c>
-      <c r="BQ5" t="n" s="876">
+      <c r="BQ5" t="n" s="1114">
         <v>23.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="C6" t="s" s="380">
+      <c r="C6" t="s" s="499">
         <v>3</v>
       </c>
-      <c r="L6" t="s" s="789">
+      <c r="L6" t="s" s="915">
         <v>78</v>
       </c>
-      <c r="O6" t="s" s="794">
+      <c r="O6" t="s" s="927">
         <v>128</v>
       </c>
-      <c r="R6" t="s" s="799">
+      <c r="R6" t="s" s="939">
         <v>129</v>
       </c>
-      <c r="U6" t="s" s="804">
+      <c r="U6" t="s" s="951">
         <v>130</v>
       </c>
-      <c r="X6" t="s" s="809">
+      <c r="X6" t="s" s="963">
         <v>131</v>
       </c>
-      <c r="AA6" t="s" s="811">
+      <c r="AA6" t="s" s="965">
         <v>132</v>
       </c>
-      <c r="AD6" t="s" s="816">
+      <c r="AD6" t="s" s="977">
         <v>133</v>
       </c>
-      <c r="AG6" t="s" s="821">
+      <c r="AG6" t="s" s="989">
         <v>134</v>
       </c>
-      <c r="AJ6" t="s" s="826">
+      <c r="AJ6" t="s" s="1001">
         <v>135</v>
       </c>
-      <c r="AM6" t="s" s="831">
+      <c r="AM6" t="s" s="1013">
         <v>136</v>
       </c>
-      <c r="AP6" t="s" s="836">
+      <c r="AP6" t="s" s="1025">
         <v>137</v>
       </c>
-      <c r="AS6" t="s" s="841">
+      <c r="AS6" t="s" s="1037">
         <v>138</v>
       </c>
-      <c r="AV6" t="s" s="846">
+      <c r="AV6" t="s" s="1049">
         <v>139</v>
       </c>
-      <c r="AY6" t="s" s="848">
+      <c r="AY6" t="s" s="1051">
         <v>140</v>
       </c>
-      <c r="BB6" t="s" s="850">
+      <c r="BB6" t="s" s="1053">
         <v>141</v>
       </c>
-      <c r="BE6" t="s" s="855">
+      <c r="BE6" t="s" s="1065">
         <v>142</v>
       </c>
-      <c r="BH6" t="s" s="860">
+      <c r="BH6" t="s" s="1077">
         <v>143</v>
       </c>
-      <c r="BK6" t="s" s="865">
+      <c r="BK6" t="s" s="1089">
         <v>144</v>
       </c>
-      <c r="BN6" t="s" s="870">
+      <c r="BN6" t="s" s="1101">
         <v>145</v>
       </c>
-      <c r="BQ6" t="s" s="875">
+      <c r="BQ6" t="s" s="1113">
         <v>146</v>
       </c>
     </row>
     <row r="7">
-      <c r="C7" t="s" s="381">
+      <c r="C7" t="s" s="500">
         <v>4</v>
       </c>
     </row>
     <row r="8">
-      <c r="L8" t="s" s="786">
+      <c r="L8" t="s" s="912">
         <v>12</v>
       </c>
-      <c r="M8" t="s" s="787">
+      <c r="M8" t="s" s="913">
         <v>6</v>
       </c>
-      <c r="N8" t="s" s="788">
+      <c r="N8" t="s" s="914">
         <v>14</v>
       </c>
-      <c r="O8" t="s" s="791">
+      <c r="O8" t="s" s="924">
         <v>12</v>
       </c>
-      <c r="P8" t="s" s="792">
+      <c r="P8" t="s" s="925">
         <v>6</v>
       </c>
-      <c r="Q8" t="s" s="793">
+      <c r="Q8" t="s" s="926">
         <v>14</v>
       </c>
-      <c r="R8" t="s" s="796">
+      <c r="R8" t="s" s="936">
         <v>12</v>
       </c>
-      <c r="S8" t="s" s="797">
+      <c r="S8" t="s" s="937">
         <v>6</v>
       </c>
-      <c r="T8" t="s" s="798">
+      <c r="T8" t="s" s="938">
         <v>14</v>
       </c>
-      <c r="U8" t="s" s="801">
+      <c r="U8" t="s" s="948">
         <v>12</v>
       </c>
-      <c r="V8" t="s" s="802">
+      <c r="V8" t="s" s="949">
         <v>6</v>
       </c>
-      <c r="W8" t="s" s="803">
+      <c r="W8" t="s" s="950">
         <v>14</v>
       </c>
-      <c r="X8" t="s" s="806">
+      <c r="X8" t="s" s="960">
         <v>12</v>
       </c>
-      <c r="Y8" t="s" s="807">
+      <c r="Y8" t="s" s="961">
         <v>6</v>
       </c>
-      <c r="Z8" t="s" s="808">
+      <c r="Z8" t="s" s="962">
         <v>14</v>
       </c>
-      <c r="AD8" t="s" s="813">
+      <c r="AD8" t="s" s="974">
         <v>12</v>
       </c>
-      <c r="AE8" t="s" s="814">
+      <c r="AE8" t="s" s="975">
         <v>6</v>
       </c>
-      <c r="AF8" t="s" s="815">
+      <c r="AF8" t="s" s="976">
         <v>14</v>
       </c>
-      <c r="AG8" t="s" s="818">
+      <c r="AG8" t="s" s="986">
         <v>12</v>
       </c>
-      <c r="AH8" t="s" s="819">
+      <c r="AH8" t="s" s="987">
         <v>6</v>
       </c>
-      <c r="AI8" t="s" s="820">
+      <c r="AI8" t="s" s="988">
         <v>14</v>
       </c>
-      <c r="AJ8" t="s" s="823">
+      <c r="AJ8" t="s" s="998">
         <v>12</v>
       </c>
-      <c r="AK8" t="s" s="824">
+      <c r="AK8" t="s" s="999">
         <v>6</v>
       </c>
-      <c r="AL8" t="s" s="825">
+      <c r="AL8" t="s" s="1000">
         <v>14</v>
       </c>
-      <c r="AM8" t="s" s="828">
+      <c r="AM8" t="s" s="1010">
         <v>12</v>
       </c>
-      <c r="AN8" t="s" s="829">
+      <c r="AN8" t="s" s="1011">
         <v>6</v>
       </c>
-      <c r="AO8" t="s" s="830">
+      <c r="AO8" t="s" s="1012">
         <v>14</v>
       </c>
-      <c r="AP8" t="s" s="833">
+      <c r="AP8" t="s" s="1022">
         <v>12</v>
       </c>
-      <c r="AQ8" t="s" s="834">
+      <c r="AQ8" t="s" s="1023">
         <v>6</v>
       </c>
-      <c r="AR8" t="s" s="835">
+      <c r="AR8" t="s" s="1024">
         <v>14</v>
       </c>
-      <c r="AS8" t="s" s="838">
+      <c r="AS8" t="s" s="1034">
         <v>12</v>
       </c>
-      <c r="AT8" t="s" s="839">
+      <c r="AT8" t="s" s="1035">
         <v>6</v>
       </c>
-      <c r="AU8" t="s" s="840">
+      <c r="AU8" t="s" s="1036">
         <v>14</v>
       </c>
-      <c r="AV8" t="s" s="843">
+      <c r="AV8" t="s" s="1046">
         <v>12</v>
       </c>
-      <c r="AW8" t="s" s="844">
+      <c r="AW8" t="s" s="1047">
         <v>6</v>
       </c>
-      <c r="AX8" t="s" s="845">
+      <c r="AX8" t="s" s="1048">
         <v>14</v>
       </c>
-      <c r="BE8" t="s" s="852">
+      <c r="BE8" t="s" s="1062">
         <v>12</v>
       </c>
-      <c r="BF8" t="s" s="853">
+      <c r="BF8" t="s" s="1063">
         <v>6</v>
       </c>
-      <c r="BG8" t="s" s="854">
+      <c r="BG8" t="s" s="1064">
         <v>14</v>
       </c>
-      <c r="BH8" t="s" s="857">
+      <c r="BH8" t="s" s="1074">
         <v>12</v>
       </c>
-      <c r="BI8" t="s" s="858">
+      <c r="BI8" t="s" s="1075">
         <v>6</v>
       </c>
-      <c r="BJ8" t="s" s="859">
+      <c r="BJ8" t="s" s="1076">
         <v>14</v>
       </c>
-      <c r="BK8" t="s" s="862">
+      <c r="BK8" t="s" s="1086">
         <v>12</v>
       </c>
-      <c r="BL8" t="s" s="863">
+      <c r="BL8" t="s" s="1087">
         <v>6</v>
       </c>
-      <c r="BM8" t="s" s="864">
+      <c r="BM8" t="s" s="1088">
         <v>14</v>
       </c>
-      <c r="BN8" t="s" s="867">
+      <c r="BN8" t="s" s="1098">
         <v>12</v>
       </c>
-      <c r="BO8" t="s" s="868">
+      <c r="BO8" t="s" s="1099">
         <v>6</v>
       </c>
-      <c r="BP8" t="s" s="869">
+      <c r="BP8" t="s" s="1100">
         <v>14</v>
       </c>
-      <c r="BQ8" t="s" s="872">
+      <c r="BQ8" t="s" s="1110">
         <v>12</v>
       </c>
-      <c r="BR8" t="s" s="873">
+      <c r="BR8" t="s" s="1111">
         <v>6</v>
       </c>
-      <c r="BS8" t="s" s="874">
+      <c r="BS8" t="s" s="1112">
         <v>14</v>
       </c>
     </row>
     <row r="9">
-      <c r="C9" t="s" s="382">
+      <c r="C9" t="s" s="501">
         <v>5</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="393">
+      <c r="A10" t="s" s="512">
         <v>11</v>
       </c>
-      <c r="B10" t="s" s="388">
+      <c r="B10" t="s" s="507">
         <v>9</v>
       </c>
-      <c r="C10" t="s" s="385">
+      <c r="C10" t="s" s="504">
         <v>7</v>
       </c>
-      <c r="D10" t="n" s="386">
+      <c r="D10" t="n" s="505">
         <v>1.0</v>
       </c>
-      <c r="E10" t="n" s="387">
+      <c r="E10" t="n" s="506">
         <v>0.0</v>
       </c>
-      <c r="F10" t="n" s="384">
+      <c r="F10" t="n" s="503">
         <v>30.0</v>
       </c>
-      <c r="J10" t="s" s="383">
+      <c r="J10" t="s" s="502">
         <v>6</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="392">
+      <c r="B11" t="s" s="511">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="389">
+      <c r="C11" t="s" s="508">
         <v>7</v>
       </c>
-      <c r="D11" t="n" s="390">
+      <c r="D11" t="n" s="509">
         <v>1.0</v>
       </c>
-      <c r="E11" t="n" s="391">
+      <c r="E11" t="n" s="510">
         <v>0.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="439">
+      <c r="A12" t="s" s="558">
         <v>85</v>
       </c>
-      <c r="B12" t="s" s="408">
+      <c r="B12" t="s" s="527">
         <v>81</v>
       </c>
-      <c r="C12" t="s" s="396">
+      <c r="C12" t="s" s="515">
         <v>80</v>
       </c>
-      <c r="D12" t="n" s="397">
+      <c r="D12" t="n" s="516">
         <v>1.0</v>
       </c>
-      <c r="E12" t="n" s="398">
+      <c r="E12" t="n" s="517">
         <v>0.0</v>
       </c>
-      <c r="F12" t="n" s="395">
+      <c r="F12" t="n" s="514">
         <v>18.0</v>
       </c>
-      <c r="J12" t="s" s="394">
+      <c r="J12" t="s" s="513">
         <v>12</v>
       </c>
     </row>
     <row r="13">
-      <c r="C13" t="s" s="401">
+      <c r="C13" t="s" s="520">
         <v>80</v>
       </c>
-      <c r="D13" t="n" s="402">
+      <c r="D13" t="n" s="521">
         <v>1.0</v>
       </c>
-      <c r="E13" t="n" s="403">
+      <c r="E13" t="n" s="522">
         <v>0.0</v>
       </c>
-      <c r="F13" t="n" s="400">
+      <c r="F13" t="n" s="519">
         <v>8.0</v>
       </c>
-      <c r="J13" t="s" s="399">
+      <c r="J13" t="s" s="518">
         <v>6</v>
       </c>
     </row>
     <row r="14">
-      <c r="C14" t="s" s="407">
+      <c r="C14" t="s" s="526">
         <v>80</v>
       </c>
-      <c r="G14" t="n" s="405">
+      <c r="G14" t="n" s="524">
         <v>2.0</v>
       </c>
-      <c r="H14" t="n" s="406">
+      <c r="H14" t="n" s="525">
         <v>0.0</v>
       </c>
-      <c r="J14" t="s" s="404">
+      <c r="J14" t="s" s="523">
         <v>8</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="438">
+      <c r="B15" t="s" s="557">
         <v>84</v>
       </c>
-      <c r="C15" t="s" s="411">
+      <c r="C15" t="s" s="530">
         <v>82</v>
       </c>
-      <c r="D15" t="n" s="412">
+      <c r="D15" t="n" s="531">
         <v>1.0</v>
       </c>
-      <c r="E15" t="n" s="413">
+      <c r="E15" t="n" s="532">
         <v>0.0</v>
       </c>
-      <c r="F15" t="n" s="410">
+      <c r="F15" t="n" s="529">
         <v>2.0</v>
       </c>
-      <c r="J15" t="s" s="409">
+      <c r="J15" t="s" s="528">
         <v>12</v>
       </c>
     </row>
     <row r="16">
-      <c r="C16" t="s" s="415">
+      <c r="C16" t="s" s="534">
         <v>82</v>
       </c>
-      <c r="D16" t="n" s="417">
+      <c r="D16" t="n" s="536">
         <v>1.0</v>
       </c>
-      <c r="E16" t="n" s="418">
+      <c r="E16" t="n" s="537">
         <v>0.0</v>
       </c>
-      <c r="F16" t="n" s="416">
+      <c r="F16" t="n" s="535">
         <v>4.0</v>
       </c>
-      <c r="J16" t="s" s="414">
+      <c r="J16" t="s" s="533">
         <v>14</v>
       </c>
     </row>
     <row r="17">
-      <c r="C17" t="s" s="421">
+      <c r="C17" t="s" s="540">
         <v>83</v>
       </c>
-      <c r="D17" t="n" s="422">
+      <c r="D17" t="n" s="541">
         <v>1.0</v>
       </c>
-      <c r="E17" t="n" s="423">
+      <c r="E17" t="n" s="542">
         <v>0.0</v>
       </c>
-      <c r="F17" t="n" s="420">
+      <c r="F17" t="n" s="539">
         <v>18.0</v>
       </c>
-      <c r="J17" t="s" s="419">
+      <c r="J17" t="s" s="538">
         <v>12</v>
       </c>
     </row>
     <row r="18">
-      <c r="C18" t="s" s="426">
+      <c r="C18" t="s" s="545">
         <v>83</v>
       </c>
-      <c r="D18" t="n" s="427">
+      <c r="D18" t="n" s="546">
         <v>1.0</v>
       </c>
-      <c r="E18" t="n" s="428">
+      <c r="E18" t="n" s="547">
         <v>0.0</v>
       </c>
-      <c r="F18" t="n" s="425">
+      <c r="F18" t="n" s="544">
         <v>10.0</v>
       </c>
-      <c r="J18" t="s" s="424">
+      <c r="J18" t="s" s="543">
         <v>6</v>
       </c>
     </row>
     <row r="19">
-      <c r="C19" t="s" s="430">
+      <c r="C19" t="s" s="549">
         <v>83</v>
       </c>
-      <c r="D19" t="n" s="432">
+      <c r="D19" t="n" s="551">
         <v>1.0</v>
       </c>
-      <c r="E19" t="n" s="433">
+      <c r="E19" t="n" s="552">
         <v>0.0</v>
       </c>
-      <c r="F19" t="n" s="431">
+      <c r="F19" t="n" s="550">
         <v>8.0</v>
       </c>
-      <c r="J19" t="s" s="429">
+      <c r="J19" t="s" s="548">
         <v>14</v>
       </c>
     </row>
     <row r="20">
-      <c r="C20" t="s" s="437">
+      <c r="C20" t="s" s="556">
         <v>82</v>
       </c>
-      <c r="G20" t="n" s="436">
+      <c r="G20" t="n" s="555">
         <v>0.0</v>
       </c>
-      <c r="H20" t="n" s="435">
+      <c r="H20" t="n" s="554">
         <v>4.0</v>
       </c>
-      <c r="J20" t="s" s="434">
+      <c r="J20" t="s" s="553">
         <v>15</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="508">
+      <c r="A21" t="s" s="627">
         <v>93</v>
       </c>
-      <c r="B21" t="s" s="459">
+      <c r="B21" t="s" s="578">
         <v>87</v>
       </c>
-      <c r="C21" t="s" s="442">
+      <c r="C21" t="s" s="561">
         <v>86</v>
       </c>
-      <c r="D21" t="n" s="443">
+      <c r="D21" t="n" s="562">
         <v>1.0</v>
       </c>
-      <c r="E21" t="n" s="444">
+      <c r="E21" t="n" s="563">
         <v>0.0</v>
       </c>
-      <c r="F21" t="n" s="441">
+      <c r="F21" t="n" s="560">
         <v>8.0</v>
       </c>
-      <c r="J21" t="s" s="440">
+      <c r="J21" t="s" s="559">
         <v>12</v>
       </c>
     </row>
     <row r="22">
-      <c r="C22" t="s" s="447">
+      <c r="C22" t="s" s="566">
         <v>86</v>
       </c>
-      <c r="D22" t="n" s="448">
+      <c r="D22" t="n" s="567">
         <v>1.0</v>
       </c>
-      <c r="E22" t="n" s="449">
+      <c r="E22" t="n" s="568">
         <v>0.0</v>
       </c>
-      <c r="F22" t="n" s="446">
+      <c r="F22" t="n" s="565">
         <v>8.0</v>
       </c>
-      <c r="J22" t="s" s="445">
+      <c r="J22" t="s" s="564">
         <v>6</v>
       </c>
     </row>
     <row r="23">
-      <c r="C23" t="s" s="452">
+      <c r="C23" t="s" s="571">
         <v>18</v>
       </c>
-      <c r="D23" t="n" s="453">
+      <c r="D23" t="n" s="572">
         <v>1.0</v>
       </c>
-      <c r="E23" t="n" s="454">
+      <c r="E23" t="n" s="573">
         <v>0.0</v>
       </c>
-      <c r="F23" t="n" s="451">
+      <c r="F23" t="n" s="570">
         <v>8.0</v>
       </c>
-      <c r="J23" t="s" s="450">
+      <c r="J23" t="s" s="569">
         <v>6</v>
       </c>
     </row>
     <row r="24">
-      <c r="C24" t="s" s="458">
+      <c r="C24" t="s" s="577">
         <v>86</v>
       </c>
-      <c r="G24" t="n" s="457">
+      <c r="G24" t="n" s="576">
         <v>0.0</v>
       </c>
-      <c r="H24" t="n" s="456">
+      <c r="H24" t="n" s="575">
         <v>2.0</v>
       </c>
-      <c r="J24" t="s" s="455">
+      <c r="J24" t="s" s="574">
         <v>22</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="465">
+      <c r="B25" t="s" s="584">
         <v>88</v>
       </c>
-      <c r="C25" t="s" s="461">
+      <c r="C25" t="s" s="580">
         <v>18</v>
       </c>
-      <c r="D25" t="n" s="464">
+      <c r="D25" t="n" s="583">
         <v>0.0</v>
       </c>
-      <c r="E25" t="n" s="463">
+      <c r="E25" t="n" s="582">
         <v>1.0</v>
       </c>
-      <c r="F25" t="n" s="462">
+      <c r="F25" t="n" s="581">
         <v>8.0</v>
       </c>
-      <c r="J25" t="s" s="460">
+      <c r="J25" t="s" s="579">
         <v>6</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="485">
+      <c r="B26" t="s" s="604">
         <v>89</v>
       </c>
-      <c r="C26" t="s" s="468">
+      <c r="C26" t="s" s="587">
         <v>86</v>
       </c>
-      <c r="D26" t="n" s="469">
+      <c r="D26" t="n" s="588">
         <v>1.0</v>
       </c>
-      <c r="E26" t="n" s="470">
+      <c r="E26" t="n" s="589">
         <v>0.0</v>
       </c>
-      <c r="F26" t="n" s="467">
+      <c r="F26" t="n" s="586">
         <v>8.0</v>
       </c>
-      <c r="J26" t="s" s="466">
+      <c r="J26" t="s" s="585">
         <v>12</v>
       </c>
     </row>
     <row r="27">
-      <c r="C27" t="s" s="472">
+      <c r="C27" t="s" s="591">
         <v>86</v>
       </c>
-      <c r="D27" t="n" s="474">
+      <c r="D27" t="n" s="593">
         <v>1.0</v>
       </c>
-      <c r="E27" t="n" s="475">
+      <c r="E27" t="n" s="594">
         <v>0.0</v>
       </c>
-      <c r="F27" t="n" s="473">
+      <c r="F27" t="n" s="592">
         <v>8.0</v>
       </c>
-      <c r="J27" t="s" s="471">
+      <c r="J27" t="s" s="590">
         <v>14</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s" s="477">
+      <c r="C28" t="s" s="596">
         <v>18</v>
       </c>
-      <c r="D28" t="n" s="479">
+      <c r="D28" t="n" s="598">
         <v>1.0</v>
       </c>
-      <c r="E28" t="n" s="480">
+      <c r="E28" t="n" s="599">
         <v>0.0</v>
       </c>
-      <c r="F28" t="n" s="478">
+      <c r="F28" t="n" s="597">
         <v>8.0</v>
       </c>
-      <c r="J28" t="s" s="476">
+      <c r="J28" t="s" s="595">
         <v>14</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s" s="484">
+      <c r="C29" t="s" s="603">
         <v>86</v>
       </c>
-      <c r="G29" t="n" s="483">
+      <c r="G29" t="n" s="602">
         <v>0.0</v>
       </c>
-      <c r="H29" t="n" s="482">
+      <c r="H29" t="n" s="601">
         <v>2.0</v>
       </c>
-      <c r="J29" t="s" s="481">
+      <c r="J29" t="s" s="600">
         <v>22</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="491">
+      <c r="B30" t="s" s="610">
         <v>90</v>
       </c>
-      <c r="C30" t="s" s="487">
+      <c r="C30" t="s" s="606">
         <v>18</v>
       </c>
-      <c r="D30" t="n" s="490">
+      <c r="D30" t="n" s="609">
         <v>0.0</v>
       </c>
-      <c r="E30" t="n" s="489">
+      <c r="E30" t="n" s="608">
         <v>1.0</v>
       </c>
-      <c r="F30" t="n" s="488">
+      <c r="F30" t="n" s="607">
         <v>8.0</v>
       </c>
-      <c r="J30" t="s" s="486">
+      <c r="J30" t="s" s="605">
         <v>14</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="501">
+      <c r="B31" t="s" s="620">
         <v>91</v>
       </c>
-      <c r="C31" t="s" s="493">
+      <c r="C31" t="s" s="612">
         <v>18</v>
       </c>
-      <c r="D31" t="n" s="495">
+      <c r="D31" t="n" s="614">
         <v>1.0</v>
       </c>
-      <c r="E31" t="n" s="496">
+      <c r="E31" t="n" s="615">
         <v>0.0</v>
       </c>
-      <c r="F31" t="n" s="494">
+      <c r="F31" t="n" s="613">
         <v>25.0</v>
       </c>
-      <c r="J31" t="s" s="492">
+      <c r="J31" t="s" s="611">
         <v>14</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s" s="500">
+      <c r="C32" t="s" s="619">
         <v>18</v>
       </c>
-      <c r="G32" t="n" s="498">
+      <c r="G32" t="n" s="617">
         <v>2.0</v>
       </c>
-      <c r="H32" t="n" s="499">
+      <c r="H32" t="n" s="618">
         <v>0.0</v>
       </c>
-      <c r="J32" t="s" s="497">
+      <c r="J32" t="s" s="616">
         <v>8</v>
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="507">
+      <c r="B33" t="s" s="626">
         <v>92</v>
       </c>
-      <c r="C33" t="s" s="503">
+      <c r="C33" t="s" s="622">
         <v>18</v>
       </c>
-      <c r="D33" t="n" s="506">
+      <c r="D33" t="n" s="625">
         <v>0.0</v>
       </c>
-      <c r="E33" t="n" s="505">
+      <c r="E33" t="n" s="624">
         <v>1.0</v>
       </c>
-      <c r="F33" t="n" s="504">
+      <c r="F33" t="n" s="623">
         <v>25.0</v>
       </c>
-      <c r="J33" t="s" s="502">
+      <c r="J33" t="s" s="621">
         <v>14</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="575">
+      <c r="A34" t="s" s="694">
         <v>100</v>
       </c>
-      <c r="B34" t="s" s="523">
+      <c r="B34" t="s" s="642">
         <v>95</v>
       </c>
-      <c r="C34" t="s" s="511">
+      <c r="C34" t="s" s="630">
         <v>94</v>
       </c>
-      <c r="D34" t="n" s="512">
+      <c r="D34" t="n" s="631">
         <v>1.0</v>
       </c>
-      <c r="E34" t="n" s="513">
+      <c r="E34" t="n" s="632">
         <v>0.0</v>
       </c>
-      <c r="F34" t="n" s="510">
+      <c r="F34" t="n" s="629">
         <v>14.0</v>
       </c>
-      <c r="J34" t="s" s="509">
+      <c r="J34" t="s" s="628">
         <v>12</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s" s="515">
+      <c r="C35" t="s" s="634">
         <v>94</v>
       </c>
-      <c r="D35" t="n" s="517">
+      <c r="D35" t="n" s="636">
         <v>1.0</v>
       </c>
-      <c r="E35" t="n" s="518">
+      <c r="E35" t="n" s="637">
         <v>0.0</v>
       </c>
-      <c r="F35" t="n" s="516">
+      <c r="F35" t="n" s="635">
         <v>4.0</v>
       </c>
-      <c r="J35" t="s" s="514">
+      <c r="J35" t="s" s="633">
         <v>14</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s" s="522">
+      <c r="C36" t="s" s="641">
         <v>94</v>
       </c>
-      <c r="G36" t="n" s="521">
+      <c r="G36" t="n" s="640">
         <v>0.0</v>
       </c>
-      <c r="H36" t="n" s="520">
+      <c r="H36" t="n" s="639">
         <v>2.0</v>
       </c>
-      <c r="J36" t="s" s="519">
+      <c r="J36" t="s" s="638">
         <v>22</v>
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="558">
+      <c r="B37" t="s" s="677">
         <v>98</v>
       </c>
-      <c r="C37" t="s" s="526">
+      <c r="C37" t="s" s="645">
         <v>94</v>
       </c>
-      <c r="D37" t="n" s="527">
+      <c r="D37" t="n" s="646">
         <v>1.0</v>
       </c>
-      <c r="E37" t="n" s="528">
+      <c r="E37" t="n" s="647">
         <v>0.0</v>
       </c>
-      <c r="F37" t="n" s="525">
+      <c r="F37" t="n" s="644">
         <v>8.0</v>
       </c>
-      <c r="J37" t="s" s="524">
+      <c r="J37" t="s" s="643">
         <v>12</v>
       </c>
     </row>
     <row r="38">
-      <c r="C38" t="s" s="531">
+      <c r="C38" t="s" s="650">
         <v>94</v>
       </c>
-      <c r="D38" t="n" s="532">
+      <c r="D38" t="n" s="651">
         <v>1.0</v>
       </c>
-      <c r="E38" t="n" s="533">
+      <c r="E38" t="n" s="652">
         <v>0.0</v>
       </c>
-      <c r="F38" t="n" s="530">
+      <c r="F38" t="n" s="649">
         <v>2.0</v>
       </c>
-      <c r="J38" t="s" s="529">
+      <c r="J38" t="s" s="648">
         <v>6</v>
       </c>
     </row>
     <row r="39">
-      <c r="C39" t="s" s="536">
+      <c r="C39" t="s" s="655">
         <v>96</v>
       </c>
-      <c r="D39" t="n" s="537">
+      <c r="D39" t="n" s="656">
         <v>1.0</v>
       </c>
-      <c r="E39" t="n" s="538">
+      <c r="E39" t="n" s="657">
         <v>0.0</v>
       </c>
-      <c r="F39" t="n" s="535">
+      <c r="F39" t="n" s="654">
         <v>12.0</v>
       </c>
-      <c r="J39" t="s" s="534">
+      <c r="J39" t="s" s="653">
         <v>12</v>
       </c>
     </row>
     <row r="40">
-      <c r="C40" t="s" s="540">
+      <c r="C40" t="s" s="659">
         <v>96</v>
       </c>
-      <c r="D40" t="n" s="542">
+      <c r="D40" t="n" s="661">
         <v>1.0</v>
       </c>
-      <c r="E40" t="n" s="543">
+      <c r="E40" t="n" s="662">
         <v>0.0</v>
       </c>
-      <c r="F40" t="n" s="541">
+      <c r="F40" t="n" s="660">
         <v>14.0</v>
       </c>
-      <c r="J40" t="s" s="539">
+      <c r="J40" t="s" s="658">
         <v>14</v>
       </c>
     </row>
     <row r="41">
-      <c r="C41" t="s" s="546">
+      <c r="C41" t="s" s="665">
         <v>97</v>
       </c>
-      <c r="D41" t="n" s="547">
+      <c r="D41" t="n" s="666">
         <v>1.0</v>
       </c>
-      <c r="E41" t="n" s="548">
+      <c r="E41" t="n" s="667">
         <v>0.0</v>
       </c>
-      <c r="F41" t="n" s="545">
+      <c r="F41" t="n" s="664">
         <v>4.0</v>
       </c>
-      <c r="J41" t="s" s="544">
+      <c r="J41" t="s" s="663">
         <v>6</v>
       </c>
     </row>
     <row r="42">
-      <c r="C42" t="s" s="550">
+      <c r="C42" t="s" s="669">
         <v>97</v>
       </c>
-      <c r="D42" t="n" s="552">
+      <c r="D42" t="n" s="671">
         <v>1.0</v>
       </c>
-      <c r="E42" t="n" s="553">
+      <c r="E42" t="n" s="672">
         <v>0.0</v>
       </c>
-      <c r="F42" t="n" s="551">
+      <c r="F42" t="n" s="670">
         <v>6.0</v>
       </c>
-      <c r="J42" t="s" s="549">
+      <c r="J42" t="s" s="668">
         <v>14</v>
       </c>
     </row>
     <row r="43">
-      <c r="C43" t="s" s="557">
+      <c r="C43" t="s" s="676">
         <v>94</v>
       </c>
-      <c r="G43" t="n" s="556">
+      <c r="G43" t="n" s="675">
         <v>0.0</v>
       </c>
-      <c r="H43" t="n" s="555">
+      <c r="H43" t="n" s="674">
         <v>4.0</v>
       </c>
-      <c r="J43" t="s" s="554">
+      <c r="J43" t="s" s="673">
         <v>15</v>
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="574">
+      <c r="B44" t="s" s="693">
         <v>99</v>
       </c>
-      <c r="C44" t="s" s="560">
+      <c r="C44" t="s" s="679">
         <v>94</v>
       </c>
-      <c r="D44" t="n" s="563">
+      <c r="D44" t="n" s="682">
         <v>0.0</v>
       </c>
-      <c r="E44" t="n" s="562">
+      <c r="E44" t="n" s="681">
         <v>1.0</v>
       </c>
-      <c r="F44" t="n" s="561">
+      <c r="F44" t="n" s="680">
         <v>2.0</v>
       </c>
-      <c r="J44" t="s" s="559">
+      <c r="J44" t="s" s="678">
         <v>6</v>
       </c>
     </row>
     <row r="45">
-      <c r="C45" t="s" s="565">
+      <c r="C45" t="s" s="684">
         <v>96</v>
       </c>
-      <c r="D45" t="n" s="568">
+      <c r="D45" t="n" s="687">
         <v>0.0</v>
       </c>
-      <c r="E45" t="n" s="567">
+      <c r="E45" t="n" s="686">
         <v>1.0</v>
       </c>
-      <c r="F45" t="n" s="566">
+      <c r="F45" t="n" s="685">
         <v>4.0</v>
       </c>
-      <c r="J45" t="s" s="564">
+      <c r="J45" t="s" s="683">
         <v>6</v>
       </c>
     </row>
     <row r="46">
-      <c r="C46" t="s" s="570">
+      <c r="C46" t="s" s="689">
         <v>96</v>
       </c>
-      <c r="D46" t="n" s="573">
+      <c r="D46" t="n" s="692">
         <v>0.0</v>
       </c>
-      <c r="E46" t="n" s="572">
+      <c r="E46" t="n" s="691">
         <v>1.0</v>
       </c>
-      <c r="F46" t="n" s="571">
+      <c r="F46" t="n" s="690">
         <v>20.0</v>
       </c>
-      <c r="J46" t="s" s="569">
+      <c r="J46" t="s" s="688">
         <v>14</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="658">
+      <c r="A47" t="s" s="777">
         <v>109</v>
       </c>
-      <c r="B47" t="s" s="595">
+      <c r="B47" t="s" s="714">
         <v>102</v>
       </c>
-      <c r="C47" t="s" s="578">
+      <c r="C47" t="s" s="697">
         <v>101</v>
       </c>
-      <c r="D47" t="n" s="579">
+      <c r="D47" t="n" s="698">
         <v>1.0</v>
       </c>
-      <c r="E47" t="n" s="580">
+      <c r="E47" t="n" s="699">
         <v>0.0</v>
       </c>
-      <c r="F47" t="n" s="577">
+      <c r="F47" t="n" s="696">
         <v>10.0</v>
       </c>
-      <c r="J47" t="s" s="576">
+      <c r="J47" t="s" s="695">
         <v>12</v>
       </c>
     </row>
     <row r="48">
-      <c r="C48" t="s" s="583">
+      <c r="C48" t="s" s="702">
         <v>101</v>
       </c>
-      <c r="D48" t="n" s="584">
+      <c r="D48" t="n" s="703">
         <v>1.0</v>
       </c>
-      <c r="E48" t="n" s="585">
+      <c r="E48" t="n" s="704">
         <v>0.0</v>
       </c>
-      <c r="F48" t="n" s="582">
+      <c r="F48" t="n" s="701">
         <v>4.0</v>
       </c>
-      <c r="J48" t="s" s="581">
+      <c r="J48" t="s" s="700">
         <v>6</v>
       </c>
     </row>
     <row r="49">
-      <c r="C49" t="s" s="587">
+      <c r="C49" t="s" s="706">
         <v>101</v>
       </c>
-      <c r="D49" t="n" s="589">
+      <c r="D49" t="n" s="708">
         <v>1.0</v>
       </c>
-      <c r="E49" t="n" s="590">
+      <c r="E49" t="n" s="709">
         <v>0.0</v>
       </c>
-      <c r="F49" t="n" s="588">
+      <c r="F49" t="n" s="707">
         <v>10.0</v>
       </c>
-      <c r="J49" t="s" s="586">
+      <c r="J49" t="s" s="705">
         <v>14</v>
       </c>
     </row>
     <row r="50">
-      <c r="C50" t="s" s="594">
+      <c r="C50" t="s" s="713">
         <v>101</v>
       </c>
-      <c r="G50" t="n" s="592">
+      <c r="G50" t="n" s="711">
         <v>2.0</v>
       </c>
-      <c r="H50" t="n" s="593">
+      <c r="H50" t="n" s="712">
         <v>0.0</v>
       </c>
-      <c r="J50" t="s" s="591">
+      <c r="J50" t="s" s="710">
         <v>8</v>
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="606">
+      <c r="B51" t="s" s="725">
         <v>103</v>
       </c>
-      <c r="C51" t="s" s="597">
+      <c r="C51" t="s" s="716">
         <v>101</v>
       </c>
-      <c r="D51" t="n" s="600">
+      <c r="D51" t="n" s="719">
         <v>0.0</v>
       </c>
-      <c r="E51" t="n" s="599">
+      <c r="E51" t="n" s="718">
         <v>1.0</v>
       </c>
-      <c r="F51" t="n" s="598">
+      <c r="F51" t="n" s="717">
         <v>4.0</v>
       </c>
-      <c r="J51" t="s" s="596">
+      <c r="J51" t="s" s="715">
         <v>6</v>
       </c>
     </row>
     <row r="52">
-      <c r="C52" t="s" s="602">
+      <c r="C52" t="s" s="721">
         <v>101</v>
       </c>
-      <c r="D52" t="n" s="605">
+      <c r="D52" t="n" s="724">
         <v>0.0</v>
       </c>
-      <c r="E52" t="n" s="604">
+      <c r="E52" t="n" s="723">
         <v>1.0</v>
       </c>
-      <c r="F52" t="n" s="603">
+      <c r="F52" t="n" s="722">
         <v>10.0</v>
       </c>
-      <c r="J52" t="s" s="601">
+      <c r="J52" t="s" s="720">
         <v>14</v>
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="621">
+      <c r="B53" t="s" s="740">
         <v>105</v>
       </c>
-      <c r="C53" t="s" s="609">
+      <c r="C53" t="s" s="728">
         <v>104</v>
       </c>
-      <c r="D53" t="n" s="610">
+      <c r="D53" t="n" s="729">
         <v>1.0</v>
       </c>
-      <c r="E53" t="n" s="611">
+      <c r="E53" t="n" s="730">
         <v>0.0</v>
       </c>
-      <c r="F53" t="n" s="608">
+      <c r="F53" t="n" s="727">
         <v>8.0</v>
       </c>
-      <c r="J53" t="s" s="607">
+      <c r="J53" t="s" s="726">
         <v>12</v>
       </c>
     </row>
     <row r="54">
-      <c r="C54" t="s" s="613">
+      <c r="C54" t="s" s="732">
         <v>104</v>
       </c>
-      <c r="D54" t="n" s="615">
+      <c r="D54" t="n" s="734">
         <v>1.0</v>
       </c>
-      <c r="E54" t="n" s="616">
+      <c r="E54" t="n" s="735">
         <v>0.0</v>
       </c>
-      <c r="F54" t="n" s="614">
+      <c r="F54" t="n" s="733">
         <v>10.0</v>
       </c>
-      <c r="J54" t="s" s="612">
+      <c r="J54" t="s" s="731">
         <v>14</v>
       </c>
     </row>
     <row r="55">
-      <c r="C55" t="s" s="620">
+      <c r="C55" t="s" s="739">
         <v>104</v>
       </c>
-      <c r="G55" t="n" s="618">
+      <c r="G55" t="n" s="737">
         <v>2.0</v>
       </c>
-      <c r="H55" t="n" s="619">
+      <c r="H55" t="n" s="738">
         <v>0.0</v>
       </c>
-      <c r="J55" t="s" s="617">
+      <c r="J55" t="s" s="736">
         <v>8</v>
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="646">
+      <c r="B56" t="s" s="765">
         <v>107</v>
       </c>
-      <c r="C56" t="s" s="624">
+      <c r="C56" t="s" s="743">
         <v>34</v>
       </c>
-      <c r="D56" t="n" s="625">
+      <c r="D56" t="n" s="744">
         <v>1.0</v>
       </c>
-      <c r="E56" t="n" s="626">
+      <c r="E56" t="n" s="745">
         <v>0.0</v>
       </c>
-      <c r="F56" t="n" s="623">
+      <c r="F56" t="n" s="742">
         <v>4.0</v>
       </c>
-      <c r="J56" t="s" s="622">
+      <c r="J56" t="s" s="741">
         <v>12</v>
       </c>
     </row>
     <row r="57">
-      <c r="C57" t="s" s="628">
+      <c r="C57" t="s" s="747">
         <v>34</v>
       </c>
-      <c r="D57" t="n" s="630">
+      <c r="D57" t="n" s="749">
         <v>1.0</v>
       </c>
-      <c r="E57" t="n" s="631">
+      <c r="E57" t="n" s="750">
         <v>0.0</v>
       </c>
-      <c r="F57" t="n" s="629">
+      <c r="F57" t="n" s="748">
         <v>10.0</v>
       </c>
-      <c r="J57" t="s" s="627">
+      <c r="J57" t="s" s="746">
         <v>14</v>
       </c>
     </row>
     <row r="58">
-      <c r="C58" t="s" s="634">
+      <c r="C58" t="s" s="753">
         <v>106</v>
       </c>
-      <c r="D58" t="n" s="635">
+      <c r="D58" t="n" s="754">
         <v>1.0</v>
       </c>
-      <c r="E58" t="n" s="636">
+      <c r="E58" t="n" s="755">
         <v>0.0</v>
       </c>
-      <c r="F58" t="n" s="633">
+      <c r="F58" t="n" s="752">
         <v>4.0</v>
       </c>
-      <c r="J58" t="s" s="632">
+      <c r="J58" t="s" s="751">
         <v>12</v>
       </c>
     </row>
     <row r="59">
-      <c r="C59" t="s" s="639">
+      <c r="C59" t="s" s="758">
         <v>106</v>
       </c>
-      <c r="D59" t="n" s="640">
+      <c r="D59" t="n" s="759">
         <v>1.0</v>
       </c>
-      <c r="E59" t="n" s="641">
+      <c r="E59" t="n" s="760">
         <v>0.0</v>
       </c>
-      <c r="F59" t="n" s="638">
+      <c r="F59" t="n" s="757">
         <v>4.0</v>
       </c>
-      <c r="J59" t="s" s="637">
+      <c r="J59" t="s" s="756">
         <v>6</v>
       </c>
     </row>
     <row r="60">
-      <c r="C60" t="s" s="645">
+      <c r="C60" t="s" s="764">
         <v>34</v>
       </c>
-      <c r="G60" t="n" s="643">
+      <c r="G60" t="n" s="762">
         <v>2.0</v>
       </c>
-      <c r="H60" t="n" s="644">
+      <c r="H60" t="n" s="763">
         <v>0.0</v>
       </c>
-      <c r="J60" t="s" s="642">
+      <c r="J60" t="s" s="761">
         <v>8</v>
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="657">
+      <c r="B61" t="s" s="776">
         <v>108</v>
       </c>
-      <c r="C61" t="s" s="648">
+      <c r="C61" t="s" s="767">
         <v>34</v>
       </c>
-      <c r="D61" t="n" s="651">
+      <c r="D61" t="n" s="770">
         <v>0.0</v>
       </c>
-      <c r="E61" t="n" s="650">
+      <c r="E61" t="n" s="769">
         <v>1.0</v>
       </c>
-      <c r="F61" t="n" s="649">
+      <c r="F61" t="n" s="768">
         <v>10.0</v>
       </c>
-      <c r="J61" t="s" s="647">
+      <c r="J61" t="s" s="766">
         <v>14</v>
       </c>
     </row>
     <row r="62">
-      <c r="C62" t="s" s="653">
+      <c r="C62" t="s" s="772">
         <v>106</v>
       </c>
-      <c r="D62" t="n" s="656">
+      <c r="D62" t="n" s="775">
         <v>0.0</v>
       </c>
-      <c r="E62" t="n" s="655">
+      <c r="E62" t="n" s="774">
         <v>1.0</v>
       </c>
-      <c r="F62" t="n" s="654">
+      <c r="F62" t="n" s="773">
         <v>4.0</v>
       </c>
-      <c r="J62" t="s" s="652">
+      <c r="J62" t="s" s="771">
         <v>6</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="710">
+      <c r="A63" t="s" s="829">
         <v>116</v>
       </c>
-      <c r="B63" t="s" s="673">
+      <c r="B63" t="s" s="792">
         <v>110</v>
       </c>
-      <c r="C63" t="s" s="661">
+      <c r="C63" t="s" s="780">
         <v>86</v>
       </c>
-      <c r="D63" t="n" s="662">
+      <c r="D63" t="n" s="781">
         <v>1.0</v>
       </c>
-      <c r="E63" t="n" s="663">
+      <c r="E63" t="n" s="782">
         <v>0.0</v>
       </c>
-      <c r="F63" t="n" s="660">
+      <c r="F63" t="n" s="779">
         <v>8.0</v>
       </c>
-      <c r="J63" t="s" s="659">
+      <c r="J63" t="s" s="778">
         <v>12</v>
       </c>
     </row>
     <row r="64">
-      <c r="C64" t="s" s="666">
+      <c r="C64" t="s" s="785">
         <v>86</v>
       </c>
-      <c r="D64" t="n" s="667">
+      <c r="D64" t="n" s="786">
         <v>1.0</v>
       </c>
-      <c r="E64" t="n" s="668">
+      <c r="E64" t="n" s="787">
         <v>0.0</v>
       </c>
-      <c r="F64" t="n" s="665">
+      <c r="F64" t="n" s="784">
         <v>8.0</v>
       </c>
-      <c r="J64" t="s" s="664">
+      <c r="J64" t="s" s="783">
         <v>6</v>
       </c>
     </row>
     <row r="65">
-      <c r="C65" t="s" s="672">
+      <c r="C65" t="s" s="791">
         <v>86</v>
       </c>
-      <c r="G65" t="n" s="671">
+      <c r="G65" t="n" s="790">
         <v>0.0</v>
       </c>
-      <c r="H65" t="n" s="670">
+      <c r="H65" t="n" s="789">
         <v>2.0</v>
       </c>
-      <c r="J65" t="s" s="669">
+      <c r="J65" t="s" s="788">
         <v>22</v>
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="679">
+      <c r="B66" t="s" s="798">
         <v>111</v>
       </c>
-      <c r="C66" t="s" s="675">
+      <c r="C66" t="s" s="794">
         <v>18</v>
       </c>
-      <c r="D66" t="n" s="678">
+      <c r="D66" t="n" s="797">
         <v>0.0</v>
       </c>
-      <c r="E66" t="n" s="677">
+      <c r="E66" t="n" s="796">
         <v>1.0</v>
       </c>
-      <c r="F66" t="n" s="676">
+      <c r="F66" t="n" s="795">
         <v>8.0</v>
       </c>
-      <c r="J66" t="s" s="674">
+      <c r="J66" t="s" s="793">
         <v>6</v>
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="699">
+      <c r="B67" t="s" s="818">
         <v>114</v>
       </c>
-      <c r="C67" t="s" s="682">
+      <c r="C67" t="s" s="801">
         <v>112</v>
       </c>
-      <c r="D67" t="n" s="683">
+      <c r="D67" t="n" s="802">
         <v>1.0</v>
       </c>
-      <c r="E67" t="n" s="684">
+      <c r="E67" t="n" s="803">
         <v>0.0</v>
       </c>
-      <c r="F67" t="n" s="681">
+      <c r="F67" t="n" s="800">
         <v>6.0</v>
       </c>
-      <c r="J67" t="s" s="680">
+      <c r="J67" t="s" s="799">
         <v>12</v>
       </c>
     </row>
     <row r="68">
-      <c r="C68" t="s" s="687">
+      <c r="C68" t="s" s="806">
         <v>112</v>
       </c>
-      <c r="D68" t="n" s="688">
+      <c r="D68" t="n" s="807">
         <v>1.0</v>
       </c>
-      <c r="E68" t="n" s="689">
+      <c r="E68" t="n" s="808">
         <v>0.0</v>
       </c>
-      <c r="F68" t="n" s="686">
+      <c r="F68" t="n" s="805">
         <v>6.0</v>
       </c>
-      <c r="J68" t="s" s="685">
+      <c r="J68" t="s" s="804">
         <v>6</v>
       </c>
     </row>
     <row r="69">
-      <c r="C69" t="s" s="692">
+      <c r="C69" t="s" s="811">
         <v>113</v>
       </c>
-      <c r="D69" t="n" s="693">
+      <c r="D69" t="n" s="812">
         <v>1.0</v>
       </c>
-      <c r="E69" t="n" s="694">
+      <c r="E69" t="n" s="813">
         <v>0.0</v>
       </c>
-      <c r="F69" t="n" s="691">
+      <c r="F69" t="n" s="810">
         <v>4.0</v>
       </c>
-      <c r="J69" t="s" s="690">
+      <c r="J69" t="s" s="809">
         <v>6</v>
       </c>
     </row>
     <row r="70">
-      <c r="C70" t="s" s="698">
+      <c r="C70" t="s" s="817">
         <v>112</v>
       </c>
-      <c r="G70" t="n" s="696">
+      <c r="G70" t="n" s="815">
         <v>2.0</v>
       </c>
-      <c r="H70" t="n" s="697">
+      <c r="H70" t="n" s="816">
         <v>0.0</v>
       </c>
-      <c r="J70" t="s" s="695">
+      <c r="J70" t="s" s="814">
         <v>8</v>
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="709">
+      <c r="B71" t="s" s="828">
         <v>115</v>
       </c>
-      <c r="C71" t="s" s="701">
+      <c r="C71" t="s" s="820">
         <v>112</v>
       </c>
-      <c r="D71" t="n" s="703">
+      <c r="D71" t="n" s="822">
         <v>1.0</v>
       </c>
-      <c r="E71" t="n" s="704">
+      <c r="E71" t="n" s="823">
         <v>0.0</v>
       </c>
-      <c r="F71" t="n" s="702">
+      <c r="F71" t="n" s="821">
         <v>25.0</v>
       </c>
-      <c r="J71" t="s" s="700">
+      <c r="J71" t="s" s="819">
         <v>14</v>
       </c>
     </row>
     <row r="72">
-      <c r="C72" t="s" s="708">
+      <c r="C72" t="s" s="827">
         <v>112</v>
       </c>
-      <c r="G72" t="n" s="706">
+      <c r="G72" t="n" s="825">
         <v>2.0</v>
       </c>
-      <c r="H72" t="n" s="707">
+      <c r="H72" t="n" s="826">
         <v>0.0</v>
       </c>
-      <c r="J72" t="s" s="705">
+      <c r="J72" t="s" s="824">
         <v>8</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="776">
+      <c r="A73" t="s" s="895">
         <v>125</v>
       </c>
-      <c r="B73" t="s" s="720">
+      <c r="B73" t="s" s="839">
         <v>117</v>
       </c>
-      <c r="C73" t="s" s="713">
+      <c r="C73" t="s" s="832">
         <v>7</v>
       </c>
-      <c r="D73" t="n" s="714">
+      <c r="D73" t="n" s="833">
         <v>1.0</v>
       </c>
-      <c r="E73" t="n" s="715">
+      <c r="E73" t="n" s="834">
         <v>0.0</v>
       </c>
-      <c r="F73" t="n" s="712">
+      <c r="F73" t="n" s="831">
         <v>40.0</v>
       </c>
-      <c r="J73" t="s" s="711">
+      <c r="J73" t="s" s="830">
         <v>6</v>
       </c>
     </row>
     <row r="74">
-      <c r="C74" t="s" s="719">
+      <c r="C74" t="s" s="838">
         <v>7</v>
       </c>
-      <c r="G74" t="n" s="718">
+      <c r="G74" t="n" s="837">
         <v>0.0</v>
       </c>
-      <c r="H74" t="n" s="717">
+      <c r="H74" t="n" s="836">
         <v>4.0</v>
       </c>
-      <c r="J74" t="s" s="716">
+      <c r="J74" t="s" s="835">
         <v>15</v>
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="730">
+      <c r="B75" t="s" s="849">
         <v>119</v>
       </c>
-      <c r="C75" t="s" s="723">
+      <c r="C75" t="s" s="842">
         <v>118</v>
       </c>
-      <c r="D75" t="n" s="724">
+      <c r="D75" t="n" s="843">
         <v>1.0</v>
       </c>
-      <c r="E75" t="n" s="725">
+      <c r="E75" t="n" s="844">
         <v>0.0</v>
       </c>
-      <c r="F75" t="n" s="722">
+      <c r="F75" t="n" s="841">
         <v>10.0</v>
       </c>
-      <c r="J75" t="s" s="721">
+      <c r="J75" t="s" s="840">
         <v>12</v>
       </c>
     </row>
     <row r="76">
-      <c r="C76" t="s" s="729">
+      <c r="C76" t="s" s="848">
         <v>118</v>
       </c>
-      <c r="G76" t="n" s="728">
+      <c r="G76" t="n" s="847">
         <v>0.0</v>
       </c>
-      <c r="H76" t="n" s="727">
+      <c r="H76" t="n" s="846">
         <v>2.0</v>
       </c>
-      <c r="J76" t="s" s="726">
+      <c r="J76" t="s" s="845">
         <v>22</v>
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="740">
+      <c r="B77" t="s" s="859">
         <v>120</v>
       </c>
-      <c r="C77" t="s" s="733">
+      <c r="C77" t="s" s="852">
         <v>118</v>
       </c>
-      <c r="D77" t="n" s="734">
+      <c r="D77" t="n" s="853">
         <v>1.0</v>
       </c>
-      <c r="E77" t="n" s="735">
+      <c r="E77" t="n" s="854">
         <v>0.0</v>
       </c>
-      <c r="F77" t="n" s="732">
+      <c r="F77" t="n" s="851">
         <v>10.0</v>
       </c>
-      <c r="J77" t="s" s="731">
+      <c r="J77" t="s" s="850">
         <v>12</v>
       </c>
     </row>
     <row r="78">
-      <c r="C78" t="s" s="739">
+      <c r="C78" t="s" s="858">
         <v>118</v>
       </c>
-      <c r="G78" t="n" s="738">
+      <c r="G78" t="n" s="857">
         <v>0.0</v>
       </c>
-      <c r="H78" t="n" s="737">
+      <c r="H78" t="n" s="856">
         <v>2.0</v>
       </c>
-      <c r="J78" t="s" s="736">
+      <c r="J78" t="s" s="855">
         <v>22</v>
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="755">
+      <c r="B79" t="s" s="874">
         <v>122</v>
       </c>
-      <c r="C79" t="s" s="743">
+      <c r="C79" t="s" s="862">
         <v>121</v>
       </c>
-      <c r="D79" t="n" s="744">
+      <c r="D79" t="n" s="863">
         <v>1.0</v>
       </c>
-      <c r="E79" t="n" s="745">
+      <c r="E79" t="n" s="864">
         <v>0.0</v>
       </c>
-      <c r="F79" t="n" s="742">
+      <c r="F79" t="n" s="861">
         <v>2.0</v>
       </c>
-      <c r="J79" t="s" s="741">
+      <c r="J79" t="s" s="860">
         <v>12</v>
       </c>
     </row>
     <row r="80">
-      <c r="C80" t="s" s="748">
+      <c r="C80" t="s" s="867">
         <v>121</v>
       </c>
-      <c r="D80" t="n" s="749">
+      <c r="D80" t="n" s="868">
         <v>1.0</v>
       </c>
-      <c r="E80" t="n" s="750">
+      <c r="E80" t="n" s="869">
         <v>0.0</v>
       </c>
-      <c r="F80" t="n" s="747">
+      <c r="F80" t="n" s="866">
         <v>6.0</v>
       </c>
-      <c r="J80" t="s" s="746">
+      <c r="J80" t="s" s="865">
         <v>6</v>
       </c>
     </row>
     <row r="81">
-      <c r="C81" t="s" s="754">
+      <c r="C81" t="s" s="873">
         <v>121</v>
       </c>
-      <c r="G81" t="n" s="753">
+      <c r="G81" t="n" s="872">
         <v>0.0</v>
       </c>
-      <c r="H81" t="n" s="752">
+      <c r="H81" t="n" s="871">
         <v>2.0</v>
       </c>
-      <c r="J81" t="s" s="751">
+      <c r="J81" t="s" s="870">
         <v>22</v>
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="765">
+      <c r="B82" t="s" s="884">
         <v>124</v>
       </c>
-      <c r="C82" t="s" s="758">
+      <c r="C82" t="s" s="877">
         <v>123</v>
       </c>
-      <c r="D82" t="n" s="759">
+      <c r="D82" t="n" s="878">
         <v>1.0</v>
       </c>
-      <c r="E82" t="n" s="760">
+      <c r="E82" t="n" s="879">
         <v>0.0</v>
       </c>
-      <c r="F82" t="n" s="757">
+      <c r="F82" t="n" s="876">
         <v>12.0</v>
       </c>
-      <c r="J82" t="s" s="756">
+      <c r="J82" t="s" s="875">
         <v>12</v>
       </c>
     </row>
     <row r="83">
-      <c r="C83" t="s" s="764">
+      <c r="C83" t="s" s="883">
         <v>123</v>
       </c>
-      <c r="G83" t="n" s="762">
+      <c r="G83" t="n" s="881">
         <v>2.0</v>
       </c>
-      <c r="H83" t="n" s="763">
+      <c r="H83" t="n" s="882">
         <v>0.0</v>
       </c>
-      <c r="J83" t="s" s="761">
+      <c r="J83" t="s" s="880">
         <v>8</v>
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="775">
+      <c r="B84" t="s" s="894">
         <v>57</v>
       </c>
-      <c r="C84" t="s" s="767">
+      <c r="C84" t="s" s="886">
         <v>56</v>
       </c>
-      <c r="D84" t="n" s="769">
+      <c r="D84" t="n" s="888">
         <v>1.0</v>
       </c>
-      <c r="E84" t="n" s="770">
+      <c r="E84" t="n" s="889">
         <v>0.0</v>
       </c>
-      <c r="F84" t="n" s="768">
+      <c r="F84" t="n" s="887">
         <v>1.0</v>
       </c>
-      <c r="J84" t="s" s="766">
+      <c r="J84" t="s" s="885">
         <v>14</v>
       </c>
     </row>
     <row r="85">
-      <c r="C85" t="s" s="774">
+      <c r="C85" t="s" s="893">
         <v>56</v>
       </c>
-      <c r="G85" t="n" s="773">
+      <c r="G85" t="n" s="892">
         <v>0.0</v>
       </c>
-      <c r="H85" t="n" s="772">
+      <c r="H85" t="n" s="891">
         <v>4.0</v>
       </c>
-      <c r="J85" t="s" s="771">
+      <c r="J85" t="s" s="890">
         <v>15</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="785">
+      <c r="A86" t="s" s="904">
         <v>127</v>
       </c>
-      <c r="B86" t="s" s="784">
+      <c r="B86" t="s" s="903">
         <v>126</v>
       </c>
-      <c r="C86" t="s" s="777">
+      <c r="C86" t="s" s="896">
         <v>56</v>
       </c>
-      <c r="D86" t="n" s="778">
+      <c r="D86" t="n" s="897">
         <v>1.0</v>
       </c>
-      <c r="E86" t="n" s="779">
+      <c r="E86" t="n" s="898">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
-      <c r="C87" t="s" s="783">
+      <c r="C87" t="s" s="902">
         <v>56</v>
       </c>
-      <c r="G87" t="n" s="782">
+      <c r="G87" t="n" s="901">
         <v>0.0</v>
       </c>
-      <c r="H87" t="n" s="781">
+      <c r="H87" t="n" s="900">
         <v>4.0</v>
       </c>
-      <c r="J87" t="s" s="780">
+      <c r="J87" t="s" s="899">
         <v>15</v>
       </c>
     </row>
@@ -10788,44 +13431,61 @@
     <mergeCell ref="A86:A87"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L3:N3"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="R5:T5"/>
     <mergeCell ref="R6:T6"/>
+    <mergeCell ref="R3:T3"/>
     <mergeCell ref="U5:W5"/>
     <mergeCell ref="U6:W6"/>
+    <mergeCell ref="U3:W3"/>
     <mergeCell ref="X5:Z5"/>
     <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA5:AC5"/>
     <mergeCell ref="AA6:AC6"/>
     <mergeCell ref="AD5:AF5"/>
     <mergeCell ref="AD6:AF6"/>
+    <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="AG5:AI5"/>
     <mergeCell ref="AG6:AI6"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AJ5:AL5"/>
     <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="AM5:AO5"/>
     <mergeCell ref="AM6:AO6"/>
+    <mergeCell ref="AM3:AO3"/>
     <mergeCell ref="AP5:AR5"/>
     <mergeCell ref="AP6:AR6"/>
+    <mergeCell ref="AP3:AR3"/>
     <mergeCell ref="AS5:AU5"/>
     <mergeCell ref="AS6:AU6"/>
+    <mergeCell ref="AS3:AU3"/>
     <mergeCell ref="AV5:AX5"/>
     <mergeCell ref="AV6:AX6"/>
+    <mergeCell ref="AV3:AX3"/>
     <mergeCell ref="AY5:BA5"/>
     <mergeCell ref="AY6:BA6"/>
     <mergeCell ref="BB5:BD5"/>
     <mergeCell ref="BB6:BD6"/>
     <mergeCell ref="BE5:BG5"/>
     <mergeCell ref="BE6:BG6"/>
+    <mergeCell ref="BE3:BG3"/>
     <mergeCell ref="BH5:BJ5"/>
     <mergeCell ref="BH6:BJ6"/>
+    <mergeCell ref="BH3:BJ3"/>
     <mergeCell ref="BK5:BM5"/>
     <mergeCell ref="BK6:BM6"/>
+    <mergeCell ref="BK3:BM3"/>
     <mergeCell ref="BN5:BP5"/>
     <mergeCell ref="BN6:BP6"/>
+    <mergeCell ref="BN3:BP3"/>
     <mergeCell ref="BQ5:BS5"/>
     <mergeCell ref="BQ6:BS6"/>
+    <mergeCell ref="BQ3:BS3"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
